--- a/Estudio_financiero_Estatica.xlsx
+++ b/Estudio_financiero_Estatica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda Dinamica" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="493">
   <si>
     <t>INFORMACIÓN PARA TENER EN CUENTA:</t>
   </si>
@@ -1459,6 +1459,57 @@
   </si>
   <si>
     <t>Saldo Final    SF=SI-Amort</t>
+  </si>
+  <si>
+    <t>CÁLCULOS DEL PUNTO DE EQUILIBRIO PE</t>
+  </si>
+  <si>
+    <t>*PE en Capacidad Instalada (%): PECI= CF/(IT-CV)</t>
+  </si>
+  <si>
+    <t>CF: Costos Fijos</t>
+  </si>
+  <si>
+    <t>IT: Ingresos Totales</t>
+  </si>
+  <si>
+    <t>CV:Costos Variables</t>
+  </si>
+  <si>
+    <t>PE en Capacidad Instalada PECI (%) =</t>
+  </si>
+  <si>
+    <t>*PE en Cantidades a Producir (Q): PECP=CF/(PU-CVu)</t>
+  </si>
+  <si>
+    <t>Pu:Precio unitario promedio</t>
+  </si>
+  <si>
+    <t>CVu:Costos Variable Unitario</t>
+  </si>
+  <si>
+    <t>PE en Capacidad a Producir PECP (Q)=</t>
+  </si>
+  <si>
+    <t>*PE en Volumen de Ventas ($): PEVV*=CF / (1-(CV/IT))</t>
+  </si>
+  <si>
+    <t>CV: Costos Variables</t>
+  </si>
+  <si>
+    <t>PE en Volumen de Ventas PEVV ($)=</t>
+  </si>
+  <si>
+    <t>*PE en No. de Dias año (dias): PEDA = PEVV*/(IT/N)</t>
+  </si>
+  <si>
+    <t>PEVV*: PE en Volumenes de Ventas ($)</t>
+  </si>
+  <si>
+    <t>N: Número de Días Laborales año</t>
+  </si>
+  <si>
+    <t>PE en No. de dias Año PEDA (dias)=</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1940,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2131,198 +2182,7 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2348,12 +2208,218 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4525,12 +4591,68 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="172">
+          <cell r="E172">
+            <v>48303010</v>
+          </cell>
+          <cell r="F172">
+            <v>51257190.600000001</v>
+          </cell>
+          <cell r="G172">
+            <v>54562907.989000008</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="E182">
+            <v>12346635.741124773</v>
+          </cell>
+          <cell r="F182">
+            <v>13306637.360800866</v>
+          </cell>
+          <cell r="G182">
+            <v>15177712.740460427</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="D188">
+            <v>16788.517449488325</v>
+          </cell>
+          <cell r="E188">
+            <v>14146.131828839389</v>
+          </cell>
+          <cell r="F188">
+            <v>12638.591204065677</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="D189">
+            <v>3239.7364841576418</v>
+          </cell>
+          <cell r="E189">
+            <v>3899.9523331772762</v>
+          </cell>
+          <cell r="F189">
+            <v>3955.6196873756653</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="O196">
+            <v>109601737.60430335</v>
+          </cell>
+          <cell r="P196">
+            <v>118369876.61264761</v>
+          </cell>
+          <cell r="Q196">
+            <v>136125358.10454476</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="9">
           <cell r="D9">
-            <v>10212776.344385484</v>
+            <v>6930614.0285976548</v>
           </cell>
         </row>
       </sheetData>
@@ -4839,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B95" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4869,36 +4991,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="A2" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="138"/>
+      <c r="D4" s="149"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4">
         <v>0.19</v>
       </c>
-      <c r="M4" s="141" t="s">
+      <c r="M4" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="142"/>
-      <c r="O4" s="140"/>
-      <c r="R4" s="132" t="s">
+      <c r="N4" s="153"/>
+      <c r="O4" s="151"/>
+      <c r="R4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="133"/>
+      <c r="S4" s="155"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="71" t="s">
@@ -4922,12 +5044,12 @@
       <c r="M5" s="6">
         <v>0.5</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="N5" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="140"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="135"/>
+      <c r="O5" s="151"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="157"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="71" t="s">
@@ -4942,10 +5064,10 @@
       <c r="M6" s="6">
         <v>0.5</v>
       </c>
-      <c r="N6" s="139" t="s">
+      <c r="N6" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="140"/>
+      <c r="O6" s="151"/>
       <c r="R6" s="7" t="s">
         <v>11</v>
       </c>
@@ -4968,24 +5090,24 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158"/>
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="10"/>
@@ -5192,31 +5314,31 @@
       </c>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="136"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="136"/>
-      <c r="T32" s="136"/>
-      <c r="U32" s="136"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="136"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="160"/>
+      <c r="R32" s="160"/>
+      <c r="S32" s="160"/>
+      <c r="T32" s="160"/>
+      <c r="U32" s="160"/>
+      <c r="V32" s="160"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="160"/>
     </row>
     <row r="33" spans="2:25" ht="27.75" customHeight="1">
       <c r="B33" s="11" t="s">
@@ -5290,7 +5412,7 @@
       </c>
     </row>
     <row r="34" spans="2:25">
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="159" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -5367,7 +5489,7 @@
       </c>
     </row>
     <row r="35" spans="2:25">
-      <c r="B35" s="127"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
@@ -5441,7 +5563,7 @@
       </c>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="127"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
@@ -5531,7 +5653,7 @@
       </c>
     </row>
     <row r="37" spans="2:25">
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="159" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -5608,7 +5730,7 @@
       </c>
     </row>
     <row r="38" spans="2:25">
-      <c r="B38" s="127"/>
+      <c r="B38" s="159"/>
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
@@ -5683,7 +5805,7 @@
       </c>
     </row>
     <row r="39" spans="2:25">
-      <c r="B39" s="127"/>
+      <c r="B39" s="159"/>
       <c r="C39" s="21" t="s">
         <v>51</v>
       </c>
@@ -5773,7 +5895,7 @@
       </c>
     </row>
     <row r="40" spans="2:25">
-      <c r="B40" s="127" t="s">
+      <c r="B40" s="159" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5850,7 +5972,7 @@
       </c>
     </row>
     <row r="41" spans="2:25">
-      <c r="B41" s="127"/>
+      <c r="B41" s="159"/>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
@@ -5925,7 +6047,7 @@
       </c>
     </row>
     <row r="42" spans="2:25">
-      <c r="B42" s="127"/>
+      <c r="B42" s="159"/>
       <c r="C42" s="21" t="s">
         <v>54</v>
       </c>
@@ -6104,54 +6226,54 @@
       </c>
     </row>
     <row r="47" spans="2:25">
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
     </row>
     <row r="48" spans="2:25" ht="27.75" customHeight="1">
-      <c r="B48" s="130" t="s">
+      <c r="B48" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="130"/>
+      <c r="C48" s="161"/>
       <c r="D48" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="126" t="s">
+      <c r="G48" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="H48" s="126"/>
-      <c r="J48" s="126" t="s">
+      <c r="H48" s="162"/>
+      <c r="J48" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="126"/>
-      <c r="L48" s="126"/>
+      <c r="K48" s="162"/>
+      <c r="L48" s="162"/>
       <c r="N48" s="30" t="s">
         <v>97</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q48" s="129" t="s">
+      <c r="Q48" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="R48" s="129"/>
-      <c r="S48" s="129"/>
-      <c r="T48" s="129"/>
-      <c r="U48" s="129"/>
-      <c r="W48" s="125" t="s">
+      <c r="R48" s="165"/>
+      <c r="S48" s="165"/>
+      <c r="T48" s="165"/>
+      <c r="U48" s="165"/>
+      <c r="W48" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="X48" s="125"/>
-      <c r="Y48" s="125"/>
+      <c r="X48" s="163"/>
+      <c r="Y48" s="163"/>
     </row>
     <row r="49" spans="2:25">
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="161" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -6185,19 +6307,19 @@
       <c r="O49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="127" t="s">
+      <c r="Q49" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="R49" s="128" t="s">
+      <c r="R49" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="S49" s="128" t="s">
+      <c r="S49" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="T49" s="128" t="s">
+      <c r="T49" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="U49" s="128"/>
+      <c r="U49" s="164"/>
       <c r="W49" s="34" t="s">
         <v>115</v>
       </c>
@@ -6209,7 +6331,7 @@
       </c>
     </row>
     <row r="50" spans="2:25">
-      <c r="B50" s="130"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
@@ -6242,9 +6364,9 @@
       <c r="O50" s="2">
         <v>8</v>
       </c>
-      <c r="Q50" s="127"/>
-      <c r="R50" s="128"/>
-      <c r="S50" s="128"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="164"/>
+      <c r="S50" s="164"/>
       <c r="T50" s="10" t="s">
         <v>104</v>
       </c>
@@ -6263,7 +6385,7 @@
       </c>
     </row>
     <row r="51" spans="2:25">
-      <c r="B51" s="130"/>
+      <c r="B51" s="161"/>
       <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
@@ -6320,7 +6442,7 @@
       </c>
     </row>
     <row r="52" spans="2:25">
-      <c r="B52" s="130"/>
+      <c r="B52" s="161"/>
       <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
@@ -6376,7 +6498,7 @@
       </c>
     </row>
     <row r="53" spans="2:25">
-      <c r="B53" s="130"/>
+      <c r="B53" s="161"/>
       <c r="C53" s="2" t="s">
         <v>61</v>
       </c>
@@ -6426,7 +6548,7 @@
       </c>
     </row>
     <row r="54" spans="2:25">
-      <c r="B54" s="130"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
@@ -6466,7 +6588,7 @@
       </c>
     </row>
     <row r="55" spans="2:25">
-      <c r="B55" s="130" t="s">
+      <c r="B55" s="161" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -6505,7 +6627,7 @@
       </c>
     </row>
     <row r="56" spans="2:25">
-      <c r="B56" s="130"/>
+      <c r="B56" s="161"/>
       <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
@@ -6528,7 +6650,7 @@
       </c>
     </row>
     <row r="57" spans="2:25">
-      <c r="B57" s="130"/>
+      <c r="B57" s="161"/>
       <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
@@ -6551,7 +6673,7 @@
       </c>
     </row>
     <row r="58" spans="2:25">
-      <c r="B58" s="130"/>
+      <c r="B58" s="161"/>
       <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
@@ -6578,22 +6700,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B32:X32"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B47:E47"/>
     <mergeCell ref="W48:Y48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="Q49:Q50"/>
@@ -6601,6 +6707,22 @@
     <mergeCell ref="S49:S50"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:X32"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6612,50 +6734,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T209"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView topLeftCell="E23" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="16" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="H2" s="152" t="s">
+      <c r="H2" s="191" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="H3" s="150" t="s">
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="H3" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
       <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
@@ -6679,11 +6799,11 @@
       <c r="F4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="150" t="s">
+      <c r="H4" s="189" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
       <c r="K4" s="40">
         <v>0</v>
       </c>
@@ -6710,11 +6830,11 @@
         <f>E5/$E$16</f>
         <v>0.69059405940594054</v>
       </c>
-      <c r="H5" s="150" t="s">
+      <c r="H5" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
       <c r="K5" s="40">
         <v>51000</v>
       </c>
@@ -6731,11 +6851,11 @@
       <c r="D6" s="73"/>
       <c r="E6" s="27"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="150" t="s">
+      <c r="H6" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
       <c r="K6" s="40">
         <v>0</v>
       </c>
@@ -6810,11 +6930,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
       <c r="K9" s="40">
         <v>0</v>
       </c>
@@ -6839,11 +6959,11 @@
       <c r="F10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="150" t="s">
+      <c r="H10" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
       <c r="K10" s="40">
         <v>0</v>
       </c>
@@ -6865,11 +6985,11 @@
         <f>E11/$E$16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="150" t="s">
+      <c r="H11" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
       <c r="K11" s="40">
         <v>0</v>
       </c>
@@ -6886,11 +7006,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="151" t="s">
+      <c r="H12" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
       <c r="K12" s="42">
         <f>SUM(K4:K11)</f>
         <v>640000</v>
@@ -6949,11 +7069,11 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="37">
         <f>E5+E8+E11+E15</f>
         <v>4848000</v>
@@ -6968,10 +7088,10 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="183" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="163"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
@@ -7009,49 +7129,49 @@
       <c r="E21" s="16"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="167" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="128" t="s">
+      <c r="B24" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="D24" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="128" t="s">
+      <c r="E24" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="128" t="s">
+      <c r="F24" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="154" t="s">
+      <c r="G24" s="193" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="128" t="s">
+      <c r="H24" s="193"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="164" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
       <c r="G25" s="2" t="s">
         <v>2</v>
       </c>
@@ -7061,7 +7181,7 @@
       <c r="I25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="128"/>
+      <c r="J25" s="164"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="22" t="s">
@@ -7109,13 +7229,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="164" t="s">
+      <c r="B28" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="186"/>
       <c r="G28" s="64">
         <f>G27</f>
         <v>200000</v>
@@ -7192,13 +7312,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="167" t="s">
+      <c r="B31" s="176" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="169"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="178"/>
       <c r="G31" s="81">
         <f>G28+G30+G29</f>
         <v>200000</v>
@@ -7221,35 +7341,35 @@
       <c r="L31" s="17"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="128" t="s">
+      <c r="D34" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="128" t="s">
+      <c r="E34" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="10" t="s">
         <v>2</v>
       </c>
@@ -7285,12 +7405,12 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="156" t="s">
+      <c r="B38" s="167" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="51" t="s">
@@ -7351,12 +7471,12 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="156" t="s">
+      <c r="B44" s="167" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="F44" s="157" t="s">
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="F44" s="168" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7370,7 +7490,7 @@
       <c r="D45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="157"/>
+      <c r="F45" s="168"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="2" t="s">
@@ -7384,7 +7504,7 @@
         <f>C46*'Demanda Dinamica'!$L$50*'Demanda Dinamica'!F37</f>
         <v>606666.66666666663</v>
       </c>
-      <c r="F46" s="157"/>
+      <c r="F46" s="168"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="2" t="s">
@@ -7445,20 +7565,20 @@
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="148" t="s">
+      <c r="B52" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="148"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="148"/>
-      <c r="G52" s="148"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="170" t="s">
+      <c r="B53" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="170"/>
+      <c r="C53" s="188"/>
       <c r="D53" s="22" t="s">
         <v>177</v>
       </c>
@@ -7473,10 +7593,10 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="149" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="138"/>
+      <c r="C54" s="149"/>
       <c r="D54" s="18">
         <f>E16</f>
         <v>4848000</v>
@@ -7495,10 +7615,10 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="138" t="s">
+      <c r="B55" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="138"/>
+      <c r="C55" s="149"/>
       <c r="D55" s="18">
         <v>0</v>
       </c>
@@ -7515,10 +7635,10 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="138" t="s">
+      <c r="B56" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="138"/>
+      <c r="C56" s="149"/>
       <c r="D56" s="18">
         <v>10000</v>
       </c>
@@ -7536,10 +7656,10 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="149" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="138"/>
+      <c r="C57" s="149"/>
       <c r="D57" s="18">
         <v>0</v>
       </c>
@@ -7554,10 +7674,10 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="138"/>
+      <c r="C58" s="149"/>
       <c r="D58" s="18">
         <v>0</v>
       </c>
@@ -7572,10 +7692,10 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="138" t="s">
+      <c r="B59" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="138"/>
+      <c r="C59" s="149"/>
       <c r="D59" s="18">
         <v>0</v>
       </c>
@@ -7590,11 +7710,11 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="147" t="s">
+      <c r="B60" s="187" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="187"/>
       <c r="E60" s="25">
         <f>SUM(E54:E59)</f>
         <v>168480</v>
@@ -7609,21 +7729,21 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="162" t="s">
+      <c r="B62" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="162"/>
-      <c r="D62" s="162"/>
-      <c r="E62" s="162"/>
-      <c r="F62" s="162"/>
-      <c r="G62" s="162"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
+      <c r="E62" s="182"/>
+      <c r="F62" s="182"/>
+      <c r="G62" s="182"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="130" t="s">
+      <c r="B63" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="130"/>
-      <c r="D63" s="130"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
       <c r="E63" s="22" t="s">
         <v>2</v>
       </c>
@@ -7635,13 +7755,13 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="149" t="s">
+      <c r="B64" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="138" t="s">
+      <c r="C64" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="138"/>
+      <c r="D64" s="149"/>
       <c r="E64" s="19">
         <f>0</f>
         <v>0</v>
@@ -7656,11 +7776,11 @@
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="149"/>
-      <c r="C65" s="138" t="s">
+      <c r="B65" s="171"/>
+      <c r="C65" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="138"/>
+      <c r="D65" s="149"/>
       <c r="E65" s="19">
         <f>'Demanda Dinamica'!V39</f>
         <v>24963480</v>
@@ -7675,11 +7795,11 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="149"/>
-      <c r="C66" s="138" t="s">
+      <c r="B66" s="171"/>
+      <c r="C66" s="149" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="138"/>
+      <c r="D66" s="149"/>
       <c r="E66" s="19">
         <f>'Demanda Dinamica'!$V$42</f>
         <v>4109020</v>
@@ -7694,11 +7814,11 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="149"/>
-      <c r="C67" s="138" t="s">
+      <c r="B67" s="171"/>
+      <c r="C67" s="149" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="138"/>
+      <c r="D67" s="149"/>
       <c r="E67" s="19">
         <f>'Demanda Dinamica'!V36</f>
         <v>16262030</v>
@@ -7713,11 +7833,11 @@
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="149"/>
-      <c r="C68" s="138" t="s">
+      <c r="B68" s="171"/>
+      <c r="C68" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="138"/>
+      <c r="D68" s="149"/>
       <c r="E68" s="19">
         <v>0</v>
       </c>
@@ -7731,11 +7851,11 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="149"/>
-      <c r="C69" s="144" t="s">
+      <c r="B69" s="171"/>
+      <c r="C69" s="197" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="144"/>
+      <c r="D69" s="197"/>
       <c r="E69" s="58">
         <f>SUM(E64:E67)-E68</f>
         <v>45334530</v>
@@ -7753,13 +7873,13 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="149" t="s">
+      <c r="B70" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="138" t="s">
+      <c r="C70" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="138"/>
+      <c r="D70" s="149"/>
       <c r="E70" s="19">
         <v>0</v>
       </c>
@@ -7775,11 +7895,11 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="149"/>
-      <c r="C71" s="138" t="s">
+      <c r="B71" s="171"/>
+      <c r="C71" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="138"/>
+      <c r="D71" s="149"/>
       <c r="E71" s="19">
         <f>G28</f>
         <v>200000</v>
@@ -7798,11 +7918,11 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="149"/>
-      <c r="C72" s="138" t="s">
+      <c r="B72" s="171"/>
+      <c r="C72" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="138"/>
+      <c r="D72" s="149"/>
       <c r="E72" s="19">
         <v>0</v>
       </c>
@@ -7818,11 +7938,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="149"/>
-      <c r="C73" s="138" t="s">
+      <c r="B73" s="171"/>
+      <c r="C73" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="138"/>
+      <c r="D73" s="149"/>
       <c r="E73" s="19">
         <v>0</v>
       </c>
@@ -7838,11 +7958,11 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="149"/>
-      <c r="C74" s="144" t="s">
+      <c r="B74" s="171"/>
+      <c r="C74" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="D74" s="144"/>
+      <c r="D74" s="197"/>
       <c r="E74" s="58">
         <f xml:space="preserve"> SUM(E70:E73)</f>
         <v>200000</v>
@@ -7857,11 +7977,11 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="147" t="s">
+      <c r="B75" s="187" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="147"/>
-      <c r="D75" s="147"/>
+      <c r="C75" s="187"/>
+      <c r="D75" s="187"/>
       <c r="E75" s="58">
         <f>E69+E74</f>
         <v>45534530</v>
@@ -7876,11 +7996,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="197" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="197"/>
       <c r="E78" s="58">
         <f>E75/('Demanda Dinamica'!$Y$52*12)</f>
         <v>3162.120138888889</v>
@@ -7895,23 +8015,23 @@
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="145" t="s">
+      <c r="B81" s="199" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="145"/>
+      <c r="C81" s="199"/>
       <c r="D81" s="4">
         <v>0.35</v>
       </c>
-      <c r="F81" s="145" t="s">
+      <c r="F81" s="199" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="145"/>
+      <c r="G81" s="199"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="145" t="s">
+      <c r="B82" s="199" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="145"/>
+      <c r="C82" s="199"/>
       <c r="D82" s="19">
         <f>E78*D81</f>
         <v>1106.7420486111112</v>
@@ -7925,10 +8045,10 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="146" t="s">
+      <c r="B83" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="146"/>
+      <c r="C83" s="200"/>
       <c r="D83" s="66">
         <f>E78*(1+D81)</f>
         <v>4268.8621875000008</v>
@@ -7969,11 +8089,11 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="147" t="s">
+      <c r="B89" s="187" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="147"/>
-      <c r="D89" s="147"/>
+      <c r="C89" s="187"/>
+      <c r="D89" s="187"/>
       <c r="E89" s="58">
         <f>E78+G86</f>
         <v>4016.063330876389</v>
@@ -7988,32 +8108,32 @@
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="143" t="s">
+      <c r="B92" s="198" t="s">
         <v>212</v>
       </c>
-      <c r="C92" s="143"/>
+      <c r="C92" s="198"/>
       <c r="D92" s="69">
         <f>+(D83-E89)/D83</f>
         <v>5.9219259259259402E-2</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="143" t="s">
+      <c r="B93" s="198" t="s">
         <v>213</v>
       </c>
-      <c r="C93" s="143"/>
+      <c r="C93" s="198"/>
       <c r="D93" s="70">
         <f>E89*D92</f>
         <v>237.82829559277377</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="160" t="s">
+      <c r="B95" s="180" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="160"/>
-      <c r="D95" s="160"/>
-      <c r="E95" s="160"/>
+      <c r="C95" s="180"/>
+      <c r="D95" s="180"/>
+      <c r="E95" s="180"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="60" t="s">
@@ -8101,20 +8221,20 @@
       <c r="B102" s="76"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="161" t="s">
+      <c r="B103" s="181" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="161"/>
-      <c r="D103" s="161"/>
-      <c r="E103" s="161"/>
-      <c r="F103" s="161"/>
-      <c r="G103" s="161"/>
+      <c r="C103" s="181"/>
+      <c r="D103" s="181"/>
+      <c r="E103" s="181"/>
+      <c r="F103" s="181"/>
+      <c r="G103" s="181"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="130" t="s">
+      <c r="B104" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="130"/>
+      <c r="C104" s="161"/>
       <c r="D104" s="63" t="s">
         <v>236</v>
       </c>
@@ -8129,10 +8249,10 @@
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="155" t="s">
+      <c r="B105" s="175" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="155"/>
+      <c r="C105" s="175"/>
       <c r="D105" s="79">
         <f>'Demanda Dinamica'!I36</f>
         <v>2180290</v>
@@ -8151,10 +8271,10 @@
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="155" t="s">
+      <c r="B106" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="155"/>
+      <c r="C106" s="175"/>
       <c r="D106" s="79">
         <f>E16</f>
         <v>4848000</v>
@@ -8173,10 +8293,10 @@
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="155" t="s">
+      <c r="B107" s="175" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="155"/>
+      <c r="C107" s="175"/>
       <c r="D107" s="79">
         <f>D55</f>
         <v>0</v>
@@ -8195,10 +8315,10 @@
       </c>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="155" t="s">
+      <c r="B108" s="175" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="155"/>
+      <c r="C108" s="175"/>
       <c r="D108" s="79">
         <f>D56</f>
         <v>10000</v>
@@ -8217,10 +8337,10 @@
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="155" t="s">
+      <c r="B109" s="175" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="155"/>
+      <c r="C109" s="175"/>
       <c r="D109" s="79">
         <f>D57</f>
         <v>0</v>
@@ -8239,10 +8359,10 @@
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="155" t="s">
+      <c r="B110" s="175" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="155"/>
+      <c r="C110" s="175"/>
       <c r="D110" s="79"/>
       <c r="E110" s="79">
         <f>G31</f>
@@ -8258,10 +8378,10 @@
       </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="155" t="s">
+      <c r="B111" s="175" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="155"/>
+      <c r="C111" s="175"/>
       <c r="D111" s="79"/>
       <c r="E111" s="79">
         <f>G31</f>
@@ -8277,10 +8397,10 @@
       </c>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="155" t="s">
+      <c r="B112" s="175" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="155"/>
+      <c r="C112" s="175"/>
       <c r="D112" s="79"/>
       <c r="E112" s="79">
         <f>E16/3</f>
@@ -8296,10 +8416,10 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="B113" s="155" t="s">
+      <c r="B113" s="175" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="155"/>
+      <c r="C113" s="175"/>
       <c r="D113" s="79"/>
       <c r="E113" s="79">
         <v>0</v>
@@ -8313,10 +8433,10 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="B114" s="155" t="s">
+      <c r="B114" s="175" t="s">
         <v>235</v>
       </c>
-      <c r="C114" s="155"/>
+      <c r="C114" s="175"/>
       <c r="D114" s="79"/>
       <c r="E114" s="79">
         <v>0</v>
@@ -8329,11 +8449,11 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="167" t="s">
+      <c r="B115" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="C115" s="168"/>
-      <c r="D115" s="169"/>
+      <c r="C115" s="177"/>
+      <c r="D115" s="178"/>
       <c r="E115" s="83">
         <f>SUM(E105:E114)</f>
         <v>18446510</v>
@@ -8348,12 +8468,12 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="B117" s="171" t="s">
+      <c r="B117" s="179" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="171"/>
-      <c r="D117" s="171"/>
-      <c r="E117" s="171"/>
+      <c r="C117" s="179"/>
+      <c r="D117" s="179"/>
+      <c r="E117" s="179"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="84"/>
@@ -8469,51 +8589,51 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="B127" s="172" t="s">
+      <c r="B127" s="174" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="172"/>
-      <c r="D127" s="172"/>
-      <c r="E127" s="172"/>
-      <c r="F127" s="172"/>
-      <c r="G127" s="172"/>
-      <c r="H127" s="172"/>
-      <c r="I127" s="172"/>
-      <c r="J127" s="172"/>
-      <c r="K127" s="172"/>
-      <c r="L127" s="172"/>
+      <c r="C127" s="174"/>
+      <c r="D127" s="174"/>
+      <c r="E127" s="174"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
+      <c r="H127" s="174"/>
+      <c r="I127" s="174"/>
+      <c r="J127" s="174"/>
+      <c r="K127" s="174"/>
+      <c r="L127" s="174"/>
     </row>
     <row r="128" spans="1:12">
-      <c r="B128" s="128" t="s">
+      <c r="B128" s="164" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="128"/>
-      <c r="D128" s="128" t="s">
+      <c r="C128" s="164"/>
+      <c r="D128" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="E128" s="128" t="s">
+      <c r="E128" s="164" t="s">
         <v>259</v>
       </c>
-      <c r="F128" s="128"/>
-      <c r="G128" s="128"/>
-      <c r="H128" s="127" t="s">
+      <c r="F128" s="164"/>
+      <c r="G128" s="164"/>
+      <c r="H128" s="159" t="s">
         <v>260</v>
       </c>
-      <c r="I128" s="127" t="s">
+      <c r="I128" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="J128" s="127" t="s">
+      <c r="J128" s="159" t="s">
         <v>262</v>
       </c>
-      <c r="K128" s="127" t="s">
+      <c r="K128" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="L128" s="127"/>
+      <c r="L128" s="159"/>
     </row>
     <row r="129" spans="2:20">
-      <c r="B129" s="128"/>
-      <c r="C129" s="128"/>
-      <c r="D129" s="128"/>
+      <c r="B129" s="164"/>
+      <c r="C129" s="164"/>
+      <c r="D129" s="164"/>
       <c r="E129" s="61" t="s">
         <v>125</v>
       </c>
@@ -8523,11 +8643,11 @@
       <c r="G129" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H129" s="127"/>
-      <c r="I129" s="127"/>
-      <c r="J129" s="127"/>
-      <c r="K129" s="127"/>
-      <c r="L129" s="127"/>
+      <c r="H129" s="159"/>
+      <c r="I129" s="159"/>
+      <c r="J129" s="159"/>
+      <c r="K129" s="159"/>
+      <c r="L129" s="159"/>
     </row>
     <row r="130" spans="2:20">
       <c r="B130" s="2" t="s">
@@ -8637,24 +8757,24 @@
       </c>
     </row>
     <row r="135" spans="2:20">
-      <c r="B135" s="172" t="s">
+      <c r="B135" s="174" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="172"/>
-      <c r="D135" s="172"/>
-      <c r="E135" s="172"/>
-      <c r="F135" s="172"/>
-      <c r="G135" s="172"/>
-      <c r="H135" s="172"/>
-      <c r="I135" s="172"/>
-      <c r="J135" s="172"/>
-      <c r="K135" s="172"/>
-      <c r="L135" s="172"/>
-      <c r="M135" s="172"/>
-      <c r="N135" s="172"/>
-      <c r="O135" s="172"/>
-      <c r="P135" s="172"/>
-      <c r="Q135" s="172"/>
+      <c r="C135" s="174"/>
+      <c r="D135" s="174"/>
+      <c r="E135" s="174"/>
+      <c r="F135" s="174"/>
+      <c r="G135" s="174"/>
+      <c r="H135" s="174"/>
+      <c r="I135" s="174"/>
+      <c r="J135" s="174"/>
+      <c r="K135" s="174"/>
+      <c r="L135" s="174"/>
+      <c r="M135" s="174"/>
+      <c r="N135" s="174"/>
+      <c r="O135" s="174"/>
+      <c r="P135" s="174"/>
+      <c r="Q135" s="174"/>
     </row>
     <row r="136" spans="2:20">
       <c r="B136" s="2" t="s">
@@ -9428,19 +9548,19 @@
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="173" t="s">
+      <c r="B149" s="172" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="173"/>
-      <c r="D149" s="173"/>
-      <c r="E149" s="173"/>
-      <c r="G149" s="174" t="s">
+      <c r="C149" s="172"/>
+      <c r="D149" s="172"/>
+      <c r="E149" s="172"/>
+      <c r="G149" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="H149" s="174"/>
-      <c r="I149" s="174"/>
-      <c r="J149" s="174"/>
-      <c r="K149" s="174"/>
+      <c r="H149" s="173"/>
+      <c r="I149" s="173"/>
+      <c r="J149" s="173"/>
+      <c r="K149" s="173"/>
     </row>
     <row r="150" spans="2:17">
       <c r="B150" s="22" t="s">
@@ -9594,21 +9714,21 @@
       </c>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" s="156" t="s">
+      <c r="B158" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="C158" s="156"/>
-      <c r="D158" s="156"/>
-      <c r="E158" s="156"/>
-      <c r="F158" s="156"/>
-      <c r="G158" s="156"/>
+      <c r="C158" s="167"/>
+      <c r="D158" s="167"/>
+      <c r="E158" s="167"/>
+      <c r="F158" s="167"/>
+      <c r="G158" s="167"/>
     </row>
     <row r="159" spans="2:17">
-      <c r="B159" s="149" t="s">
+      <c r="B159" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="149"/>
-      <c r="D159" s="149"/>
+      <c r="C159" s="171"/>
+      <c r="D159" s="171"/>
       <c r="E159" s="63" t="s">
         <v>2</v>
       </c>
@@ -9620,13 +9740,13 @@
       </c>
     </row>
     <row r="160" spans="2:17">
-      <c r="B160" s="130" t="s">
+      <c r="B160" s="161" t="s">
         <v>295</v>
       </c>
-      <c r="C160" s="128" t="s">
+      <c r="C160" s="164" t="s">
         <v>296</v>
       </c>
-      <c r="D160" s="128"/>
+      <c r="D160" s="164"/>
       <c r="E160" s="2" t="s">
         <v>297</v>
       </c>
@@ -9640,11 +9760,11 @@
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="130"/>
-      <c r="C161" s="128" t="s">
+      <c r="B161" s="161"/>
+      <c r="C161" s="164" t="s">
         <v>298</v>
       </c>
-      <c r="D161" s="128"/>
+      <c r="D161" s="164"/>
       <c r="E161" s="2" t="s">
         <v>297</v>
       </c>
@@ -9656,11 +9776,11 @@
       </c>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="130"/>
-      <c r="C162" s="138" t="s">
+      <c r="B162" s="161"/>
+      <c r="C162" s="149" t="s">
         <v>299</v>
       </c>
-      <c r="D162" s="138"/>
+      <c r="D162" s="149"/>
       <c r="E162" s="77">
         <f>'Demanda Dinamica'!V43</f>
         <v>45334530</v>
@@ -9675,11 +9795,11 @@
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="130"/>
-      <c r="C163" s="128" t="s">
+      <c r="B163" s="161"/>
+      <c r="C163" s="164" t="s">
         <v>300</v>
       </c>
-      <c r="D163" s="128"/>
+      <c r="D163" s="164"/>
       <c r="E163" s="77">
         <f>'Demanda Dinamica'!V35</f>
         <v>2400000</v>
@@ -9694,11 +9814,11 @@
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="130"/>
-      <c r="C164" s="128" t="s">
+      <c r="B164" s="161"/>
+      <c r="C164" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="D164" s="128"/>
+      <c r="D164" s="164"/>
       <c r="E164" s="77">
         <v>0</v>
       </c>
@@ -9710,11 +9830,11 @@
       </c>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="130"/>
-      <c r="C165" s="128" t="s">
+      <c r="B165" s="161"/>
+      <c r="C165" s="164" t="s">
         <v>302</v>
       </c>
-      <c r="D165" s="128"/>
+      <c r="D165" s="164"/>
       <c r="E165" s="77">
         <f>E106</f>
         <v>48480</v>
@@ -9729,11 +9849,11 @@
       </c>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="130"/>
-      <c r="C166" s="128" t="s">
+      <c r="B166" s="161"/>
+      <c r="C166" s="164" t="s">
         <v>303</v>
       </c>
-      <c r="D166" s="128"/>
+      <c r="D166" s="164"/>
       <c r="E166" s="77">
         <f>E107</f>
         <v>0</v>
@@ -9748,11 +9868,11 @@
       </c>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="130"/>
-      <c r="C167" s="128" t="s">
+      <c r="B167" s="161"/>
+      <c r="C167" s="164" t="s">
         <v>304</v>
       </c>
-      <c r="D167" s="128"/>
+      <c r="D167" s="164"/>
       <c r="E167" s="77">
         <f t="shared" ref="E167:G168" si="42">E108</f>
         <v>120000</v>
@@ -9767,11 +9887,11 @@
       </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="130"/>
-      <c r="C168" s="128" t="s">
+      <c r="B168" s="161"/>
+      <c r="C168" s="164" t="s">
         <v>305</v>
       </c>
-      <c r="D168" s="128"/>
+      <c r="D168" s="164"/>
       <c r="E168" s="77">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -9786,11 +9906,11 @@
       </c>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="130"/>
-      <c r="C169" s="128" t="s">
+      <c r="B169" s="161"/>
+      <c r="C169" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="D169" s="128"/>
+      <c r="D169" s="164"/>
       <c r="E169" s="77">
         <f>E110</f>
         <v>200000</v>
@@ -9805,11 +9925,11 @@
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="130"/>
-      <c r="C170" s="128" t="s">
+      <c r="B170" s="161"/>
+      <c r="C170" s="164" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="128"/>
+      <c r="D170" s="164"/>
       <c r="E170" s="77">
         <f>E111</f>
         <v>200000</v>
@@ -9824,11 +9944,11 @@
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="130"/>
-      <c r="C171" s="128" t="s">
+      <c r="B171" s="161"/>
+      <c r="C171" s="164" t="s">
         <v>319</v>
       </c>
-      <c r="D171" s="128"/>
+      <c r="D171" s="164"/>
       <c r="E171" s="77">
         <v>0</v>
       </c>
@@ -9840,11 +9960,11 @@
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="130"/>
-      <c r="C172" s="149" t="s">
+      <c r="B172" s="161"/>
+      <c r="C172" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="149"/>
+      <c r="D172" s="171"/>
       <c r="E172" s="82">
         <f>SUM(E162:E171)</f>
         <v>48303010</v>
@@ -9859,13 +9979,13 @@
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="149" t="s">
+      <c r="B173" s="171" t="s">
         <v>308</v>
       </c>
-      <c r="C173" s="128" t="s">
+      <c r="C173" s="164" t="s">
         <v>186</v>
       </c>
-      <c r="D173" s="128"/>
+      <c r="D173" s="164"/>
       <c r="E173" s="77">
         <f>E64</f>
         <v>0</v>
@@ -9880,11 +10000,11 @@
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="149"/>
-      <c r="C174" s="128" t="s">
+      <c r="B174" s="171"/>
+      <c r="C174" s="164" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="128"/>
+      <c r="D174" s="164"/>
       <c r="E174" s="77">
         <f>0</f>
         <v>0</v>
@@ -9899,11 +10019,11 @@
       </c>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="149"/>
-      <c r="C175" s="128" t="s">
+      <c r="B175" s="171"/>
+      <c r="C175" s="164" t="s">
         <v>310</v>
       </c>
-      <c r="D175" s="128"/>
+      <c r="D175" s="164"/>
       <c r="E175" s="77">
         <v>0</v>
       </c>
@@ -9915,11 +10035,11 @@
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="149"/>
-      <c r="C176" s="128" t="s">
+      <c r="B176" s="171"/>
+      <c r="C176" s="164" t="s">
         <v>311</v>
       </c>
-      <c r="D176" s="128"/>
+      <c r="D176" s="164"/>
       <c r="E176" s="77">
         <v>0</v>
       </c>
@@ -9931,11 +10051,11 @@
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="149"/>
-      <c r="C177" s="128" t="s">
+      <c r="B177" s="171"/>
+      <c r="C177" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="D177" s="128"/>
+      <c r="D177" s="164"/>
       <c r="E177" s="77">
         <v>0</v>
       </c>
@@ -9947,11 +10067,11 @@
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="149"/>
-      <c r="C178" s="128" t="s">
+      <c r="B178" s="171"/>
+      <c r="C178" s="164" t="s">
         <v>312</v>
       </c>
-      <c r="D178" s="128"/>
+      <c r="D178" s="164"/>
       <c r="E178" s="77">
         <f>C152</f>
         <v>8193351.8167431196</v>
@@ -9966,11 +10086,11 @@
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="149"/>
-      <c r="C179" s="128" t="s">
+      <c r="B179" s="171"/>
+      <c r="C179" s="164" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="128"/>
+      <c r="D179" s="164"/>
       <c r="E179" s="77">
         <f>C153</f>
         <v>8193351.8167431196</v>
@@ -9985,11 +10105,11 @@
       </c>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="149"/>
-      <c r="C180" s="128" t="s">
+      <c r="B180" s="171"/>
+      <c r="C180" s="164" t="s">
         <v>314</v>
       </c>
-      <c r="D180" s="128"/>
+      <c r="D180" s="164"/>
       <c r="E180" s="77">
         <f t="shared" ref="E180:E181" si="48">C154</f>
         <v>1802537.3996834862</v>
@@ -10004,11 +10124,11 @@
       </c>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="149"/>
-      <c r="C181" s="128" t="s">
+      <c r="B181" s="171"/>
+      <c r="C181" s="164" t="s">
         <v>315</v>
       </c>
-      <c r="D181" s="128"/>
+      <c r="D181" s="164"/>
       <c r="E181" s="77">
         <f t="shared" si="48"/>
         <v>270380.60995252291</v>
@@ -10023,11 +10143,11 @@
       </c>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="149"/>
-      <c r="C182" s="149" t="s">
+      <c r="B182" s="171"/>
+      <c r="C182" s="171" t="s">
         <v>316</v>
       </c>
-      <c r="D182" s="149"/>
+      <c r="D182" s="171"/>
       <c r="E182" s="82">
         <f>SUM(E173:E181)</f>
         <v>18459621.643122248</v>
@@ -10042,11 +10162,11 @@
       </c>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="175" t="s">
+      <c r="B183" s="166" t="s">
         <v>317</v>
       </c>
-      <c r="C183" s="175"/>
-      <c r="D183" s="175"/>
+      <c r="C183" s="166"/>
+      <c r="D183" s="166"/>
       <c r="E183" s="101">
         <f>E172+E182</f>
         <v>66762631.643122248</v>
@@ -10068,13 +10188,13 @@
       <c r="F184" s="67"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="156" t="s">
+      <c r="B185" s="167" t="s">
         <v>321</v>
       </c>
-      <c r="C185" s="156"/>
-      <c r="D185" s="156"/>
-      <c r="E185" s="156"/>
-      <c r="F185" s="156"/>
+      <c r="C185" s="167"/>
+      <c r="D185" s="167"/>
+      <c r="E185" s="167"/>
+      <c r="F185" s="167"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="63" t="s">
@@ -10214,24 +10334,24 @@
       </c>
     </row>
     <row r="194" spans="2:17">
-      <c r="B194" s="157" t="s">
+      <c r="B194" s="168" t="s">
         <v>336</v>
       </c>
-      <c r="C194" s="157"/>
-      <c r="D194" s="157"/>
-      <c r="E194" s="157"/>
-      <c r="F194" s="157"/>
-      <c r="G194" s="157"/>
-      <c r="H194" s="157"/>
-      <c r="I194" s="157"/>
-      <c r="J194" s="157"/>
-      <c r="K194" s="157"/>
-      <c r="L194" s="157"/>
-      <c r="M194" s="157"/>
-      <c r="N194" s="157"/>
-      <c r="O194" s="157"/>
-      <c r="P194" s="157"/>
-      <c r="Q194" s="157"/>
+      <c r="C194" s="168"/>
+      <c r="D194" s="168"/>
+      <c r="E194" s="168"/>
+      <c r="F194" s="168"/>
+      <c r="G194" s="168"/>
+      <c r="H194" s="168"/>
+      <c r="I194" s="168"/>
+      <c r="J194" s="168"/>
+      <c r="K194" s="168"/>
+      <c r="L194" s="168"/>
+      <c r="M194" s="168"/>
+      <c r="N194" s="168"/>
+      <c r="O194" s="168"/>
+      <c r="P194" s="168"/>
+      <c r="Q194" s="168"/>
     </row>
     <row r="195" spans="2:17">
       <c r="B195" s="63" t="s">
@@ -10479,13 +10599,13 @@
       </c>
     </row>
     <row r="200" spans="2:17">
-      <c r="B200" s="176" t="s">
+      <c r="B200" s="169" t="s">
         <v>340</v>
       </c>
-      <c r="C200" s="176"/>
-      <c r="D200" s="176"/>
-      <c r="E200" s="176"/>
-      <c r="F200" s="176"/>
+      <c r="C200" s="169"/>
+      <c r="D200" s="169"/>
+      <c r="E200" s="169"/>
+      <c r="F200" s="169"/>
     </row>
     <row r="201" spans="2:17">
       <c r="B201" s="103" t="s">
@@ -10550,11 +10670,11 @@
       </c>
     </row>
     <row r="205" spans="2:17">
-      <c r="B205" s="177" t="s">
+      <c r="B205" s="170" t="s">
         <v>343</v>
       </c>
-      <c r="C205" s="177"/>
-      <c r="D205" s="177"/>
+      <c r="C205" s="170"/>
+      <c r="D205" s="170"/>
     </row>
     <row r="206" spans="2:17">
       <c r="B206" s="103" t="s">
@@ -10610,59 +10730,50 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B194:Q194"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:B172"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:L129"/>
-    <mergeCell ref="B127:L127"/>
-    <mergeCell ref="B135:Q135"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="B128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="B104:C104"/>
@@ -10687,50 +10798,59 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:L129"/>
+    <mergeCell ref="B127:L127"/>
+    <mergeCell ref="B135:Q135"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="B128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:B172"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
   </mergeCells>
   <conditionalFormatting sqref="C198:Q198">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -10749,8 +10869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V108"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10758,29 +10878,29 @@
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="19" width="14.5703125" hidden="1" customWidth="1"/>
     <col min="20" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="211" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
       <c r="E3" s="62" t="s">
         <v>2</v>
       </c>
@@ -10792,13 +10912,13 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="171" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="164" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="128"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="78">
         <f>'Presupuesto de Inversion'!O139</f>
         <v>163867036.33486238</v>
@@ -10813,11 +10933,11 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.5" customHeight="1">
-      <c r="B5" s="149"/>
-      <c r="C5" s="127" t="s">
+      <c r="B5" s="171"/>
+      <c r="C5" s="159" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="127"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="78">
         <v>0</v>
       </c>
@@ -10829,11 +10949,11 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="149"/>
-      <c r="C6" s="130" t="s">
+      <c r="B6" s="171"/>
+      <c r="C6" s="161" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="130"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="105">
         <f>SUM(E4:E5)</f>
         <v>163867036.33486238</v>
@@ -10848,13 +10968,13 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="171" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="128"/>
+      <c r="D7" s="164"/>
       <c r="E7" s="78">
         <f>'Presupuesto de Inversion'!E75</f>
         <v>45534530</v>
@@ -10869,11 +10989,11 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="149"/>
-      <c r="C8" s="138" t="s">
+      <c r="B8" s="171"/>
+      <c r="C8" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="138"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="78">
         <f>'Presupuesto de Inversion'!E115</f>
         <v>18446510</v>
@@ -10888,11 +11008,11 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="149"/>
-      <c r="C9" s="128" t="s">
+      <c r="B9" s="171"/>
+      <c r="C9" s="164" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="164"/>
       <c r="E9" s="78">
         <f>'Presupuesto de Inversion'!C156</f>
         <v>18459621.643122248</v>
@@ -10907,11 +11027,11 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B10" s="149"/>
-      <c r="C10" s="127" t="s">
+      <c r="B10" s="171"/>
+      <c r="C10" s="159" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="78">
         <v>0</v>
       </c>
@@ -10923,11 +11043,11 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="149"/>
-      <c r="C11" s="127" t="s">
+      <c r="B11" s="171"/>
+      <c r="C11" s="159" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="127"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="78">
         <v>0</v>
       </c>
@@ -10939,11 +11059,11 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="149"/>
-      <c r="C12" s="149" t="s">
+      <c r="B12" s="171"/>
+      <c r="C12" s="171" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="149"/>
+      <c r="D12" s="171"/>
       <c r="E12" s="105">
         <f>SUM(E7:E11)</f>
         <v>82440661.643122256</v>
@@ -10958,11 +11078,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="209" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="78">
         <f>E6-E12</f>
         <v>81426374.691740125</v>
@@ -10977,11 +11097,11 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="164" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
       <c r="E14" s="78">
         <f>(E13*0.25)</f>
         <v>20356593.672935031</v>
@@ -10996,11 +11116,11 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="210" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
       <c r="E15" s="78">
         <f>E13*0.09</f>
         <v>7328373.7222566111</v>
@@ -11015,11 +11135,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="29.25" customHeight="1">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="159" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="78">
         <f>E13-E14-E15</f>
         <v>53741407.296548486</v>
@@ -11034,11 +11154,11 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="164" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="78">
         <f>E16*0.1</f>
         <v>5374140.7296548486</v>
@@ -11053,11 +11173,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="32.25" customHeight="1">
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
       <c r="E18" s="106">
         <f>E16-E17</f>
         <v>48367266.566893637</v>
@@ -11076,39 +11196,39 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="108"/>
-      <c r="B20" s="180" t="s">
+      <c r="B20" s="208" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="180"/>
-      <c r="R20" s="180"/>
-      <c r="S20" s="180"/>
-      <c r="T20" s="180"/>
-      <c r="U20" s="180"/>
-      <c r="V20" s="180"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
+      <c r="N20" s="208"/>
+      <c r="O20" s="208"/>
+      <c r="P20" s="208"/>
+      <c r="Q20" s="208"/>
+      <c r="R20" s="208"/>
+      <c r="S20" s="208"/>
+      <c r="T20" s="208"/>
+      <c r="U20" s="208"/>
+      <c r="V20" s="208"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="108"/>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
       <c r="G21" s="62" t="s">
         <v>399</v>
       </c>
@@ -11160,13 +11280,13 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="108"/>
-      <c r="B22" s="149" t="s">
+      <c r="B22" s="171" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
       <c r="G22" s="109">
         <f>'Presupuesto de Inversion'!C209</f>
         <v>25496813.244725019</v>
@@ -11189,15 +11309,15 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="108"/>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="171" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="189" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
       <c r="G23" s="109">
         <v>0</v>
       </c>
@@ -11264,13 +11384,13 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="108"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="150" t="s">
+      <c r="B24" s="171"/>
+      <c r="C24" s="189" t="s">
         <v>364</v>
       </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="189"/>
       <c r="G24" s="109">
         <v>0</v>
       </c>
@@ -11337,13 +11457,13 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="108"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="155" t="s">
+      <c r="B25" s="171"/>
+      <c r="C25" s="175" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
       <c r="G25" s="109"/>
       <c r="H25" s="109"/>
       <c r="I25" s="109"/>
@@ -11363,13 +11483,13 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="108"/>
-      <c r="B26" s="149"/>
-      <c r="C26" s="150" t="s">
+      <c r="B26" s="171"/>
+      <c r="C26" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
       <c r="G26" s="109"/>
       <c r="H26" s="109"/>
       <c r="I26" s="109"/>
@@ -11389,13 +11509,13 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="108"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="150" t="s">
+      <c r="B27" s="171"/>
+      <c r="C27" s="189" t="s">
         <v>367</v>
       </c>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
       <c r="G27" s="109"/>
       <c r="H27" s="109"/>
       <c r="I27" s="109"/>
@@ -11415,13 +11535,13 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="108"/>
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="173" t="s">
         <v>368</v>
       </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="110">
         <f>SUM(G22:G27)</f>
         <v>25496813.244725019</v>
@@ -11489,17 +11609,17 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="108"/>
-      <c r="B29" s="149" t="s">
+      <c r="B29" s="171" t="s">
         <v>338</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="161" t="s">
         <v>369</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="150" t="s">
+      <c r="D29" s="161"/>
+      <c r="E29" s="189" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="150"/>
+      <c r="F29" s="189"/>
       <c r="G29" s="109">
         <f>'Presupuesto de Inversion'!E16</f>
         <v>4848000</v>
@@ -11522,13 +11642,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="108"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="150" t="s">
+      <c r="B30" s="171"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="189" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="150"/>
+      <c r="F30" s="189"/>
       <c r="G30" s="109">
         <f>'Presupuesto de Inversion'!K12</f>
         <v>640000</v>
@@ -11551,13 +11671,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="108"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="174" t="s">
+      <c r="B31" s="171"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="173" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="174"/>
+      <c r="F31" s="173"/>
       <c r="G31" s="113">
         <f>SUM(G29:G30)</f>
         <v>5488000</v>
@@ -11580,12 +11700,12 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="108"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149" t="s">
+      <c r="B32" s="171"/>
+      <c r="C32" s="171" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="130" t="s">
+      <c r="D32" s="171"/>
+      <c r="E32" s="161" t="s">
         <v>381</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -11655,10 +11775,10 @@
     </row>
     <row r="33" spans="1:22" ht="30">
       <c r="A33" s="108"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="161"/>
       <c r="F33" s="107" t="s">
         <v>374</v>
       </c>
@@ -11681,10 +11801,10 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="108"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="130"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="161"/>
       <c r="F34" s="2" t="s">
         <v>375</v>
       </c>
@@ -11707,10 +11827,10 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="108"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="130"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="161"/>
       <c r="F35" s="2" t="s">
         <v>58</v>
       </c>
@@ -11733,10 +11853,10 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="108"/>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="130"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="161"/>
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
@@ -11759,10 +11879,10 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="108"/>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="130"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="161"/>
       <c r="F37" s="2" t="s">
         <v>376</v>
       </c>
@@ -11785,10 +11905,10 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="108"/>
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="130"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="161"/>
       <c r="F38" s="2" t="s">
         <v>377</v>
       </c>
@@ -11811,10 +11931,10 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="108"/>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="130"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="161"/>
       <c r="F39" s="2" t="s">
         <v>62</v>
       </c>
@@ -11837,10 +11957,10 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="108"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="130"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="161"/>
       <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
@@ -11863,10 +11983,10 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="108"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="130"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="161"/>
       <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
@@ -11889,10 +12009,10 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="108"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="161"/>
       <c r="F42" s="2" t="s">
         <v>378</v>
       </c>
@@ -11915,10 +12035,10 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="108"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="130"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="161"/>
       <c r="F43" s="2" t="s">
         <v>379</v>
       </c>
@@ -11941,10 +12061,10 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="108"/>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="130"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="161"/>
       <c r="F44" s="114" t="s">
         <v>380</v>
       </c>
@@ -12012,13 +12132,13 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="108"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="183" t="s">
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="207" t="s">
         <v>382</v>
       </c>
-      <c r="F45" s="183"/>
+      <c r="F45" s="207"/>
       <c r="G45" s="109"/>
       <c r="H45" s="109">
         <f>'Presupuesto de Inversion'!$E$163/12</f>
@@ -12083,13 +12203,13 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="108"/>
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="183" t="s">
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="207" t="s">
         <v>383</v>
       </c>
-      <c r="F46" s="183"/>
+      <c r="F46" s="207"/>
       <c r="G46" s="109"/>
       <c r="H46" s="109">
         <f>'Presupuesto de Inversion'!$E$164/12</f>
@@ -12154,13 +12274,13 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="108"/>
-      <c r="B47" s="149"/>
-      <c r="C47" s="149"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="183" t="s">
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="207" t="s">
         <v>384</v>
       </c>
-      <c r="F47" s="183"/>
+      <c r="F47" s="207"/>
       <c r="G47" s="109"/>
       <c r="H47" s="109">
         <f>'Presupuesto de Inversion'!$E$165/12</f>
@@ -12225,13 +12345,13 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="108"/>
-      <c r="B48" s="149"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="183" t="s">
+      <c r="B48" s="171"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="207" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="183"/>
+      <c r="F48" s="207"/>
       <c r="G48" s="109"/>
       <c r="H48" s="109">
         <f>'Presupuesto de Inversion'!$E$166/12</f>
@@ -12296,13 +12416,13 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="108"/>
-      <c r="B49" s="149"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="183" t="s">
+      <c r="B49" s="171"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="207" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="183"/>
+      <c r="F49" s="207"/>
       <c r="G49" s="109"/>
       <c r="H49" s="109">
         <f>'Presupuesto de Inversion'!$E$167/12</f>
@@ -12367,13 +12487,13 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="108"/>
-      <c r="B50" s="149"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="183" t="s">
+      <c r="B50" s="171"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="207" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="183"/>
+      <c r="F50" s="207"/>
       <c r="G50" s="109"/>
       <c r="H50" s="109">
         <f>'Presupuesto de Inversion'!$E$168/12</f>
@@ -12438,13 +12558,13 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="108"/>
-      <c r="B51" s="149"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="183" t="s">
+      <c r="B51" s="171"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="207" t="s">
         <v>386</v>
       </c>
-      <c r="F51" s="183"/>
+      <c r="F51" s="207"/>
       <c r="G51" s="109"/>
       <c r="H51" s="109"/>
       <c r="I51" s="109"/>
@@ -12464,13 +12584,13 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="108"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="149"/>
-      <c r="E52" s="174" t="s">
+      <c r="B52" s="171"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="173" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="174"/>
+      <c r="F52" s="173"/>
       <c r="G52" s="110"/>
       <c r="H52" s="110">
         <f>SUM(H45:H51)</f>
@@ -12535,15 +12655,15 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="108"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="149" t="s">
+      <c r="B53" s="171"/>
+      <c r="C53" s="171" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="149"/>
-      <c r="E53" s="150" t="s">
+      <c r="D53" s="171"/>
+      <c r="E53" s="189" t="s">
         <v>387</v>
       </c>
-      <c r="F53" s="150"/>
+      <c r="F53" s="189"/>
       <c r="G53" s="109"/>
       <c r="H53" s="109"/>
       <c r="I53" s="109"/>
@@ -12563,13 +12683,13 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="108"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="150" t="s">
+      <c r="B54" s="171"/>
+      <c r="C54" s="171"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="189" t="s">
         <v>388</v>
       </c>
-      <c r="F54" s="150"/>
+      <c r="F54" s="189"/>
       <c r="G54" s="109"/>
       <c r="H54" s="109"/>
       <c r="I54" s="109"/>
@@ -12597,13 +12717,13 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="108"/>
-      <c r="B55" s="149"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="149"/>
-      <c r="E55" s="150" t="s">
+      <c r="B55" s="171"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="F55" s="150"/>
+      <c r="F55" s="189"/>
       <c r="G55" s="109"/>
       <c r="H55" s="109"/>
       <c r="I55" s="109"/>
@@ -12631,13 +12751,13 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="108"/>
-      <c r="B56" s="149"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="150" t="s">
+      <c r="B56" s="171"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="189" t="s">
         <v>390</v>
       </c>
-      <c r="F56" s="150"/>
+      <c r="F56" s="189"/>
       <c r="G56" s="109"/>
       <c r="H56" s="109">
         <f>'Presupuesto de Inversion'!$C$154/12</f>
@@ -12702,13 +12822,13 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="108"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="149"/>
-      <c r="E57" s="150" t="s">
+      <c r="B57" s="171"/>
+      <c r="C57" s="171"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="189" t="s">
         <v>391</v>
       </c>
-      <c r="F57" s="150"/>
+      <c r="F57" s="189"/>
       <c r="G57" s="109"/>
       <c r="H57" s="109">
         <f>'Presupuesto de Inversion'!$C$155/12</f>
@@ -12773,13 +12893,13 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="108"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="150" t="s">
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="189" t="s">
         <v>392</v>
       </c>
-      <c r="F58" s="150"/>
+      <c r="F58" s="189"/>
       <c r="G58" s="109"/>
       <c r="H58" s="109">
         <f>'Presupuesto de Inversion'!C140</f>
@@ -12844,13 +12964,13 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="108"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="150" t="s">
+      <c r="B59" s="171"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="189" t="s">
         <v>393</v>
       </c>
-      <c r="F59" s="150"/>
+      <c r="F59" s="189"/>
       <c r="G59" s="109"/>
       <c r="H59" s="109">
         <f>'Presupuesto de Inversion'!C141</f>
@@ -12915,13 +13035,13 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="108"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="150" t="s">
+      <c r="B60" s="171"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="189" t="s">
         <v>394</v>
       </c>
-      <c r="F60" s="150"/>
+      <c r="F60" s="189"/>
       <c r="G60" s="109"/>
       <c r="H60" s="109">
         <f>$E$14/12</f>
@@ -12986,13 +13106,13 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="108"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="174" t="s">
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="F61" s="174"/>
+      <c r="F61" s="173"/>
       <c r="G61" s="110"/>
       <c r="H61" s="110">
         <f>SUM(H53:H60)</f>
@@ -13057,13 +13177,13 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="108"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="184" t="s">
+      <c r="B62" s="171"/>
+      <c r="C62" s="204" t="s">
         <v>395</v>
       </c>
-      <c r="D62" s="184"/>
-      <c r="E62" s="184"/>
-      <c r="F62" s="184"/>
+      <c r="D62" s="204"/>
+      <c r="E62" s="204"/>
+      <c r="F62" s="204"/>
       <c r="G62" s="109"/>
       <c r="H62" s="109">
         <f>$E$17/12</f>
@@ -13128,13 +13248,13 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="108"/>
-      <c r="B63" s="149"/>
-      <c r="C63" s="150" t="s">
+      <c r="B63" s="171"/>
+      <c r="C63" s="189" t="s">
         <v>396</v>
       </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="150"/>
-      <c r="F63" s="150"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
       <c r="G63" s="109"/>
       <c r="H63" s="109"/>
       <c r="I63" s="109"/>
@@ -13154,13 +13274,13 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="108"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="175" t="s">
+      <c r="B64" s="171"/>
+      <c r="C64" s="166" t="s">
         <v>355</v>
       </c>
-      <c r="D64" s="175"/>
-      <c r="E64" s="175"/>
-      <c r="F64" s="175"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="166"/>
+      <c r="F64" s="166"/>
       <c r="G64" s="111">
         <f>G31</f>
         <v>5488000</v>
@@ -13228,13 +13348,13 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="108"/>
-      <c r="B65" s="185" t="s">
+      <c r="B65" s="202" t="s">
         <v>397</v>
       </c>
-      <c r="C65" s="185"/>
-      <c r="D65" s="185"/>
-      <c r="E65" s="185"/>
-      <c r="F65" s="185"/>
+      <c r="C65" s="202"/>
+      <c r="D65" s="202"/>
+      <c r="E65" s="202"/>
+      <c r="F65" s="202"/>
       <c r="G65" s="113">
         <f>G28-G64</f>
         <v>20008813.244725019</v>
@@ -13302,13 +13422,13 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="108"/>
-      <c r="B66" s="128" t="s">
+      <c r="B66" s="164" t="s">
         <v>398</v>
       </c>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="164"/>
       <c r="G66" s="109"/>
       <c r="H66" s="109"/>
       <c r="I66" s="109"/>
@@ -13330,26 +13450,26 @@
       <c r="A67" s="108"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="B68" s="187" t="s">
+      <c r="B68" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="C68" s="187"/>
-      <c r="D68" s="187"/>
-      <c r="E68" s="187"/>
-      <c r="F68" s="187"/>
-      <c r="G68" s="187"/>
-      <c r="H68" s="187"/>
-      <c r="I68" s="187"/>
-      <c r="J68" s="187"/>
+      <c r="C68" s="203"/>
+      <c r="D68" s="203"/>
+      <c r="E68" s="203"/>
+      <c r="F68" s="203"/>
+      <c r="G68" s="203"/>
+      <c r="H68" s="203"/>
+      <c r="I68" s="203"/>
+      <c r="J68" s="203"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="B69" s="149" t="s">
+      <c r="B69" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="149"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="149"/>
-      <c r="F69" s="149"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="171"/>
+      <c r="F69" s="171"/>
       <c r="G69" s="62" t="s">
         <v>418</v>
       </c>
@@ -13364,17 +13484,17 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="B70" s="149" t="s">
+      <c r="B70" s="171" t="s">
         <v>416</v>
       </c>
-      <c r="C70" s="149" t="s">
+      <c r="C70" s="171" t="s">
         <v>406</v>
       </c>
-      <c r="D70" s="149"/>
-      <c r="E70" s="150" t="s">
+      <c r="D70" s="171"/>
+      <c r="E70" s="189" t="s">
         <v>402</v>
       </c>
-      <c r="F70" s="150"/>
+      <c r="F70" s="189"/>
       <c r="G70" s="109">
         <f>G65</f>
         <v>20008813.244725019</v>
@@ -13393,13 +13513,13 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="150" t="s">
+      <c r="B71" s="171"/>
+      <c r="C71" s="171"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="189" t="s">
         <v>403</v>
       </c>
-      <c r="F71" s="150"/>
+      <c r="F71" s="189"/>
       <c r="G71" s="109">
         <v>0</v>
       </c>
@@ -13417,39 +13537,39 @@
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="B72" s="149"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="150" t="s">
+      <c r="B72" s="171"/>
+      <c r="C72" s="171"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="189" t="s">
         <v>404</v>
       </c>
-      <c r="F72" s="150"/>
+      <c r="F72" s="189"/>
       <c r="G72" s="109"/>
       <c r="H72" s="109"/>
       <c r="I72" s="109"/>
       <c r="J72" s="109"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="B73" s="149"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="150" t="s">
+      <c r="B73" s="171"/>
+      <c r="C73" s="171"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="189" t="s">
         <v>405</v>
       </c>
-      <c r="F73" s="150"/>
+      <c r="F73" s="189"/>
       <c r="G73" s="109"/>
       <c r="H73" s="109"/>
       <c r="I73" s="109"/>
       <c r="J73" s="109"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="B74" s="149"/>
-      <c r="C74" s="149"/>
-      <c r="D74" s="149"/>
-      <c r="E74" s="174" t="s">
+      <c r="B74" s="171"/>
+      <c r="C74" s="171"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="173" t="s">
         <v>407</v>
       </c>
-      <c r="F74" s="174"/>
+      <c r="F74" s="173"/>
       <c r="G74" s="110">
         <f>SUM(G70:G73)</f>
         <v>20008813.244725019</v>
@@ -13468,15 +13588,15 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="B75" s="149"/>
-      <c r="C75" s="149" t="s">
+      <c r="B75" s="171"/>
+      <c r="C75" s="171" t="s">
         <v>417</v>
       </c>
-      <c r="D75" s="149"/>
-      <c r="E75" s="128" t="s">
+      <c r="D75" s="171"/>
+      <c r="E75" s="164" t="s">
         <v>408</v>
       </c>
-      <c r="F75" s="128"/>
+      <c r="F75" s="164"/>
       <c r="G75" s="109">
         <f>'Presupuesto de Inversion'!E5</f>
         <v>3348000</v>
@@ -13486,13 +13606,13 @@
       <c r="J75" s="109"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="B76" s="149"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="128" t="s">
+      <c r="B76" s="171"/>
+      <c r="C76" s="171"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="164" t="s">
         <v>409</v>
       </c>
-      <c r="F76" s="128"/>
+      <c r="F76" s="164"/>
       <c r="G76" s="109">
         <f>'Presupuesto de Inversion'!E8</f>
         <v>1500000</v>
@@ -13502,13 +13622,13 @@
       <c r="J76" s="109"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="B77" s="149"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="149"/>
-      <c r="E77" s="128" t="s">
+      <c r="B77" s="171"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="164" t="s">
         <v>410</v>
       </c>
-      <c r="F77" s="128"/>
+      <c r="F77" s="164"/>
       <c r="G77" s="109">
         <f>'Presupuesto de Inversion'!E11</f>
         <v>0</v>
@@ -13518,13 +13638,13 @@
       <c r="J77" s="109"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="149"/>
-      <c r="E78" s="128" t="s">
+      <c r="B78" s="171"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
+      <c r="E78" s="164" t="s">
         <v>411</v>
       </c>
-      <c r="F78" s="128"/>
+      <c r="F78" s="164"/>
       <c r="G78" s="109">
         <f>0</f>
         <v>0</v>
@@ -13534,13 +13654,13 @@
       <c r="J78" s="109"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="B79" s="149"/>
-      <c r="C79" s="149"/>
-      <c r="D79" s="149"/>
-      <c r="E79" s="128" t="s">
+      <c r="B79" s="171"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="164" t="s">
         <v>412</v>
       </c>
-      <c r="F79" s="128"/>
+      <c r="F79" s="164"/>
       <c r="G79" s="109">
         <f>'Presupuesto de Inversion'!E15</f>
         <v>0</v>
@@ -13550,13 +13670,13 @@
       <c r="J79" s="109"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="B80" s="149"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="128" t="s">
+      <c r="B80" s="171"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="164" t="s">
         <v>413</v>
       </c>
-      <c r="F80" s="128"/>
+      <c r="F80" s="164"/>
       <c r="G80" s="109"/>
       <c r="H80" s="109">
         <f>'Presupuesto de Inversion'!G31</f>
@@ -13572,13 +13692,13 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="B81" s="149"/>
-      <c r="C81" s="149"/>
-      <c r="D81" s="149"/>
-      <c r="E81" s="186" t="s">
+      <c r="B81" s="171"/>
+      <c r="C81" s="171"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="206" t="s">
         <v>414</v>
       </c>
-      <c r="F81" s="186"/>
+      <c r="F81" s="206"/>
       <c r="G81" s="113">
         <f>SUM(G75:G80)</f>
         <v>4848000</v>
@@ -13597,13 +13717,13 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="B82" s="149"/>
-      <c r="C82" s="175" t="s">
+      <c r="B82" s="171"/>
+      <c r="C82" s="166" t="s">
         <v>415</v>
       </c>
-      <c r="D82" s="175"/>
-      <c r="E82" s="175"/>
-      <c r="F82" s="175"/>
+      <c r="D82" s="166"/>
+      <c r="E82" s="166"/>
+      <c r="F82" s="166"/>
       <c r="G82" s="116">
         <f>G74+G81</f>
         <v>24856813.244725019</v>
@@ -13623,27 +13743,27 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2"/>
-      <c r="B84" s="187" t="s">
+      <c r="B84" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
-      <c r="G84" s="187"/>
-      <c r="H84" s="187"/>
-      <c r="I84" s="187"/>
-      <c r="J84" s="187"/>
+      <c r="C84" s="203"/>
+      <c r="D84" s="203"/>
+      <c r="E84" s="203"/>
+      <c r="F84" s="203"/>
+      <c r="G84" s="203"/>
+      <c r="H84" s="203"/>
+      <c r="I84" s="203"/>
+      <c r="J84" s="203"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2"/>
-      <c r="B85" s="149" t="s">
+      <c r="B85" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="149"/>
-      <c r="D85" s="149"/>
-      <c r="E85" s="149"/>
-      <c r="F85" s="149"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
       <c r="G85" s="62" t="s">
         <v>443</v>
       </c>
@@ -13659,17 +13779,17 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2"/>
-      <c r="B86" s="149" t="s">
+      <c r="B86" s="171" t="s">
         <v>434</v>
       </c>
-      <c r="C86" s="149" t="s">
+      <c r="C86" s="171" t="s">
         <v>429</v>
       </c>
-      <c r="D86" s="149"/>
-      <c r="E86" s="150" t="s">
+      <c r="D86" s="171"/>
+      <c r="E86" s="189" t="s">
         <v>420</v>
       </c>
-      <c r="F86" s="150"/>
+      <c r="F86" s="189"/>
       <c r="G86" s="77"/>
       <c r="H86" s="77"/>
       <c r="I86" s="77"/>
@@ -13677,13 +13797,13 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2"/>
-      <c r="B87" s="149"/>
-      <c r="C87" s="149"/>
-      <c r="D87" s="149"/>
-      <c r="E87" s="150" t="s">
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="189" t="s">
         <v>421</v>
       </c>
-      <c r="F87" s="150"/>
+      <c r="F87" s="189"/>
       <c r="G87" s="77"/>
       <c r="H87" s="77">
         <f>'Presupuesto de Inversion'!E64</f>
@@ -13700,13 +13820,13 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2"/>
-      <c r="B88" s="149"/>
-      <c r="C88" s="149"/>
-      <c r="D88" s="149"/>
-      <c r="E88" s="184" t="s">
+      <c r="B88" s="171"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="204" t="s">
         <v>422</v>
       </c>
-      <c r="F88" s="184"/>
+      <c r="F88" s="204"/>
       <c r="G88" s="77"/>
       <c r="H88" s="77"/>
       <c r="I88" s="77"/>
@@ -13714,13 +13834,13 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2"/>
-      <c r="B89" s="149"/>
-      <c r="C89" s="149"/>
-      <c r="D89" s="149"/>
-      <c r="E89" s="184" t="s">
+      <c r="B89" s="171"/>
+      <c r="C89" s="171"/>
+      <c r="D89" s="171"/>
+      <c r="E89" s="204" t="s">
         <v>423</v>
       </c>
-      <c r="F89" s="184"/>
+      <c r="F89" s="204"/>
       <c r="G89" s="77"/>
       <c r="H89" s="77">
         <f>'Presupuesto de Inversion'!C154</f>
@@ -13737,13 +13857,13 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2"/>
-      <c r="B90" s="149"/>
-      <c r="C90" s="149"/>
-      <c r="D90" s="149"/>
-      <c r="E90" s="184" t="s">
+      <c r="B90" s="171"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="204" t="s">
         <v>391</v>
       </c>
-      <c r="F90" s="184"/>
+      <c r="F90" s="204"/>
       <c r="G90" s="77"/>
       <c r="H90" s="77">
         <f>'Presupuesto de Inversion'!C155</f>
@@ -13760,13 +13880,13 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2"/>
-      <c r="B91" s="149"/>
-      <c r="C91" s="149"/>
-      <c r="D91" s="149"/>
-      <c r="E91" s="184" t="s">
+      <c r="B91" s="171"/>
+      <c r="C91" s="171"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="204" t="s">
         <v>424</v>
       </c>
-      <c r="F91" s="184"/>
+      <c r="F91" s="204"/>
       <c r="G91" s="77"/>
       <c r="H91" s="77">
         <f>'Presupuesto de Inversion'!O140</f>
@@ -13783,13 +13903,13 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2"/>
-      <c r="B92" s="149"/>
-      <c r="C92" s="149"/>
-      <c r="D92" s="149"/>
-      <c r="E92" s="184" t="s">
+      <c r="B92" s="171"/>
+      <c r="C92" s="171"/>
+      <c r="D92" s="171"/>
+      <c r="E92" s="204" t="s">
         <v>425</v>
       </c>
-      <c r="F92" s="184"/>
+      <c r="F92" s="204"/>
       <c r="G92" s="77"/>
       <c r="H92" s="77">
         <f>'Presupuesto de Inversion'!O141</f>
@@ -13806,13 +13926,13 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="149"/>
-      <c r="D93" s="149"/>
-      <c r="E93" s="184" t="s">
+      <c r="B93" s="171"/>
+      <c r="C93" s="171"/>
+      <c r="D93" s="171"/>
+      <c r="E93" s="204" t="s">
         <v>426</v>
       </c>
-      <c r="F93" s="184"/>
+      <c r="F93" s="204"/>
       <c r="G93" s="77"/>
       <c r="H93" s="77">
         <f>E14+E15</f>
@@ -13829,13 +13949,13 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="149"/>
-      <c r="D94" s="149"/>
-      <c r="E94" s="184" t="s">
+      <c r="B94" s="171"/>
+      <c r="C94" s="171"/>
+      <c r="D94" s="171"/>
+      <c r="E94" s="204" t="s">
         <v>427</v>
       </c>
-      <c r="F94" s="184"/>
+      <c r="F94" s="204"/>
       <c r="G94" s="77"/>
       <c r="H94" s="77">
         <v>0</v>
@@ -13849,13 +13969,13 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2"/>
-      <c r="B95" s="149"/>
-      <c r="C95" s="149"/>
-      <c r="D95" s="149"/>
-      <c r="E95" s="189" t="s">
+      <c r="B95" s="171"/>
+      <c r="C95" s="171"/>
+      <c r="D95" s="171"/>
+      <c r="E95" s="205" t="s">
         <v>428</v>
       </c>
-      <c r="F95" s="189"/>
+      <c r="F95" s="205"/>
       <c r="G95" s="102">
         <f>SUM(G86:G94)</f>
         <v>0</v>
@@ -13875,15 +13995,15 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2"/>
-      <c r="B96" s="149"/>
-      <c r="C96" s="149" t="s">
+      <c r="B96" s="171"/>
+      <c r="C96" s="171" t="s">
         <v>433</v>
       </c>
-      <c r="D96" s="149"/>
-      <c r="E96" s="150" t="s">
+      <c r="D96" s="171"/>
+      <c r="E96" s="189" t="s">
         <v>430</v>
       </c>
-      <c r="F96" s="150"/>
+      <c r="F96" s="189"/>
       <c r="G96" s="77"/>
       <c r="H96" s="77"/>
       <c r="I96" s="77"/>
@@ -13891,9 +14011,9 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2"/>
-      <c r="B97" s="149"/>
-      <c r="C97" s="149"/>
-      <c r="D97" s="149"/>
+      <c r="B97" s="171"/>
+      <c r="C97" s="171"/>
+      <c r="D97" s="171"/>
       <c r="E97" s="117" t="s">
         <v>431</v>
       </c>
@@ -13905,13 +14025,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2"/>
-      <c r="B98" s="149"/>
-      <c r="C98" s="149"/>
-      <c r="D98" s="149"/>
-      <c r="E98" s="150" t="s">
+      <c r="B98" s="171"/>
+      <c r="C98" s="171"/>
+      <c r="D98" s="171"/>
+      <c r="E98" s="189" t="s">
         <v>427</v>
       </c>
-      <c r="F98" s="150"/>
+      <c r="F98" s="189"/>
       <c r="G98" s="77"/>
       <c r="H98" s="77"/>
       <c r="I98" s="77"/>
@@ -13919,13 +14039,13 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2"/>
-      <c r="B99" s="149"/>
-      <c r="C99" s="149"/>
-      <c r="D99" s="149"/>
-      <c r="E99" s="174" t="s">
+      <c r="B99" s="171"/>
+      <c r="C99" s="171"/>
+      <c r="D99" s="171"/>
+      <c r="E99" s="173" t="s">
         <v>432</v>
       </c>
-      <c r="F99" s="174"/>
+      <c r="F99" s="173"/>
       <c r="G99" s="102">
         <f>SUM(G96:G98)</f>
         <v>0</v>
@@ -13945,13 +14065,13 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2"/>
-      <c r="B100" s="149"/>
-      <c r="C100" s="188" t="s">
+      <c r="B100" s="171"/>
+      <c r="C100" s="201" t="s">
         <v>435</v>
       </c>
-      <c r="D100" s="188"/>
-      <c r="E100" s="188"/>
-      <c r="F100" s="188"/>
+      <c r="D100" s="201"/>
+      <c r="E100" s="201"/>
+      <c r="F100" s="201"/>
       <c r="G100" s="118">
         <f>G95+G99</f>
         <v>0</v>
@@ -13971,11 +14091,11 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2"/>
-      <c r="B101" s="149" t="s">
+      <c r="B101" s="171" t="s">
         <v>441</v>
       </c>
-      <c r="C101" s="149"/>
-      <c r="D101" s="149"/>
+      <c r="C101" s="171"/>
+      <c r="D101" s="171"/>
       <c r="E101" s="2" t="s">
         <v>436</v>
       </c>
@@ -13987,9 +14107,9 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2"/>
-      <c r="B102" s="149"/>
-      <c r="C102" s="149"/>
-      <c r="D102" s="149"/>
+      <c r="B102" s="171"/>
+      <c r="C102" s="171"/>
+      <c r="D102" s="171"/>
       <c r="E102" s="2" t="s">
         <v>437</v>
       </c>
@@ -14010,9 +14130,9 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2"/>
-      <c r="B103" s="149"/>
-      <c r="C103" s="149"/>
-      <c r="D103" s="149"/>
+      <c r="B103" s="171"/>
+      <c r="C103" s="171"/>
+      <c r="D103" s="171"/>
       <c r="E103" s="2" t="s">
         <v>438</v>
       </c>
@@ -14024,9 +14144,9 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2"/>
-      <c r="B104" s="149"/>
-      <c r="C104" s="149"/>
-      <c r="D104" s="149"/>
+      <c r="B104" s="171"/>
+      <c r="C104" s="171"/>
+      <c r="D104" s="171"/>
       <c r="E104" s="2" t="s">
         <v>439</v>
       </c>
@@ -14047,13 +14167,13 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2"/>
-      <c r="B105" s="149"/>
-      <c r="C105" s="149"/>
-      <c r="D105" s="149"/>
-      <c r="E105" s="174" t="s">
+      <c r="B105" s="171"/>
+      <c r="C105" s="171"/>
+      <c r="D105" s="171"/>
+      <c r="E105" s="173" t="s">
         <v>440</v>
       </c>
-      <c r="F105" s="174"/>
+      <c r="F105" s="173"/>
       <c r="G105" s="102">
         <f>SUM(G101:G104)</f>
         <v>0</v>
@@ -14073,13 +14193,13 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2"/>
-      <c r="B106" s="188" t="s">
+      <c r="B106" s="201" t="s">
         <v>442</v>
       </c>
-      <c r="C106" s="188"/>
-      <c r="D106" s="188"/>
-      <c r="E106" s="188"/>
-      <c r="F106" s="188"/>
+      <c r="C106" s="201"/>
+      <c r="D106" s="201"/>
+      <c r="E106" s="201"/>
+      <c r="F106" s="201"/>
       <c r="G106" s="118">
         <f>G100+G105</f>
         <v>0</v>
@@ -14099,13 +14219,13 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2"/>
-      <c r="B107" s="128" t="s">
+      <c r="B107" s="164" t="s">
         <v>416</v>
       </c>
-      <c r="C107" s="128"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="128"/>
-      <c r="F107" s="128"/>
+      <c r="C107" s="164"/>
+      <c r="D107" s="164"/>
+      <c r="E107" s="164"/>
+      <c r="F107" s="164"/>
       <c r="G107" s="77">
         <f>G82</f>
         <v>24856813.244725019</v>
@@ -14125,13 +14245,13 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2"/>
-      <c r="B108" s="185" t="s">
+      <c r="B108" s="202" t="s">
         <v>444</v>
       </c>
-      <c r="C108" s="185"/>
-      <c r="D108" s="185"/>
-      <c r="E108" s="185"/>
-      <c r="F108" s="185"/>
+      <c r="C108" s="202"/>
+      <c r="D108" s="202"/>
+      <c r="E108" s="202"/>
+      <c r="F108" s="202"/>
       <c r="G108" s="95">
         <f>G107-(G100+G105)</f>
         <v>24856813.244725019</v>
@@ -14151,48 +14271,41 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="B101:D105"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="C96:D99"/>
-    <mergeCell ref="B86:B100"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="C86:D95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="B70:B82"/>
-    <mergeCell ref="C75:D81"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C70:D74"/>
-    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="C64:F64"/>
@@ -14217,41 +14330,48 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="C75:D81"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C70:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="B101:D105"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="C96:D99"/>
+    <mergeCell ref="B86:B100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="C86:D95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14259,10 +14379,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F52" sqref="B32:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14271,7 +14391,8 @@
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -14282,48 +14403,48 @@
         <f>'Presupuesto de Inversion'!C209</f>
         <v>25496813.244725019</v>
       </c>
-      <c r="J2" s="212" t="s">
+      <c r="J2" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="212"/>
+      <c r="K2" s="215"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="J3" s="213" t="s">
+      <c r="J3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="214">
+      <c r="K3" s="146">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="J4" s="213" t="s">
+      <c r="J4" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="215">
+      <c r="K4" s="147">
         <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="213" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="J5" s="213" t="s">
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="J5" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="214">
+      <c r="K5" s="146">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="171"/>
       <c r="D6" s="62" t="s">
         <v>418</v>
       </c>
@@ -14338,10 +14459,10 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="189" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="150"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
         <f>'Analisis Financiero'!T65</f>
@@ -14357,10 +14478,10 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="189" t="s">
         <v>447</v>
       </c>
-      <c r="C8" s="150"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="19">
         <f>C2*0.7</f>
         <v>17847769.271307513</v>
@@ -14376,10 +14497,10 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="189" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="150"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="19">
         <f>C2*0.3</f>
         <v>7649043.9734175056</v>
@@ -14395,10 +14516,10 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="189" t="s">
         <v>448</v>
       </c>
-      <c r="C10" s="150"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="19">
         <f>SUM(D8:D9)</f>
         <v>25496813.244725019</v>
@@ -14417,10 +14538,10 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="216" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="192"/>
+      <c r="C11" s="216"/>
       <c r="D11" s="121">
         <f>D7-D10</f>
         <v>-25496813.244725019</v>
@@ -14440,12 +14561,12 @@
       <c r="H11" s="68"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="214" t="s">
         <v>452</v>
       </c>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="62" t="s">
@@ -14454,7 +14575,7 @@
       <c r="C14" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="210" t="s">
+      <c r="D14" s="143" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="62" t="s">
@@ -14470,7 +14591,7 @@
         <f>B15+E11</f>
         <v>8823177.3491328359</v>
       </c>
-      <c r="D15" s="211">
+      <c r="D15" s="144">
         <f t="shared" ref="D15:E15" si="2">C15+F11</f>
         <v>46467775.960643858</v>
       </c>
@@ -14479,8 +14600,8 @@
         <v>92021526.356632665</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="204" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="137" t="s">
         <v>453</v>
       </c>
       <c r="C18" s="122">
@@ -14488,25 +14609,25 @@
         <v>78944985.191494763</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="204" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="137" t="s">
         <v>454</v>
       </c>
-      <c r="C19" s="205">
+      <c r="C19" s="138">
         <f>C27</f>
         <v>1.5878226469958019</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:6">
       <c r="B21" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="C21" s="209">
+      <c r="C21" s="142">
         <f>(((E11+F11+G11)/C2)-1)/3</f>
         <v>1.2030461149972771</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:6">
       <c r="B22" s="20" t="s">
         <v>456</v>
       </c>
@@ -14515,44 +14636,400 @@
         <v>2.4060922299945542</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="206" t="s">
+    <row r="24" spans="2:6">
+      <c r="B24" s="139" t="s">
         <v>457</v>
       </c>
-      <c r="C24" s="207">
+      <c r="C24" s="140">
         <f>-C2+(E11/(1+C21))+(F11/((1+C21)^2))+(G11/((1+C21)^3))</f>
         <v>2098358.0390458759</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="206" t="s">
+    <row r="25" spans="2:6">
+      <c r="B25" s="139" t="s">
         <v>458</v>
       </c>
-      <c r="C25" s="207">
+      <c r="C25" s="140">
         <f>-C2+(E11/(1+C22))+((F11/(1+C22)^2))+((G11/(1+C22)^3))</f>
         <v>-11023136.006527178</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="206" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26" s="139" t="s">
         <v>459</v>
       </c>
-      <c r="C26" s="207">
+      <c r="C26" s="140">
         <f>-C25</f>
         <v>11023136.006527178</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="206" t="s">
+    <row r="27" spans="2:6">
+      <c r="B27" s="139" t="s">
         <v>454</v>
       </c>
-      <c r="C27" s="208">
+      <c r="C27" s="141">
         <f>C21+((C22-D2)*(C24/(C24+C26)))</f>
         <v>1.5878226469958019</v>
       </c>
     </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="171" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="171"/>
+      <c r="D32" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="217" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="189" t="s">
+        <v>478</v>
+      </c>
+      <c r="C34" s="189"/>
+      <c r="D34" s="19">
+        <f>'[1]Presupuesto de Inversion'!E172</f>
+        <v>48303010</v>
+      </c>
+      <c r="E34" s="19">
+        <f>'[1]Presupuesto de Inversion'!F172</f>
+        <v>51257190.600000001</v>
+      </c>
+      <c r="F34" s="19">
+        <f>'[1]Presupuesto de Inversion'!G172</f>
+        <v>54562907.989000008</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="189" t="s">
+        <v>479</v>
+      </c>
+      <c r="C35" s="189"/>
+      <c r="D35" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!O196</f>
+        <v>109601737.60430335</v>
+      </c>
+      <c r="E35" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!P196</f>
+        <v>118369876.61264761</v>
+      </c>
+      <c r="F35" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!Q196</f>
+        <v>136125358.10454476</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="189" t="s">
+        <v>480</v>
+      </c>
+      <c r="C36" s="189"/>
+      <c r="D36" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!E182</f>
+        <v>12346635.741124773</v>
+      </c>
+      <c r="E36" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!F182</f>
+        <v>13306637.360800866</v>
+      </c>
+      <c r="F36" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!G182</f>
+        <v>15177712.740460427</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="137" t="s">
+        <v>481</v>
+      </c>
+      <c r="C37" s="137"/>
+      <c r="D37" s="218">
+        <f ca="1">D34/(D35-D36)</f>
+        <v>0.49666299324794438</v>
+      </c>
+      <c r="E37" s="218">
+        <f t="shared" ref="E37:F37" ca="1" si="3">E34/(E35-E36)</f>
+        <v>0.4878698864131874</v>
+      </c>
+      <c r="F37" s="218">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45112831940424514</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="204" t="s">
+        <v>482</v>
+      </c>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="204" t="s">
+        <v>478</v>
+      </c>
+      <c r="C39" s="204"/>
+      <c r="D39" s="19">
+        <f>D34</f>
+        <v>48303010</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" ref="E39:F39" si="4">E34</f>
+        <v>51257190.600000001</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="4"/>
+        <v>54562907.989000008</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="204" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40" s="204"/>
+      <c r="D40" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!D188</f>
+        <v>16788.517449488325</v>
+      </c>
+      <c r="E40" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!E188</f>
+        <v>14146.131828839389</v>
+      </c>
+      <c r="F40" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!F188</f>
+        <v>12638.591204065677</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="204" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="204"/>
+      <c r="D41" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!D189</f>
+        <v>3239.7364841576418</v>
+      </c>
+      <c r="E41" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!E189</f>
+        <v>3899.9523331772762</v>
+      </c>
+      <c r="F41" s="19">
+        <f ca="1">'[1]Presupuesto de Inversion'!F189</f>
+        <v>3955.6196873756653</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="219" t="s">
+        <v>485</v>
+      </c>
+      <c r="C42" s="219"/>
+      <c r="D42" s="137">
+        <f ca="1">D39/(D40-D41)</f>
+        <v>3565.1185242126376</v>
+      </c>
+      <c r="E42" s="137">
+        <f t="shared" ref="E42:F42" ca="1" si="5">E39/(E40-E41)</f>
+        <v>5002.566139086337</v>
+      </c>
+      <c r="F42" s="137">
+        <f t="shared" ca="1" si="5"/>
+        <v>6283.8980738473774</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="204" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="204" t="s">
+        <v>478</v>
+      </c>
+      <c r="C44" s="204"/>
+      <c r="D44" s="19">
+        <f>D34</f>
+        <v>48303010</v>
+      </c>
+      <c r="E44" s="19">
+        <f t="shared" ref="E44:F44" si="6">E34</f>
+        <v>51257190.600000001</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="6"/>
+        <v>54562907.989000008</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="204" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" s="204"/>
+      <c r="D45" s="19">
+        <f ca="1">D36</f>
+        <v>12346635.741124773</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" ref="E45:F45" ca="1" si="7">E36</f>
+        <v>13306637.360800866</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" ca="1" si="7"/>
+        <v>15177712.740460427</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="204" t="s">
+        <v>479</v>
+      </c>
+      <c r="C46" s="204"/>
+      <c r="D46" s="19">
+        <f ca="1">D35</f>
+        <v>109601737.60430335</v>
+      </c>
+      <c r="E46" s="19">
+        <f t="shared" ref="E46:F46" ca="1" si="8">E35</f>
+        <v>118369876.61264761</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" ca="1" si="8"/>
+        <v>136125358.10454476</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="219" t="s">
+        <v>488</v>
+      </c>
+      <c r="C47" s="219"/>
+      <c r="D47" s="122">
+        <f ca="1">D44/(1-(D45/D46))</f>
+        <v>54435127.063729085</v>
+      </c>
+      <c r="E47" s="122">
+        <f t="shared" ref="E47:F47" ca="1" si="9">E44/(1-(E45/E46))</f>
+        <v>57749098.257755399</v>
+      </c>
+      <c r="F47" s="122">
+        <f t="shared" ca="1" si="9"/>
+        <v>61410004.030004323</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="204" t="s">
+        <v>489</v>
+      </c>
+      <c r="C48" s="204"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="204" t="s">
+        <v>490</v>
+      </c>
+      <c r="C49" s="204"/>
+      <c r="D49" s="19">
+        <f ca="1">D47</f>
+        <v>54435127.063729085</v>
+      </c>
+      <c r="E49" s="19">
+        <f t="shared" ref="E49:F49" ca="1" si="10">E47</f>
+        <v>57749098.257755399</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" ca="1" si="10"/>
+        <v>61410004.030004323</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="220" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" s="221"/>
+      <c r="D50" s="19">
+        <f ca="1">D35</f>
+        <v>109601737.60430335</v>
+      </c>
+      <c r="E50" s="19">
+        <f t="shared" ref="E50:F50" ca="1" si="11">E35</f>
+        <v>118369876.61264761</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" ca="1" si="11"/>
+        <v>136125358.10454476</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="204" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" s="204"/>
+      <c r="D51" s="2">
+        <v>243</v>
+      </c>
+      <c r="E51" s="2">
+        <v>244</v>
+      </c>
+      <c r="F51" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="219" t="s">
+        <v>492</v>
+      </c>
+      <c r="C52" s="219"/>
+      <c r="D52" s="222">
+        <f ca="1">D49/(D50/D51)</f>
+        <v>120.68910735925049</v>
+      </c>
+      <c r="E52" s="222">
+        <f t="shared" ref="E52:F52" ca="1" si="12">E49/(E50/E51)</f>
+        <v>119.04025228481773</v>
+      </c>
+      <c r="F52" s="222">
+        <f t="shared" ca="1" si="12"/>
+        <v>110.52643825404007</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="29">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="J2:K2"/>
@@ -14590,18 +15067,18 @@
       <c r="B2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="193">
+      <c r="C2" s="126">
         <f ca="1">'[1]Indicadores Financieros'!D9</f>
-        <v>10212776.344385484</v>
-      </c>
-      <c r="D2" s="194"/>
+        <v>6930614.0285976548</v>
+      </c>
+      <c r="D2" s="127"/>
       <c r="F2" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G2" s="195">
+      <c r="G2" s="128">
         <v>12</v>
       </c>
-      <c r="H2" s="194" t="s">
+      <c r="H2" s="127" t="s">
         <v>462</v>
       </c>
     </row>
@@ -14609,19 +15086,19 @@
       <c r="B3" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="195">
+      <c r="C3" s="128">
         <v>1</v>
       </c>
-      <c r="D3" s="194" t="s">
+      <c r="D3" s="127" t="s">
         <v>462</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G3" s="195">
+      <c r="G3" s="128">
         <v>12</v>
       </c>
-      <c r="H3" s="194" t="s">
+      <c r="H3" s="127" t="s">
         <v>465</v>
       </c>
     </row>
@@ -14629,383 +15106,383 @@
       <c r="B4" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="196">
+      <c r="C4" s="129">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="194"/>
+      <c r="D4" s="127"/>
       <c r="F4" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G4" s="195">
+      <c r="G4" s="128">
         <f>((1+C4)^(1/12))-1</f>
         <v>2.0784728489500193E-2</v>
       </c>
-      <c r="H4" s="194"/>
+      <c r="H4" s="127"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="108"/>
-      <c r="C5" s="197"/>
+      <c r="C5" s="130"/>
       <c r="D5" s="108"/>
       <c r="F5" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G5" s="198">
+      <c r="G5" s="131">
         <f ca="1">PMT(G4,G2,C2)</f>
-        <v>-970376.15287790948</v>
-      </c>
-      <c r="H5" s="194"/>
+        <v>-658518.54102822149</v>
+      </c>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="108"/>
-      <c r="C6" s="197"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="108"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="198">
+      <c r="G6" s="131">
         <f ca="1">-G5</f>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="H6" s="194"/>
+        <v>658518.54102822149</v>
+      </c>
+      <c r="H6" s="127"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="171" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="161" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="161" t="s">
         <v>471</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="161" t="s">
         <v>472</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="161" t="s">
         <v>473</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="161" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="161" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="149"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="199">
+      <c r="B10" s="132">
         <v>1</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="133">
         <f ca="1">C2</f>
-        <v>10212776.344385484</v>
-      </c>
-      <c r="D10" s="200">
+        <v>6930614.0285976548</v>
+      </c>
+      <c r="D10" s="133">
         <f ca="1">C10*$G$4</f>
-        <v>212269.78344204259</v>
-      </c>
-      <c r="E10" s="200">
-        <v>0</v>
-      </c>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200">
-        <v>0</v>
-      </c>
-      <c r="H10" s="200">
+        <v>144050.93084992337</v>
+      </c>
+      <c r="E10" s="133">
+        <v>0</v>
+      </c>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133">
+        <v>0</v>
+      </c>
+      <c r="H10" s="133">
         <f ca="1">C10</f>
-        <v>10212776.344385484</v>
+        <v>6930614.0285976548</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="199">
+      <c r="B11" s="132">
         <v>2</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="133">
         <f ca="1">C2</f>
-        <v>10212776.344385484</v>
-      </c>
-      <c r="D11" s="200">
+        <v>6930614.0285976548</v>
+      </c>
+      <c r="D11" s="133">
         <f t="shared" ref="D11:D20" ca="1" si="0">C11*$G$4</f>
-        <v>212269.78344204259</v>
-      </c>
-      <c r="E11" s="200">
+        <v>144050.93084992337</v>
+      </c>
+      <c r="E11" s="133">
         <f ca="1">IF((C11+D11)&gt;$G$6,$G$6,C11+D11)</f>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133">
         <f ca="1">(E11+F11)-D11</f>
-        <v>758106.36943586683</v>
-      </c>
-      <c r="H11" s="200">
+        <v>514467.61017829808</v>
+      </c>
+      <c r="H11" s="133">
         <f ca="1">C11-G11</f>
-        <v>9454669.9749496169</v>
+        <v>6416146.4184193565</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="199">
+      <c r="B12" s="132">
         <v>3</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="133">
         <f ca="1">H11</f>
-        <v>9454669.9749496169</v>
-      </c>
-      <c r="D12" s="200">
+        <v>6416146.4184193565</v>
+      </c>
+      <c r="D12" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>196512.74838715736</v>
-      </c>
-      <c r="E12" s="200">
+        <v>133357.86125572541</v>
+      </c>
+      <c r="E12" s="133">
         <f t="shared" ref="E12:E21" ca="1" si="1">IF((C12+D12)&gt;$G$6,$G$6,C12+D12)</f>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133">
         <f t="shared" ref="G12:G21" ca="1" si="2">(E12+F12)-D12</f>
-        <v>773863.40449075215</v>
-      </c>
-      <c r="H12" s="200">
+        <v>525160.67977249611</v>
+      </c>
+      <c r="H12" s="133">
         <f t="shared" ref="H12:H21" ca="1" si="3">C12-G12</f>
-        <v>8680806.5704588648</v>
+        <v>5890985.7386468602</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="199">
+      <c r="B13" s="132">
         <v>4</v>
       </c>
-      <c r="C13" s="200">
+      <c r="C13" s="133">
         <f t="shared" ref="C13:C21" ca="1" si="4">H12</f>
-        <v>8680806.5704588648</v>
-      </c>
-      <c r="D13" s="200">
+        <v>5890985.7386468602</v>
+      </c>
+      <c r="D13" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>180428.20763685682</v>
-      </c>
-      <c r="E13" s="200">
+        <v>122442.53911329273</v>
+      </c>
+      <c r="E13" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>789947.94524105266</v>
-      </c>
-      <c r="H13" s="200">
+        <v>536076.00191492878</v>
+      </c>
+      <c r="H13" s="133">
         <f t="shared" ca="1" si="3"/>
-        <v>7890858.6252178121</v>
+        <v>5354909.7367319316</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="199">
+      <c r="B14" s="132">
         <v>5</v>
       </c>
-      <c r="C14" s="200">
+      <c r="C14" s="133">
         <f t="shared" ca="1" si="4"/>
-        <v>7890858.6252178121</v>
-      </c>
-      <c r="D14" s="200">
+        <v>5354909.7367319316</v>
+      </c>
+      <c r="D14" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>164009.35407418298</v>
-      </c>
-      <c r="E14" s="200">
+        <v>111300.34496375415</v>
+      </c>
+      <c r="E14" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>806366.79880372644</v>
-      </c>
-      <c r="H14" s="200">
+        <v>547218.19606446731</v>
+      </c>
+      <c r="H14" s="133">
         <f t="shared" ca="1" si="3"/>
-        <v>7084491.8264140859</v>
+        <v>4807691.540667464</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="199">
+      <c r="B15" s="132">
         <v>6</v>
       </c>
-      <c r="C15" s="200">
+      <c r="C15" s="133">
         <f t="shared" ca="1" si="4"/>
-        <v>7084491.8264140859</v>
-      </c>
-      <c r="D15" s="200">
+        <v>4807691.540667464</v>
+      </c>
+      <c r="D15" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>147249.23909810011</v>
-      </c>
-      <c r="E15" s="200">
+        <v>99926.563334040111</v>
+      </c>
+      <c r="E15" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F15" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F15" s="133">
         <v>1500000</v>
       </c>
-      <c r="G15" s="200">
+      <c r="G15" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>2323126.9137798096</v>
-      </c>
-      <c r="H15" s="200">
+        <v>2058591.9776941815</v>
+      </c>
+      <c r="H15" s="133">
         <f t="shared" ca="1" si="3"/>
-        <v>4761364.9126342759</v>
+        <v>2749099.5629732823</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="199">
+      <c r="B16" s="132">
         <v>7</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="133">
         <f t="shared" ca="1" si="4"/>
-        <v>4761364.9126342759</v>
-      </c>
-      <c r="D16" s="200">
+        <v>2749099.5629732823</v>
+      </c>
+      <c r="D16" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>98963.676948536231</v>
-      </c>
-      <c r="E16" s="200">
+        <v>57139.288007003306</v>
+      </c>
+      <c r="E16" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>871412.47592937329</v>
-      </c>
-      <c r="H16" s="200">
+        <v>601379.25302121823</v>
+      </c>
+      <c r="H16" s="133">
         <f t="shared" ca="1" si="3"/>
-        <v>3889952.4367049024</v>
+        <v>2147720.309952064</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="199">
+      <c r="B17" s="132">
         <v>8</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="133">
         <f t="shared" ca="1" si="4"/>
-        <v>3889952.4367049024</v>
-      </c>
-      <c r="D17" s="200">
+        <v>2147720.309952064</v>
+      </c>
+      <c r="D17" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>80851.605233981085</v>
-      </c>
-      <c r="E17" s="200">
+        <v>44639.783513738847</v>
+      </c>
+      <c r="E17" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>889524.54764392844</v>
-      </c>
-      <c r="H17" s="200">
+        <v>613878.7575144826</v>
+      </c>
+      <c r="H17" s="133">
         <f t="shared" ca="1" si="3"/>
-        <v>3000427.8890609741</v>
+        <v>1533841.5524375814</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="199">
+      <c r="B18" s="132">
         <v>9</v>
       </c>
-      <c r="C18" s="200">
+      <c r="C18" s="133">
         <f t="shared" ca="1" si="4"/>
-        <v>3000427.8890609741</v>
-      </c>
-      <c r="D18" s="200">
+        <v>1533841.5524375814</v>
+      </c>
+      <c r="D18" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>62363.079026456551</v>
-      </c>
-      <c r="E18" s="200">
+        <v>31880.480213328599</v>
+      </c>
+      <c r="E18" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>908013.07385145291</v>
-      </c>
-      <c r="H18" s="200">
+        <v>626638.06081489287</v>
+      </c>
+      <c r="H18" s="133">
         <f t="shared" ca="1" si="3"/>
-        <v>2092414.8152095212</v>
+        <v>907203.49162268848</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="199">
+      <c r="B19" s="132">
         <v>10</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="133">
         <f t="shared" ca="1" si="4"/>
-        <v>2092414.8152095212</v>
-      </c>
-      <c r="D19" s="200">
+        <v>907203.49162268848</v>
+      </c>
+      <c r="D19" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>43490.273821537616</v>
-      </c>
-      <c r="E19" s="200">
+        <v>18855.978258104144</v>
+      </c>
+      <c r="E19" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>926885.87905637186</v>
-      </c>
-      <c r="H19" s="200">
+        <v>639662.56277011731</v>
+      </c>
+      <c r="H19" s="133">
         <f t="shared" ca="1" si="3"/>
-        <v>1165528.9361531492</v>
+        <v>267540.92885257117</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="199">
+      <c r="B20" s="132">
         <v>11</v>
       </c>
-      <c r="C20" s="200">
+      <c r="C20" s="133">
         <f t="shared" ca="1" si="4"/>
-        <v>1165528.9361531492</v>
-      </c>
-      <c r="D20" s="200">
+        <v>267540.92885257117</v>
+      </c>
+      <c r="D20" s="133">
         <f t="shared" ca="1" si="0"/>
-        <v>24225.202484599213</v>
-      </c>
-      <c r="E20" s="200">
+        <v>5560.7655660293804</v>
+      </c>
+      <c r="E20" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200">
+        <v>273101.69441860053</v>
+      </c>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>946150.95039331028</v>
-      </c>
-      <c r="H20" s="200">
+        <v>267540.92885257117</v>
+      </c>
+      <c r="H20" s="133">
         <f t="shared" ca="1" si="3"/>
-        <v>219377.98575983895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="199">
+      <c r="B21" s="132">
         <v>12</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="133">
         <f t="shared" ca="1" si="4"/>
-        <v>219377.98575983895</v>
-      </c>
-      <c r="D21" s="200">
+        <v>0</v>
+      </c>
+      <c r="D21" s="133">
         <f ca="1">C21*$G$4</f>
-        <v>4559.7118705916919</v>
-      </c>
-      <c r="E21" s="200">
+        <v>0</v>
+      </c>
+      <c r="E21" s="133">
         <f t="shared" ca="1" si="1"/>
-        <v>223937.69763043063</v>
-      </c>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200">
+        <v>0</v>
+      </c>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133">
         <f t="shared" ca="1" si="2"/>
-        <v>219377.98575983895</v>
-      </c>
-      <c r="H21" s="200">
+        <v>0</v>
+      </c>
+      <c r="H21" s="133">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
@@ -15014,29 +15491,29 @@
       <c r="B22" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202">
+      <c r="C22" s="134"/>
+      <c r="D22" s="135">
         <f ca="1">SUM(D10:D21)</f>
-        <v>1427192.6654660846</v>
-      </c>
-      <c r="E22" s="202">
+        <v>913205.46592486347</v>
+      </c>
+      <c r="E22" s="135">
         <f ca="1">SUM(E10:E21)</f>
-        <v>9927699.2264095265</v>
-      </c>
-      <c r="F22" s="202">
+        <v>6199768.5636725938</v>
+      </c>
+      <c r="F22" s="135">
         <f>SUM(F10:F21)</f>
         <v>1500000</v>
       </c>
-      <c r="G22" s="201"/>
-      <c r="H22" s="201"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="D24" s="203" t="s">
+      <c r="D24" s="136" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="121">
         <f ca="1">$C$2+D22</f>
-        <v>11639969.009851569</v>
+        <v>7843819.4945225185</v>
       </c>
     </row>
   </sheetData>

--- a/Estudio_financiero_Estatica.xlsx
+++ b/Estudio_financiero_Estatica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda Dinamica" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Indicadores Financieros" sheetId="4" r:id="rId4"/>
     <sheet name="Analisis Prestamo" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="507">
   <si>
     <t>INFORMACIÓN PARA TENER EN CUENTA:</t>
   </si>
@@ -1374,9 +1371,6 @@
     <t>b) Creditos</t>
   </si>
   <si>
-    <t>a) Aporte de Socios</t>
-  </si>
-  <si>
     <t>(2)Inversiones Netal del Periodo=a+b</t>
   </si>
   <si>
@@ -1500,9 +1494,6 @@
     <t>PE en Volumen de Ventas PEVV ($)=</t>
   </si>
   <si>
-    <t>*PE en No. de Dias año (dias): PEDA = PEVV*/(IT/N)</t>
-  </si>
-  <si>
     <t>PEVV*: PE en Volumenes de Ventas ($)</t>
   </si>
   <si>
@@ -1537,6 +1528,27 @@
   </si>
   <si>
     <t>Total Costo Variable</t>
+  </si>
+  <si>
+    <t>*PE en No. de Dias año (dias): PEDA = PEVV/(IT/N)</t>
+  </si>
+  <si>
+    <t>a) Aporte de Inversionistas</t>
+  </si>
+  <si>
+    <t>PLAN DE FINANCIACION DE LA EMPRESA</t>
+  </si>
+  <si>
+    <t>Aportes Inversionistas</t>
+  </si>
+  <si>
+    <t>Credito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inversión </t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1665,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1765,6 +1777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2018,7 +2036,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2251,9 +2269,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2299,6 +2314,43 @@
     <xf numFmtId="171" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2313,38 +2365,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2352,38 +2407,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2406,43 +2434,73 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2478,42 +2536,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2525,16 +2560,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3607,40 +3632,40 @@
                 <c:formatCode>_-[$$-240A]\ * #,##0.0_ ;_-[$$-240A]\ * \-#,##0.0\ ;_-[$$-240A]\ * "-"?_ ;_-@_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3481209.352404824</c:v>
+                  <c:v>3458213.1425962979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6899295.5742133176</c:v>
+                  <c:v>6853303.1545962654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10405197.69114981</c:v>
+                  <c:v>10337916.097356938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15126991.487632614</c:v>
+                  <c:v>15040163.235568777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19345206.269692611</c:v>
+                  <c:v>19240610.092982635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24949193.886254065</c:v>
+                  <c:v>24828645.489018217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29879358.355667718</c:v>
+                  <c:v>29744711.180943429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36021254.871795759</c:v>
+                  <c:v>35874400.885930762</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41376596.429359496</c:v>
+                  <c:v>41219466.922708377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47864806.008068524</c:v>
+                  <c:v>47699372.412331522</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52687578.393151291</c:v>
+                  <c:v>52515853.115701258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57414583.812065661</c:v>
+                  <c:v>57242858.534615628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5672,13 +5697,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1666875</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>116400</xdr:rowOff>
+      <xdr:rowOff>59705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5704,33 +5729,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Demanda Dinamica"/>
-      <sheetName val="Presupuesto de Inversion"/>
-      <sheetName val="Analisis Financiero"/>
-      <sheetName val="Indicadores Financieros"/>
-      <sheetName val="Analisis Prestamo "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="D9">
-            <v>7996703.2407141561</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6032,8 +6030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="G32" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="M40" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49:Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6062,36 +6060,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
+      <c r="A2" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="171"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4">
         <v>0.19</v>
       </c>
-      <c r="M4" s="160" t="s">
+      <c r="M4" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="161"/>
-      <c r="O4" s="159"/>
-      <c r="R4" s="162" t="s">
+      <c r="N4" s="175"/>
+      <c r="O4" s="173"/>
+      <c r="R4" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="163"/>
+      <c r="S4" s="166"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="70" t="s">
@@ -6115,12 +6113,12 @@
       <c r="M5" s="6">
         <v>0.5</v>
       </c>
-      <c r="N5" s="158" t="s">
+      <c r="N5" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="159"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="165"/>
+      <c r="O5" s="173"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="168"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="70" t="s">
@@ -6135,10 +6133,10 @@
       <c r="M6" s="6">
         <v>0.5</v>
       </c>
-      <c r="N6" s="158" t="s">
+      <c r="N6" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="159"/>
+      <c r="O6" s="173"/>
       <c r="R6" s="7" t="s">
         <v>11</v>
       </c>
@@ -6161,24 +6159,24 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="10"/>
@@ -6385,31 +6383,31 @@
       </c>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="168" t="s">
+      <c r="B32" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="168"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="168"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="168"/>
-      <c r="Q32" s="168"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="168"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="168"/>
-      <c r="X32" s="168"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="169"/>
+      <c r="Q32" s="169"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="169"/>
+      <c r="V32" s="169"/>
+      <c r="W32" s="169"/>
+      <c r="X32" s="169"/>
     </row>
     <row r="33" spans="2:25" ht="27.75" customHeight="1">
       <c r="B33" s="11" t="s">
@@ -6483,7 +6481,7 @@
       </c>
     </row>
     <row r="34" spans="2:25">
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="160" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6560,7 +6558,7 @@
       </c>
     </row>
     <row r="35" spans="2:25">
-      <c r="B35" s="167"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
@@ -6634,7 +6632,7 @@
       </c>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="167"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
@@ -6724,7 +6722,7 @@
       </c>
     </row>
     <row r="37" spans="2:25">
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="160" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6801,7 +6799,7 @@
       </c>
     </row>
     <row r="38" spans="2:25">
-      <c r="B38" s="167"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
@@ -6876,7 +6874,7 @@
       </c>
     </row>
     <row r="39" spans="2:25">
-      <c r="B39" s="167"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="21" t="s">
         <v>51</v>
       </c>
@@ -6966,7 +6964,7 @@
       </c>
     </row>
     <row r="40" spans="2:25">
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="160" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7043,7 +7041,7 @@
       </c>
     </row>
     <row r="41" spans="2:25">
-      <c r="B41" s="167"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
@@ -7118,7 +7116,7 @@
       </c>
     </row>
     <row r="42" spans="2:25">
-      <c r="B42" s="167"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="21" t="s">
         <v>54</v>
       </c>
@@ -7297,54 +7295,54 @@
       </c>
     </row>
     <row r="47" spans="2:25">
-      <c r="B47" s="166" t="s">
+      <c r="B47" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
     </row>
     <row r="48" spans="2:25" ht="27.75" customHeight="1">
-      <c r="B48" s="169" t="s">
+      <c r="B48" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="169"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="170" t="s">
+      <c r="G48" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="H48" s="170"/>
-      <c r="J48" s="170" t="s">
+      <c r="H48" s="159"/>
+      <c r="J48" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170"/>
+      <c r="K48" s="159"/>
+      <c r="L48" s="159"/>
       <c r="N48" s="30" t="s">
         <v>97</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q48" s="173" t="s">
+      <c r="Q48" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="R48" s="173"/>
-      <c r="S48" s="173"/>
-      <c r="T48" s="173"/>
-      <c r="U48" s="173"/>
-      <c r="W48" s="171" t="s">
+      <c r="R48" s="162"/>
+      <c r="S48" s="162"/>
+      <c r="T48" s="162"/>
+      <c r="U48" s="162"/>
+      <c r="W48" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="X48" s="171"/>
-      <c r="Y48" s="171"/>
+      <c r="X48" s="158"/>
+      <c r="Y48" s="158"/>
     </row>
     <row r="49" spans="2:25">
-      <c r="B49" s="169" t="s">
+      <c r="B49" s="163" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -7378,19 +7376,19 @@
       <c r="O49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="167" t="s">
+      <c r="Q49" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="R49" s="172" t="s">
+      <c r="R49" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="S49" s="172" t="s">
+      <c r="S49" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="T49" s="172" t="s">
+      <c r="T49" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="U49" s="172"/>
+      <c r="U49" s="161"/>
       <c r="W49" s="34" t="s">
         <v>115</v>
       </c>
@@ -7402,7 +7400,7 @@
       </c>
     </row>
     <row r="50" spans="2:25">
-      <c r="B50" s="169"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
@@ -7435,9 +7433,9 @@
       <c r="O50" s="2">
         <v>8</v>
       </c>
-      <c r="Q50" s="167"/>
-      <c r="R50" s="172"/>
-      <c r="S50" s="172"/>
+      <c r="Q50" s="160"/>
+      <c r="R50" s="161"/>
+      <c r="S50" s="161"/>
       <c r="T50" s="10" t="s">
         <v>104</v>
       </c>
@@ -7456,7 +7454,7 @@
       </c>
     </row>
     <row r="51" spans="2:25">
-      <c r="B51" s="169"/>
+      <c r="B51" s="163"/>
       <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
@@ -7513,7 +7511,7 @@
       </c>
     </row>
     <row r="52" spans="2:25">
-      <c r="B52" s="169"/>
+      <c r="B52" s="163"/>
       <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
@@ -7569,7 +7567,7 @@
       </c>
     </row>
     <row r="53" spans="2:25">
-      <c r="B53" s="169"/>
+      <c r="B53" s="163"/>
       <c r="C53" s="2" t="s">
         <v>61</v>
       </c>
@@ -7619,7 +7617,7 @@
       </c>
     </row>
     <row r="54" spans="2:25">
-      <c r="B54" s="169"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
@@ -7659,7 +7657,7 @@
       </c>
     </row>
     <row r="55" spans="2:25">
-      <c r="B55" s="169" t="s">
+      <c r="B55" s="163" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -7698,7 +7696,7 @@
       </c>
     </row>
     <row r="56" spans="2:25">
-      <c r="B56" s="169"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
@@ -7721,7 +7719,7 @@
       </c>
     </row>
     <row r="57" spans="2:25">
-      <c r="B57" s="169"/>
+      <c r="B57" s="163"/>
       <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
@@ -7744,7 +7742,7 @@
       </c>
     </row>
     <row r="58" spans="2:25">
-      <c r="B58" s="169"/>
+      <c r="B58" s="163"/>
       <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
@@ -7771,6 +7769,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:X32"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B47:E47"/>
     <mergeCell ref="W48:Y48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="Q49:Q50"/>
@@ -7778,22 +7792,6 @@
     <mergeCell ref="S49:S50"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B32:X32"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7805,8 +7803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="K172" sqref="K172:K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7820,34 +7818,35 @@
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="16" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="H2" s="199" t="s">
+      <c r="H2" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="H3" s="197" t="s">
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="H3" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
       <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
@@ -7871,11 +7870,11 @@
       <c r="F4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="197" t="s">
+      <c r="H4" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
       <c r="K4" s="40">
         <v>0</v>
       </c>
@@ -7902,11 +7901,11 @@
         <f>E5/$E$16</f>
         <v>0.69059405940594054</v>
       </c>
-      <c r="H5" s="197" t="s">
+      <c r="H5" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
       <c r="K5" s="40">
         <v>51000</v>
       </c>
@@ -7923,11 +7922,11 @@
       <c r="D6" s="72"/>
       <c r="E6" s="27"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="197" t="s">
+      <c r="H6" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
       <c r="K6" s="40">
         <v>0</v>
       </c>
@@ -7954,11 +7953,11 @@
         <f>E7/$E$16</f>
         <v>0.3094059405940594</v>
       </c>
-      <c r="H7" s="147" t="s">
+      <c r="H7" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
       <c r="K7" s="40">
         <v>0</v>
       </c>
@@ -7981,11 +7980,11 @@
         <f>E8/$E$16</f>
         <v>0.3094059405940594</v>
       </c>
-      <c r="H8" s="147" t="s">
+      <c r="H8" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
       <c r="K8" s="41">
         <v>589000</v>
       </c>
@@ -8002,11 +8001,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="183" t="s">
+      <c r="H9" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
       <c r="K9" s="40">
         <v>0</v>
       </c>
@@ -8031,11 +8030,11 @@
       <c r="F10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="197" t="s">
+      <c r="H10" s="183" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
       <c r="K10" s="40">
         <v>0</v>
       </c>
@@ -8057,11 +8056,11 @@
         <f>E11/$E$16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="197" t="s">
+      <c r="H11" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="40">
         <v>0</v>
       </c>
@@ -8078,11 +8077,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="198" t="s">
+      <c r="H12" s="184" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
       <c r="K12" s="42">
         <f>SUM(K4:K11)</f>
         <v>640000</v>
@@ -8141,11 +8140,11 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="190" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
       <c r="E16" s="37">
         <f>E5+E8+E11+E15</f>
         <v>4848000</v>
@@ -8160,10 +8159,10 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="195" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="191"/>
+      <c r="C18" s="195"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
@@ -8201,49 +8200,49 @@
       <c r="E21" s="16"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="188" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="172" t="s">
+      <c r="C24" s="161" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="172" t="s">
+      <c r="D24" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="172" t="s">
+      <c r="E24" s="161" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="172" t="s">
+      <c r="F24" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="200" t="s">
+      <c r="G24" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="200"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="172" t="s">
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="161" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
       <c r="G25" s="2" t="s">
         <v>2</v>
       </c>
@@ -8253,7 +8252,7 @@
       <c r="I25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="172"/>
+      <c r="J25" s="161"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="22" t="s">
@@ -8301,13 +8300,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="196" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="194"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="198"/>
       <c r="G28" s="63">
         <f>G27</f>
         <v>200000</v>
@@ -8384,13 +8383,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="184" t="s">
+      <c r="B31" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="186"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="201"/>
       <c r="G31" s="80">
         <f>G28+G30+G29</f>
         <v>200000</v>
@@ -8413,35 +8412,35 @@
       <c r="L31" s="17"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="175" t="s">
+      <c r="B33" s="188" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="172" t="s">
+      <c r="B34" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="172" t="s">
+      <c r="D34" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="172" t="s">
+      <c r="E34" s="161" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
       <c r="E35" s="10" t="s">
         <v>2</v>
       </c>
@@ -8477,12 +8476,12 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="175" t="s">
+      <c r="B38" s="188" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="50" t="s">
@@ -8543,12 +8542,12 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="175" t="s">
+      <c r="B44" s="188" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="175"/>
-      <c r="D44" s="175"/>
-      <c r="F44" s="176" t="s">
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="F44" s="189" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8562,7 +8561,7 @@
       <c r="D45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="176"/>
+      <c r="F45" s="189"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="2" t="s">
@@ -8576,7 +8575,7 @@
         <f>C46*'Demanda Dinamica'!$L$50*'Demanda Dinamica'!F37</f>
         <v>606666.66666666663</v>
       </c>
-      <c r="F46" s="176"/>
+      <c r="F46" s="189"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="2" t="s">
@@ -8637,20 +8636,20 @@
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="203" t="s">
+      <c r="B52" s="181" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="196" t="s">
+      <c r="B53" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="196"/>
+      <c r="C53" s="202"/>
       <c r="D53" s="22" t="s">
         <v>177</v>
       </c>
@@ -8665,10 +8664,10 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="157" t="s">
+      <c r="B54" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="157"/>
+      <c r="C54" s="171"/>
       <c r="D54" s="18">
         <f>E16</f>
         <v>4848000</v>
@@ -8687,10 +8686,10 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="157" t="s">
+      <c r="B55" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="157"/>
+      <c r="C55" s="171"/>
       <c r="D55" s="18">
         <v>0</v>
       </c>
@@ -8707,10 +8706,10 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="157" t="s">
+      <c r="B56" s="171" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="157"/>
+      <c r="C56" s="171"/>
       <c r="D56" s="18">
         <v>10000</v>
       </c>
@@ -8728,10 +8727,10 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="157" t="s">
+      <c r="B57" s="171" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="157"/>
+      <c r="C57" s="171"/>
       <c r="D57" s="18">
         <v>0</v>
       </c>
@@ -8746,10 +8745,10 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="157" t="s">
+      <c r="B58" s="171" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="157"/>
+      <c r="C58" s="171"/>
       <c r="D58" s="18">
         <v>0</v>
       </c>
@@ -8764,10 +8763,10 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="157" t="s">
+      <c r="B59" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="157"/>
+      <c r="C59" s="171"/>
       <c r="D59" s="18">
         <v>0</v>
       </c>
@@ -8782,11 +8781,11 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="195" t="s">
+      <c r="B60" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="195"/>
-      <c r="D60" s="195"/>
+      <c r="C60" s="180"/>
+      <c r="D60" s="180"/>
       <c r="E60" s="25">
         <f>SUM(E54:E59)</f>
         <v>168480</v>
@@ -8801,21 +8800,21 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="190" t="s">
+      <c r="B62" s="194" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="190"/>
-      <c r="D62" s="190"/>
-      <c r="E62" s="190"/>
-      <c r="F62" s="190"/>
-      <c r="G62" s="190"/>
+      <c r="C62" s="194"/>
+      <c r="D62" s="194"/>
+      <c r="E62" s="194"/>
+      <c r="F62" s="194"/>
+      <c r="G62" s="194"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="169" t="s">
+      <c r="B63" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="22" t="s">
         <v>2</v>
       </c>
@@ -8827,13 +8826,13 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="179" t="s">
+      <c r="B64" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="157" t="s">
+      <c r="C64" s="171" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="157"/>
+      <c r="D64" s="171"/>
       <c r="E64" s="19">
         <f>0</f>
         <v>0</v>
@@ -8848,11 +8847,11 @@
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="179"/>
-      <c r="C65" s="157" t="s">
+      <c r="B65" s="182"/>
+      <c r="C65" s="171" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="157"/>
+      <c r="D65" s="171"/>
       <c r="E65" s="19">
         <f>'Demanda Dinamica'!V39</f>
         <v>24963480</v>
@@ -8867,11 +8866,11 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="179"/>
-      <c r="C66" s="157" t="s">
+      <c r="B66" s="182"/>
+      <c r="C66" s="171" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="157"/>
+      <c r="D66" s="171"/>
       <c r="E66" s="19">
         <f>'Demanda Dinamica'!$V$42</f>
         <v>4109020</v>
@@ -8886,11 +8885,11 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="179"/>
-      <c r="C67" s="157" t="s">
+      <c r="B67" s="182"/>
+      <c r="C67" s="171" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="157"/>
+      <c r="D67" s="171"/>
       <c r="E67" s="19">
         <f>'Demanda Dinamica'!V36</f>
         <v>16262030</v>
@@ -8905,11 +8904,11 @@
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="179"/>
-      <c r="C68" s="157" t="s">
+      <c r="B68" s="182"/>
+      <c r="C68" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="157"/>
+      <c r="D68" s="171"/>
       <c r="E68" s="19">
         <v>0</v>
       </c>
@@ -8923,11 +8922,11 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="179"/>
-      <c r="C69" s="204" t="s">
+      <c r="B69" s="182"/>
+      <c r="C69" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="204"/>
+      <c r="D69" s="177"/>
       <c r="E69" s="57">
         <f>SUM(E64:E67)-E68</f>
         <v>45334530</v>
@@ -8945,13 +8944,13 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="179" t="s">
+      <c r="B70" s="182" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="157" t="s">
+      <c r="C70" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="157"/>
+      <c r="D70" s="171"/>
       <c r="E70" s="19">
         <v>0</v>
       </c>
@@ -8967,11 +8966,11 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="179"/>
-      <c r="C71" s="157" t="s">
+      <c r="B71" s="182"/>
+      <c r="C71" s="171" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="157"/>
+      <c r="D71" s="171"/>
       <c r="E71" s="19">
         <f>G28</f>
         <v>200000</v>
@@ -8990,11 +8989,11 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="179"/>
-      <c r="C72" s="157" t="s">
+      <c r="B72" s="182"/>
+      <c r="C72" s="171" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="157"/>
+      <c r="D72" s="171"/>
       <c r="E72" s="19">
         <v>0</v>
       </c>
@@ -9010,11 +9009,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="179"/>
-      <c r="C73" s="157" t="s">
+      <c r="B73" s="182"/>
+      <c r="C73" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="157"/>
+      <c r="D73" s="171"/>
       <c r="E73" s="19">
         <v>0</v>
       </c>
@@ -9030,11 +9029,11 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="179"/>
-      <c r="C74" s="204" t="s">
+      <c r="B74" s="182"/>
+      <c r="C74" s="177" t="s">
         <v>193</v>
       </c>
-      <c r="D74" s="204"/>
+      <c r="D74" s="177"/>
       <c r="E74" s="57">
         <f xml:space="preserve"> SUM(E70:E73)</f>
         <v>200000</v>
@@ -9049,11 +9048,11 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="195" t="s">
+      <c r="B75" s="180" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="195"/>
-      <c r="D75" s="195"/>
+      <c r="C75" s="180"/>
+      <c r="D75" s="180"/>
       <c r="E75" s="57">
         <f>E69+E74</f>
         <v>45534530</v>
@@ -9068,11 +9067,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="204" t="s">
+      <c r="B78" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="204"/>
-      <c r="D78" s="204"/>
+      <c r="C78" s="177"/>
+      <c r="D78" s="177"/>
       <c r="E78" s="57">
         <f>E75/('Demanda Dinamica'!$Y$52*12)</f>
         <v>3162.120138888889</v>
@@ -9087,23 +9086,23 @@
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="206" t="s">
+      <c r="B81" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="206"/>
+      <c r="C81" s="178"/>
       <c r="D81" s="4">
         <v>0.35</v>
       </c>
-      <c r="F81" s="206" t="s">
+      <c r="F81" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="206"/>
+      <c r="G81" s="178"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="206" t="s">
+      <c r="B82" s="178" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="206"/>
+      <c r="C82" s="178"/>
       <c r="D82" s="19">
         <f>E78*D81</f>
         <v>1106.7420486111112</v>
@@ -9117,10 +9116,10 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="207" t="s">
+      <c r="B83" s="179" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="207"/>
+      <c r="C83" s="179"/>
       <c r="D83" s="65">
         <f>E78*(1+D81)</f>
         <v>4268.8621875000008</v>
@@ -9161,11 +9160,11 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="195" t="s">
+      <c r="B89" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="195"/>
-      <c r="D89" s="195"/>
+      <c r="C89" s="180"/>
+      <c r="D89" s="180"/>
       <c r="E89" s="57">
         <f>E78+G86</f>
         <v>4016.063330876389</v>
@@ -9180,32 +9179,32 @@
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="205" t="s">
+      <c r="B92" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="C92" s="205"/>
+      <c r="C92" s="176"/>
       <c r="D92" s="68">
         <f>+(D83-E89)/D83</f>
         <v>5.9219259259259402E-2</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="205" t="s">
+      <c r="B93" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="C93" s="205"/>
+      <c r="C93" s="176"/>
       <c r="D93" s="69">
         <f>E89*D92</f>
         <v>237.82829559277377</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="188" t="s">
+      <c r="B95" s="192" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="188"/>
-      <c r="D95" s="188"/>
-      <c r="E95" s="188"/>
+      <c r="C95" s="192"/>
+      <c r="D95" s="192"/>
+      <c r="E95" s="192"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="59" t="s">
@@ -9293,20 +9292,20 @@
       <c r="B102" s="75"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="189" t="s">
+      <c r="B103" s="193" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="189"/>
-      <c r="D103" s="189"/>
-      <c r="E103" s="189"/>
-      <c r="F103" s="189"/>
-      <c r="G103" s="189"/>
+      <c r="C103" s="193"/>
+      <c r="D103" s="193"/>
+      <c r="E103" s="193"/>
+      <c r="F103" s="193"/>
+      <c r="G103" s="193"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="169" t="s">
+      <c r="B104" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="169"/>
+      <c r="C104" s="163"/>
       <c r="D104" s="62" t="s">
         <v>236</v>
       </c>
@@ -9321,10 +9320,10 @@
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="183" t="s">
+      <c r="B105" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="183"/>
+      <c r="C105" s="187"/>
       <c r="D105" s="78">
         <f>'Demanda Dinamica'!I36</f>
         <v>2180290</v>
@@ -9343,10 +9342,10 @@
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="183" t="s">
+      <c r="B106" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="183"/>
+      <c r="C106" s="187"/>
       <c r="D106" s="78">
         <f>E16</f>
         <v>4848000</v>
@@ -9365,10 +9364,10 @@
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="183" t="s">
+      <c r="B107" s="187" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="183"/>
+      <c r="C107" s="187"/>
       <c r="D107" s="78">
         <f>D55</f>
         <v>0</v>
@@ -9387,10 +9386,10 @@
       </c>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="183" t="s">
+      <c r="B108" s="187" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="183"/>
+      <c r="C108" s="187"/>
       <c r="D108" s="78">
         <f>D56</f>
         <v>10000</v>
@@ -9409,10 +9408,10 @@
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="183" t="s">
+      <c r="B109" s="187" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="183"/>
+      <c r="C109" s="187"/>
       <c r="D109" s="78">
         <f>D57</f>
         <v>0</v>
@@ -9431,10 +9430,10 @@
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="183" t="s">
+      <c r="B110" s="187" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="183"/>
+      <c r="C110" s="187"/>
       <c r="D110" s="78"/>
       <c r="E110" s="78">
         <f>G31</f>
@@ -9450,10 +9449,10 @@
       </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="183" t="s">
+      <c r="B111" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="183"/>
+      <c r="C111" s="187"/>
       <c r="D111" s="78"/>
       <c r="E111" s="78">
         <f>G31</f>
@@ -9469,10 +9468,10 @@
       </c>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="183" t="s">
+      <c r="B112" s="187" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="183"/>
+      <c r="C112" s="187"/>
       <c r="D112" s="78"/>
       <c r="E112" s="78">
         <f>E16/3</f>
@@ -9488,10 +9487,10 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="B113" s="183" t="s">
+      <c r="B113" s="187" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="183"/>
+      <c r="C113" s="187"/>
       <c r="D113" s="78"/>
       <c r="E113" s="78">
         <v>0</v>
@@ -9505,10 +9504,10 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="B114" s="183" t="s">
+      <c r="B114" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="C114" s="183"/>
+      <c r="C114" s="187"/>
       <c r="D114" s="78"/>
       <c r="E114" s="78">
         <v>0</v>
@@ -9521,11 +9520,11 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="184" t="s">
+      <c r="B115" s="199" t="s">
         <v>237</v>
       </c>
-      <c r="C115" s="185"/>
-      <c r="D115" s="186"/>
+      <c r="C115" s="200"/>
+      <c r="D115" s="201"/>
       <c r="E115" s="82">
         <f>SUM(E105:E114)</f>
         <v>18446510</v>
@@ -9540,12 +9539,12 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="B117" s="187" t="s">
+      <c r="B117" s="203" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="187"/>
-      <c r="D117" s="187"/>
-      <c r="E117" s="187"/>
+      <c r="C117" s="203"/>
+      <c r="D117" s="203"/>
+      <c r="E117" s="203"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="83"/>
@@ -9661,51 +9660,51 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="B127" s="182" t="s">
+      <c r="B127" s="204" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="182"/>
-      <c r="D127" s="182"/>
-      <c r="E127" s="182"/>
-      <c r="F127" s="182"/>
-      <c r="G127" s="182"/>
-      <c r="H127" s="182"/>
-      <c r="I127" s="182"/>
-      <c r="J127" s="182"/>
-      <c r="K127" s="182"/>
-      <c r="L127" s="182"/>
+      <c r="C127" s="204"/>
+      <c r="D127" s="204"/>
+      <c r="E127" s="204"/>
+      <c r="F127" s="204"/>
+      <c r="G127" s="204"/>
+      <c r="H127" s="204"/>
+      <c r="I127" s="204"/>
+      <c r="J127" s="204"/>
+      <c r="K127" s="204"/>
+      <c r="L127" s="204"/>
     </row>
     <row r="128" spans="1:12">
-      <c r="B128" s="172" t="s">
+      <c r="B128" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="172"/>
-      <c r="D128" s="172" t="s">
+      <c r="C128" s="161"/>
+      <c r="D128" s="161" t="s">
         <v>256</v>
       </c>
-      <c r="E128" s="172" t="s">
+      <c r="E128" s="161" t="s">
         <v>259</v>
       </c>
-      <c r="F128" s="172"/>
-      <c r="G128" s="172"/>
-      <c r="H128" s="167" t="s">
+      <c r="F128" s="161"/>
+      <c r="G128" s="161"/>
+      <c r="H128" s="160" t="s">
         <v>260</v>
       </c>
-      <c r="I128" s="167" t="s">
+      <c r="I128" s="160" t="s">
         <v>261</v>
       </c>
-      <c r="J128" s="167" t="s">
+      <c r="J128" s="160" t="s">
         <v>262</v>
       </c>
-      <c r="K128" s="167" t="s">
+      <c r="K128" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="L128" s="167"/>
+      <c r="L128" s="160"/>
     </row>
     <row r="129" spans="2:20">
-      <c r="B129" s="172"/>
-      <c r="C129" s="172"/>
-      <c r="D129" s="172"/>
+      <c r="B129" s="161"/>
+      <c r="C129" s="161"/>
+      <c r="D129" s="161"/>
       <c r="E129" s="60" t="s">
         <v>125</v>
       </c>
@@ -9715,11 +9714,11 @@
       <c r="G129" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="H129" s="167"/>
-      <c r="I129" s="167"/>
-      <c r="J129" s="167"/>
-      <c r="K129" s="167"/>
-      <c r="L129" s="167"/>
+      <c r="H129" s="160"/>
+      <c r="I129" s="160"/>
+      <c r="J129" s="160"/>
+      <c r="K129" s="160"/>
+      <c r="L129" s="160"/>
     </row>
     <row r="130" spans="2:20">
       <c r="B130" s="2" t="s">
@@ -9829,24 +9828,24 @@
       </c>
     </row>
     <row r="135" spans="2:20">
-      <c r="B135" s="182" t="s">
+      <c r="B135" s="204" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="182"/>
-      <c r="D135" s="182"/>
-      <c r="E135" s="182"/>
-      <c r="F135" s="182"/>
-      <c r="G135" s="182"/>
-      <c r="H135" s="182"/>
-      <c r="I135" s="182"/>
-      <c r="J135" s="182"/>
-      <c r="K135" s="182"/>
-      <c r="L135" s="182"/>
-      <c r="M135" s="182"/>
-      <c r="N135" s="182"/>
-      <c r="O135" s="182"/>
-      <c r="P135" s="182"/>
-      <c r="Q135" s="182"/>
+      <c r="C135" s="204"/>
+      <c r="D135" s="204"/>
+      <c r="E135" s="204"/>
+      <c r="F135" s="204"/>
+      <c r="G135" s="204"/>
+      <c r="H135" s="204"/>
+      <c r="I135" s="204"/>
+      <c r="J135" s="204"/>
+      <c r="K135" s="204"/>
+      <c r="L135" s="204"/>
+      <c r="M135" s="204"/>
+      <c r="N135" s="204"/>
+      <c r="O135" s="204"/>
+      <c r="P135" s="204"/>
+      <c r="Q135" s="204"/>
     </row>
     <row r="136" spans="2:20">
       <c r="B136" s="2" t="s">
@@ -10620,19 +10619,19 @@
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="180" t="s">
+      <c r="B149" s="205" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="180"/>
-      <c r="D149" s="180"/>
-      <c r="E149" s="180"/>
-      <c r="G149" s="181" t="s">
+      <c r="C149" s="205"/>
+      <c r="D149" s="205"/>
+      <c r="E149" s="205"/>
+      <c r="G149" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="H149" s="181"/>
-      <c r="I149" s="181"/>
-      <c r="J149" s="181"/>
-      <c r="K149" s="181"/>
+      <c r="H149" s="206"/>
+      <c r="I149" s="206"/>
+      <c r="J149" s="206"/>
+      <c r="K149" s="206"/>
     </row>
     <row r="150" spans="2:17">
       <c r="B150" s="22" t="s">
@@ -10786,21 +10785,21 @@
       </c>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" s="175" t="s">
+      <c r="B158" s="188" t="s">
         <v>318</v>
       </c>
-      <c r="C158" s="175"/>
-      <c r="D158" s="175"/>
-      <c r="E158" s="175"/>
-      <c r="F158" s="175"/>
-      <c r="G158" s="175"/>
+      <c r="C158" s="188"/>
+      <c r="D158" s="188"/>
+      <c r="E158" s="188"/>
+      <c r="F158" s="188"/>
+      <c r="G158" s="188"/>
     </row>
     <row r="159" spans="2:17">
-      <c r="B159" s="179" t="s">
+      <c r="B159" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="179"/>
-      <c r="D159" s="179"/>
+      <c r="C159" s="182"/>
+      <c r="D159" s="182"/>
       <c r="E159" s="62" t="s">
         <v>2</v>
       </c>
@@ -10812,13 +10811,13 @@
       </c>
     </row>
     <row r="160" spans="2:17">
-      <c r="B160" s="169" t="s">
+      <c r="B160" s="163" t="s">
         <v>295</v>
       </c>
-      <c r="C160" s="172" t="s">
+      <c r="C160" s="161" t="s">
         <v>296</v>
       </c>
-      <c r="D160" s="172"/>
+      <c r="D160" s="161"/>
       <c r="E160" s="2" t="s">
         <v>297</v>
       </c>
@@ -10832,11 +10831,11 @@
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="169"/>
-      <c r="C161" s="172" t="s">
+      <c r="B161" s="163"/>
+      <c r="C161" s="161" t="s">
         <v>298</v>
       </c>
-      <c r="D161" s="172"/>
+      <c r="D161" s="161"/>
       <c r="E161" s="2" t="s">
         <v>297</v>
       </c>
@@ -10848,11 +10847,11 @@
       </c>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="169"/>
-      <c r="C162" s="157" t="s">
+      <c r="B162" s="163"/>
+      <c r="C162" s="171" t="s">
         <v>299</v>
       </c>
-      <c r="D162" s="157"/>
+      <c r="D162" s="171"/>
       <c r="E162" s="76">
         <f>'Demanda Dinamica'!V43</f>
         <v>45334530</v>
@@ -10867,11 +10866,11 @@
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="169"/>
-      <c r="C163" s="172" t="s">
+      <c r="B163" s="163"/>
+      <c r="C163" s="161" t="s">
         <v>300</v>
       </c>
-      <c r="D163" s="172"/>
+      <c r="D163" s="161"/>
       <c r="E163" s="76">
         <f>'Demanda Dinamica'!V35</f>
         <v>2400000</v>
@@ -10886,11 +10885,11 @@
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="169"/>
-      <c r="C164" s="172" t="s">
+      <c r="B164" s="163"/>
+      <c r="C164" s="161" t="s">
         <v>301</v>
       </c>
-      <c r="D164" s="172"/>
+      <c r="D164" s="161"/>
       <c r="E164" s="76">
         <v>0</v>
       </c>
@@ -10902,11 +10901,11 @@
       </c>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="169"/>
-      <c r="C165" s="172" t="s">
+      <c r="B165" s="163"/>
+      <c r="C165" s="161" t="s">
         <v>302</v>
       </c>
-      <c r="D165" s="172"/>
+      <c r="D165" s="161"/>
       <c r="E165" s="76">
         <f>E106</f>
         <v>48480</v>
@@ -10921,11 +10920,11 @@
       </c>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="169"/>
-      <c r="C166" s="172" t="s">
+      <c r="B166" s="163"/>
+      <c r="C166" s="161" t="s">
         <v>303</v>
       </c>
-      <c r="D166" s="172"/>
+      <c r="D166" s="161"/>
       <c r="E166" s="76">
         <f>E107</f>
         <v>0</v>
@@ -10940,11 +10939,11 @@
       </c>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="169"/>
-      <c r="C167" s="172" t="s">
+      <c r="B167" s="163"/>
+      <c r="C167" s="161" t="s">
         <v>304</v>
       </c>
-      <c r="D167" s="172"/>
+      <c r="D167" s="161"/>
       <c r="E167" s="76">
         <f t="shared" ref="E167:G168" si="42">E108</f>
         <v>120000</v>
@@ -10959,11 +10958,11 @@
       </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="169"/>
-      <c r="C168" s="172" t="s">
+      <c r="B168" s="163"/>
+      <c r="C168" s="161" t="s">
         <v>305</v>
       </c>
-      <c r="D168" s="172"/>
+      <c r="D168" s="161"/>
       <c r="E168" s="76">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -10978,11 +10977,11 @@
       </c>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="169"/>
-      <c r="C169" s="172" t="s">
+      <c r="B169" s="163"/>
+      <c r="C169" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="D169" s="172"/>
+      <c r="D169" s="161"/>
       <c r="E169" s="76">
         <f>E110</f>
         <v>200000</v>
@@ -10997,11 +10996,11 @@
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="169"/>
-      <c r="C170" s="172" t="s">
+      <c r="B170" s="163"/>
+      <c r="C170" s="161" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="172"/>
+      <c r="D170" s="161"/>
       <c r="E170" s="76">
         <f>E111</f>
         <v>200000</v>
@@ -11016,11 +11015,11 @@
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="169"/>
-      <c r="C171" s="172" t="s">
+      <c r="B171" s="163"/>
+      <c r="C171" s="161" t="s">
         <v>319</v>
       </c>
-      <c r="D171" s="172"/>
+      <c r="D171" s="161"/>
       <c r="E171" s="76">
         <v>0</v>
       </c>
@@ -11032,11 +11031,11 @@
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="169"/>
-      <c r="C172" s="179" t="s">
+      <c r="B172" s="163"/>
+      <c r="C172" s="182" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="179"/>
+      <c r="D172" s="182"/>
       <c r="E172" s="81">
         <f>SUM(E162:E171)</f>
         <v>48303010</v>
@@ -11051,13 +11050,13 @@
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="179" t="s">
+      <c r="B173" s="182" t="s">
         <v>308</v>
       </c>
-      <c r="C173" s="172" t="s">
+      <c r="C173" s="161" t="s">
         <v>186</v>
       </c>
-      <c r="D173" s="172"/>
+      <c r="D173" s="161"/>
       <c r="E173" s="76">
         <f>E64</f>
         <v>0</v>
@@ -11072,11 +11071,11 @@
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="179"/>
-      <c r="C174" s="172" t="s">
+      <c r="B174" s="182"/>
+      <c r="C174" s="161" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="172"/>
+      <c r="D174" s="161"/>
       <c r="E174" s="76">
         <f>0</f>
         <v>0</v>
@@ -11091,11 +11090,11 @@
       </c>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="179"/>
-      <c r="C175" s="172" t="s">
+      <c r="B175" s="182"/>
+      <c r="C175" s="161" t="s">
         <v>310</v>
       </c>
-      <c r="D175" s="172"/>
+      <c r="D175" s="161"/>
       <c r="E175" s="76">
         <v>0</v>
       </c>
@@ -11107,11 +11106,11 @@
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="179"/>
-      <c r="C176" s="172" t="s">
+      <c r="B176" s="182"/>
+      <c r="C176" s="161" t="s">
         <v>311</v>
       </c>
-      <c r="D176" s="172"/>
+      <c r="D176" s="161"/>
       <c r="E176" s="76">
         <v>0</v>
       </c>
@@ -11123,11 +11122,11 @@
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="179"/>
-      <c r="C177" s="172" t="s">
+      <c r="B177" s="182"/>
+      <c r="C177" s="161" t="s">
         <v>284</v>
       </c>
-      <c r="D177" s="172"/>
+      <c r="D177" s="161"/>
       <c r="E177" s="76">
         <v>0</v>
       </c>
@@ -11139,11 +11138,11 @@
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="179"/>
-      <c r="C178" s="172" t="s">
+      <c r="B178" s="182"/>
+      <c r="C178" s="161" t="s">
         <v>312</v>
       </c>
-      <c r="D178" s="172"/>
+      <c r="D178" s="161"/>
       <c r="E178" s="76">
         <f>C152</f>
         <v>4733936.6052293573</v>
@@ -11158,11 +11157,11 @@
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="179"/>
-      <c r="C179" s="172" t="s">
+      <c r="B179" s="182"/>
+      <c r="C179" s="161" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="172"/>
+      <c r="D179" s="161"/>
       <c r="E179" s="76">
         <f>C153</f>
         <v>4733936.6052293573</v>
@@ -11177,11 +11176,11 @@
       </c>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="179"/>
-      <c r="C180" s="172" t="s">
+      <c r="B180" s="182"/>
+      <c r="C180" s="161" t="s">
         <v>314</v>
       </c>
-      <c r="D180" s="172"/>
+      <c r="D180" s="161"/>
       <c r="E180" s="76">
         <f t="shared" ref="E180:E181" si="48">C154</f>
         <v>1041466.0531504585</v>
@@ -11196,11 +11195,11 @@
       </c>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="179"/>
-      <c r="C181" s="172" t="s">
+      <c r="B181" s="182"/>
+      <c r="C181" s="161" t="s">
         <v>315</v>
       </c>
-      <c r="D181" s="172"/>
+      <c r="D181" s="161"/>
       <c r="E181" s="76">
         <f t="shared" si="48"/>
         <v>156219.90797256876</v>
@@ -11215,11 +11214,11 @@
       </c>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="179"/>
-      <c r="C182" s="179" t="s">
+      <c r="B182" s="182"/>
+      <c r="C182" s="182" t="s">
         <v>316</v>
       </c>
-      <c r="D182" s="179"/>
+      <c r="D182" s="182"/>
       <c r="E182" s="81">
         <f>SUM(E173:E181)</f>
         <v>10665559.171581741</v>
@@ -11234,11 +11233,11 @@
       </c>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="174" t="s">
+      <c r="B183" s="207" t="s">
         <v>317</v>
       </c>
-      <c r="C183" s="174"/>
-      <c r="D183" s="174"/>
+      <c r="C183" s="207"/>
+      <c r="D183" s="207"/>
       <c r="E183" s="100">
         <f>E172+E182</f>
         <v>58968569.171581745</v>
@@ -11260,13 +11259,13 @@
       <c r="F184" s="66"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="175" t="s">
+      <c r="B185" s="188" t="s">
         <v>321</v>
       </c>
-      <c r="C185" s="175"/>
-      <c r="D185" s="175"/>
-      <c r="E185" s="175"/>
-      <c r="F185" s="175"/>
+      <c r="C185" s="188"/>
+      <c r="D185" s="188"/>
+      <c r="E185" s="188"/>
+      <c r="F185" s="188"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="62" t="s">
@@ -11406,24 +11405,24 @@
       </c>
     </row>
     <row r="194" spans="2:17">
-      <c r="B194" s="176" t="s">
+      <c r="B194" s="189" t="s">
         <v>336</v>
       </c>
-      <c r="C194" s="176"/>
-      <c r="D194" s="176"/>
-      <c r="E194" s="176"/>
-      <c r="F194" s="176"/>
-      <c r="G194" s="176"/>
-      <c r="H194" s="176"/>
-      <c r="I194" s="176"/>
-      <c r="J194" s="176"/>
-      <c r="K194" s="176"/>
-      <c r="L194" s="176"/>
-      <c r="M194" s="176"/>
-      <c r="N194" s="176"/>
-      <c r="O194" s="176"/>
-      <c r="P194" s="176"/>
-      <c r="Q194" s="176"/>
+      <c r="C194" s="189"/>
+      <c r="D194" s="189"/>
+      <c r="E194" s="189"/>
+      <c r="F194" s="189"/>
+      <c r="G194" s="189"/>
+      <c r="H194" s="189"/>
+      <c r="I194" s="189"/>
+      <c r="J194" s="189"/>
+      <c r="K194" s="189"/>
+      <c r="L194" s="189"/>
+      <c r="M194" s="189"/>
+      <c r="N194" s="189"/>
+      <c r="O194" s="189"/>
+      <c r="P194" s="189"/>
+      <c r="Q194" s="189"/>
     </row>
     <row r="195" spans="2:17">
       <c r="B195" s="62" t="s">
@@ -11671,13 +11670,13 @@
       </c>
     </row>
     <row r="200" spans="2:17">
-      <c r="B200" s="177" t="s">
+      <c r="B200" s="208" t="s">
         <v>340</v>
       </c>
-      <c r="C200" s="177"/>
-      <c r="D200" s="177"/>
-      <c r="E200" s="177"/>
-      <c r="F200" s="177"/>
+      <c r="C200" s="208"/>
+      <c r="D200" s="208"/>
+      <c r="E200" s="208"/>
+      <c r="F200" s="208"/>
     </row>
     <row r="201" spans="2:17">
       <c r="B201" s="102" t="s">
@@ -11742,11 +11741,11 @@
       </c>
     </row>
     <row r="205" spans="2:17">
-      <c r="B205" s="178" t="s">
+      <c r="B205" s="209" t="s">
         <v>343</v>
       </c>
-      <c r="C205" s="178"/>
-      <c r="D205" s="178"/>
+      <c r="C205" s="209"/>
+      <c r="D205" s="209"/>
     </row>
     <row r="206" spans="2:17">
       <c r="B206" s="102" t="s">
@@ -11802,50 +11801,59 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:B172"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:L129"/>
+    <mergeCell ref="B127:L127"/>
+    <mergeCell ref="B135:Q135"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="B128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="B104:C104"/>
@@ -11870,59 +11878,50 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:L129"/>
-    <mergeCell ref="B127:L127"/>
-    <mergeCell ref="B135:Q135"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="B128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:B172"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B194:Q194"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:C92"/>
   </mergeCells>
   <conditionalFormatting sqref="C198:Q198">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -11941,8 +11940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V117"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="W59" sqref="W59"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11951,31 +11950,31 @@
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" customWidth="1"/>
     <col min="20" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="210" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="61" t="s">
         <v>2</v>
       </c>
@@ -11987,13 +11986,13 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="182" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="161" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="172"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="77">
         <f>'Presupuesto de Inversion'!O139</f>
         <v>94678732.104587138</v>
@@ -12008,11 +12007,11 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.5" customHeight="1">
-      <c r="B5" s="179"/>
-      <c r="C5" s="167" t="s">
+      <c r="B5" s="182"/>
+      <c r="C5" s="160" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="167"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="77">
         <v>0</v>
       </c>
@@ -12024,11 +12023,11 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="179"/>
-      <c r="C6" s="169" t="s">
+      <c r="B6" s="182"/>
+      <c r="C6" s="163" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="169"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="104">
         <f>SUM(E4:E5)</f>
         <v>94678732.104587138</v>
@@ -12043,13 +12042,13 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="182" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="172"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="77">
         <f>'Presupuesto de Inversion'!E75</f>
         <v>45534530</v>
@@ -12064,11 +12063,11 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="179"/>
-      <c r="C8" s="157" t="s">
+      <c r="B8" s="182"/>
+      <c r="C8" s="171" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="77">
         <f>'Presupuesto de Inversion'!E115</f>
         <v>18446510</v>
@@ -12083,11 +12082,11 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="179"/>
-      <c r="C9" s="172" t="s">
+      <c r="B9" s="182"/>
+      <c r="C9" s="161" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="172"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="77">
         <f>'Presupuesto de Inversion'!C156</f>
         <v>10665559.171581741</v>
@@ -12102,11 +12101,11 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B10" s="179"/>
-      <c r="C10" s="167" t="s">
+      <c r="B10" s="182"/>
+      <c r="C10" s="160" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="167"/>
+      <c r="D10" s="160"/>
       <c r="E10" s="77">
         <v>0</v>
       </c>
@@ -12118,11 +12117,11 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="179"/>
-      <c r="C11" s="167" t="s">
+      <c r="B11" s="182"/>
+      <c r="C11" s="160" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="167"/>
+      <c r="D11" s="160"/>
       <c r="E11" s="77">
         <v>0</v>
       </c>
@@ -12134,11 +12133,11 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="179"/>
-      <c r="C12" s="179" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="182" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="179"/>
+      <c r="D12" s="182"/>
       <c r="E12" s="104">
         <f>SUM(E7:E11)</f>
         <v>74646599.171581745</v>
@@ -12153,11 +12152,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="213" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
       <c r="E13" s="77">
         <f>E6-E12</f>
         <v>20032132.933005393</v>
@@ -12172,11 +12171,11 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="161" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="77">
         <f>(E13*0.25)</f>
         <v>5008033.2332513481</v>
@@ -12191,11 +12190,11 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B15" s="230" t="s">
+      <c r="B15" s="214" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="77">
         <f>E13*0.09</f>
         <v>1802891.9639704854</v>
@@ -12210,11 +12209,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="29.25" customHeight="1">
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="160" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
       <c r="E16" s="77">
         <f>E13-E14-E15</f>
         <v>13221207.735783558</v>
@@ -12229,11 +12228,11 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="161" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="77">
         <f>E16*0.1</f>
         <v>1322120.773578356</v>
@@ -12248,11 +12247,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="32.25" customHeight="1">
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="211" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="105">
         <f>E16-E17</f>
         <v>11899086.962205201</v>
@@ -12271,39 +12270,39 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="107"/>
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="212" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="228"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="228"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="228"/>
-      <c r="N20" s="228"/>
-      <c r="O20" s="228"/>
-      <c r="P20" s="228"/>
-      <c r="Q20" s="228"/>
-      <c r="R20" s="228"/>
-      <c r="S20" s="228"/>
-      <c r="T20" s="228"/>
-      <c r="U20" s="228"/>
-      <c r="V20" s="228"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="212"/>
+      <c r="K20" s="212"/>
+      <c r="L20" s="212"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="212"/>
+      <c r="O20" s="212"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="212"/>
+      <c r="S20" s="212"/>
+      <c r="T20" s="212"/>
+      <c r="U20" s="212"/>
+      <c r="V20" s="212"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="107"/>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
       <c r="G21" s="61" t="s">
         <v>399</v>
       </c>
@@ -12355,13 +12354,13 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="107"/>
-      <c r="B22" s="179" t="s">
+      <c r="B22" s="182" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
       <c r="G22" s="108">
         <f>'Presupuesto de Inversion'!C209</f>
         <v>22967679.680968828</v>
@@ -12384,15 +12383,15 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="107"/>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="182" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="197" t="s">
+      <c r="C23" s="183" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
       <c r="G23" s="108">
         <v>0</v>
       </c>
@@ -12459,13 +12458,13 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="107"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="197" t="s">
+      <c r="B24" s="182"/>
+      <c r="C24" s="183" t="s">
         <v>364</v>
       </c>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
       <c r="G24" s="108">
         <v>0</v>
       </c>
@@ -12532,13 +12531,13 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="107"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="183" t="s">
+      <c r="B25" s="182"/>
+      <c r="C25" s="187" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
       <c r="G25" s="108"/>
       <c r="H25" s="108"/>
       <c r="I25" s="108"/>
@@ -12558,13 +12557,13 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="107"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="197" t="s">
+      <c r="B26" s="182"/>
+      <c r="C26" s="183" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
       <c r="G26" s="108"/>
       <c r="H26" s="108"/>
       <c r="I26" s="108"/>
@@ -12584,13 +12583,13 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="107"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="197" t="s">
+      <c r="B27" s="182"/>
+      <c r="C27" s="183" t="s">
         <v>367</v>
       </c>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
       <c r="G27" s="108">
         <f>'Indicadores Financieros'!D9</f>
         <v>6890303.9042906482</v>
@@ -12613,13 +12612,13 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="107"/>
-      <c r="B28" s="181" t="s">
+      <c r="B28" s="206" t="s">
         <v>368</v>
       </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
       <c r="G28" s="109">
         <f>SUM(G22:G27)</f>
         <v>29857983.585259475</v>
@@ -12687,17 +12686,17 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="107"/>
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="182" t="s">
         <v>338</v>
       </c>
-      <c r="C29" s="169" t="s">
+      <c r="C29" s="163" t="s">
         <v>369</v>
       </c>
-      <c r="D29" s="169"/>
-      <c r="E29" s="197" t="s">
+      <c r="D29" s="163"/>
+      <c r="E29" s="183" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="197"/>
+      <c r="F29" s="183"/>
       <c r="G29" s="108">
         <f>'Presupuesto de Inversion'!E16</f>
         <v>4848000</v>
@@ -12720,13 +12719,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="107"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="197" t="s">
+      <c r="B30" s="182"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="183" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="197"/>
+      <c r="F30" s="183"/>
       <c r="G30" s="108">
         <f>'Presupuesto de Inversion'!K12</f>
         <v>640000</v>
@@ -12749,13 +12748,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="107"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="181" t="s">
+      <c r="B31" s="182"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="206" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="181"/>
+      <c r="F31" s="206"/>
       <c r="G31" s="112">
         <f>SUM(G29:G30)</f>
         <v>5488000</v>
@@ -12778,12 +12777,12 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="107"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179" t="s">
+      <c r="B32" s="182"/>
+      <c r="C32" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="179"/>
-      <c r="E32" s="169" t="s">
+      <c r="D32" s="182"/>
+      <c r="E32" s="163" t="s">
         <v>381</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -12853,10 +12852,10 @@
     </row>
     <row r="33" spans="1:22" ht="30">
       <c r="A33" s="107"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="169"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="163"/>
       <c r="F33" s="106" t="s">
         <v>374</v>
       </c>
@@ -12879,10 +12878,10 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="107"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="169"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="163"/>
       <c r="F34" s="2" t="s">
         <v>375</v>
       </c>
@@ -12905,10 +12904,10 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="107"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="169"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="163"/>
       <c r="F35" s="2" t="s">
         <v>58</v>
       </c>
@@ -12931,10 +12930,10 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="107"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="169"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="163"/>
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
@@ -12957,10 +12956,10 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="107"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="169"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="163"/>
       <c r="F37" s="2" t="s">
         <v>376</v>
       </c>
@@ -12983,10 +12982,10 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="107"/>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="169"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="163"/>
       <c r="F38" s="2" t="s">
         <v>377</v>
       </c>
@@ -13009,10 +13008,10 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="107"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="169"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="163"/>
       <c r="F39" s="2" t="s">
         <v>62</v>
       </c>
@@ -13035,10 +13034,10 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="107"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="169"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="163"/>
       <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
@@ -13061,10 +13060,10 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="107"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="169"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="163"/>
       <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
@@ -13087,10 +13086,10 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="107"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="169"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="163"/>
       <c r="F42" s="2" t="s">
         <v>378</v>
       </c>
@@ -13113,10 +13112,10 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="107"/>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="169"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="163"/>
       <c r="F43" s="2" t="s">
         <v>379</v>
       </c>
@@ -13139,10 +13138,10 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="107"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="169"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="163"/>
       <c r="F44" s="113" t="s">
         <v>380</v>
       </c>
@@ -13210,13 +13209,13 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="107"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="225" t="s">
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="215" t="s">
         <v>382</v>
       </c>
-      <c r="F45" s="225"/>
+      <c r="F45" s="215"/>
       <c r="G45" s="108"/>
       <c r="H45" s="108">
         <f>'Presupuesto de Inversion'!$E$163/12</f>
@@ -13281,13 +13280,13 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="107"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="225" t="s">
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="215" t="s">
         <v>383</v>
       </c>
-      <c r="F46" s="225"/>
+      <c r="F46" s="215"/>
       <c r="G46" s="108"/>
       <c r="H46" s="108">
         <f>'Presupuesto de Inversion'!$E$164/12</f>
@@ -13352,13 +13351,13 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="107"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="179"/>
-      <c r="E47" s="225" t="s">
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="215" t="s">
         <v>384</v>
       </c>
-      <c r="F47" s="225"/>
+      <c r="F47" s="215"/>
       <c r="G47" s="108"/>
       <c r="H47" s="108">
         <f>'Presupuesto de Inversion'!$E$165/12</f>
@@ -13423,13 +13422,13 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="107"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="225" t="s">
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="215" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="225"/>
+      <c r="F48" s="215"/>
       <c r="G48" s="108"/>
       <c r="H48" s="108">
         <f>'Presupuesto de Inversion'!$E$166/12</f>
@@ -13494,13 +13493,13 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="107"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="225" t="s">
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="215" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="225"/>
+      <c r="F49" s="215"/>
       <c r="G49" s="108"/>
       <c r="H49" s="108">
         <f>'Presupuesto de Inversion'!$E$167/12</f>
@@ -13565,13 +13564,13 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="107"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
-      <c r="E50" s="225" t="s">
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="215" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="225"/>
+      <c r="F50" s="215"/>
       <c r="G50" s="108"/>
       <c r="H50" s="108">
         <f>'Presupuesto de Inversion'!$E$168/12</f>
@@ -13636,13 +13635,13 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="107"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
-      <c r="E51" s="225" t="s">
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="215" t="s">
         <v>386</v>
       </c>
-      <c r="F51" s="225"/>
+      <c r="F51" s="215"/>
       <c r="G51" s="108"/>
       <c r="H51" s="108"/>
       <c r="I51" s="108"/>
@@ -13662,13 +13661,13 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="107"/>
-      <c r="B52" s="179"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="179"/>
-      <c r="E52" s="181" t="s">
+      <c r="B52" s="182"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="206" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="181"/>
+      <c r="F52" s="206"/>
       <c r="G52" s="109"/>
       <c r="H52" s="109">
         <f>SUM(H45:H51)</f>
@@ -13733,400 +13732,400 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="107"/>
-      <c r="B53" s="179"/>
-      <c r="C53" s="208" t="s">
+      <c r="B53" s="182"/>
+      <c r="C53" s="222" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="209"/>
-      <c r="E53" s="214" t="s">
-        <v>496</v>
-      </c>
-      <c r="F53" s="215"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="153"/>
-      <c r="N53" s="153"/>
-      <c r="O53" s="153"/>
-      <c r="P53" s="153"/>
-      <c r="Q53" s="153"/>
-      <c r="R53" s="153"/>
-      <c r="S53" s="153"/>
-      <c r="T53" s="153"/>
-      <c r="U53" s="153"/>
-      <c r="V53" s="153"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="228" t="s">
+        <v>494</v>
+      </c>
+      <c r="F53" s="229"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="152"/>
+      <c r="N53" s="152"/>
+      <c r="O53" s="152"/>
+      <c r="P53" s="152"/>
+      <c r="Q53" s="152"/>
+      <c r="R53" s="152"/>
+      <c r="S53" s="152"/>
+      <c r="T53" s="152"/>
+      <c r="U53" s="152"/>
+      <c r="V53" s="152"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="107"/>
-      <c r="B54" s="179"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="214" t="s">
-        <v>497</v>
-      </c>
-      <c r="F54" s="215"/>
-      <c r="G54" s="153"/>
-      <c r="H54" s="153"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="153"/>
-      <c r="M54" s="153"/>
-      <c r="N54" s="153"/>
-      <c r="O54" s="153"/>
-      <c r="P54" s="153"/>
-      <c r="Q54" s="153"/>
-      <c r="R54" s="153"/>
-      <c r="S54" s="153"/>
-      <c r="T54" s="153"/>
-      <c r="U54" s="153"/>
-      <c r="V54" s="153"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="225"/>
+      <c r="E54" s="228" t="s">
+        <v>495</v>
+      </c>
+      <c r="F54" s="229"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="152"/>
+      <c r="L54" s="152"/>
+      <c r="M54" s="152"/>
+      <c r="N54" s="152"/>
+      <c r="O54" s="152"/>
+      <c r="P54" s="152"/>
+      <c r="Q54" s="152"/>
+      <c r="R54" s="152"/>
+      <c r="S54" s="152"/>
+      <c r="T54" s="152"/>
+      <c r="U54" s="152"/>
+      <c r="V54" s="152"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="107"/>
-      <c r="B55" s="179"/>
-      <c r="C55" s="210"/>
-      <c r="D55" s="211"/>
-      <c r="E55" s="214" t="s">
-        <v>498</v>
-      </c>
-      <c r="F55" s="215"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="153"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
-      <c r="N55" s="153"/>
-      <c r="O55" s="153"/>
-      <c r="P55" s="153"/>
-      <c r="Q55" s="153"/>
-      <c r="R55" s="153"/>
-      <c r="S55" s="153"/>
-      <c r="T55" s="153"/>
-      <c r="U55" s="153"/>
-      <c r="V55" s="153"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="224"/>
+      <c r="D55" s="225"/>
+      <c r="E55" s="228" t="s">
+        <v>496</v>
+      </c>
+      <c r="F55" s="229"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="152"/>
+      <c r="L55" s="152"/>
+      <c r="M55" s="152"/>
+      <c r="N55" s="152"/>
+      <c r="O55" s="152"/>
+      <c r="P55" s="152"/>
+      <c r="Q55" s="152"/>
+      <c r="R55" s="152"/>
+      <c r="S55" s="152"/>
+      <c r="T55" s="152"/>
+      <c r="U55" s="152"/>
+      <c r="V55" s="152"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="107"/>
-      <c r="B56" s="179"/>
-      <c r="C56" s="210"/>
-      <c r="D56" s="211"/>
-      <c r="E56" s="214" t="s">
+      <c r="B56" s="182"/>
+      <c r="C56" s="224"/>
+      <c r="D56" s="225"/>
+      <c r="E56" s="228" t="s">
         <v>311</v>
       </c>
-      <c r="F56" s="215"/>
-      <c r="G56" s="153"/>
-      <c r="H56" s="153"/>
-      <c r="I56" s="153"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="153"/>
-      <c r="L56" s="153"/>
-      <c r="M56" s="153"/>
-      <c r="N56" s="153"/>
-      <c r="O56" s="153"/>
-      <c r="P56" s="153"/>
-      <c r="Q56" s="153"/>
-      <c r="R56" s="153"/>
-      <c r="S56" s="153"/>
-      <c r="T56" s="153"/>
-      <c r="U56" s="153"/>
-      <c r="V56" s="153"/>
+      <c r="F56" s="229"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
+      <c r="M56" s="152"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="152"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152"/>
+      <c r="S56" s="152"/>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="152"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="107"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="210"/>
-      <c r="D57" s="211"/>
-      <c r="E57" s="214" t="s">
+      <c r="B57" s="182"/>
+      <c r="C57" s="224"/>
+      <c r="D57" s="225"/>
+      <c r="E57" s="228" t="s">
         <v>312</v>
       </c>
-      <c r="F57" s="215"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="154">
+      <c r="F57" s="229"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="153">
         <f>'Presupuesto de Inversion'!C139*0.05</f>
         <v>140215.32963302752</v>
       </c>
-      <c r="I57" s="154">
+      <c r="I57" s="153">
         <f>'Presupuesto de Inversion'!D139*0.05</f>
         <v>277092.19903669722</v>
       </c>
-      <c r="J57" s="154">
+      <c r="J57" s="153">
         <f>'Presupuesto de Inversion'!E139*0.05</f>
         <v>377246.00591743115</v>
       </c>
-      <c r="K57" s="154">
+      <c r="K57" s="153">
         <f>'Presupuesto de Inversion'!F139*0.05</f>
         <v>689392.03736238519</v>
       </c>
-      <c r="L57" s="154">
+      <c r="L57" s="153">
         <f>'Presupuesto de Inversion'!G139*0.05</f>
         <v>218669.14502293576</v>
       </c>
-      <c r="M57" s="154">
+      <c r="M57" s="153">
         <f>'Presupuesto de Inversion'!H139*0.05</f>
         <v>183615.31261467887</v>
       </c>
-      <c r="N57" s="154">
+      <c r="N57" s="153">
         <f>'Presupuesto de Inversion'!I139*0.05</f>
         <v>288776.80983944953</v>
       </c>
-      <c r="O57" s="154">
+      <c r="O57" s="153">
         <f>'Presupuesto de Inversion'!J139*0.05</f>
         <v>764507.39252293576</v>
       </c>
-      <c r="P57" s="154">
+      <c r="P57" s="153">
         <f>'Presupuesto de Inversion'!K139*0.05</f>
         <v>757830.47206422</v>
       </c>
-      <c r="Q57" s="154">
+      <c r="Q57" s="153">
         <f>'Presupuesto de Inversion'!L139*0.05</f>
         <v>609268.99185779807</v>
       </c>
-      <c r="R57" s="154">
+      <c r="R57" s="153">
         <f>'Presupuesto de Inversion'!M139*0.05</f>
         <v>255392.20754587153</v>
       </c>
-      <c r="S57" s="154">
+      <c r="S57" s="153">
         <f>'Presupuesto de Inversion'!N139*0.05</f>
         <v>171930.70181192658</v>
       </c>
-      <c r="T57" s="154">
+      <c r="T57" s="153">
         <f>'Presupuesto de Inversion'!C152</f>
         <v>4733936.6052293573</v>
       </c>
-      <c r="U57" s="154">
+      <c r="U57" s="153">
         <f>'Presupuesto de Inversion'!D152</f>
         <v>5112651.5336477058</v>
       </c>
-      <c r="V57" s="154">
+      <c r="V57" s="153">
         <f>'Presupuesto de Inversion'!E152</f>
         <v>5879549.2636948619</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="107"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="210"/>
-      <c r="D58" s="211"/>
-      <c r="E58" s="214" t="s">
+      <c r="B58" s="182"/>
+      <c r="C58" s="224"/>
+      <c r="D58" s="225"/>
+      <c r="E58" s="228" t="s">
         <v>313</v>
       </c>
-      <c r="F58" s="216"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="154">
+      <c r="F58" s="230"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="I58" s="154">
+      <c r="I58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="J58" s="154">
+      <c r="J58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="K58" s="154">
+      <c r="K58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="L58" s="154">
+      <c r="L58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="M58" s="154">
+      <c r="M58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="N58" s="154">
+      <c r="N58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="O58" s="154">
+      <c r="O58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="P58" s="154">
+      <c r="P58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="Q58" s="154">
+      <c r="Q58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="R58" s="154">
+      <c r="R58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="S58" s="154">
+      <c r="S58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
         <v>394494.71710244642</v>
       </c>
-      <c r="T58" s="154">
+      <c r="T58" s="153">
         <f>'Presupuesto de Inversion'!C153</f>
         <v>4733936.6052293573</v>
       </c>
-      <c r="U58" s="154">
+      <c r="U58" s="153">
         <f>'Presupuesto de Inversion'!D153</f>
         <v>5112651.5336477058</v>
       </c>
-      <c r="V58" s="154">
+      <c r="V58" s="153">
         <f>'Presupuesto de Inversion'!E153</f>
         <v>5879549.2636948619</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="107"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="210"/>
-      <c r="D59" s="211"/>
-      <c r="E59" s="214" t="s">
-        <v>499</v>
-      </c>
-      <c r="F59" s="216"/>
-      <c r="G59" s="153"/>
-      <c r="H59" s="154">
+      <c r="B59" s="182"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="225"/>
+      <c r="E59" s="228" t="s">
+        <v>497</v>
+      </c>
+      <c r="F59" s="230"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="153">
         <f>'Analisis Prestamo'!D10+'Analisis Prestamo'!F10</f>
-        <v>166209.30566935003</v>
-      </c>
-      <c r="I59" s="154">
+        <v>143213.09586082425</v>
+      </c>
+      <c r="I59" s="153">
         <f>'Analisis Prestamo'!D11+'Analisis Prestamo'!F11</f>
-        <v>166209.30566935003</v>
-      </c>
-      <c r="J59" s="154">
+        <v>143213.09586082425</v>
+      </c>
+      <c r="J59" s="153">
         <f>'Analisis Prestamo'!D12+'Analisis Prestamo'!F12</f>
-        <v>153871.39391661508</v>
-      </c>
-      <c r="K59" s="154">
+        <v>132582.21974079567</v>
+      </c>
+      <c r="K59" s="153">
         <f>'Analisis Prestamo'!D13+'Analisis Prestamo'!F13</f>
-        <v>141277.0420179721</v>
-      </c>
-      <c r="L59" s="154">
+        <v>121730.38374700681</v>
+      </c>
+      <c r="L59" s="153">
         <f>'Analisis Prestamo'!D14+'Analisis Prestamo'!F14</f>
-        <v>128420.91993461463</v>
-      </c>
-      <c r="M59" s="155">
+        <v>110652.99528847446</v>
+      </c>
+      <c r="M59" s="154">
         <f>'Analisis Prestamo'!D15+'Analisis Prestamo'!F15</f>
-        <v>865297.5868443267</v>
-      </c>
-      <c r="N59" s="154">
+        <v>849345.36631845881</v>
+      </c>
+      <c r="N59" s="153">
         <f>'Analisis Prestamo'!D16+'Analisis Prestamo'!F16</f>
-        <v>86312.942471754723</v>
-      </c>
-      <c r="O59" s="154">
+        <v>72214.164983316194</v>
+      </c>
+      <c r="O59" s="153">
         <f>'Analisis Prestamo'!D17+'Analisis Prestamo'!F17</f>
-        <v>822314.4065026592</v>
-      </c>
-      <c r="P59" s="154">
+        <v>810107.59536195383</v>
+      </c>
+      <c r="P59" s="153">
         <f>'Analisis Prestamo'!D18+'Analisis Prestamo'!F18</f>
-        <v>42436.368397070495</v>
-      </c>
-      <c r="Q59" s="154">
+        <v>32160.847610947087</v>
+      </c>
+      <c r="Q59" s="153">
         <f>'Analisis Prestamo'!D19+'Analisis Prestamo'!F19</f>
-        <v>27525.869748783265</v>
-      </c>
-      <c r="R59" s="154">
+        <v>19221.780662896253</v>
+      </c>
+      <c r="R59" s="153">
         <f>'Analisis Prestamo'!D20+'Analisis Prestamo'!F20</f>
-        <v>12305.460434448336</v>
-      </c>
-      <c r="S59" s="154">
+        <v>6013.778721422721</v>
+      </c>
+      <c r="S59" s="153">
         <f>'Analisis Prestamo'!D21+'Analisis Prestamo'!F21</f>
         <v>0</v>
       </c>
-      <c r="T59" s="154">
+      <c r="T59" s="153">
         <f>SUM(H59:S59)</f>
-        <v>2612180.6016069446</v>
-      </c>
-      <c r="U59" s="154">
-        <v>0</v>
-      </c>
-      <c r="V59" s="154">
+        <v>2440455.3241569204</v>
+      </c>
+      <c r="U59" s="153">
+        <v>0</v>
+      </c>
+      <c r="V59" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="107"/>
-      <c r="B60" s="179"/>
-      <c r="C60" s="210"/>
-      <c r="D60" s="211"/>
-      <c r="E60" s="214" t="s">
-        <v>500</v>
-      </c>
-      <c r="F60" s="215"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
-      <c r="N60" s="153"/>
-      <c r="O60" s="153"/>
-      <c r="P60" s="153"/>
-      <c r="Q60" s="153"/>
-      <c r="R60" s="153"/>
-      <c r="S60" s="153"/>
-      <c r="T60" s="153"/>
-      <c r="U60" s="153"/>
-      <c r="V60" s="153"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="224"/>
+      <c r="D60" s="225"/>
+      <c r="E60" s="228" t="s">
+        <v>498</v>
+      </c>
+      <c r="F60" s="229"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="152"/>
+      <c r="M60" s="152"/>
+      <c r="N60" s="152"/>
+      <c r="O60" s="152"/>
+      <c r="P60" s="152"/>
+      <c r="Q60" s="152"/>
+      <c r="R60" s="152"/>
+      <c r="S60" s="152"/>
+      <c r="T60" s="152"/>
+      <c r="U60" s="152"/>
+      <c r="V60" s="152"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="107"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="212"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="217" t="s">
-        <v>501</v>
-      </c>
-      <c r="F61" s="218"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="227"/>
+      <c r="E61" s="231" t="s">
+        <v>499</v>
+      </c>
+      <c r="F61" s="232"/>
       <c r="G61" s="109"/>
       <c r="H61" s="109">
         <f>SUM(H53:H60)</f>
-        <v>700919.35240482399</v>
+        <v>677923.14259629813</v>
       </c>
       <c r="I61" s="109">
         <f t="shared" ref="I61:V61" si="10">SUM(I53:I60)</f>
-        <v>837796.2218084936</v>
+        <v>814800.01199996786</v>
       </c>
       <c r="J61" s="109">
         <f t="shared" si="10"/>
-        <v>925612.11693649262</v>
+        <v>904322.94276067324</v>
       </c>
       <c r="K61" s="109">
         <f t="shared" si="10"/>
-        <v>1225163.7964828038</v>
+        <v>1205617.1382118384</v>
       </c>
       <c r="L61" s="109">
         <f t="shared" si="10"/>
-        <v>741584.78205999685</v>
+        <v>723816.85741385666</v>
       </c>
       <c r="M61" s="109">
         <f t="shared" si="10"/>
-        <v>1443407.6165614519</v>
+        <v>1427455.3960355842</v>
       </c>
       <c r="N61" s="109">
         <f t="shared" si="10"/>
-        <v>769584.46941365069</v>
+        <v>755485.69192521216</v>
       </c>
       <c r="O61" s="109">
         <f t="shared" si="10"/>
-        <v>1981316.5161280413</v>
+        <v>1969109.704987336</v>
       </c>
       <c r="P61" s="109">
         <f t="shared" si="10"/>
-        <v>1194761.557563737</v>
+        <v>1184486.0367776135</v>
       </c>
       <c r="Q61" s="109">
         <f t="shared" si="10"/>
-        <v>1031289.5787090277</v>
+        <v>1022985.4896231407</v>
       </c>
       <c r="R61" s="109">
         <f t="shared" si="10"/>
-        <v>662192.3850827663</v>
+        <v>655900.70336974075</v>
       </c>
       <c r="S61" s="109">
         <f t="shared" si="10"/>
@@ -14134,7 +14133,7 @@
       </c>
       <c r="T61" s="109">
         <f t="shared" si="10"/>
-        <v>12080053.812065659</v>
+        <v>11908328.534615636</v>
       </c>
       <c r="U61" s="109">
         <f t="shared" si="10"/>
@@ -14147,15 +14146,15 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="107"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179" t="s">
+      <c r="B62" s="182"/>
+      <c r="C62" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="D62" s="179"/>
-      <c r="E62" s="197" t="s">
+      <c r="D62" s="182"/>
+      <c r="E62" s="183" t="s">
         <v>387</v>
       </c>
-      <c r="F62" s="197"/>
+      <c r="F62" s="183"/>
       <c r="G62" s="108"/>
       <c r="H62" s="108"/>
       <c r="I62" s="108"/>
@@ -14175,13 +14174,13 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="107"/>
-      <c r="B63" s="179"/>
-      <c r="C63" s="179"/>
-      <c r="D63" s="179"/>
-      <c r="E63" s="197" t="s">
+      <c r="B63" s="182"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
+      <c r="E63" s="183" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="197"/>
+      <c r="F63" s="183"/>
       <c r="G63" s="108"/>
       <c r="H63" s="108"/>
       <c r="I63" s="108"/>
@@ -14209,13 +14208,13 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="107"/>
-      <c r="B64" s="179"/>
-      <c r="C64" s="179"/>
-      <c r="D64" s="179"/>
-      <c r="E64" s="197" t="s">
+      <c r="B64" s="182"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
+      <c r="E64" s="183" t="s">
         <v>389</v>
       </c>
-      <c r="F64" s="197"/>
+      <c r="F64" s="183"/>
       <c r="G64" s="108"/>
       <c r="H64" s="108"/>
       <c r="I64" s="108"/>
@@ -14243,13 +14242,13 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="107"/>
-      <c r="B65" s="179"/>
-      <c r="C65" s="179"/>
-      <c r="D65" s="179"/>
-      <c r="E65" s="197" t="s">
+      <c r="B65" s="182"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="182"/>
+      <c r="E65" s="183" t="s">
         <v>390</v>
       </c>
-      <c r="F65" s="197"/>
+      <c r="F65" s="183"/>
       <c r="G65" s="108"/>
       <c r="H65" s="108">
         <f>'Presupuesto de Inversion'!$C$154/12</f>
@@ -14314,13 +14313,13 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="107"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="179"/>
-      <c r="E66" s="197" t="s">
+      <c r="B66" s="182"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="183" t="s">
         <v>391</v>
       </c>
-      <c r="F66" s="197"/>
+      <c r="F66" s="183"/>
       <c r="G66" s="108"/>
       <c r="H66" s="108">
         <f>'Presupuesto de Inversion'!$C$155/12</f>
@@ -14385,13 +14384,13 @@
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="107"/>
-      <c r="B67" s="179"/>
-      <c r="C67" s="179"/>
-      <c r="D67" s="179"/>
-      <c r="E67" s="197" t="s">
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
+      <c r="E67" s="183" t="s">
         <v>392</v>
       </c>
-      <c r="F67" s="197"/>
+      <c r="F67" s="183"/>
       <c r="G67" s="108"/>
       <c r="H67" s="108">
         <f>'Presupuesto de Inversion'!C140</f>
@@ -14456,13 +14455,13 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="107"/>
-      <c r="B68" s="179"/>
-      <c r="C68" s="179"/>
-      <c r="D68" s="179"/>
-      <c r="E68" s="197" t="s">
+      <c r="B68" s="182"/>
+      <c r="C68" s="182"/>
+      <c r="D68" s="182"/>
+      <c r="E68" s="183" t="s">
         <v>393</v>
       </c>
-      <c r="F68" s="197"/>
+      <c r="F68" s="183"/>
       <c r="G68" s="108"/>
       <c r="H68" s="108">
         <f>'Presupuesto de Inversion'!C141</f>
@@ -14527,13 +14526,13 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="107"/>
-      <c r="B69" s="179"/>
-      <c r="C69" s="179"/>
-      <c r="D69" s="179"/>
-      <c r="E69" s="197" t="s">
+      <c r="B69" s="182"/>
+      <c r="C69" s="182"/>
+      <c r="D69" s="182"/>
+      <c r="E69" s="183" t="s">
         <v>394</v>
       </c>
-      <c r="F69" s="197"/>
+      <c r="F69" s="183"/>
       <c r="G69" s="108"/>
       <c r="H69" s="108">
         <f>$E$14/12</f>
@@ -14598,13 +14597,13 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="107"/>
-      <c r="B70" s="179"/>
-      <c r="C70" s="179"/>
-      <c r="D70" s="179"/>
-      <c r="E70" s="181" t="s">
+      <c r="B70" s="182"/>
+      <c r="C70" s="182"/>
+      <c r="D70" s="182"/>
+      <c r="E70" s="206" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="181"/>
+      <c r="F70" s="206"/>
       <c r="G70" s="109"/>
       <c r="H70" s="109">
         <f>SUM(H62:H69)</f>
@@ -14669,13 +14668,13 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="107"/>
-      <c r="B71" s="179"/>
-      <c r="C71" s="222" t="s">
+      <c r="B71" s="182"/>
+      <c r="C71" s="216" t="s">
         <v>395</v>
       </c>
-      <c r="D71" s="222"/>
-      <c r="E71" s="222"/>
-      <c r="F71" s="222"/>
+      <c r="D71" s="216"/>
+      <c r="E71" s="216"/>
+      <c r="F71" s="216"/>
       <c r="G71" s="108"/>
       <c r="H71" s="108">
         <f>$E$17/12</f>
@@ -14740,13 +14739,13 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="107"/>
-      <c r="B72" s="179"/>
-      <c r="C72" s="197" t="s">
+      <c r="B72" s="182"/>
+      <c r="C72" s="183" t="s">
         <v>396</v>
       </c>
-      <c r="D72" s="197"/>
-      <c r="E72" s="197"/>
-      <c r="F72" s="197"/>
+      <c r="D72" s="183"/>
+      <c r="E72" s="183"/>
+      <c r="F72" s="183"/>
       <c r="G72" s="108"/>
       <c r="H72" s="108"/>
       <c r="I72" s="108"/>
@@ -14766,60 +14765,60 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="107"/>
-      <c r="B73" s="179"/>
-      <c r="C73" s="174" t="s">
+      <c r="B73" s="182"/>
+      <c r="C73" s="207" t="s">
         <v>355</v>
       </c>
-      <c r="D73" s="174"/>
-      <c r="E73" s="174"/>
-      <c r="F73" s="174"/>
+      <c r="D73" s="207"/>
+      <c r="E73" s="207"/>
+      <c r="F73" s="207"/>
       <c r="G73" s="110">
         <f>G31</f>
         <v>5488000</v>
       </c>
       <c r="H73" s="110">
         <f>H44+H52+H70+H61</f>
-        <v>4825133.6090990193</v>
+        <v>4802137.3992904928</v>
       </c>
       <c r="I73" s="110">
         <f t="shared" ref="I73:V73" si="16">I44+I52+I70+I61</f>
-        <v>5360162.397796724</v>
+        <v>5337166.1879881984</v>
       </c>
       <c r="J73" s="110">
         <f t="shared" si="16"/>
-        <v>5885650.4289935315</v>
+        <v>5864361.2548177121</v>
       </c>
       <c r="K73" s="110">
         <f t="shared" si="16"/>
-        <v>8465620.2659542914</v>
+        <v>8446073.6076833252</v>
       </c>
       <c r="L73" s="110">
         <f t="shared" si="16"/>
-        <v>5904982.2120080907</v>
+        <v>5887214.2873619497</v>
       </c>
       <c r="M73" s="110">
         <f t="shared" si="16"/>
-        <v>7137569.7988854628</v>
+        <v>7121617.5783595946</v>
       </c>
       <c r="N73" s="110">
         <f t="shared" si="16"/>
-        <v>6923302.3946099095</v>
+        <v>6909203.6171214711</v>
       </c>
       <c r="O73" s="110">
         <f t="shared" si="16"/>
-        <v>10213977.087651135</v>
+        <v>10201770.27651043</v>
       </c>
       <c r="P73" s="110">
         <f t="shared" si="16"/>
-        <v>9398243.9866822436</v>
+        <v>9387968.4658961184</v>
       </c>
       <c r="Q73" s="110">
         <f t="shared" si="16"/>
-        <v>9881898.339325469</v>
+        <v>9873594.2502395827</v>
       </c>
       <c r="R73" s="110">
         <f t="shared" si="16"/>
-        <v>6670019.5982560897</v>
+        <v>6663727.9165430637</v>
       </c>
       <c r="S73" s="110">
         <f t="shared" si="16"/>
@@ -14827,7 +14826,7 @@
       </c>
       <c r="T73" s="110">
         <f t="shared" si="16"/>
-        <v>86876085.971292317</v>
+        <v>86704360.693842292</v>
       </c>
       <c r="U73" s="110">
         <f t="shared" si="16"/>
@@ -14840,60 +14839,60 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="107"/>
-      <c r="B74" s="220" t="s">
+      <c r="B74" s="217" t="s">
         <v>397</v>
       </c>
-      <c r="C74" s="220"/>
-      <c r="D74" s="220"/>
-      <c r="E74" s="220"/>
-      <c r="F74" s="220"/>
+      <c r="C74" s="217"/>
+      <c r="D74" s="217"/>
+      <c r="E74" s="217"/>
+      <c r="F74" s="217"/>
       <c r="G74" s="112">
         <f>G28-G73</f>
         <v>24369983.585259475</v>
       </c>
       <c r="H74" s="112">
         <f>H28-H73</f>
-        <v>-1762029.579458653</v>
+        <v>-1739033.3696501264</v>
       </c>
       <c r="I74" s="112">
         <f t="shared" ref="I74:V74" si="17">I28-I73</f>
-        <v>693114.61315923836</v>
+        <v>716110.82296776399</v>
       </c>
       <c r="J74" s="112">
         <f t="shared" si="17"/>
-        <v>2355558.0317055499</v>
+        <v>2376847.2058813693</v>
       </c>
       <c r="K74" s="112">
         <f t="shared" si="17"/>
-        <v>6594641.2131108437</v>
+        <v>6614187.8713818099</v>
       </c>
       <c r="L74" s="112">
         <f t="shared" si="17"/>
-        <v>-1127998.5467356145</v>
+        <v>-1110230.6220894735</v>
       </c>
       <c r="M74" s="112">
         <f t="shared" si="17"/>
-        <v>-3126362.141023078</v>
+        <v>-3110409.9204972098</v>
       </c>
       <c r="N74" s="112">
         <f t="shared" si="17"/>
-        <v>-614766.71451724973</v>
+        <v>-600667.93702881131</v>
       </c>
       <c r="O74" s="112">
         <f t="shared" si="17"/>
-        <v>6487232.9787213411</v>
+        <v>6499439.789862046</v>
       </c>
       <c r="P74" s="112">
         <f t="shared" si="17"/>
-        <v>7157103.9830406867</v>
+        <v>7167379.5038268119</v>
       </c>
       <c r="Q74" s="112">
         <f t="shared" si="17"/>
-        <v>3428017.9799451716</v>
+        <v>3436322.0690310579</v>
       </c>
       <c r="R74" s="112">
         <f t="shared" si="17"/>
-        <v>-1090794.4014111366</v>
+        <v>-1084502.7196981106</v>
       </c>
       <c r="S74" s="112">
         <f t="shared" si="17"/>
@@ -14901,7 +14900,7 @@
       </c>
       <c r="T74" s="112">
         <f t="shared" si="17"/>
-        <v>16540140.553232431</v>
+        <v>16711865.830682456</v>
       </c>
       <c r="U74" s="112">
         <f t="shared" si="17"/>
@@ -14914,13 +14913,13 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="107"/>
-      <c r="B75" s="172" t="s">
+      <c r="B75" s="161" t="s">
         <v>398</v>
       </c>
-      <c r="C75" s="172"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="161"/>
       <c r="G75" s="108"/>
       <c r="H75" s="108"/>
       <c r="I75" s="108"/>
@@ -14942,26 +14941,26 @@
       <c r="A76" s="107"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="B77" s="221" t="s">
+      <c r="B77" s="219" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="221"/>
-      <c r="D77" s="221"/>
-      <c r="E77" s="221"/>
-      <c r="F77" s="221"/>
-      <c r="G77" s="221"/>
-      <c r="H77" s="221"/>
-      <c r="I77" s="221"/>
-      <c r="J77" s="221"/>
+      <c r="C77" s="219"/>
+      <c r="D77" s="219"/>
+      <c r="E77" s="219"/>
+      <c r="F77" s="219"/>
+      <c r="G77" s="219"/>
+      <c r="H77" s="219"/>
+      <c r="I77" s="219"/>
+      <c r="J77" s="219"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="B78" s="179" t="s">
+      <c r="B78" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="179"/>
-      <c r="D78" s="179"/>
-      <c r="E78" s="179"/>
-      <c r="F78" s="179"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
+      <c r="E78" s="182"/>
+      <c r="F78" s="182"/>
       <c r="G78" s="61" t="s">
         <v>418</v>
       </c>
@@ -14976,24 +14975,24 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="B79" s="179" t="s">
+      <c r="B79" s="182" t="s">
         <v>416</v>
       </c>
-      <c r="C79" s="179" t="s">
+      <c r="C79" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="D79" s="179"/>
-      <c r="E79" s="197" t="s">
+      <c r="D79" s="182"/>
+      <c r="E79" s="183" t="s">
         <v>402</v>
       </c>
-      <c r="F79" s="197"/>
+      <c r="F79" s="183"/>
       <c r="G79" s="108">
         <f>G74</f>
         <v>24369983.585259475</v>
       </c>
       <c r="H79" s="108">
         <f>T74</f>
-        <v>16540140.553232431</v>
+        <v>16711865.830682456</v>
       </c>
       <c r="I79" s="108">
         <f t="shared" ref="I79:J79" si="18">U74</f>
@@ -15005,13 +15004,13 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="B80" s="179"/>
-      <c r="C80" s="179"/>
-      <c r="D80" s="179"/>
-      <c r="E80" s="197" t="s">
+      <c r="B80" s="182"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="182"/>
+      <c r="E80" s="183" t="s">
         <v>403</v>
       </c>
-      <c r="F80" s="197"/>
+      <c r="F80" s="183"/>
       <c r="G80" s="108">
         <v>0</v>
       </c>
@@ -15028,47 +15027,47 @@
         <v>78046816.797503799</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
-      <c r="B81" s="179"/>
-      <c r="C81" s="179"/>
-      <c r="D81" s="179"/>
-      <c r="E81" s="197" t="s">
+    <row r="81" spans="1:15">
+      <c r="B81" s="182"/>
+      <c r="C81" s="182"/>
+      <c r="D81" s="182"/>
+      <c r="E81" s="183" t="s">
         <v>404</v>
       </c>
-      <c r="F81" s="197"/>
+      <c r="F81" s="183"/>
       <c r="G81" s="108"/>
       <c r="H81" s="108"/>
       <c r="I81" s="108"/>
       <c r="J81" s="108"/>
     </row>
-    <row r="82" spans="1:10">
-      <c r="B82" s="179"/>
-      <c r="C82" s="179"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="197" t="s">
+    <row r="82" spans="1:15">
+      <c r="B82" s="182"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="182"/>
+      <c r="E82" s="183" t="s">
         <v>405</v>
       </c>
-      <c r="F82" s="197"/>
+      <c r="F82" s="183"/>
       <c r="G82" s="108"/>
       <c r="H82" s="108"/>
       <c r="I82" s="108"/>
       <c r="J82" s="108"/>
     </row>
-    <row r="83" spans="1:10">
-      <c r="B83" s="179"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="181" t="s">
+    <row r="83" spans="1:15">
+      <c r="B83" s="182"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="182"/>
+      <c r="E83" s="206" t="s">
         <v>407</v>
       </c>
-      <c r="F83" s="181"/>
+      <c r="F83" s="206"/>
       <c r="G83" s="109">
         <f>SUM(G79:G82)</f>
         <v>24369983.585259475</v>
       </c>
       <c r="H83" s="109">
         <f t="shared" ref="H83:J83" si="20">SUM(H79:H82)</f>
-        <v>79379767.604362696</v>
+        <v>79551492.881812721</v>
       </c>
       <c r="I83" s="109">
         <f t="shared" si="20"/>
@@ -15079,16 +15078,16 @@
         <v>104688080.19171657</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="179"/>
-      <c r="C84" s="179" t="s">
+    <row r="84" spans="1:15">
+      <c r="B84" s="182"/>
+      <c r="C84" s="182" t="s">
         <v>417</v>
       </c>
-      <c r="D84" s="179"/>
-      <c r="E84" s="172" t="s">
+      <c r="D84" s="182"/>
+      <c r="E84" s="161" t="s">
         <v>408</v>
       </c>
-      <c r="F84" s="172"/>
+      <c r="F84" s="161"/>
       <c r="G84" s="108">
         <f>'Presupuesto de Inversion'!E5</f>
         <v>3348000</v>
@@ -15097,14 +15096,14 @@
       <c r="I84" s="108"/>
       <c r="J84" s="108"/>
     </row>
-    <row r="85" spans="1:10">
-      <c r="B85" s="179"/>
-      <c r="C85" s="179"/>
-      <c r="D85" s="179"/>
-      <c r="E85" s="172" t="s">
+    <row r="85" spans="1:15">
+      <c r="B85" s="182"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="182"/>
+      <c r="E85" s="161" t="s">
         <v>409</v>
       </c>
-      <c r="F85" s="172"/>
+      <c r="F85" s="161"/>
       <c r="G85" s="108">
         <f>'Presupuesto de Inversion'!E8</f>
         <v>1500000</v>
@@ -15112,15 +15111,31 @@
       <c r="H85" s="108"/>
       <c r="I85" s="108"/>
       <c r="J85" s="108"/>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="B86" s="179"/>
-      <c r="C86" s="179"/>
-      <c r="D86" s="179"/>
-      <c r="E86" s="172" t="s">
+      <c r="L85" t="e">
+        <f>G83/G104</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M85" s="157">
+        <f t="shared" ref="M85:O85" si="21">H83/H104</f>
+        <v>2.7722236880234123</v>
+      </c>
+      <c r="N85" s="157">
+        <f t="shared" si="21"/>
+        <v>2.8358893129747371</v>
+      </c>
+      <c r="O85" s="157">
+        <f t="shared" si="21"/>
+        <v>2.6801919976158226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="B86" s="182"/>
+      <c r="C86" s="182"/>
+      <c r="D86" s="182"/>
+      <c r="E86" s="161" t="s">
         <v>410</v>
       </c>
-      <c r="F86" s="172"/>
+      <c r="F86" s="161"/>
       <c r="G86" s="108">
         <f>'Presupuesto de Inversion'!E11</f>
         <v>0</v>
@@ -15129,14 +15144,14 @@
       <c r="I86" s="108"/>
       <c r="J86" s="108"/>
     </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="179"/>
-      <c r="C87" s="179"/>
-      <c r="D87" s="179"/>
-      <c r="E87" s="172" t="s">
+    <row r="87" spans="1:15">
+      <c r="B87" s="182"/>
+      <c r="C87" s="182"/>
+      <c r="D87" s="182"/>
+      <c r="E87" s="161" t="s">
         <v>411</v>
       </c>
-      <c r="F87" s="172"/>
+      <c r="F87" s="161"/>
       <c r="G87" s="108">
         <f>0</f>
         <v>0</v>
@@ -15145,14 +15160,14 @@
       <c r="I87" s="108"/>
       <c r="J87" s="108"/>
     </row>
-    <row r="88" spans="1:10">
-      <c r="B88" s="179"/>
-      <c r="C88" s="179"/>
-      <c r="D88" s="179"/>
-      <c r="E88" s="172" t="s">
+    <row r="88" spans="1:15">
+      <c r="B88" s="182"/>
+      <c r="C88" s="182"/>
+      <c r="D88" s="182"/>
+      <c r="E88" s="161" t="s">
         <v>412</v>
       </c>
-      <c r="F88" s="172"/>
+      <c r="F88" s="161"/>
       <c r="G88" s="108">
         <f>'Presupuesto de Inversion'!E15</f>
         <v>0</v>
@@ -15161,14 +15176,14 @@
       <c r="I88" s="108"/>
       <c r="J88" s="108"/>
     </row>
-    <row r="89" spans="1:10">
-      <c r="B89" s="179"/>
-      <c r="C89" s="179"/>
-      <c r="D89" s="179"/>
-      <c r="E89" s="172" t="s">
+    <row r="89" spans="1:15">
+      <c r="B89" s="182"/>
+      <c r="C89" s="182"/>
+      <c r="D89" s="182"/>
+      <c r="E89" s="161" t="s">
         <v>413</v>
       </c>
-      <c r="F89" s="172"/>
+      <c r="F89" s="161"/>
       <c r="G89" s="108"/>
       <c r="H89" s="108">
         <f>'Presupuesto de Inversion'!G31</f>
@@ -15183,119 +15198,119 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="B90" s="179"/>
-      <c r="C90" s="179"/>
-      <c r="D90" s="179"/>
-      <c r="E90" s="224" t="s">
+    <row r="90" spans="1:15">
+      <c r="B90" s="182"/>
+      <c r="C90" s="182"/>
+      <c r="D90" s="182"/>
+      <c r="E90" s="218" t="s">
         <v>414</v>
       </c>
-      <c r="F90" s="224"/>
+      <c r="F90" s="218"/>
       <c r="G90" s="112">
         <f>SUM(G84:G89)</f>
         <v>4848000</v>
       </c>
       <c r="H90" s="112">
-        <f t="shared" ref="H90:J90" si="21">SUM(H84:H89)</f>
+        <f t="shared" ref="H90:J90" si="22">SUM(H84:H89)</f>
         <v>200000</v>
       </c>
       <c r="I90" s="112">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>200000</v>
       </c>
       <c r="J90" s="112">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="B91" s="179"/>
-      <c r="C91" s="174" t="s">
+    <row r="91" spans="1:15">
+      <c r="B91" s="182"/>
+      <c r="C91" s="207" t="s">
         <v>415</v>
       </c>
-      <c r="D91" s="174"/>
-      <c r="E91" s="174"/>
-      <c r="F91" s="174"/>
+      <c r="D91" s="207"/>
+      <c r="E91" s="207"/>
+      <c r="F91" s="207"/>
       <c r="G91" s="115">
         <f>G83+G90</f>
         <v>29217983.585259475</v>
       </c>
       <c r="H91" s="115">
-        <f t="shared" ref="H91:J91" si="22">H83+H90</f>
-        <v>79579767.604362696</v>
+        <f t="shared" ref="H91:J91" si="23">H83+H90</f>
+        <v>79751492.881812721</v>
       </c>
       <c r="I91" s="115">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>89317184.35186404</v>
       </c>
       <c r="J91" s="115">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>104888080.19171657</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:15">
       <c r="A93" s="107"/>
-      <c r="B93" s="221" t="s">
+      <c r="B93" s="219" t="s">
         <v>419</v>
       </c>
-      <c r="C93" s="221"/>
-      <c r="D93" s="221"/>
-      <c r="E93" s="221"/>
-      <c r="F93" s="221"/>
-      <c r="G93" s="221"/>
-      <c r="H93" s="221"/>
-      <c r="I93" s="221"/>
-      <c r="J93" s="221"/>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="C93" s="219"/>
+      <c r="D93" s="219"/>
+      <c r="E93" s="219"/>
+      <c r="F93" s="219"/>
+      <c r="G93" s="219"/>
+      <c r="H93" s="219"/>
+      <c r="I93" s="219"/>
+      <c r="J93" s="219"/>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="107"/>
-      <c r="B94" s="179" t="s">
+      <c r="B94" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="179"/>
-      <c r="D94" s="179"/>
-      <c r="E94" s="179"/>
-      <c r="F94" s="179"/>
-      <c r="G94" s="146" t="s">
+      <c r="C94" s="182"/>
+      <c r="D94" s="182"/>
+      <c r="E94" s="182"/>
+      <c r="F94" s="182"/>
+      <c r="G94" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="H94" s="146" t="s">
+      <c r="H94" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="I94" s="146" t="s">
+      <c r="I94" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="146" t="s">
+      <c r="J94" s="145" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:15">
       <c r="A95" s="107"/>
-      <c r="B95" s="179" t="s">
+      <c r="B95" s="182" t="s">
         <v>434</v>
       </c>
-      <c r="C95" s="179" t="s">
+      <c r="C95" s="182" t="s">
         <v>429</v>
       </c>
-      <c r="D95" s="179"/>
-      <c r="E95" s="197" t="s">
+      <c r="D95" s="182"/>
+      <c r="E95" s="183" t="s">
         <v>420</v>
       </c>
-      <c r="F95" s="197"/>
+      <c r="F95" s="183"/>
       <c r="G95" s="76"/>
       <c r="H95" s="76"/>
       <c r="I95" s="76"/>
       <c r="J95" s="76"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:15">
       <c r="A96" s="107"/>
-      <c r="B96" s="179"/>
-      <c r="C96" s="179"/>
-      <c r="D96" s="179"/>
-      <c r="E96" s="197" t="s">
+      <c r="B96" s="182"/>
+      <c r="C96" s="182"/>
+      <c r="D96" s="182"/>
+      <c r="E96" s="183" t="s">
         <v>421</v>
       </c>
-      <c r="F96" s="197"/>
+      <c r="F96" s="183"/>
       <c r="G96" s="76"/>
       <c r="H96" s="76">
         <f>'Presupuesto de Inversion'!E64</f>
@@ -15312,13 +15327,13 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="107"/>
-      <c r="B97" s="179"/>
-      <c r="C97" s="179"/>
-      <c r="D97" s="179"/>
-      <c r="E97" s="222" t="s">
+      <c r="B97" s="182"/>
+      <c r="C97" s="182"/>
+      <c r="D97" s="182"/>
+      <c r="E97" s="216" t="s">
         <v>422</v>
       </c>
-      <c r="F97" s="222"/>
+      <c r="F97" s="216"/>
       <c r="G97" s="76"/>
       <c r="H97" s="76"/>
       <c r="I97" s="76"/>
@@ -15326,13 +15341,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="107"/>
-      <c r="B98" s="179"/>
-      <c r="C98" s="179"/>
-      <c r="D98" s="179"/>
-      <c r="E98" s="222" t="s">
+      <c r="B98" s="182"/>
+      <c r="C98" s="182"/>
+      <c r="D98" s="182"/>
+      <c r="E98" s="216" t="s">
         <v>423</v>
       </c>
-      <c r="F98" s="222"/>
+      <c r="F98" s="216"/>
       <c r="G98" s="76"/>
       <c r="H98" s="76">
         <f>'Presupuesto de Inversion'!C154</f>
@@ -15349,13 +15364,13 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="107"/>
-      <c r="B99" s="179"/>
-      <c r="C99" s="179"/>
-      <c r="D99" s="179"/>
-      <c r="E99" s="222" t="s">
+      <c r="B99" s="182"/>
+      <c r="C99" s="182"/>
+      <c r="D99" s="182"/>
+      <c r="E99" s="216" t="s">
         <v>391</v>
       </c>
-      <c r="F99" s="222"/>
+      <c r="F99" s="216"/>
       <c r="G99" s="76"/>
       <c r="H99" s="76">
         <f>'Presupuesto de Inversion'!C155</f>
@@ -15372,13 +15387,13 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="107"/>
-      <c r="B100" s="179"/>
-      <c r="C100" s="179"/>
-      <c r="D100" s="179"/>
-      <c r="E100" s="222" t="s">
+      <c r="B100" s="182"/>
+      <c r="C100" s="182"/>
+      <c r="D100" s="182"/>
+      <c r="E100" s="216" t="s">
         <v>424</v>
       </c>
-      <c r="F100" s="222"/>
+      <c r="F100" s="216"/>
       <c r="G100" s="76"/>
       <c r="H100" s="76">
         <f>'Presupuesto de Inversion'!O140</f>
@@ -15395,13 +15410,13 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="107"/>
-      <c r="B101" s="179"/>
-      <c r="C101" s="179"/>
-      <c r="D101" s="179"/>
-      <c r="E101" s="222" t="s">
+      <c r="B101" s="182"/>
+      <c r="C101" s="182"/>
+      <c r="D101" s="182"/>
+      <c r="E101" s="216" t="s">
         <v>425</v>
       </c>
-      <c r="F101" s="222"/>
+      <c r="F101" s="216"/>
       <c r="G101" s="76"/>
       <c r="H101" s="76">
         <f>'Presupuesto de Inversion'!O141</f>
@@ -15418,36 +15433,36 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="107"/>
-      <c r="B102" s="179"/>
-      <c r="C102" s="179"/>
-      <c r="D102" s="179"/>
-      <c r="E102" s="222" t="s">
+      <c r="B102" s="182"/>
+      <c r="C102" s="182"/>
+      <c r="D102" s="182"/>
+      <c r="E102" s="216" t="s">
         <v>426</v>
       </c>
-      <c r="F102" s="222"/>
+      <c r="F102" s="216"/>
       <c r="G102" s="76"/>
       <c r="H102" s="76">
         <f>E14+E15</f>
         <v>6810925.1972218333</v>
       </c>
       <c r="I102" s="76">
-        <f t="shared" ref="I102:J102" si="23">F14+F15</f>
+        <f t="shared" ref="I102:J102" si="24">F14+F15</f>
         <v>7812940.9495352171</v>
       </c>
       <c r="J102" s="76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12014220.237838542</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="107"/>
-      <c r="B103" s="179"/>
-      <c r="C103" s="179"/>
-      <c r="D103" s="179"/>
-      <c r="E103" s="222" t="s">
+      <c r="B103" s="182"/>
+      <c r="C103" s="182"/>
+      <c r="D103" s="182"/>
+      <c r="E103" s="216" t="s">
         <v>427</v>
       </c>
-      <c r="F103" s="222"/>
+      <c r="F103" s="216"/>
       <c r="G103" s="76"/>
       <c r="H103" s="76">
         <v>0</v>
@@ -15461,41 +15476,41 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="107"/>
-      <c r="B104" s="179"/>
-      <c r="C104" s="179"/>
-      <c r="D104" s="179"/>
-      <c r="E104" s="223" t="s">
+      <c r="B104" s="182"/>
+      <c r="C104" s="182"/>
+      <c r="D104" s="182"/>
+      <c r="E104" s="221" t="s">
         <v>428</v>
       </c>
-      <c r="F104" s="223"/>
+      <c r="F104" s="221"/>
       <c r="G104" s="101">
         <f>SUM(G95:G103)</f>
         <v>0</v>
       </c>
       <c r="H104" s="101">
-        <f t="shared" ref="H104:J104" si="24">SUM(H95:H103)</f>
+        <f t="shared" ref="H104:J104" si="25">SUM(H95:H103)</f>
         <v>28695914.123197149</v>
       </c>
       <c r="I104" s="101">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>31424775.270366102</v>
       </c>
       <c r="J104" s="101">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>39059918.201696873</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="107"/>
-      <c r="B105" s="179"/>
-      <c r="C105" s="179" t="s">
+      <c r="B105" s="182"/>
+      <c r="C105" s="182" t="s">
         <v>433</v>
       </c>
-      <c r="D105" s="179"/>
-      <c r="E105" s="197" t="s">
+      <c r="D105" s="182"/>
+      <c r="E105" s="183" t="s">
         <v>430</v>
       </c>
-      <c r="F105" s="197"/>
+      <c r="F105" s="183"/>
       <c r="G105" s="76"/>
       <c r="H105" s="76"/>
       <c r="I105" s="76"/>
@@ -15503,13 +15518,13 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="107"/>
-      <c r="B106" s="179"/>
-      <c r="C106" s="179"/>
-      <c r="D106" s="179"/>
-      <c r="E106" s="148" t="s">
+      <c r="B106" s="182"/>
+      <c r="C106" s="182"/>
+      <c r="D106" s="182"/>
+      <c r="E106" s="147" t="s">
         <v>431</v>
       </c>
-      <c r="F106" s="148"/>
+      <c r="F106" s="147"/>
       <c r="G106" s="76"/>
       <c r="H106" s="76"/>
       <c r="I106" s="76"/>
@@ -15517,13 +15532,13 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="107"/>
-      <c r="B107" s="179"/>
-      <c r="C107" s="179"/>
-      <c r="D107" s="179"/>
-      <c r="E107" s="197" t="s">
+      <c r="B107" s="182"/>
+      <c r="C107" s="182"/>
+      <c r="D107" s="182"/>
+      <c r="E107" s="183" t="s">
         <v>427</v>
       </c>
-      <c r="F107" s="197"/>
+      <c r="F107" s="183"/>
       <c r="G107" s="76"/>
       <c r="H107" s="76"/>
       <c r="I107" s="76"/>
@@ -15531,63 +15546,63 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="107"/>
-      <c r="B108" s="179"/>
-      <c r="C108" s="179"/>
-      <c r="D108" s="179"/>
-      <c r="E108" s="181" t="s">
+      <c r="B108" s="182"/>
+      <c r="C108" s="182"/>
+      <c r="D108" s="182"/>
+      <c r="E108" s="206" t="s">
         <v>432</v>
       </c>
-      <c r="F108" s="181"/>
+      <c r="F108" s="206"/>
       <c r="G108" s="101">
         <f>SUM(G105:G107)</f>
         <v>0</v>
       </c>
       <c r="H108" s="101">
-        <f t="shared" ref="H108:J108" si="25">SUM(H105:H107)</f>
+        <f t="shared" ref="H108:J108" si="26">SUM(H105:H107)</f>
         <v>0</v>
       </c>
       <c r="I108" s="101">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J108" s="101">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="107"/>
-      <c r="B109" s="179"/>
-      <c r="C109" s="219" t="s">
+      <c r="B109" s="182"/>
+      <c r="C109" s="220" t="s">
         <v>435</v>
       </c>
-      <c r="D109" s="219"/>
-      <c r="E109" s="219"/>
-      <c r="F109" s="219"/>
+      <c r="D109" s="220"/>
+      <c r="E109" s="220"/>
+      <c r="F109" s="220"/>
       <c r="G109" s="116">
         <f>G104+G108</f>
         <v>0</v>
       </c>
       <c r="H109" s="116">
-        <f t="shared" ref="H109:J109" si="26">H104+H108</f>
+        <f t="shared" ref="H109:J109" si="27">H104+H108</f>
         <v>28695914.123197149</v>
       </c>
       <c r="I109" s="116">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31424775.270366102</v>
       </c>
       <c r="J109" s="116">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>39059918.201696873</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="107"/>
-      <c r="B110" s="179" t="s">
+      <c r="B110" s="182" t="s">
         <v>441</v>
       </c>
-      <c r="C110" s="179"/>
-      <c r="D110" s="179"/>
+      <c r="C110" s="182"/>
+      <c r="D110" s="182"/>
       <c r="E110" s="2" t="s">
         <v>436</v>
       </c>
@@ -15599,9 +15614,9 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="107"/>
-      <c r="B111" s="179"/>
-      <c r="C111" s="179"/>
-      <c r="D111" s="179"/>
+      <c r="B111" s="182"/>
+      <c r="C111" s="182"/>
+      <c r="D111" s="182"/>
       <c r="E111" s="2" t="s">
         <v>437</v>
       </c>
@@ -15612,19 +15627,19 @@
         <v>13221207.735783558</v>
       </c>
       <c r="I111" s="76">
-        <f t="shared" ref="I111:J111" si="27">F16</f>
+        <f t="shared" ref="I111:J111" si="28">F16</f>
         <v>15166297.137333069</v>
       </c>
       <c r="J111" s="76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>23321721.63815717</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="107"/>
-      <c r="B112" s="179"/>
-      <c r="C112" s="179"/>
-      <c r="D112" s="179"/>
+      <c r="B112" s="182"/>
+      <c r="C112" s="182"/>
+      <c r="D112" s="182"/>
       <c r="E112" s="2" t="s">
         <v>438</v>
       </c>
@@ -15636,9 +15651,9 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="107"/>
-      <c r="B113" s="179"/>
-      <c r="C113" s="179"/>
-      <c r="D113" s="179"/>
+      <c r="B113" s="182"/>
+      <c r="C113" s="182"/>
+      <c r="D113" s="182"/>
       <c r="E113" s="2" t="s">
         <v>439</v>
       </c>
@@ -15649,49 +15664,49 @@
         <v>1322120.773578356</v>
       </c>
       <c r="I113" s="76">
-        <f t="shared" ref="I113:J113" si="28">F17</f>
+        <f t="shared" ref="I113:J113" si="29">F17</f>
         <v>1516629.7137333071</v>
       </c>
       <c r="J113" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2332172.1638157172</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="107"/>
-      <c r="B114" s="179"/>
-      <c r="C114" s="179"/>
-      <c r="D114" s="179"/>
-      <c r="E114" s="181" t="s">
+      <c r="B114" s="182"/>
+      <c r="C114" s="182"/>
+      <c r="D114" s="182"/>
+      <c r="E114" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F114" s="181"/>
+      <c r="F114" s="206"/>
       <c r="G114" s="101">
         <f>SUM(G110:G113)</f>
         <v>0</v>
       </c>
       <c r="H114" s="101">
-        <f t="shared" ref="H114:J114" si="29">SUM(H110:H113)</f>
+        <f t="shared" ref="H114:J114" si="30">SUM(H110:H113)</f>
         <v>14543328.509361915</v>
       </c>
       <c r="I114" s="101">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16682926.851066377</v>
       </c>
       <c r="J114" s="101">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>25653893.801972888</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="107"/>
-      <c r="B115" s="219" t="s">
+      <c r="B115" s="220" t="s">
         <v>442</v>
       </c>
-      <c r="C115" s="219"/>
-      <c r="D115" s="219"/>
-      <c r="E115" s="219"/>
-      <c r="F115" s="219"/>
+      <c r="C115" s="220"/>
+      <c r="D115" s="220"/>
+      <c r="E115" s="220"/>
+      <c r="F115" s="220"/>
       <c r="G115" s="116">
         <f>G109+G114</f>
         <v>0</v>
@@ -15701,103 +15716,120 @@
         <v>43239242.632559061</v>
       </c>
       <c r="I115" s="116">
-        <f t="shared" ref="I115:J115" si="30">I109+I114</f>
+        <f t="shared" ref="I115:J115" si="31">I109+I114</f>
         <v>48107702.121432483</v>
       </c>
       <c r="J115" s="116">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>64713812.003669761</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="107"/>
-      <c r="B116" s="172" t="s">
+      <c r="B116" s="161" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="172"/>
-      <c r="D116" s="172"/>
-      <c r="E116" s="172"/>
-      <c r="F116" s="172"/>
+      <c r="C116" s="161"/>
+      <c r="D116" s="161"/>
+      <c r="E116" s="161"/>
+      <c r="F116" s="161"/>
       <c r="G116" s="76">
         <f>G91</f>
         <v>29217983.585259475</v>
       </c>
       <c r="H116" s="76">
-        <f t="shared" ref="H116:J116" si="31">H91</f>
-        <v>79579767.604362696</v>
+        <f t="shared" ref="H116:J116" si="32">H91</f>
+        <v>79751492.881812721</v>
       </c>
       <c r="I116" s="76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>89317184.35186404</v>
       </c>
       <c r="J116" s="76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>104888080.19171657</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="107"/>
-      <c r="B117" s="220" t="s">
+      <c r="B117" s="217" t="s">
         <v>444</v>
       </c>
-      <c r="C117" s="220"/>
-      <c r="D117" s="220"/>
-      <c r="E117" s="220"/>
-      <c r="F117" s="220"/>
+      <c r="C117" s="217"/>
+      <c r="D117" s="217"/>
+      <c r="E117" s="217"/>
+      <c r="F117" s="217"/>
       <c r="G117" s="94">
         <f>G116-(G109+G114)</f>
         <v>29217983.585259475</v>
       </c>
       <c r="H117" s="94">
-        <f t="shared" ref="H117:J117" si="32">H116-(H109+H114)</f>
-        <v>36340524.971803635</v>
+        <f t="shared" ref="H117:J117" si="33">H116-(H109+H114)</f>
+        <v>36512250.24925366</v>
       </c>
       <c r="I117" s="94">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>41209482.230431557</v>
       </c>
       <c r="J117" s="94">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>40174268.188046806</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C53:D61"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B93:J93"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="B110:D114"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="C105:D108"/>
+    <mergeCell ref="B95:B109"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C95:D104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="B79:B91"/>
+    <mergeCell ref="C84:D90"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C79:D83"/>
+    <mergeCell ref="E83:F83"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="C72:F72"/>
     <mergeCell ref="C73:F73"/>
@@ -15822,58 +15854,41 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="B79:B91"/>
-    <mergeCell ref="C84:D90"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C79:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B93:J93"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="B110:D114"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="C105:D108"/>
-    <mergeCell ref="B95:B109"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="C95:D104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="C53:D61"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15883,8 +15898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A25" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15895,59 +15910,60 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:12">
       <c r="B2" s="117" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C2" s="118">
         <f>'Presupuesto de Inversion'!C209</f>
         <v>22967679.680968828</v>
       </c>
-      <c r="J2" s="233" t="s">
+      <c r="J2" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="233"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="J3" s="143" t="s">
+      <c r="K2" s="240"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="J3" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="144">
+      <c r="K3" s="143">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="J4" s="143" t="s">
+    <row r="4" spans="2:12">
+      <c r="J4" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="145">
+      <c r="K4" s="144">
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="231" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="J5" s="143" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="238" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="J5" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="144">
+      <c r="K5" s="143">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="179" t="s">
+    <row r="6" spans="2:12">
+      <c r="B6" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="182"/>
       <c r="D6" s="61" t="s">
         <v>418</v>
       </c>
@@ -15961,15 +15977,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="197" t="s">
+    <row r="7" spans="2:12">
+      <c r="B7" s="183" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="197"/>
+      <c r="C7" s="183"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
         <f>'Analisis Financiero'!T74</f>
-        <v>16540140.553232431</v>
+        <v>16711865.830682456</v>
       </c>
       <c r="F7" s="19">
         <f>'Analisis Financiero'!U74</f>
@@ -15980,11 +15996,11 @@
         <v>26641263.394212767</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="197" t="s">
-        <v>447</v>
-      </c>
-      <c r="C8" s="197"/>
+    <row r="8" spans="2:12">
+      <c r="B8" s="183" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="183"/>
       <c r="D8" s="19">
         <f>C2*0.7</f>
         <v>16077375.776678178</v>
@@ -15998,12 +16014,17 @@
       <c r="G8" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="197" t="s">
+      <c r="J8" s="233" t="s">
+        <v>502</v>
+      </c>
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="183" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="197"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="19">
         <f>C2*0.3</f>
         <v>6890303.9042906482</v>
@@ -16017,12 +16038,21 @@
       <c r="G9" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="197" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" s="197"/>
+      <c r="J9" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="155" t="s">
+        <v>505</v>
+      </c>
+      <c r="L9" s="155" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="183" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="183"/>
       <c r="D10" s="19">
         <f>SUM(D8:D9)</f>
         <v>22967679.680968828</v>
@@ -16039,19 +16069,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="234" t="s">
-        <v>449</v>
-      </c>
-      <c r="C11" s="234"/>
+      <c r="J10" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K10" s="19">
+        <f>D8</f>
+        <v>16077375.776678178</v>
+      </c>
+      <c r="L10" s="103">
+        <f>(K10*100%)/$K$12</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="241" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="241"/>
       <c r="D11" s="119">
         <f>D7-D10</f>
         <v>-22967679.680968828</v>
       </c>
       <c r="E11" s="119">
         <f t="shared" ref="E11:G11" si="1">E7-E10</f>
-        <v>16540140.553232431</v>
+        <v>16711865.830682456</v>
       </c>
       <c r="F11" s="119">
         <f t="shared" si="1"/>
@@ -16062,149 +16103,173 @@
         <v>26641263.394212767</v>
       </c>
       <c r="H11" s="67"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="232" t="s">
-        <v>452</v>
-      </c>
-      <c r="C13" s="232"/>
-      <c r="D13" s="232"/>
-      <c r="E13" s="232"/>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="J11" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K11" s="19">
+        <f>D9</f>
+        <v>6890303.9042906482</v>
+      </c>
+      <c r="L11" s="103">
+        <f t="shared" ref="L11:L12" si="2">(K11*100%)/$K$12</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="J12" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="120">
+        <f>SUM(K10:K11)</f>
+        <v>22967679.680968828</v>
+      </c>
+      <c r="L12" s="148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="239" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="239"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="239"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="156" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:12">
       <c r="B15" s="19">
         <f>D11</f>
         <v>-22967679.680968828</v>
       </c>
-      <c r="C15" s="120">
+      <c r="C15" s="141">
         <f>B15+E11</f>
-        <v>-6427539.1277363971</v>
-      </c>
-      <c r="D15" s="142">
-        <f t="shared" ref="D15:E15" si="2">C15+F11</f>
-        <v>14822848.008906953</v>
+        <v>-6255813.850286372</v>
+      </c>
+      <c r="D15" s="120">
+        <f t="shared" ref="D15:E15" si="3">C15+F11</f>
+        <v>14994573.286356978</v>
       </c>
       <c r="E15" s="19">
-        <f t="shared" si="2"/>
-        <v>41464111.403119721</v>
+        <f t="shared" si="3"/>
+        <v>41635836.680569746</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="135" t="s">
-        <v>453</v>
+      <c r="B18" s="134" t="s">
+        <v>452</v>
       </c>
       <c r="C18" s="120">
         <f>-C2+(E11/(1+K3))+(F11/((1+K3)*(1+K4)))+(G11/((1+K3)*(1+K4)*(1+K5)))</f>
-        <v>34081597.718438998</v>
+        <v>34244370.493273146</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="135" t="s">
-        <v>454</v>
-      </c>
-      <c r="C19" s="136">
+      <c r="B19" s="134" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="135">
         <f>C27</f>
-        <v>0.84022336903808659</v>
+        <v>0.84741666120363623</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="C21" s="140">
+        <v>454</v>
+      </c>
+      <c r="C21" s="139">
         <f>(((E11+F11+G11)/C2)-1)/3</f>
-        <v>0.6017747835084557</v>
+        <v>0.60426705786725554</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C22" s="20">
         <f>C21*2</f>
-        <v>1.2035495670169114</v>
+        <v>1.2085341157345111</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" s="137">
+        <f>-C2+(E11/(1+C21))+(F11/((1+C21)^2))+(G11/((1+C21)^3))</f>
+        <v>2158740.7008989686</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="136" t="s">
         <v>457</v>
       </c>
-      <c r="C24" s="138">
-        <f>-C2+(E11/(1+C21))+(F11/((1+C21)^2))+(G11/((1+C21)^3))</f>
-        <v>2123620.0556850256</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="137" t="s">
+      <c r="C25" s="137">
+        <f>-C2+(E11/(1+C22))+((F11/(1+C22)^2))+((G11/(1+C22)^3))</f>
+        <v>-8570916.0547066908</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="136" t="s">
         <v>458</v>
       </c>
-      <c r="C25" s="138">
-        <f>-C2+(E11/(1+C22))+((F11/(1+C22)^2))+((G11/(1+C22)^3))</f>
-        <v>-8595177.0084750988</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="137" t="s">
-        <v>459</v>
-      </c>
-      <c r="C26" s="138">
+      <c r="C26" s="137">
         <f>-C25</f>
-        <v>8595177.0084750988</v>
+        <v>8570916.0547066908</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="137" t="s">
-        <v>454</v>
-      </c>
-      <c r="C27" s="139">
+      <c r="B27" s="136" t="s">
+        <v>453</v>
+      </c>
+      <c r="C27" s="138">
         <f>C21+((C22-D2)*(C24/(C24+C26)))</f>
-        <v>0.84022336903808659</v>
+        <v>0.84741666120363623</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="179" t="s">
+      <c r="B32" s="182" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="182"/>
+      <c r="D32" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="237" t="s">
         <v>476</v>
       </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="123" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="235" t="s">
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
+      <c r="J33" s="150"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="183" t="s">
         <v>477</v>
       </c>
-      <c r="C33" s="235"/>
-      <c r="D33" s="235"/>
-      <c r="E33" s="235"/>
-      <c r="F33" s="235"/>
-      <c r="J33" s="151"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="197" t="s">
-        <v>478</v>
-      </c>
-      <c r="C34" s="197"/>
+      <c r="C34" s="183"/>
       <c r="D34" s="19">
         <f>'Presupuesto de Inversion'!E172</f>
         <v>48303010</v>
@@ -16219,10 +16284,10 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="197" t="s">
-        <v>479</v>
-      </c>
-      <c r="C35" s="197"/>
+      <c r="B35" s="183" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35" s="183"/>
       <c r="D35" s="19">
         <f>'Presupuesto de Inversion'!O196</f>
         <v>94678732.104587138</v>
@@ -16237,10 +16302,10 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="197" t="s">
-        <v>480</v>
-      </c>
-      <c r="C36" s="197"/>
+      <c r="B36" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="183"/>
       <c r="D36" s="19">
         <f>'Presupuesto de Inversion'!E182</f>
         <v>10665559.171581741</v>
@@ -16255,55 +16320,55 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="135" t="s">
-        <v>481</v>
-      </c>
-      <c r="C37" s="135"/>
-      <c r="D37" s="149">
+      <c r="B37" s="134" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="134"/>
+      <c r="D37" s="148">
         <f>D34/(D35-D36)</f>
         <v>0.57494566999056518</v>
       </c>
-      <c r="E37" s="149">
-        <f t="shared" ref="E37:F37" si="3">E34/(E35-E36)</f>
+      <c r="E37" s="148">
+        <f t="shared" ref="E37:F37" si="4">E34/(E35-E36)</f>
         <v>0.56476661745567225</v>
       </c>
-      <c r="F37" s="149">
-        <f t="shared" si="3"/>
+      <c r="F37" s="148">
+        <f t="shared" si="4"/>
         <v>0.52223394409840085</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="222" t="s">
-        <v>482</v>
-      </c>
-      <c r="C38" s="222"/>
-      <c r="D38" s="222"/>
-      <c r="E38" s="222"/>
-      <c r="F38" s="222"/>
+      <c r="B38" s="216" t="s">
+        <v>481</v>
+      </c>
+      <c r="C38" s="216"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="222" t="s">
-        <v>478</v>
-      </c>
-      <c r="C39" s="222"/>
+      <c r="B39" s="216" t="s">
+        <v>477</v>
+      </c>
+      <c r="C39" s="216"/>
       <c r="D39" s="19">
         <f>D34</f>
         <v>48303010</v>
       </c>
       <c r="E39" s="19">
-        <f t="shared" ref="E39:F39" si="4">E34</f>
+        <f t="shared" ref="E39:F39" si="5">E34</f>
         <v>51257190.600000001</v>
       </c>
       <c r="F39" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54562907.989000008</v>
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="222" t="s">
-        <v>483</v>
-      </c>
-      <c r="C40" s="222"/>
+      <c r="B40" s="216" t="s">
+        <v>482</v>
+      </c>
+      <c r="C40" s="216"/>
       <c r="D40" s="19">
         <f>'Presupuesto de Inversion'!D188</f>
         <v>29349.100917431191</v>
@@ -16318,10 +16383,10 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="222" t="s">
-        <v>484</v>
-      </c>
-      <c r="C41" s="222"/>
+      <c r="B41" s="216" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41" s="216"/>
       <c r="D41" s="19">
         <f>'Presupuesto de Inversion'!D189</f>
         <v>4892.4583355879549</v>
@@ -16337,88 +16402,88 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="236" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C42" s="236"/>
-      <c r="D42" s="135">
+      <c r="D42" s="134">
         <f>D39/(D40-D41)</f>
         <v>1975.0466499379786</v>
       </c>
-      <c r="E42" s="135">
-        <f t="shared" ref="E42:F42" si="5">E39/(E40-E41)</f>
+      <c r="E42" s="134">
+        <f t="shared" ref="E42:F42" si="6">E39/(E40-E41)</f>
         <v>5970.1955360954216</v>
       </c>
-      <c r="F42" s="135">
-        <f t="shared" si="5"/>
+      <c r="F42" s="134">
+        <f t="shared" si="6"/>
         <v>7156.7046696824455</v>
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="222" t="s">
-        <v>486</v>
-      </c>
-      <c r="C43" s="222"/>
-      <c r="D43" s="222"/>
-      <c r="E43" s="222"/>
-      <c r="F43" s="222"/>
+      <c r="B43" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="216"/>
+      <c r="D43" s="216"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="222" t="s">
-        <v>478</v>
-      </c>
-      <c r="C44" s="222"/>
+      <c r="B44" s="216" t="s">
+        <v>477</v>
+      </c>
+      <c r="C44" s="216"/>
       <c r="D44" s="19">
         <f>D34</f>
         <v>48303010</v>
       </c>
       <c r="E44" s="19">
-        <f t="shared" ref="E44:F44" si="6">E34</f>
+        <f t="shared" ref="E44:F44" si="7">E34</f>
         <v>51257190.600000001</v>
       </c>
       <c r="F44" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54562907.989000008</v>
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="222" t="s">
-        <v>487</v>
-      </c>
-      <c r="C45" s="222"/>
+      <c r="B45" s="216" t="s">
+        <v>486</v>
+      </c>
+      <c r="C45" s="216"/>
       <c r="D45" s="19">
         <f>D36</f>
         <v>10665559.171581741</v>
       </c>
       <c r="E45" s="19">
-        <f t="shared" ref="E45:F45" si="7">E36</f>
+        <f t="shared" ref="E45:F45" si="8">E36</f>
         <v>11494850.18608582</v>
       </c>
       <c r="F45" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13111166.208901508</v>
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="222" t="s">
-        <v>479</v>
-      </c>
-      <c r="C46" s="222"/>
+      <c r="B46" s="216" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" s="216"/>
       <c r="D46" s="19">
         <f>D35</f>
         <v>94678732.104587138</v>
       </c>
       <c r="E46" s="19">
-        <f t="shared" ref="E46:F46" si="8">E35</f>
+        <f t="shared" ref="E46:F46" si="9">E35</f>
         <v>102253030.67295411</v>
       </c>
       <c r="F46" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>117590985.27389723</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="236" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C47" s="236"/>
       <c r="D47" s="120">
@@ -16426,64 +16491,64 @@
         <v>54435127.063729085</v>
       </c>
       <c r="E47" s="120">
-        <f t="shared" ref="E47:F47" si="9">E44/(1-(E45/E46))</f>
+        <f t="shared" ref="E47:F47" si="10">E44/(1-(E45/E46))</f>
         <v>57749098.257755399</v>
       </c>
       <c r="F47" s="120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>61410004.030004323</v>
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="222" t="s">
-        <v>489</v>
-      </c>
-      <c r="C48" s="222"/>
-      <c r="D48" s="222"/>
-      <c r="E48" s="222"/>
-      <c r="F48" s="222"/>
+      <c r="B48" s="216" t="s">
+        <v>500</v>
+      </c>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="222" t="s">
-        <v>490</v>
-      </c>
-      <c r="C49" s="222"/>
+      <c r="B49" s="216" t="s">
+        <v>488</v>
+      </c>
+      <c r="C49" s="216"/>
       <c r="D49" s="19">
         <f>D47</f>
         <v>54435127.063729085</v>
       </c>
       <c r="E49" s="19">
-        <f t="shared" ref="E49:F49" si="10">E47</f>
+        <f t="shared" ref="E49:F49" si="11">E47</f>
         <v>57749098.257755399</v>
       </c>
       <c r="F49" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>61410004.030004323</v>
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="237" t="s">
-        <v>479</v>
-      </c>
-      <c r="C50" s="238"/>
+      <c r="B50" s="234" t="s">
+        <v>478</v>
+      </c>
+      <c r="C50" s="235"/>
       <c r="D50" s="19">
         <f>D35</f>
         <v>94678732.104587138</v>
       </c>
       <c r="E50" s="19">
-        <f t="shared" ref="E50:F50" si="11">E35</f>
+        <f t="shared" ref="E50:F50" si="12">E35</f>
         <v>102253030.67295411</v>
       </c>
       <c r="F50" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>117590985.27389723</v>
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="222" t="s">
-        <v>491</v>
-      </c>
-      <c r="C51" s="222"/>
+      <c r="B51" s="216" t="s">
+        <v>489</v>
+      </c>
+      <c r="C51" s="216"/>
       <c r="D51" s="2">
         <v>243</v>
       </c>
@@ -16500,25 +16565,25 @@
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="236" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C52" s="236"/>
-      <c r="D52" s="150">
+      <c r="D52" s="149">
         <f>D49/(D50/D51)</f>
         <v>139.71179780770734</v>
       </c>
-      <c r="E52" s="150">
-        <f t="shared" ref="E52:F52" si="12">E49/(E50/E51)</f>
+      <c r="E52" s="149">
+        <f t="shared" ref="E52:F52" si="13">E49/(E50/E51)</f>
         <v>137.80305465918403</v>
       </c>
-      <c r="F52" s="150">
-        <f t="shared" si="12"/>
+      <c r="F52" s="149">
+        <f t="shared" si="13"/>
         <v>127.94731630410821</v>
       </c>
     </row>
     <row r="56" spans="2:15">
       <c r="B56" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C56" t="s">
         <v>265</v>
@@ -16561,277 +16626,287 @@
       <c r="B57" t="s">
         <v>295</v>
       </c>
-      <c r="C57" s="152">
+      <c r="C57" s="151">
         <f>$H$51</f>
         <v>4025250.8333333335</v>
       </c>
-      <c r="D57" s="152">
-        <f t="shared" ref="D57:N57" si="13">$H$51</f>
+      <c r="D57" s="151">
+        <f t="shared" ref="D57:N57" si="14">$H$51</f>
         <v>4025250.8333333335</v>
       </c>
-      <c r="E57" s="152">
-        <f t="shared" si="13"/>
+      <c r="E57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="F57" s="152">
-        <f t="shared" si="13"/>
+      <c r="F57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="G57" s="152">
-        <f t="shared" si="13"/>
+      <c r="G57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="H57" s="152">
-        <f t="shared" si="13"/>
+      <c r="H57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="I57" s="152">
-        <f t="shared" si="13"/>
+      <c r="I57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="J57" s="152">
-        <f t="shared" si="13"/>
+      <c r="J57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="K57" s="152">
-        <f t="shared" si="13"/>
+      <c r="K57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="L57" s="152">
-        <f t="shared" si="13"/>
+      <c r="L57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="M57" s="152">
-        <f t="shared" si="13"/>
+      <c r="M57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
-      <c r="N57" s="152">
-        <f t="shared" si="13"/>
+      <c r="N57" s="151">
+        <f t="shared" si="14"/>
         <v>4025250.8333333335</v>
       </c>
     </row>
     <row r="58" spans="2:15">
       <c r="B58" t="s">
-        <v>494</v>
-      </c>
-      <c r="C58" s="152">
+        <v>492</v>
+      </c>
+      <c r="C58" s="151">
         <f>'Analisis Financiero'!H61+'Demanda Dinamica'!J43</f>
-        <v>3481209.352404824</v>
-      </c>
-      <c r="D58" s="152">
+        <v>3458213.1425962979</v>
+      </c>
+      <c r="D58" s="151">
         <f>'Analisis Financiero'!I61+'Demanda Dinamica'!K43</f>
-        <v>3418086.2218084936</v>
-      </c>
-      <c r="E58" s="152">
+        <v>3395090.011999968</v>
+      </c>
+      <c r="E58" s="151">
         <f>'Analisis Financiero'!J61+'Demanda Dinamica'!L43</f>
-        <v>3505902.1169364927</v>
-      </c>
-      <c r="F58" s="152">
+        <v>3484612.9427606734</v>
+      </c>
+      <c r="F58" s="151">
         <f>'Analisis Financiero'!K61+'Demanda Dinamica'!M43</f>
-        <v>4721793.7964828033</v>
-      </c>
-      <c r="G58" s="152">
+        <v>4702247.1382118389</v>
+      </c>
+      <c r="G58" s="151">
         <f>'Analisis Financiero'!L61+'Demanda Dinamica'!N43</f>
-        <v>4218214.7820599973</v>
-      </c>
-      <c r="H58" s="152">
+        <v>4200446.8574138563</v>
+      </c>
+      <c r="H58" s="151">
         <f>'Analisis Financiero'!M61+'Demanda Dinamica'!O43</f>
-        <v>5603987.6165614519</v>
-      </c>
-      <c r="I58" s="152">
+        <v>5588035.3960355837</v>
+      </c>
+      <c r="I58" s="151">
         <f>'Analisis Financiero'!N61+'Demanda Dinamica'!P43</f>
-        <v>4930164.4694136512</v>
-      </c>
-      <c r="J58" s="152">
+        <v>4916065.6919252118</v>
+      </c>
+      <c r="J58" s="151">
         <f>'Analisis Financiero'!O61+'Demanda Dinamica'!Q43</f>
-        <v>6141896.5161280409</v>
-      </c>
-      <c r="K58" s="152">
+        <v>6129689.704987336</v>
+      </c>
+      <c r="K58" s="151">
         <f>'Analisis Financiero'!P61+'Demanda Dinamica'!R43</f>
-        <v>5355341.557563737</v>
-      </c>
-      <c r="L58" s="152">
+        <v>5345066.0367776137</v>
+      </c>
+      <c r="L58" s="151">
         <f>'Analisis Financiero'!Q61+'Demanda Dinamica'!S43</f>
-        <v>6488209.5787090277</v>
-      </c>
-      <c r="M58" s="152">
+        <v>6479905.4896231405</v>
+      </c>
+      <c r="M58" s="151">
         <f>'Analisis Financiero'!R61+'Demanda Dinamica'!T43</f>
-        <v>4822772.3850827664</v>
-      </c>
-      <c r="N58" s="152">
+        <v>4816480.7033697404</v>
+      </c>
+      <c r="N58" s="151">
         <f>'Analisis Financiero'!S61+'Demanda Dinamica'!U43</f>
         <v>4727005.418914373</v>
       </c>
-      <c r="O58" s="152"/>
+      <c r="O58" s="151"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="C59" s="152">
+      <c r="C59" s="151">
         <f>C58</f>
-        <v>3481209.352404824</v>
-      </c>
-      <c r="D59" s="152">
+        <v>3458213.1425962979</v>
+      </c>
+      <c r="D59" s="151">
         <f>C59+D58</f>
-        <v>6899295.5742133176</v>
-      </c>
-      <c r="E59" s="152">
-        <f t="shared" ref="E59:N59" si="14">D59+E58</f>
-        <v>10405197.69114981</v>
-      </c>
-      <c r="F59" s="152">
-        <f t="shared" si="14"/>
-        <v>15126991.487632614</v>
-      </c>
-      <c r="G59" s="152">
-        <f t="shared" si="14"/>
-        <v>19345206.269692611</v>
-      </c>
-      <c r="H59" s="152">
-        <f t="shared" si="14"/>
-        <v>24949193.886254065</v>
-      </c>
-      <c r="I59" s="152">
-        <f t="shared" si="14"/>
-        <v>29879358.355667718</v>
-      </c>
-      <c r="J59" s="152">
-        <f t="shared" si="14"/>
-        <v>36021254.871795759</v>
-      </c>
-      <c r="K59" s="152">
-        <f t="shared" si="14"/>
-        <v>41376596.429359496</v>
-      </c>
-      <c r="L59" s="152">
-        <f t="shared" si="14"/>
-        <v>47864806.008068524</v>
-      </c>
-      <c r="M59" s="152">
-        <f t="shared" si="14"/>
-        <v>52687578.393151291</v>
-      </c>
-      <c r="N59" s="152">
-        <f t="shared" si="14"/>
-        <v>57414583.812065661</v>
+        <v>6853303.1545962654</v>
+      </c>
+      <c r="E59" s="151">
+        <f t="shared" ref="E59:N59" si="15">D59+E58</f>
+        <v>10337916.097356938</v>
+      </c>
+      <c r="F59" s="151">
+        <f t="shared" si="15"/>
+        <v>15040163.235568777</v>
+      </c>
+      <c r="G59" s="151">
+        <f t="shared" si="15"/>
+        <v>19240610.092982635</v>
+      </c>
+      <c r="H59" s="151">
+        <f t="shared" si="15"/>
+        <v>24828645.489018217</v>
+      </c>
+      <c r="I59" s="151">
+        <f t="shared" si="15"/>
+        <v>29744711.180943429</v>
+      </c>
+      <c r="J59" s="151">
+        <f t="shared" si="15"/>
+        <v>35874400.885930762</v>
+      </c>
+      <c r="K59" s="151">
+        <f t="shared" si="15"/>
+        <v>41219466.922708377</v>
+      </c>
+      <c r="L59" s="151">
+        <f t="shared" si="15"/>
+        <v>47699372.412331522</v>
+      </c>
+      <c r="M59" s="151">
+        <f t="shared" si="15"/>
+        <v>52515853.115701258</v>
+      </c>
+      <c r="N59" s="151">
+        <f t="shared" si="15"/>
+        <v>57242858.534615628</v>
       </c>
     </row>
     <row r="60" spans="2:15">
       <c r="B60" t="s">
         <v>337</v>
       </c>
-      <c r="C60" s="152">
+      <c r="C60" s="151">
         <f>'Presupuesto de Inversion'!C196:N196</f>
         <v>2804306.59266055</v>
       </c>
-      <c r="D60" s="152">
+      <c r="D60" s="151">
         <f>'Presupuesto de Inversion'!D196:O196</f>
         <v>5541843.9807339441</v>
       </c>
-      <c r="E60" s="152">
+      <c r="E60" s="151">
         <f>'Presupuesto de Inversion'!E196:P196</f>
         <v>7544920.1183486227</v>
       </c>
-      <c r="F60" s="152">
+      <c r="F60" s="151">
         <f>'Presupuesto de Inversion'!F196:Q196</f>
         <v>13787840.747247703</v>
       </c>
-      <c r="G60" s="152">
+      <c r="G60" s="151">
         <f>'Presupuesto de Inversion'!G196:R196</f>
         <v>4373382.9004587149</v>
       </c>
-      <c r="H60" s="152">
+      <c r="H60" s="151">
         <f>'Presupuesto de Inversion'!H196:S196</f>
         <v>3672306.2522935774</v>
       </c>
-      <c r="I60" s="152">
+      <c r="I60" s="151">
         <f>'Presupuesto de Inversion'!I196:T196</f>
         <v>5775536.1967889899</v>
       </c>
-      <c r="J60" s="152">
+      <c r="J60" s="151">
         <f>'Presupuesto de Inversion'!J196:U196</f>
         <v>15290147.850458715</v>
       </c>
-      <c r="K60" s="152">
+      <c r="K60" s="151">
         <f>'Presupuesto de Inversion'!K196:V196</f>
         <v>15156609.441284399</v>
       </c>
-      <c r="L60" s="152">
+      <c r="L60" s="151">
         <f>'Presupuesto de Inversion'!L196:W196</f>
         <v>12185379.837155961</v>
       </c>
-      <c r="M60" s="152">
+      <c r="M60" s="151">
         <f>'Presupuesto de Inversion'!M196:X196</f>
         <v>5107844.1509174304</v>
       </c>
-      <c r="N60" s="152">
+      <c r="N60" s="151">
         <f>'Presupuesto de Inversion'!N196:Y196</f>
         <v>3438614.0362385316</v>
       </c>
     </row>
     <row r="61" spans="2:15">
       <c r="B61" t="s">
-        <v>495</v>
-      </c>
-      <c r="C61" s="152">
+        <v>493</v>
+      </c>
+      <c r="C61" s="151">
         <f>C60</f>
         <v>2804306.59266055</v>
       </c>
-      <c r="D61" s="152">
+      <c r="D61" s="151">
         <f>C61+D60</f>
         <v>8346150.5733944941</v>
       </c>
-      <c r="E61" s="152">
+      <c r="E61" s="151">
         <f>D61+E60</f>
         <v>15891070.691743117</v>
       </c>
-      <c r="F61" s="152">
-        <f t="shared" ref="F61:M61" si="15">E61+F60</f>
+      <c r="F61" s="151">
+        <f t="shared" ref="F61:M61" si="16">E61+F60</f>
         <v>29678911.43899082</v>
       </c>
-      <c r="G61" s="152">
-        <f t="shared" si="15"/>
+      <c r="G61" s="151">
+        <f t="shared" si="16"/>
         <v>34052294.339449532</v>
       </c>
-      <c r="H61" s="152">
-        <f t="shared" si="15"/>
+      <c r="H61" s="151">
+        <f t="shared" si="16"/>
         <v>37724600.591743112</v>
       </c>
-      <c r="I61" s="152">
-        <f t="shared" si="15"/>
+      <c r="I61" s="151">
+        <f t="shared" si="16"/>
         <v>43500136.788532101</v>
       </c>
-      <c r="J61" s="152">
-        <f t="shared" si="15"/>
+      <c r="J61" s="151">
+        <f t="shared" si="16"/>
         <v>58790284.638990819</v>
       </c>
-      <c r="K61" s="152">
-        <f t="shared" si="15"/>
+      <c r="K61" s="151">
+        <f t="shared" si="16"/>
         <v>73946894.080275223</v>
       </c>
-      <c r="L61" s="152">
-        <f t="shared" si="15"/>
+      <c r="L61" s="151">
+        <f t="shared" si="16"/>
         <v>86132273.917431176</v>
       </c>
-      <c r="M61" s="152">
-        <f t="shared" si="15"/>
+      <c r="M61" s="151">
+        <f t="shared" si="16"/>
         <v>91240118.068348601</v>
       </c>
-      <c r="N61" s="152">
+      <c r="N61" s="151">
         <f>M61+N60</f>
         <v>94678732.104587138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
+  <mergeCells count="30">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
@@ -16842,15 +16917,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16862,8 +16928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H24" sqref="B2:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16879,427 +16945,427 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" s="123">
+        <f>'Indicadores Financieros'!D9</f>
+        <v>6890303.9042906482</v>
+      </c>
+      <c r="D2" s="124"/>
+      <c r="F2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="124">
-        <f>'[1]Indicadores Financieros'!D9</f>
-        <v>7996703.2407141561</v>
-      </c>
-      <c r="D2" s="125"/>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="125">
+        <v>12</v>
+      </c>
+      <c r="H2" s="124" t="s">
         <v>461</v>
-      </c>
-      <c r="G2" s="126">
-        <v>12</v>
-      </c>
-      <c r="H2" s="125" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="125">
+        <v>1</v>
+      </c>
+      <c r="D3" s="124" t="s">
+        <v>461</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="126">
-        <v>1</v>
-      </c>
-      <c r="D3" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="125">
+        <v>12</v>
+      </c>
+      <c r="H3" s="124" t="s">
         <v>464</v>
-      </c>
-      <c r="G3" s="126">
-        <v>12</v>
-      </c>
-      <c r="H3" s="125" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="126">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="124"/>
+      <c r="F4" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="127">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D4" s="125"/>
-      <c r="F4" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G4" s="126">
+      <c r="G4" s="125">
         <f>((1+C4)^(1/12))-1</f>
         <v>2.0784728489500193E-2</v>
       </c>
-      <c r="H4" s="125"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="107"/>
-      <c r="C5" s="128"/>
+      <c r="C5" s="127"/>
       <c r="D5" s="107"/>
       <c r="F5" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G5" s="129">
+        <v>467</v>
+      </c>
+      <c r="G5" s="128">
         <f>PMT(G4,G2,C2)</f>
-        <v>-759813.96877417178</v>
-      </c>
-      <c r="H5" s="125"/>
+        <v>-654688.43822091108</v>
+      </c>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="107"/>
-      <c r="C6" s="128"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="107"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="129">
+      <c r="G6" s="128">
         <f>-G5</f>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="H6" s="125"/>
+        <v>654688.43822091108</v>
+      </c>
+      <c r="H6" s="124"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="182" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="163" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="D8" s="163" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="169" t="s">
+      <c r="E8" s="163" t="s">
         <v>471</v>
       </c>
-      <c r="E8" s="169" t="s">
+      <c r="F8" s="163" t="s">
         <v>472</v>
       </c>
-      <c r="F8" s="169" t="s">
+      <c r="G8" s="163" t="s">
         <v>473</v>
       </c>
-      <c r="G8" s="169" t="s">
+      <c r="H8" s="163" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="169" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="179"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="130">
+      <c r="B10" s="129">
         <v>1</v>
       </c>
-      <c r="C10" s="131">
+      <c r="C10" s="130">
         <f>C2</f>
-        <v>7996703.2407141561</v>
-      </c>
-      <c r="D10" s="131">
+        <v>6890303.9042906482</v>
+      </c>
+      <c r="D10" s="130">
         <f>C10*$G$4</f>
-        <v>166209.30566935003</v>
-      </c>
-      <c r="E10" s="131">
-        <v>0</v>
-      </c>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131">
-        <v>0</v>
-      </c>
-      <c r="H10" s="131">
+        <v>143213.09586082425</v>
+      </c>
+      <c r="E10" s="130">
+        <v>0</v>
+      </c>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130">
+        <v>0</v>
+      </c>
+      <c r="H10" s="130">
         <f>C10</f>
-        <v>7996703.2407141561</v>
+        <v>6890303.9042906482</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="130">
+      <c r="B11" s="129">
         <v>2</v>
       </c>
-      <c r="C11" s="131">
+      <c r="C11" s="130">
         <f>C2</f>
-        <v>7996703.2407141561</v>
-      </c>
-      <c r="D11" s="131">
+        <v>6890303.9042906482</v>
+      </c>
+      <c r="D11" s="130">
         <f t="shared" ref="D11:D20" si="0">C11*$G$4</f>
-        <v>166209.30566935003</v>
-      </c>
-      <c r="E11" s="131">
+        <v>143213.09586082425</v>
+      </c>
+      <c r="E11" s="130">
         <f>IF((C11+D11)&gt;$G$6,$G$6,C11+D11)</f>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130">
         <f>(E11+F11)-D11</f>
-        <v>593604.6631048217</v>
-      </c>
-      <c r="H11" s="131">
+        <v>511475.34236008686</v>
+      </c>
+      <c r="H11" s="130">
         <f>C11-G11</f>
-        <v>7403098.5776093341</v>
+        <v>6378828.5619305614</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="130">
+      <c r="B12" s="129">
         <v>3</v>
       </c>
-      <c r="C12" s="131">
+      <c r="C12" s="130">
         <f>H11</f>
-        <v>7403098.5776093341</v>
-      </c>
-      <c r="D12" s="131">
+        <v>6378828.5619305614</v>
+      </c>
+      <c r="D12" s="130">
         <f t="shared" si="0"/>
-        <v>153871.39391661508</v>
-      </c>
-      <c r="E12" s="131">
+        <v>132582.21974079567</v>
+      </c>
+      <c r="E12" s="130">
         <f t="shared" ref="E12:E21" si="1">IF((C12+D12)&gt;$G$6,$G$6,C12+D12)</f>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130">
         <f t="shared" ref="G12:G21" si="2">(E12+F12)-D12</f>
-        <v>605942.57485755673</v>
-      </c>
-      <c r="H12" s="131">
+        <v>522106.21848011541</v>
+      </c>
+      <c r="H12" s="130">
         <f t="shared" ref="H12:H21" si="3">C12-G12</f>
-        <v>6797156.0027517769</v>
+        <v>5856722.3434504457</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="130">
+      <c r="B13" s="129">
         <v>4</v>
       </c>
-      <c r="C13" s="131">
+      <c r="C13" s="130">
         <f t="shared" ref="C13:C21" si="4">H12</f>
-        <v>6797156.0027517769</v>
-      </c>
-      <c r="D13" s="131">
+        <v>5856722.3434504457</v>
+      </c>
+      <c r="D13" s="130">
         <f t="shared" si="0"/>
-        <v>141277.0420179721</v>
-      </c>
-      <c r="E13" s="131">
+        <v>121730.38374700681</v>
+      </c>
+      <c r="E13" s="130">
         <f t="shared" si="1"/>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130">
         <f t="shared" si="2"/>
-        <v>618536.92675619968</v>
-      </c>
-      <c r="H13" s="131">
+        <v>532958.05447390431</v>
+      </c>
+      <c r="H13" s="130">
         <f t="shared" si="3"/>
-        <v>6178619.0759955775</v>
+        <v>5323764.2889765417</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="130">
+      <c r="B14" s="129">
         <v>5</v>
       </c>
-      <c r="C14" s="131">
+      <c r="C14" s="130">
         <f t="shared" si="4"/>
-        <v>6178619.0759955775</v>
-      </c>
-      <c r="D14" s="131">
+        <v>5323764.2889765417</v>
+      </c>
+      <c r="D14" s="130">
         <f t="shared" si="0"/>
-        <v>128420.91993461463</v>
-      </c>
-      <c r="E14" s="131">
+        <v>110652.99528847446</v>
+      </c>
+      <c r="E14" s="130">
         <f t="shared" si="1"/>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130">
         <f t="shared" si="2"/>
-        <v>631393.0488395571</v>
-      </c>
-      <c r="H14" s="131">
+        <v>544035.44293243659</v>
+      </c>
+      <c r="H14" s="130">
         <f t="shared" si="3"/>
-        <v>5547226.0271560205</v>
+        <v>4779728.8460441055</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="130">
+      <c r="B15" s="129">
         <v>6</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="130">
         <f t="shared" si="4"/>
-        <v>5547226.0271560205</v>
-      </c>
-      <c r="D15" s="131">
+        <v>4779728.8460441055</v>
+      </c>
+      <c r="D15" s="130">
         <f t="shared" si="0"/>
-        <v>115297.58684432671</v>
-      </c>
-      <c r="E15" s="131">
+        <v>99345.366318458793</v>
+      </c>
+      <c r="E15" s="130">
         <f t="shared" si="1"/>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F15" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F15" s="130">
         <f>1500000/2</f>
         <v>750000</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="130">
         <f t="shared" si="2"/>
-        <v>1394516.3819298451</v>
-      </c>
-      <c r="H15" s="131">
+        <v>1305343.0719024525</v>
+      </c>
+      <c r="H15" s="130">
         <f t="shared" si="3"/>
-        <v>4152709.6452261754</v>
+        <v>3474385.774141653</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="130">
+      <c r="B16" s="129">
         <v>7</v>
       </c>
-      <c r="C16" s="131">
+      <c r="C16" s="130">
         <f t="shared" si="4"/>
-        <v>4152709.6452261754</v>
-      </c>
-      <c r="D16" s="131">
+        <v>3474385.774141653</v>
+      </c>
+      <c r="D16" s="130">
         <f t="shared" si="0"/>
-        <v>86312.942471754723</v>
-      </c>
-      <c r="E16" s="131">
+        <v>72214.164983316194</v>
+      </c>
+      <c r="E16" s="130">
         <f t="shared" si="1"/>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130">
         <f t="shared" si="2"/>
-        <v>673501.02630241704</v>
-      </c>
-      <c r="H16" s="131">
+        <v>582474.27323759487</v>
+      </c>
+      <c r="H16" s="130">
         <f t="shared" si="3"/>
-        <v>3479208.6189237582</v>
+        <v>2891911.5009040581</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="130">
+      <c r="B17" s="129">
         <v>8</v>
       </c>
-      <c r="C17" s="131">
+      <c r="C17" s="130">
         <f t="shared" si="4"/>
-        <v>3479208.6189237582</v>
-      </c>
-      <c r="D17" s="131">
+        <v>2891911.5009040581</v>
+      </c>
+      <c r="D17" s="130">
         <f t="shared" si="0"/>
-        <v>72314.406502659258</v>
-      </c>
-      <c r="E17" s="131">
+        <v>60107.595361953841</v>
+      </c>
+      <c r="E17" s="130">
         <f t="shared" si="1"/>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F17" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F17" s="130">
         <v>750000</v>
       </c>
-      <c r="G17" s="131">
+      <c r="G17" s="130">
         <f t="shared" si="2"/>
-        <v>1437499.5622715126</v>
-      </c>
-      <c r="H17" s="131">
+        <v>1344580.8428589574</v>
+      </c>
+      <c r="H17" s="130">
         <f t="shared" si="3"/>
-        <v>2041709.0566522456</v>
+        <v>1547330.6580451007</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="130">
+      <c r="B18" s="129">
         <v>9</v>
       </c>
-      <c r="C18" s="131">
+      <c r="C18" s="130">
         <f t="shared" si="4"/>
-        <v>2041709.0566522456</v>
-      </c>
-      <c r="D18" s="131">
+        <v>1547330.6580451007</v>
+      </c>
+      <c r="D18" s="130">
         <f t="shared" si="0"/>
-        <v>42436.368397070495</v>
-      </c>
-      <c r="E18" s="131">
+        <v>32160.847610947087</v>
+      </c>
+      <c r="E18" s="130">
         <f t="shared" si="1"/>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130">
         <f t="shared" si="2"/>
-        <v>717377.60037710133</v>
-      </c>
-      <c r="H18" s="131">
+        <v>622527.59060996398</v>
+      </c>
+      <c r="H18" s="130">
         <f t="shared" si="3"/>
-        <v>1324331.4562751441</v>
+        <v>924803.06743513676</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="130">
+      <c r="B19" s="129">
         <v>10</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="130">
         <f t="shared" si="4"/>
-        <v>1324331.4562751441</v>
-      </c>
-      <c r="D19" s="131">
+        <v>924803.06743513676</v>
+      </c>
+      <c r="D19" s="130">
         <f t="shared" si="0"/>
-        <v>27525.869748783265</v>
-      </c>
-      <c r="E19" s="131">
+        <v>19221.780662896253</v>
+      </c>
+      <c r="E19" s="130">
         <f t="shared" si="1"/>
-        <v>759813.96877417178</v>
-      </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131">
+        <v>654688.43822091108</v>
+      </c>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130">
         <f t="shared" si="2"/>
-        <v>732288.09902538848</v>
-      </c>
-      <c r="H19" s="131">
+        <v>635466.65755801485</v>
+      </c>
+      <c r="H19" s="130">
         <f t="shared" si="3"/>
-        <v>592043.35724975565</v>
+        <v>289336.40987712191</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="130">
+      <c r="B20" s="129">
         <v>11</v>
       </c>
-      <c r="C20" s="131">
+      <c r="C20" s="130">
         <f t="shared" si="4"/>
-        <v>592043.35724975565</v>
-      </c>
-      <c r="D20" s="131">
+        <v>289336.40987712191</v>
+      </c>
+      <c r="D20" s="130">
         <f t="shared" si="0"/>
-        <v>12305.460434448336</v>
-      </c>
-      <c r="E20" s="131">
+        <v>6013.778721422721</v>
+      </c>
+      <c r="E20" s="130">
         <f t="shared" si="1"/>
-        <v>604348.81768420397</v>
-      </c>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131">
+        <v>295350.18859854463</v>
+      </c>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130">
         <f t="shared" si="2"/>
-        <v>592043.35724975565</v>
-      </c>
-      <c r="H20" s="131">
+        <v>289336.40987712191</v>
+      </c>
+      <c r="H20" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="130">
+      <c r="B21" s="129">
         <v>12</v>
       </c>
-      <c r="C21" s="131">
+      <c r="C21" s="130">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="130">
         <f>C21*$G$4</f>
         <v>0</v>
       </c>
-      <c r="E21" s="131">
+      <c r="E21" s="130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131">
+      <c r="F21" s="130"/>
+      <c r="G21" s="130">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="131">
+      <c r="H21" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -17308,29 +17374,29 @@
       <c r="B22" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133">
+      <c r="C22" s="131"/>
+      <c r="D22" s="132">
         <f>SUM(D10:D21)</f>
-        <v>1112180.6016069448</v>
-      </c>
-      <c r="E22" s="133">
+        <v>940455.32415692043</v>
+      </c>
+      <c r="E22" s="132">
         <f>SUM(E10:E21)</f>
-        <v>7442674.5366517492</v>
-      </c>
-      <c r="F22" s="133">
+        <v>6187546.1325867437</v>
+      </c>
+      <c r="F22" s="132">
         <f>SUM(F10:F21)</f>
         <v>1500000</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="D24" s="134" t="s">
+      <c r="D24" s="133" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="119">
         <f>$C$2+D22</f>
-        <v>9108883.8423211016</v>
+        <v>7830759.2284475686</v>
       </c>
     </row>
   </sheetData>

--- a/Estudio_financiero_Estatica.xlsx
+++ b/Estudio_financiero_Estatica.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeja\Documents\Respositorios\Inclusoft\DocumentosProyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeja\Documents\Respositorios\Inclusoft\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda Dinamica" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Analisis Prestamo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="528">
   <si>
     <t>INFORMACIÓN PARA TENER EN CUENTA:</t>
   </si>
@@ -1549,13 +1550,76 @@
   </si>
   <si>
     <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>ESTADOS DE RESULTADOS</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>INGRESOS OPERACIONALES</t>
+  </si>
+  <si>
+    <t>(-) Costo de ventas</t>
+  </si>
+  <si>
+    <t>UTILIDAD BRUTA OPERACIONAL</t>
+  </si>
+  <si>
+    <t>(-) Gastos operacionales de ventas</t>
+  </si>
+  <si>
+    <t>(-) Gastos operacionales de administración</t>
+  </si>
+  <si>
+    <t>UTILIDAD OPERACIONAL</t>
+  </si>
+  <si>
+    <t>(+) Ingresos no operacionales</t>
+  </si>
+  <si>
+    <t>(-) Gastos no operacionales</t>
+  </si>
+  <si>
+    <t>UTILIDAD NETA ANTES DE IMPUESTOS</t>
+  </si>
+  <si>
+    <t>(-) Impuesto de renta y complementarios</t>
+  </si>
+  <si>
+    <t>UTILIDAD LÍQUIDA</t>
+  </si>
+  <si>
+    <t>(-) Reservas</t>
+  </si>
+  <si>
+    <t>UTILIDAD DEL EJERCICIO</t>
+  </si>
+  <si>
+    <t>Gastos de Administración</t>
+  </si>
+  <si>
+    <t>Gastos de Venta</t>
+  </si>
+  <si>
+    <t>Gastos de Producción</t>
+  </si>
+  <si>
+    <t>(-) Devoluciones y Descuentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Año 2 </t>
+  </si>
+  <si>
+    <t>ESTADO DE RESULTADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
+  <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0.00"/>
@@ -1567,6 +1631,8 @@
     <numFmt numFmtId="171" formatCode="_-[$$-240A]\ * #,##0.0_ ;_-[$$-240A]\ * \-#,##0.0\ ;_-[$$-240A]\ * &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="172" formatCode="_-[$$-240A]\ * #,##0_ ;_-[$$-240A]\ * \-#,##0\ ;_-[$$-240A]\ * &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="173" formatCode="[$$-240A]\ #,##0.00;[Red][$$-240A]\ #,##0.00"/>
+    <numFmt numFmtId="174" formatCode="[$$-240A]\ #,##0.0_ ;\-[$$-240A]\ #,##0.0\ "/>
+    <numFmt numFmtId="175" formatCode="[$$-240A]\ #,##0.00_ ;\-[$$-240A]\ #,##0.00\ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2036,7 +2102,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2321,34 +2387,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2365,41 +2410,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2407,11 +2449,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2434,73 +2503,43 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2536,19 +2575,57 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2560,6 +2637,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6030,7 +6129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="M40" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="Q49" sqref="Q49:Q50"/>
     </sheetView>
   </sheetViews>
@@ -6060,36 +6159,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
+      <c r="A2" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="171"/>
+      <c r="D4" s="162"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4">
         <v>0.19</v>
       </c>
-      <c r="M4" s="174" t="s">
+      <c r="M4" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="175"/>
-      <c r="O4" s="173"/>
-      <c r="R4" s="165" t="s">
+      <c r="N4" s="166"/>
+      <c r="O4" s="164"/>
+      <c r="R4" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="166"/>
+      <c r="S4" s="168"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="70" t="s">
@@ -6113,12 +6212,12 @@
       <c r="M5" s="6">
         <v>0.5</v>
       </c>
-      <c r="N5" s="172" t="s">
+      <c r="N5" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="173"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="168"/>
+      <c r="O5" s="164"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="170"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="70" t="s">
@@ -6133,10 +6232,10 @@
       <c r="M6" s="6">
         <v>0.5</v>
       </c>
-      <c r="N6" s="172" t="s">
+      <c r="N6" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="173"/>
+      <c r="O6" s="164"/>
       <c r="R6" s="7" t="s">
         <v>11</v>
       </c>
@@ -6159,24 +6258,24 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="10"/>
@@ -6383,31 +6482,31 @@
       </c>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="169"/>
-      <c r="Q32" s="169"/>
-      <c r="R32" s="169"/>
-      <c r="S32" s="169"/>
-      <c r="T32" s="169"/>
-      <c r="U32" s="169"/>
-      <c r="V32" s="169"/>
-      <c r="W32" s="169"/>
-      <c r="X32" s="169"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="173"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
     </row>
     <row r="33" spans="2:25" ht="27.75" customHeight="1">
       <c r="B33" s="11" t="s">
@@ -6481,7 +6580,7 @@
       </c>
     </row>
     <row r="34" spans="2:25">
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="172" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6558,7 +6657,7 @@
       </c>
     </row>
     <row r="35" spans="2:25">
-      <c r="B35" s="160"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
@@ -6632,7 +6731,7 @@
       </c>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="160"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
@@ -6722,7 +6821,7 @@
       </c>
     </row>
     <row r="37" spans="2:25">
-      <c r="B37" s="160" t="s">
+      <c r="B37" s="172" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6799,7 +6898,7 @@
       </c>
     </row>
     <row r="38" spans="2:25">
-      <c r="B38" s="160"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
@@ -6874,7 +6973,7 @@
       </c>
     </row>
     <row r="39" spans="2:25">
-      <c r="B39" s="160"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="21" t="s">
         <v>51</v>
       </c>
@@ -6964,7 +7063,7 @@
       </c>
     </row>
     <row r="40" spans="2:25">
-      <c r="B40" s="160" t="s">
+      <c r="B40" s="172" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7041,7 +7140,7 @@
       </c>
     </row>
     <row r="41" spans="2:25">
-      <c r="B41" s="160"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
@@ -7116,7 +7215,7 @@
       </c>
     </row>
     <row r="42" spans="2:25">
-      <c r="B42" s="160"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="21" t="s">
         <v>54</v>
       </c>
@@ -7295,54 +7394,54 @@
       </c>
     </row>
     <row r="47" spans="2:25">
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="171"/>
     </row>
     <row r="48" spans="2:25" ht="27.75" customHeight="1">
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="163"/>
+      <c r="C48" s="174"/>
       <c r="D48" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="159" t="s">
+      <c r="G48" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="H48" s="159"/>
-      <c r="J48" s="159" t="s">
+      <c r="H48" s="175"/>
+      <c r="J48" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="159"/>
-      <c r="L48" s="159"/>
+      <c r="K48" s="175"/>
+      <c r="L48" s="175"/>
       <c r="N48" s="30" t="s">
         <v>97</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q48" s="162" t="s">
+      <c r="Q48" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="R48" s="162"/>
-      <c r="S48" s="162"/>
-      <c r="T48" s="162"/>
-      <c r="U48" s="162"/>
-      <c r="W48" s="158" t="s">
+      <c r="R48" s="178"/>
+      <c r="S48" s="178"/>
+      <c r="T48" s="178"/>
+      <c r="U48" s="178"/>
+      <c r="W48" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="X48" s="158"/>
-      <c r="Y48" s="158"/>
+      <c r="X48" s="176"/>
+      <c r="Y48" s="176"/>
     </row>
     <row r="49" spans="2:25">
-      <c r="B49" s="163" t="s">
+      <c r="B49" s="174" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -7376,19 +7475,19 @@
       <c r="O49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="160" t="s">
+      <c r="Q49" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="R49" s="161" t="s">
+      <c r="R49" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="S49" s="161" t="s">
+      <c r="S49" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="T49" s="161" t="s">
+      <c r="T49" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="U49" s="161"/>
+      <c r="U49" s="177"/>
       <c r="W49" s="34" t="s">
         <v>115</v>
       </c>
@@ -7400,7 +7499,7 @@
       </c>
     </row>
     <row r="50" spans="2:25">
-      <c r="B50" s="163"/>
+      <c r="B50" s="174"/>
       <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
@@ -7433,9 +7532,9 @@
       <c r="O50" s="2">
         <v>8</v>
       </c>
-      <c r="Q50" s="160"/>
-      <c r="R50" s="161"/>
-      <c r="S50" s="161"/>
+      <c r="Q50" s="172"/>
+      <c r="R50" s="177"/>
+      <c r="S50" s="177"/>
       <c r="T50" s="10" t="s">
         <v>104</v>
       </c>
@@ -7454,7 +7553,7 @@
       </c>
     </row>
     <row r="51" spans="2:25">
-      <c r="B51" s="163"/>
+      <c r="B51" s="174"/>
       <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
@@ -7511,7 +7610,7 @@
       </c>
     </row>
     <row r="52" spans="2:25">
-      <c r="B52" s="163"/>
+      <c r="B52" s="174"/>
       <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
@@ -7567,7 +7666,7 @@
       </c>
     </row>
     <row r="53" spans="2:25">
-      <c r="B53" s="163"/>
+      <c r="B53" s="174"/>
       <c r="C53" s="2" t="s">
         <v>61</v>
       </c>
@@ -7617,7 +7716,7 @@
       </c>
     </row>
     <row r="54" spans="2:25">
-      <c r="B54" s="163"/>
+      <c r="B54" s="174"/>
       <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
@@ -7657,7 +7756,7 @@
       </c>
     </row>
     <row r="55" spans="2:25">
-      <c r="B55" s="163" t="s">
+      <c r="B55" s="174" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -7696,7 +7795,7 @@
       </c>
     </row>
     <row r="56" spans="2:25">
-      <c r="B56" s="163"/>
+      <c r="B56" s="174"/>
       <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
@@ -7719,7 +7818,7 @@
       </c>
     </row>
     <row r="57" spans="2:25">
-      <c r="B57" s="163"/>
+      <c r="B57" s="174"/>
       <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
@@ -7742,7 +7841,7 @@
       </c>
     </row>
     <row r="58" spans="2:25">
-      <c r="B58" s="163"/>
+      <c r="B58" s="174"/>
       <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
@@ -7769,22 +7868,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B32:X32"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B47:E47"/>
     <mergeCell ref="W48:Y48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="Q49:Q50"/>
@@ -7792,6 +7875,22 @@
     <mergeCell ref="S49:S50"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:X32"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7803,8 +7902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T209"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="K172" sqref="K172:K173"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7826,27 +7925,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="H2" s="185" t="s">
+      <c r="H2" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="H3" s="183" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="H3" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
       <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
@@ -7870,11 +7969,11 @@
       <c r="F4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="183" t="s">
+      <c r="H4" s="202" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
       <c r="K4" s="40">
         <v>0</v>
       </c>
@@ -7901,11 +8000,11 @@
         <f>E5/$E$16</f>
         <v>0.69059405940594054</v>
       </c>
-      <c r="H5" s="183" t="s">
+      <c r="H5" s="202" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
       <c r="K5" s="40">
         <v>51000</v>
       </c>
@@ -7922,11 +8021,11 @@
       <c r="D6" s="72"/>
       <c r="E6" s="27"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="183" t="s">
+      <c r="H6" s="202" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
       <c r="K6" s="40">
         <v>0</v>
       </c>
@@ -8001,11 +8100,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="187" t="s">
+      <c r="H9" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
       <c r="K9" s="40">
         <v>0</v>
       </c>
@@ -8030,11 +8129,11 @@
       <c r="F10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="183" t="s">
+      <c r="H10" s="202" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
       <c r="K10" s="40">
         <v>0</v>
       </c>
@@ -8056,11 +8155,11 @@
         <f>E11/$E$16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="183" t="s">
+      <c r="H11" s="202" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
       <c r="K11" s="40">
         <v>0</v>
       </c>
@@ -8077,11 +8176,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="184" t="s">
+      <c r="H12" s="203" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
       <c r="K12" s="42">
         <f>SUM(K4:K11)</f>
         <v>640000</v>
@@ -8140,11 +8239,11 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="206" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
       <c r="E16" s="37">
         <f>E5+E8+E11+E15</f>
         <v>4848000</v>
@@ -8159,10 +8258,10 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="196" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="195"/>
+      <c r="C18" s="196"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
@@ -8200,49 +8299,49 @@
       <c r="E21" s="16"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="161" t="s">
+      <c r="D24" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="161" t="s">
+      <c r="E24" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="161" t="s">
+      <c r="F24" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="186" t="s">
+      <c r="G24" s="205" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="161" t="s">
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="177" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="2" t="s">
         <v>2</v>
       </c>
@@ -8252,7 +8351,7 @@
       <c r="I25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="161"/>
+      <c r="J25" s="177"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="22" t="s">
@@ -8300,13 +8399,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="197" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="198"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="199"/>
       <c r="G28" s="63">
         <f>G27</f>
         <v>200000</v>
@@ -8383,13 +8482,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="199" t="s">
+      <c r="B31" s="189" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="201"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="191"/>
       <c r="G31" s="80">
         <f>G28+G30+G29</f>
         <v>200000</v>
@@ -8412,35 +8511,35 @@
       <c r="L31" s="17"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="188" t="s">
+      <c r="B33" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="161" t="s">
+      <c r="B34" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="177" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="161" t="s">
+      <c r="D34" s="177" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="161" t="s">
+      <c r="E34" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="10" t="s">
         <v>2</v>
       </c>
@@ -8476,12 +8575,12 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="188" t="s">
+      <c r="B38" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="50" t="s">
@@ -8542,12 +8641,12 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="180" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="F44" s="189" t="s">
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
+      <c r="F44" s="181" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8561,7 +8660,7 @@
       <c r="D45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="189"/>
+      <c r="F45" s="181"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="2" t="s">
@@ -8575,7 +8674,7 @@
         <f>C46*'Demanda Dinamica'!$L$50*'Demanda Dinamica'!F37</f>
         <v>606666.66666666663</v>
       </c>
-      <c r="F46" s="189"/>
+      <c r="F46" s="181"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="2" t="s">
@@ -8636,20 +8735,20 @@
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="181" t="s">
+      <c r="B52" s="208" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="181"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="208"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="208"/>
+      <c r="G52" s="208"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="202" t="s">
+      <c r="B53" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="202"/>
+      <c r="C53" s="201"/>
       <c r="D53" s="22" t="s">
         <v>177</v>
       </c>
@@ -8664,10 +8763,10 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="171" t="s">
+      <c r="B54" s="162" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="171"/>
+      <c r="C54" s="162"/>
       <c r="D54" s="18">
         <f>E16</f>
         <v>4848000</v>
@@ -8686,10 +8785,10 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="171" t="s">
+      <c r="B55" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="171"/>
+      <c r="C55" s="162"/>
       <c r="D55" s="18">
         <v>0</v>
       </c>
@@ -8706,10 +8805,10 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="171" t="s">
+      <c r="B56" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="171"/>
+      <c r="C56" s="162"/>
       <c r="D56" s="18">
         <v>10000</v>
       </c>
@@ -8727,10 +8826,10 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="171" t="s">
+      <c r="B57" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="171"/>
+      <c r="C57" s="162"/>
       <c r="D57" s="18">
         <v>0</v>
       </c>
@@ -8745,10 +8844,10 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="171" t="s">
+      <c r="B58" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="171"/>
+      <c r="C58" s="162"/>
       <c r="D58" s="18">
         <v>0</v>
       </c>
@@ -8763,10 +8862,10 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="171" t="s">
+      <c r="B59" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="171"/>
+      <c r="C59" s="162"/>
       <c r="D59" s="18">
         <v>0</v>
       </c>
@@ -8781,11 +8880,11 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="180" t="s">
+      <c r="B60" s="200" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="180"/>
-      <c r="D60" s="180"/>
+      <c r="C60" s="200"/>
+      <c r="D60" s="200"/>
       <c r="E60" s="25">
         <f>SUM(E54:E59)</f>
         <v>168480</v>
@@ -8800,21 +8899,21 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="194" t="s">
+      <c r="B62" s="195" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="194"/>
-      <c r="D62" s="194"/>
-      <c r="E62" s="194"/>
-      <c r="F62" s="194"/>
-      <c r="G62" s="194"/>
+      <c r="C62" s="195"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="195"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="195"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="163" t="s">
+      <c r="B63" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
       <c r="E63" s="22" t="s">
         <v>2</v>
       </c>
@@ -8826,13 +8925,13 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="182" t="s">
+      <c r="B64" s="184" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="171" t="s">
+      <c r="C64" s="162" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="171"/>
+      <c r="D64" s="162"/>
       <c r="E64" s="19">
         <f>0</f>
         <v>0</v>
@@ -8847,11 +8946,11 @@
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="182"/>
-      <c r="C65" s="171" t="s">
+      <c r="B65" s="184"/>
+      <c r="C65" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="171"/>
+      <c r="D65" s="162"/>
       <c r="E65" s="19">
         <f>'Demanda Dinamica'!V39</f>
         <v>24963480</v>
@@ -8866,11 +8965,11 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="182"/>
-      <c r="C66" s="171" t="s">
+      <c r="B66" s="184"/>
+      <c r="C66" s="162" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="171"/>
+      <c r="D66" s="162"/>
       <c r="E66" s="19">
         <f>'Demanda Dinamica'!$V$42</f>
         <v>4109020</v>
@@ -8885,11 +8984,11 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="182"/>
-      <c r="C67" s="171" t="s">
+      <c r="B67" s="184"/>
+      <c r="C67" s="162" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="171"/>
+      <c r="D67" s="162"/>
       <c r="E67" s="19">
         <f>'Demanda Dinamica'!V36</f>
         <v>16262030</v>
@@ -8904,11 +9003,11 @@
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="182"/>
-      <c r="C68" s="171" t="s">
+      <c r="B68" s="184"/>
+      <c r="C68" s="162" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="171"/>
+      <c r="D68" s="162"/>
       <c r="E68" s="19">
         <v>0</v>
       </c>
@@ -8922,11 +9021,11 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="182"/>
-      <c r="C69" s="177" t="s">
+      <c r="B69" s="184"/>
+      <c r="C69" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="177"/>
+      <c r="D69" s="209"/>
       <c r="E69" s="57">
         <f>SUM(E64:E67)-E68</f>
         <v>45334530</v>
@@ -8944,13 +9043,13 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="182" t="s">
+      <c r="B70" s="184" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="171" t="s">
+      <c r="C70" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="171"/>
+      <c r="D70" s="162"/>
       <c r="E70" s="19">
         <v>0</v>
       </c>
@@ -8966,11 +9065,11 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="182"/>
-      <c r="C71" s="171" t="s">
+      <c r="B71" s="184"/>
+      <c r="C71" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="171"/>
+      <c r="D71" s="162"/>
       <c r="E71" s="19">
         <f>G28</f>
         <v>200000</v>
@@ -8989,11 +9088,11 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="182"/>
-      <c r="C72" s="171" t="s">
+      <c r="B72" s="184"/>
+      <c r="C72" s="162" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="171"/>
+      <c r="D72" s="162"/>
       <c r="E72" s="19">
         <v>0</v>
       </c>
@@ -9009,11 +9108,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="182"/>
-      <c r="C73" s="171" t="s">
+      <c r="B73" s="184"/>
+      <c r="C73" s="162" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="171"/>
+      <c r="D73" s="162"/>
       <c r="E73" s="19">
         <v>0</v>
       </c>
@@ -9029,11 +9128,11 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="182"/>
-      <c r="C74" s="177" t="s">
+      <c r="B74" s="184"/>
+      <c r="C74" s="209" t="s">
         <v>193</v>
       </c>
-      <c r="D74" s="177"/>
+      <c r="D74" s="209"/>
       <c r="E74" s="57">
         <f xml:space="preserve"> SUM(E70:E73)</f>
         <v>200000</v>
@@ -9048,11 +9147,11 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="180" t="s">
+      <c r="B75" s="200" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="180"/>
-      <c r="D75" s="180"/>
+      <c r="C75" s="200"/>
+      <c r="D75" s="200"/>
       <c r="E75" s="57">
         <f>E69+E74</f>
         <v>45534530</v>
@@ -9067,11 +9166,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="209" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
       <c r="E78" s="57">
         <f>E75/('Demanda Dinamica'!$Y$52*12)</f>
         <v>3162.120138888889</v>
@@ -9086,23 +9185,23 @@
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="178" t="s">
+      <c r="B81" s="211" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="178"/>
+      <c r="C81" s="211"/>
       <c r="D81" s="4">
         <v>0.35</v>
       </c>
-      <c r="F81" s="178" t="s">
+      <c r="F81" s="211" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="178"/>
+      <c r="G81" s="211"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="178" t="s">
+      <c r="B82" s="211" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="178"/>
+      <c r="C82" s="211"/>
       <c r="D82" s="19">
         <f>E78*D81</f>
         <v>1106.7420486111112</v>
@@ -9116,10 +9215,10 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="179" t="s">
+      <c r="B83" s="212" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="179"/>
+      <c r="C83" s="212"/>
       <c r="D83" s="65">
         <f>E78*(1+D81)</f>
         <v>4268.8621875000008</v>
@@ -9160,11 +9259,11 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="180" t="s">
+      <c r="B89" s="200" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="180"/>
-      <c r="D89" s="180"/>
+      <c r="C89" s="200"/>
+      <c r="D89" s="200"/>
       <c r="E89" s="57">
         <f>E78+G86</f>
         <v>4016.063330876389</v>
@@ -9179,32 +9278,32 @@
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="176" t="s">
+      <c r="B92" s="210" t="s">
         <v>212</v>
       </c>
-      <c r="C92" s="176"/>
+      <c r="C92" s="210"/>
       <c r="D92" s="68">
         <f>+(D83-E89)/D83</f>
         <v>5.9219259259259402E-2</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="176" t="s">
+      <c r="B93" s="210" t="s">
         <v>213</v>
       </c>
-      <c r="C93" s="176"/>
+      <c r="C93" s="210"/>
       <c r="D93" s="69">
         <f>E89*D92</f>
         <v>237.82829559277377</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="192" t="s">
+      <c r="B95" s="193" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="192"/>
-      <c r="D95" s="192"/>
-      <c r="E95" s="192"/>
+      <c r="C95" s="193"/>
+      <c r="D95" s="193"/>
+      <c r="E95" s="193"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="59" t="s">
@@ -9290,22 +9389,23 @@
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="75"/>
+      <c r="D102" s="151"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="193" t="s">
+      <c r="B103" s="194" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="193"/>
-      <c r="D103" s="193"/>
-      <c r="E103" s="193"/>
-      <c r="F103" s="193"/>
-      <c r="G103" s="193"/>
+      <c r="C103" s="194"/>
+      <c r="D103" s="194"/>
+      <c r="E103" s="194"/>
+      <c r="F103" s="194"/>
+      <c r="G103" s="194"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="163" t="s">
+      <c r="B104" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="163"/>
+      <c r="C104" s="174"/>
       <c r="D104" s="62" t="s">
         <v>236</v>
       </c>
@@ -9320,10 +9420,10 @@
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="187" t="s">
+      <c r="B105" s="188" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="187"/>
+      <c r="C105" s="188"/>
       <c r="D105" s="78">
         <f>'Demanda Dinamica'!I36</f>
         <v>2180290</v>
@@ -9342,10 +9442,10 @@
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="187" t="s">
+      <c r="B106" s="188" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="187"/>
+      <c r="C106" s="188"/>
       <c r="D106" s="78">
         <f>E16</f>
         <v>4848000</v>
@@ -9364,10 +9464,10 @@
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="187" t="s">
+      <c r="B107" s="188" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="187"/>
+      <c r="C107" s="188"/>
       <c r="D107" s="78">
         <f>D55</f>
         <v>0</v>
@@ -9386,10 +9486,10 @@
       </c>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="187" t="s">
+      <c r="B108" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="187"/>
+      <c r="C108" s="188"/>
       <c r="D108" s="78">
         <f>D56</f>
         <v>10000</v>
@@ -9408,10 +9508,10 @@
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="187" t="s">
+      <c r="B109" s="188" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="187"/>
+      <c r="C109" s="188"/>
       <c r="D109" s="78">
         <f>D57</f>
         <v>0</v>
@@ -9430,10 +9530,10 @@
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="187" t="s">
+      <c r="B110" s="188" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="187"/>
+      <c r="C110" s="188"/>
       <c r="D110" s="78"/>
       <c r="E110" s="78">
         <f>G31</f>
@@ -9449,10 +9549,10 @@
       </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="187" t="s">
+      <c r="B111" s="188" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="187"/>
+      <c r="C111" s="188"/>
       <c r="D111" s="78"/>
       <c r="E111" s="78">
         <f>G31</f>
@@ -9468,10 +9568,10 @@
       </c>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="187" t="s">
+      <c r="B112" s="188" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="187"/>
+      <c r="C112" s="188"/>
       <c r="D112" s="78"/>
       <c r="E112" s="78">
         <f>E16/3</f>
@@ -9487,10 +9587,10 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="B113" s="187" t="s">
+      <c r="B113" s="188" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="187"/>
+      <c r="C113" s="188"/>
       <c r="D113" s="78"/>
       <c r="E113" s="78">
         <v>0</v>
@@ -9504,10 +9604,10 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="B114" s="187" t="s">
+      <c r="B114" s="188" t="s">
         <v>235</v>
       </c>
-      <c r="C114" s="187"/>
+      <c r="C114" s="188"/>
       <c r="D114" s="78"/>
       <c r="E114" s="78">
         <v>0</v>
@@ -9520,11 +9620,11 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="199" t="s">
+      <c r="B115" s="189" t="s">
         <v>237</v>
       </c>
-      <c r="C115" s="200"/>
-      <c r="D115" s="201"/>
+      <c r="C115" s="190"/>
+      <c r="D115" s="191"/>
       <c r="E115" s="82">
         <f>SUM(E105:E114)</f>
         <v>18446510</v>
@@ -9539,12 +9639,12 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="B117" s="203" t="s">
+      <c r="B117" s="192" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="203"/>
-      <c r="D117" s="203"/>
-      <c r="E117" s="203"/>
+      <c r="C117" s="192"/>
+      <c r="D117" s="192"/>
+      <c r="E117" s="192"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="83"/>
@@ -9660,51 +9760,51 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="B127" s="204" t="s">
+      <c r="B127" s="187" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="204"/>
-      <c r="D127" s="204"/>
-      <c r="E127" s="204"/>
-      <c r="F127" s="204"/>
-      <c r="G127" s="204"/>
-      <c r="H127" s="204"/>
-      <c r="I127" s="204"/>
-      <c r="J127" s="204"/>
-      <c r="K127" s="204"/>
-      <c r="L127" s="204"/>
+      <c r="C127" s="187"/>
+      <c r="D127" s="187"/>
+      <c r="E127" s="187"/>
+      <c r="F127" s="187"/>
+      <c r="G127" s="187"/>
+      <c r="H127" s="187"/>
+      <c r="I127" s="187"/>
+      <c r="J127" s="187"/>
+      <c r="K127" s="187"/>
+      <c r="L127" s="187"/>
     </row>
     <row r="128" spans="1:12">
-      <c r="B128" s="161" t="s">
+      <c r="B128" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="161"/>
-      <c r="D128" s="161" t="s">
+      <c r="C128" s="177"/>
+      <c r="D128" s="177" t="s">
         <v>256</v>
       </c>
-      <c r="E128" s="161" t="s">
+      <c r="E128" s="177" t="s">
         <v>259</v>
       </c>
-      <c r="F128" s="161"/>
-      <c r="G128" s="161"/>
-      <c r="H128" s="160" t="s">
+      <c r="F128" s="177"/>
+      <c r="G128" s="177"/>
+      <c r="H128" s="172" t="s">
         <v>260</v>
       </c>
-      <c r="I128" s="160" t="s">
+      <c r="I128" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="J128" s="160" t="s">
+      <c r="J128" s="172" t="s">
         <v>262</v>
       </c>
-      <c r="K128" s="160" t="s">
+      <c r="K128" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="L128" s="160"/>
+      <c r="L128" s="172"/>
     </row>
     <row r="129" spans="2:20">
-      <c r="B129" s="161"/>
-      <c r="C129" s="161"/>
-      <c r="D129" s="161"/>
+      <c r="B129" s="177"/>
+      <c r="C129" s="177"/>
+      <c r="D129" s="177"/>
       <c r="E129" s="60" t="s">
         <v>125</v>
       </c>
@@ -9714,11 +9814,11 @@
       <c r="G129" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="H129" s="160"/>
-      <c r="I129" s="160"/>
-      <c r="J129" s="160"/>
-      <c r="K129" s="160"/>
-      <c r="L129" s="160"/>
+      <c r="H129" s="172"/>
+      <c r="I129" s="172"/>
+      <c r="J129" s="172"/>
+      <c r="K129" s="172"/>
+      <c r="L129" s="172"/>
     </row>
     <row r="130" spans="2:20">
       <c r="B130" s="2" t="s">
@@ -9828,24 +9928,24 @@
       </c>
     </row>
     <row r="135" spans="2:20">
-      <c r="B135" s="204" t="s">
+      <c r="B135" s="187" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="204"/>
-      <c r="D135" s="204"/>
-      <c r="E135" s="204"/>
-      <c r="F135" s="204"/>
-      <c r="G135" s="204"/>
-      <c r="H135" s="204"/>
-      <c r="I135" s="204"/>
-      <c r="J135" s="204"/>
-      <c r="K135" s="204"/>
-      <c r="L135" s="204"/>
-      <c r="M135" s="204"/>
-      <c r="N135" s="204"/>
-      <c r="O135" s="204"/>
-      <c r="P135" s="204"/>
-      <c r="Q135" s="204"/>
+      <c r="C135" s="187"/>
+      <c r="D135" s="187"/>
+      <c r="E135" s="187"/>
+      <c r="F135" s="187"/>
+      <c r="G135" s="187"/>
+      <c r="H135" s="187"/>
+      <c r="I135" s="187"/>
+      <c r="J135" s="187"/>
+      <c r="K135" s="187"/>
+      <c r="L135" s="187"/>
+      <c r="M135" s="187"/>
+      <c r="N135" s="187"/>
+      <c r="O135" s="187"/>
+      <c r="P135" s="187"/>
+      <c r="Q135" s="187"/>
     </row>
     <row r="136" spans="2:20">
       <c r="B136" s="2" t="s">
@@ -10619,19 +10719,19 @@
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="205" t="s">
+      <c r="B149" s="185" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="205"/>
-      <c r="D149" s="205"/>
-      <c r="E149" s="205"/>
-      <c r="G149" s="206" t="s">
+      <c r="C149" s="185"/>
+      <c r="D149" s="185"/>
+      <c r="E149" s="185"/>
+      <c r="G149" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="H149" s="206"/>
-      <c r="I149" s="206"/>
-      <c r="J149" s="206"/>
-      <c r="K149" s="206"/>
+      <c r="H149" s="186"/>
+      <c r="I149" s="186"/>
+      <c r="J149" s="186"/>
+      <c r="K149" s="186"/>
     </row>
     <row r="150" spans="2:17">
       <c r="B150" s="22" t="s">
@@ -10785,21 +10885,21 @@
       </c>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" s="188" t="s">
+      <c r="B158" s="180" t="s">
         <v>318</v>
       </c>
-      <c r="C158" s="188"/>
-      <c r="D158" s="188"/>
-      <c r="E158" s="188"/>
-      <c r="F158" s="188"/>
-      <c r="G158" s="188"/>
+      <c r="C158" s="180"/>
+      <c r="D158" s="180"/>
+      <c r="E158" s="180"/>
+      <c r="F158" s="180"/>
+      <c r="G158" s="180"/>
     </row>
     <row r="159" spans="2:17">
-      <c r="B159" s="182" t="s">
+      <c r="B159" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="182"/>
-      <c r="D159" s="182"/>
+      <c r="C159" s="184"/>
+      <c r="D159" s="184"/>
       <c r="E159" s="62" t="s">
         <v>2</v>
       </c>
@@ -10811,13 +10911,13 @@
       </c>
     </row>
     <row r="160" spans="2:17">
-      <c r="B160" s="163" t="s">
+      <c r="B160" s="174" t="s">
         <v>295</v>
       </c>
-      <c r="C160" s="161" t="s">
+      <c r="C160" s="177" t="s">
         <v>296</v>
       </c>
-      <c r="D160" s="161"/>
+      <c r="D160" s="177"/>
       <c r="E160" s="2" t="s">
         <v>297</v>
       </c>
@@ -10831,11 +10931,11 @@
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="163"/>
-      <c r="C161" s="161" t="s">
+      <c r="B161" s="174"/>
+      <c r="C161" s="177" t="s">
         <v>298</v>
       </c>
-      <c r="D161" s="161"/>
+      <c r="D161" s="177"/>
       <c r="E161" s="2" t="s">
         <v>297</v>
       </c>
@@ -10847,11 +10947,11 @@
       </c>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="163"/>
-      <c r="C162" s="171" t="s">
+      <c r="B162" s="174"/>
+      <c r="C162" s="162" t="s">
         <v>299</v>
       </c>
-      <c r="D162" s="171"/>
+      <c r="D162" s="162"/>
       <c r="E162" s="76">
         <f>'Demanda Dinamica'!V43</f>
         <v>45334530</v>
@@ -10866,11 +10966,11 @@
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="163"/>
-      <c r="C163" s="161" t="s">
+      <c r="B163" s="174"/>
+      <c r="C163" s="177" t="s">
         <v>300</v>
       </c>
-      <c r="D163" s="161"/>
+      <c r="D163" s="177"/>
       <c r="E163" s="76">
         <f>'Demanda Dinamica'!V35</f>
         <v>2400000</v>
@@ -10885,11 +10985,11 @@
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="163"/>
-      <c r="C164" s="161" t="s">
+      <c r="B164" s="174"/>
+      <c r="C164" s="177" t="s">
         <v>301</v>
       </c>
-      <c r="D164" s="161"/>
+      <c r="D164" s="177"/>
       <c r="E164" s="76">
         <v>0</v>
       </c>
@@ -10901,11 +11001,11 @@
       </c>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="163"/>
-      <c r="C165" s="161" t="s">
+      <c r="B165" s="174"/>
+      <c r="C165" s="177" t="s">
         <v>302</v>
       </c>
-      <c r="D165" s="161"/>
+      <c r="D165" s="177"/>
       <c r="E165" s="76">
         <f>E106</f>
         <v>48480</v>
@@ -10920,11 +11020,11 @@
       </c>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="163"/>
-      <c r="C166" s="161" t="s">
+      <c r="B166" s="174"/>
+      <c r="C166" s="177" t="s">
         <v>303</v>
       </c>
-      <c r="D166" s="161"/>
+      <c r="D166" s="177"/>
       <c r="E166" s="76">
         <f>E107</f>
         <v>0</v>
@@ -10939,11 +11039,11 @@
       </c>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="163"/>
-      <c r="C167" s="161" t="s">
+      <c r="B167" s="174"/>
+      <c r="C167" s="177" t="s">
         <v>304</v>
       </c>
-      <c r="D167" s="161"/>
+      <c r="D167" s="177"/>
       <c r="E167" s="76">
         <f t="shared" ref="E167:G168" si="42">E108</f>
         <v>120000</v>
@@ -10958,11 +11058,11 @@
       </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="163"/>
-      <c r="C168" s="161" t="s">
+      <c r="B168" s="174"/>
+      <c r="C168" s="177" t="s">
         <v>305</v>
       </c>
-      <c r="D168" s="161"/>
+      <c r="D168" s="177"/>
       <c r="E168" s="76">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -10977,11 +11077,11 @@
       </c>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="163"/>
-      <c r="C169" s="161" t="s">
+      <c r="B169" s="174"/>
+      <c r="C169" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="D169" s="161"/>
+      <c r="D169" s="177"/>
       <c r="E169" s="76">
         <f>E110</f>
         <v>200000</v>
@@ -10996,11 +11096,11 @@
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="163"/>
-      <c r="C170" s="161" t="s">
+      <c r="B170" s="174"/>
+      <c r="C170" s="177" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="161"/>
+      <c r="D170" s="177"/>
       <c r="E170" s="76">
         <f>E111</f>
         <v>200000</v>
@@ -11015,11 +11115,11 @@
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="163"/>
-      <c r="C171" s="161" t="s">
+      <c r="B171" s="174"/>
+      <c r="C171" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="D171" s="161"/>
+      <c r="D171" s="177"/>
       <c r="E171" s="76">
         <v>0</v>
       </c>
@@ -11031,11 +11131,11 @@
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="163"/>
-      <c r="C172" s="182" t="s">
+      <c r="B172" s="174"/>
+      <c r="C172" s="184" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="182"/>
+      <c r="D172" s="184"/>
       <c r="E172" s="81">
         <f>SUM(E162:E171)</f>
         <v>48303010</v>
@@ -11050,13 +11150,13 @@
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="182" t="s">
+      <c r="B173" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="C173" s="161" t="s">
+      <c r="C173" s="177" t="s">
         <v>186</v>
       </c>
-      <c r="D173" s="161"/>
+      <c r="D173" s="177"/>
       <c r="E173" s="76">
         <f>E64</f>
         <v>0</v>
@@ -11071,11 +11171,11 @@
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="182"/>
-      <c r="C174" s="161" t="s">
+      <c r="B174" s="184"/>
+      <c r="C174" s="177" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="161"/>
+      <c r="D174" s="177"/>
       <c r="E174" s="76">
         <f>0</f>
         <v>0</v>
@@ -11090,11 +11190,11 @@
       </c>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="182"/>
-      <c r="C175" s="161" t="s">
+      <c r="B175" s="184"/>
+      <c r="C175" s="177" t="s">
         <v>310</v>
       </c>
-      <c r="D175" s="161"/>
+      <c r="D175" s="177"/>
       <c r="E175" s="76">
         <v>0</v>
       </c>
@@ -11106,11 +11206,11 @@
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="182"/>
-      <c r="C176" s="161" t="s">
+      <c r="B176" s="184"/>
+      <c r="C176" s="177" t="s">
         <v>311</v>
       </c>
-      <c r="D176" s="161"/>
+      <c r="D176" s="177"/>
       <c r="E176" s="76">
         <v>0</v>
       </c>
@@ -11122,11 +11222,11 @@
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="182"/>
-      <c r="C177" s="161" t="s">
+      <c r="B177" s="184"/>
+      <c r="C177" s="177" t="s">
         <v>284</v>
       </c>
-      <c r="D177" s="161"/>
+      <c r="D177" s="177"/>
       <c r="E177" s="76">
         <v>0</v>
       </c>
@@ -11138,11 +11238,11 @@
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="182"/>
-      <c r="C178" s="161" t="s">
+      <c r="B178" s="184"/>
+      <c r="C178" s="177" t="s">
         <v>312</v>
       </c>
-      <c r="D178" s="161"/>
+      <c r="D178" s="177"/>
       <c r="E178" s="76">
         <f>C152</f>
         <v>4733936.6052293573</v>
@@ -11157,11 +11257,11 @@
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="182"/>
-      <c r="C179" s="161" t="s">
+      <c r="B179" s="184"/>
+      <c r="C179" s="177" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="161"/>
+      <c r="D179" s="177"/>
       <c r="E179" s="76">
         <f>C153</f>
         <v>4733936.6052293573</v>
@@ -11176,11 +11276,11 @@
       </c>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="182"/>
-      <c r="C180" s="161" t="s">
+      <c r="B180" s="184"/>
+      <c r="C180" s="177" t="s">
         <v>314</v>
       </c>
-      <c r="D180" s="161"/>
+      <c r="D180" s="177"/>
       <c r="E180" s="76">
         <f t="shared" ref="E180:E181" si="48">C154</f>
         <v>1041466.0531504585</v>
@@ -11195,11 +11295,11 @@
       </c>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="182"/>
-      <c r="C181" s="161" t="s">
+      <c r="B181" s="184"/>
+      <c r="C181" s="177" t="s">
         <v>315</v>
       </c>
-      <c r="D181" s="161"/>
+      <c r="D181" s="177"/>
       <c r="E181" s="76">
         <f t="shared" si="48"/>
         <v>156219.90797256876</v>
@@ -11214,11 +11314,11 @@
       </c>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="182"/>
-      <c r="C182" s="182" t="s">
+      <c r="B182" s="184"/>
+      <c r="C182" s="184" t="s">
         <v>316</v>
       </c>
-      <c r="D182" s="182"/>
+      <c r="D182" s="184"/>
       <c r="E182" s="81">
         <f>SUM(E173:E181)</f>
         <v>10665559.171581741</v>
@@ -11233,11 +11333,11 @@
       </c>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="207" t="s">
+      <c r="B183" s="179" t="s">
         <v>317</v>
       </c>
-      <c r="C183" s="207"/>
-      <c r="D183" s="207"/>
+      <c r="C183" s="179"/>
+      <c r="D183" s="179"/>
       <c r="E183" s="100">
         <f>E172+E182</f>
         <v>58968569.171581745</v>
@@ -11259,13 +11359,13 @@
       <c r="F184" s="66"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="188" t="s">
+      <c r="B185" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="C185" s="188"/>
-      <c r="D185" s="188"/>
-      <c r="E185" s="188"/>
-      <c r="F185" s="188"/>
+      <c r="C185" s="180"/>
+      <c r="D185" s="180"/>
+      <c r="E185" s="180"/>
+      <c r="F185" s="180"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="62" t="s">
@@ -11405,24 +11505,24 @@
       </c>
     </row>
     <row r="194" spans="2:17">
-      <c r="B194" s="189" t="s">
+      <c r="B194" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="C194" s="189"/>
-      <c r="D194" s="189"/>
-      <c r="E194" s="189"/>
-      <c r="F194" s="189"/>
-      <c r="G194" s="189"/>
-      <c r="H194" s="189"/>
-      <c r="I194" s="189"/>
-      <c r="J194" s="189"/>
-      <c r="K194" s="189"/>
-      <c r="L194" s="189"/>
-      <c r="M194" s="189"/>
-      <c r="N194" s="189"/>
-      <c r="O194" s="189"/>
-      <c r="P194" s="189"/>
-      <c r="Q194" s="189"/>
+      <c r="C194" s="181"/>
+      <c r="D194" s="181"/>
+      <c r="E194" s="181"/>
+      <c r="F194" s="181"/>
+      <c r="G194" s="181"/>
+      <c r="H194" s="181"/>
+      <c r="I194" s="181"/>
+      <c r="J194" s="181"/>
+      <c r="K194" s="181"/>
+      <c r="L194" s="181"/>
+      <c r="M194" s="181"/>
+      <c r="N194" s="181"/>
+      <c r="O194" s="181"/>
+      <c r="P194" s="181"/>
+      <c r="Q194" s="181"/>
     </row>
     <row r="195" spans="2:17">
       <c r="B195" s="62" t="s">
@@ -11670,13 +11770,13 @@
       </c>
     </row>
     <row r="200" spans="2:17">
-      <c r="B200" s="208" t="s">
+      <c r="B200" s="182" t="s">
         <v>340</v>
       </c>
-      <c r="C200" s="208"/>
-      <c r="D200" s="208"/>
-      <c r="E200" s="208"/>
-      <c r="F200" s="208"/>
+      <c r="C200" s="182"/>
+      <c r="D200" s="182"/>
+      <c r="E200" s="182"/>
+      <c r="F200" s="182"/>
     </row>
     <row r="201" spans="2:17">
       <c r="B201" s="102" t="s">
@@ -11741,11 +11841,11 @@
       </c>
     </row>
     <row r="205" spans="2:17">
-      <c r="B205" s="209" t="s">
+      <c r="B205" s="183" t="s">
         <v>343</v>
       </c>
-      <c r="C205" s="209"/>
-      <c r="D205" s="209"/>
+      <c r="C205" s="183"/>
+      <c r="D205" s="183"/>
     </row>
     <row r="206" spans="2:17">
       <c r="B206" s="102" t="s">
@@ -11801,59 +11901,50 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B194:Q194"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:B172"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:L129"/>
-    <mergeCell ref="B127:L127"/>
-    <mergeCell ref="B135:Q135"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="B128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="B104:C104"/>
@@ -11878,50 +11969,59 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:L129"/>
+    <mergeCell ref="B127:L127"/>
+    <mergeCell ref="B135:Q135"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="B128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:B172"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
   </mergeCells>
   <conditionalFormatting sqref="C198:Q198">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -11938,21 +12038,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V117"/>
+  <dimension ref="A2:V159"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="N143" sqref="N143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" customWidth="1"/>
@@ -11960,21 +12063,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="61" t="s">
         <v>2</v>
       </c>
@@ -11986,13 +12089,13 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="184" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="177" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="161"/>
+      <c r="D4" s="177"/>
       <c r="E4" s="77">
         <f>'Presupuesto de Inversion'!O139</f>
         <v>94678732.104587138</v>
@@ -12007,11 +12110,11 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.5" customHeight="1">
-      <c r="B5" s="182"/>
-      <c r="C5" s="160" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="172" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="160"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="77">
         <v>0</v>
       </c>
@@ -12023,11 +12126,11 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="182"/>
-      <c r="C6" s="163" t="s">
+      <c r="B6" s="184"/>
+      <c r="C6" s="174" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="163"/>
+      <c r="D6" s="174"/>
       <c r="E6" s="104">
         <f>SUM(E4:E5)</f>
         <v>94678732.104587138</v>
@@ -12042,13 +12145,13 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="184" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="161"/>
+      <c r="D7" s="177"/>
       <c r="E7" s="77">
         <f>'Presupuesto de Inversion'!E75</f>
         <v>45534530</v>
@@ -12063,11 +12166,11 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="182"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="184"/>
+      <c r="C8" s="162" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="171"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="77">
         <f>'Presupuesto de Inversion'!E115</f>
         <v>18446510</v>
@@ -12082,11 +12185,11 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="182"/>
-      <c r="C9" s="161" t="s">
+      <c r="B9" s="184"/>
+      <c r="C9" s="177" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="161"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="77">
         <f>'Presupuesto de Inversion'!C156</f>
         <v>10665559.171581741</v>
@@ -12101,11 +12204,11 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="160" t="s">
+      <c r="B10" s="184"/>
+      <c r="C10" s="172" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="160"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="77">
         <v>0</v>
       </c>
@@ -12117,11 +12220,11 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="182"/>
-      <c r="C11" s="160" t="s">
+      <c r="B11" s="184"/>
+      <c r="C11" s="172" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="160"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="77">
         <v>0</v>
       </c>
@@ -12133,11 +12236,11 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="182"/>
-      <c r="C12" s="182" t="s">
+      <c r="B12" s="184"/>
+      <c r="C12" s="184" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="184"/>
       <c r="E12" s="104">
         <f>SUM(E7:E11)</f>
         <v>74646599.171581745</v>
@@ -12152,11 +12255,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="234" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="213"/>
-      <c r="D13" s="213"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
       <c r="E13" s="77">
         <f>E6-E12</f>
         <v>20032132.933005393</v>
@@ -12171,11 +12274,11 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="177" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
       <c r="E14" s="77">
         <f>(E13*0.25)</f>
         <v>5008033.2332513481</v>
@@ -12190,11 +12293,11 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B15" s="214" t="s">
+      <c r="B15" s="235" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
       <c r="E15" s="77">
         <f>E13*0.09</f>
         <v>1802891.9639704854</v>
@@ -12209,11 +12312,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="29.25" customHeight="1">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="172" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="77">
         <f>E13-E14-E15</f>
         <v>13221207.735783558</v>
@@ -12228,11 +12331,11 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="177" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
       <c r="E17" s="77">
         <f>E16*0.1</f>
         <v>1322120.773578356</v>
@@ -12247,11 +12350,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="32.25" customHeight="1">
-      <c r="B18" s="211" t="s">
+      <c r="B18" s="232" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="211"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="105">
         <f>E16-E17</f>
         <v>11899086.962205201</v>
@@ -12270,39 +12373,39 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="107"/>
-      <c r="B20" s="212" t="s">
+      <c r="B20" s="233" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="212"/>
-      <c r="L20" s="212"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="212"/>
-      <c r="O20" s="212"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="212"/>
-      <c r="R20" s="212"/>
-      <c r="S20" s="212"/>
-      <c r="T20" s="212"/>
-      <c r="U20" s="212"/>
-      <c r="V20" s="212"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="233"/>
+      <c r="L20" s="233"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="233"/>
+      <c r="O20" s="233"/>
+      <c r="P20" s="233"/>
+      <c r="Q20" s="233"/>
+      <c r="R20" s="233"/>
+      <c r="S20" s="233"/>
+      <c r="T20" s="233"/>
+      <c r="U20" s="233"/>
+      <c r="V20" s="233"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="107"/>
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
       <c r="G21" s="61" t="s">
         <v>399</v>
       </c>
@@ -12354,13 +12457,13 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="107"/>
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="184" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
       <c r="G22" s="108">
         <f>'Presupuesto de Inversion'!C209</f>
         <v>22967679.680968828</v>
@@ -12383,15 +12486,15 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="107"/>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="184" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="183" t="s">
+      <c r="C23" s="202" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
       <c r="G23" s="108">
         <v>0</v>
       </c>
@@ -12458,13 +12561,13 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="107"/>
-      <c r="B24" s="182"/>
-      <c r="C24" s="183" t="s">
+      <c r="B24" s="184"/>
+      <c r="C24" s="202" t="s">
         <v>364</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
       <c r="G24" s="108">
         <v>0</v>
       </c>
@@ -12531,13 +12634,13 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="107"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="187" t="s">
+      <c r="B25" s="184"/>
+      <c r="C25" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
       <c r="G25" s="108"/>
       <c r="H25" s="108"/>
       <c r="I25" s="108"/>
@@ -12557,13 +12660,13 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="107"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="183" t="s">
+      <c r="B26" s="184"/>
+      <c r="C26" s="202" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
       <c r="G26" s="108"/>
       <c r="H26" s="108"/>
       <c r="I26" s="108"/>
@@ -12583,13 +12686,13 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="107"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="183" t="s">
+      <c r="B27" s="184"/>
+      <c r="C27" s="202" t="s">
         <v>367</v>
       </c>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
       <c r="G27" s="108">
         <f>'Indicadores Financieros'!D9</f>
         <v>6890303.9042906482</v>
@@ -12612,13 +12715,13 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="107"/>
-      <c r="B28" s="206" t="s">
+      <c r="B28" s="186" t="s">
         <v>368</v>
       </c>
-      <c r="C28" s="206"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
       <c r="G28" s="109">
         <f>SUM(G22:G27)</f>
         <v>29857983.585259475</v>
@@ -12686,17 +12789,17 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="107"/>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="184" t="s">
         <v>338</v>
       </c>
-      <c r="C29" s="163" t="s">
+      <c r="C29" s="174" t="s">
         <v>369</v>
       </c>
-      <c r="D29" s="163"/>
-      <c r="E29" s="183" t="s">
+      <c r="D29" s="174"/>
+      <c r="E29" s="202" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="183"/>
+      <c r="F29" s="202"/>
       <c r="G29" s="108">
         <f>'Presupuesto de Inversion'!E16</f>
         <v>4848000</v>
@@ -12719,13 +12822,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="107"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="183" t="s">
+      <c r="B30" s="184"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="202" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="183"/>
+      <c r="F30" s="202"/>
       <c r="G30" s="108">
         <f>'Presupuesto de Inversion'!K12</f>
         <v>640000</v>
@@ -12748,13 +12851,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="107"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="206" t="s">
+      <c r="B31" s="184"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="186" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="206"/>
+      <c r="F31" s="186"/>
       <c r="G31" s="112">
         <f>SUM(G29:G30)</f>
         <v>5488000</v>
@@ -12777,12 +12880,12 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="107"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="182" t="s">
+      <c r="B32" s="184"/>
+      <c r="C32" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="182"/>
-      <c r="E32" s="163" t="s">
+      <c r="D32" s="184"/>
+      <c r="E32" s="174" t="s">
         <v>381</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -12852,10 +12955,10 @@
     </row>
     <row r="33" spans="1:22" ht="30">
       <c r="A33" s="107"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="163"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="174"/>
       <c r="F33" s="106" t="s">
         <v>374</v>
       </c>
@@ -12878,10 +12981,10 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="107"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="163"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="174"/>
       <c r="F34" s="2" t="s">
         <v>375</v>
       </c>
@@ -12904,10 +13007,10 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="107"/>
-      <c r="B35" s="182"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="163"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="174"/>
       <c r="F35" s="2" t="s">
         <v>58</v>
       </c>
@@ -12930,10 +13033,10 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="107"/>
-      <c r="B36" s="182"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="163"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="174"/>
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
@@ -12956,10 +13059,10 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="107"/>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="163"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="174"/>
       <c r="F37" s="2" t="s">
         <v>376</v>
       </c>
@@ -12982,10 +13085,10 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="107"/>
-      <c r="B38" s="182"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="163"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="174"/>
       <c r="F38" s="2" t="s">
         <v>377</v>
       </c>
@@ -13008,10 +13111,10 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="107"/>
-      <c r="B39" s="182"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="163"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="174"/>
       <c r="F39" s="2" t="s">
         <v>62</v>
       </c>
@@ -13034,10 +13137,10 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="107"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="163"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="174"/>
       <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
@@ -13060,10 +13163,10 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="107"/>
-      <c r="B41" s="182"/>
-      <c r="C41" s="182"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="163"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="174"/>
       <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
@@ -13086,10 +13189,10 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="107"/>
-      <c r="B42" s="182"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="163"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="174"/>
       <c r="F42" s="2" t="s">
         <v>378</v>
       </c>
@@ -13112,10 +13215,10 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="107"/>
-      <c r="B43" s="182"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="163"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="174"/>
       <c r="F43" s="2" t="s">
         <v>379</v>
       </c>
@@ -13138,10 +13241,10 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="107"/>
-      <c r="B44" s="182"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="163"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="174"/>
       <c r="F44" s="113" t="s">
         <v>380</v>
       </c>
@@ -13209,13 +13312,13 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="107"/>
-      <c r="B45" s="182"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="182"/>
-      <c r="E45" s="215" t="s">
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="230" t="s">
         <v>382</v>
       </c>
-      <c r="F45" s="215"/>
+      <c r="F45" s="230"/>
       <c r="G45" s="108"/>
       <c r="H45" s="108">
         <f>'Presupuesto de Inversion'!$E$163/12</f>
@@ -13280,13 +13383,13 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="107"/>
-      <c r="B46" s="182"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="215" t="s">
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="230" t="s">
         <v>383</v>
       </c>
-      <c r="F46" s="215"/>
+      <c r="F46" s="230"/>
       <c r="G46" s="108"/>
       <c r="H46" s="108">
         <f>'Presupuesto de Inversion'!$E$164/12</f>
@@ -13351,13 +13454,13 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="107"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="215" t="s">
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="230" t="s">
         <v>384</v>
       </c>
-      <c r="F47" s="215"/>
+      <c r="F47" s="230"/>
       <c r="G47" s="108"/>
       <c r="H47" s="108">
         <f>'Presupuesto de Inversion'!$E$165/12</f>
@@ -13422,13 +13525,13 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="107"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="215" t="s">
+      <c r="B48" s="184"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="230" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="215"/>
+      <c r="F48" s="230"/>
       <c r="G48" s="108"/>
       <c r="H48" s="108">
         <f>'Presupuesto de Inversion'!$E$166/12</f>
@@ -13493,13 +13596,13 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="107"/>
-      <c r="B49" s="182"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="215" t="s">
+      <c r="B49" s="184"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="230" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="215"/>
+      <c r="F49" s="230"/>
       <c r="G49" s="108"/>
       <c r="H49" s="108">
         <f>'Presupuesto de Inversion'!$E$167/12</f>
@@ -13564,13 +13667,13 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="107"/>
-      <c r="B50" s="182"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="215" t="s">
+      <c r="B50" s="184"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="230" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="215"/>
+      <c r="F50" s="230"/>
       <c r="G50" s="108"/>
       <c r="H50" s="108">
         <f>'Presupuesto de Inversion'!$E$168/12</f>
@@ -13635,13 +13738,13 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="107"/>
-      <c r="B51" s="182"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="182"/>
-      <c r="E51" s="215" t="s">
+      <c r="B51" s="184"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="184"/>
+      <c r="E51" s="230" t="s">
         <v>386</v>
       </c>
-      <c r="F51" s="215"/>
+      <c r="F51" s="230"/>
       <c r="G51" s="108"/>
       <c r="H51" s="108"/>
       <c r="I51" s="108"/>
@@ -13661,13 +13764,13 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="107"/>
-      <c r="B52" s="182"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="206" t="s">
+      <c r="B52" s="184"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="186" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="206"/>
+      <c r="F52" s="186"/>
       <c r="G52" s="109"/>
       <c r="H52" s="109">
         <f>SUM(H45:H51)</f>
@@ -13732,15 +13835,15 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="107"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="222" t="s">
+      <c r="B53" s="184"/>
+      <c r="C53" s="213" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="223"/>
-      <c r="E53" s="228" t="s">
+      <c r="D53" s="214"/>
+      <c r="E53" s="219" t="s">
         <v>494</v>
       </c>
-      <c r="F53" s="229"/>
+      <c r="F53" s="220"/>
       <c r="G53" s="152"/>
       <c r="H53" s="152"/>
       <c r="I53" s="152"/>
@@ -13760,13 +13863,13 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="107"/>
-      <c r="B54" s="182"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="225"/>
-      <c r="E54" s="228" t="s">
+      <c r="B54" s="184"/>
+      <c r="C54" s="215"/>
+      <c r="D54" s="216"/>
+      <c r="E54" s="219" t="s">
         <v>495</v>
       </c>
-      <c r="F54" s="229"/>
+      <c r="F54" s="220"/>
       <c r="G54" s="152"/>
       <c r="H54" s="152"/>
       <c r="I54" s="152"/>
@@ -13786,13 +13889,13 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="107"/>
-      <c r="B55" s="182"/>
-      <c r="C55" s="224"/>
-      <c r="D55" s="225"/>
-      <c r="E55" s="228" t="s">
+      <c r="B55" s="184"/>
+      <c r="C55" s="215"/>
+      <c r="D55" s="216"/>
+      <c r="E55" s="219" t="s">
         <v>496</v>
       </c>
-      <c r="F55" s="229"/>
+      <c r="F55" s="220"/>
       <c r="G55" s="152"/>
       <c r="H55" s="152"/>
       <c r="I55" s="152"/>
@@ -13812,13 +13915,13 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="107"/>
-      <c r="B56" s="182"/>
-      <c r="C56" s="224"/>
-      <c r="D56" s="225"/>
-      <c r="E56" s="228" t="s">
+      <c r="B56" s="184"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="216"/>
+      <c r="E56" s="219" t="s">
         <v>311</v>
       </c>
-      <c r="F56" s="229"/>
+      <c r="F56" s="220"/>
       <c r="G56" s="152"/>
       <c r="H56" s="152"/>
       <c r="I56" s="152"/>
@@ -13838,13 +13941,13 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="107"/>
-      <c r="B57" s="182"/>
-      <c r="C57" s="224"/>
-      <c r="D57" s="225"/>
-      <c r="E57" s="228" t="s">
+      <c r="B57" s="184"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="216"/>
+      <c r="E57" s="219" t="s">
         <v>312</v>
       </c>
-      <c r="F57" s="229"/>
+      <c r="F57" s="220"/>
       <c r="G57" s="152"/>
       <c r="H57" s="153">
         <f>'Presupuesto de Inversion'!C139*0.05</f>
@@ -13909,13 +14012,13 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="107"/>
-      <c r="B58" s="182"/>
-      <c r="C58" s="224"/>
-      <c r="D58" s="225"/>
-      <c r="E58" s="228" t="s">
+      <c r="B58" s="184"/>
+      <c r="C58" s="215"/>
+      <c r="D58" s="216"/>
+      <c r="E58" s="219" t="s">
         <v>313</v>
       </c>
-      <c r="F58" s="230"/>
+      <c r="F58" s="221"/>
       <c r="G58" s="152"/>
       <c r="H58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
@@ -13980,13 +14083,13 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="107"/>
-      <c r="B59" s="182"/>
-      <c r="C59" s="224"/>
-      <c r="D59" s="225"/>
-      <c r="E59" s="228" t="s">
+      <c r="B59" s="184"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="216"/>
+      <c r="E59" s="219" t="s">
         <v>497</v>
       </c>
-      <c r="F59" s="230"/>
+      <c r="F59" s="221"/>
       <c r="G59" s="152"/>
       <c r="H59" s="153">
         <f>'Analisis Prestamo'!D10+'Analisis Prestamo'!F10</f>
@@ -14049,13 +14152,13 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="107"/>
-      <c r="B60" s="182"/>
-      <c r="C60" s="224"/>
-      <c r="D60" s="225"/>
-      <c r="E60" s="228" t="s">
+      <c r="B60" s="184"/>
+      <c r="C60" s="215"/>
+      <c r="D60" s="216"/>
+      <c r="E60" s="219" t="s">
         <v>498</v>
       </c>
-      <c r="F60" s="229"/>
+      <c r="F60" s="220"/>
       <c r="G60" s="152"/>
       <c r="H60" s="152"/>
       <c r="I60" s="152"/>
@@ -14075,13 +14178,13 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="107"/>
-      <c r="B61" s="182"/>
-      <c r="C61" s="226"/>
-      <c r="D61" s="227"/>
-      <c r="E61" s="231" t="s">
+      <c r="B61" s="184"/>
+      <c r="C61" s="217"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="222" t="s">
         <v>499</v>
       </c>
-      <c r="F61" s="232"/>
+      <c r="F61" s="223"/>
       <c r="G61" s="109"/>
       <c r="H61" s="109">
         <f>SUM(H53:H60)</f>
@@ -14146,15 +14249,15 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="107"/>
-      <c r="B62" s="182"/>
-      <c r="C62" s="182" t="s">
+      <c r="B62" s="184"/>
+      <c r="C62" s="184" t="s">
         <v>206</v>
       </c>
-      <c r="D62" s="182"/>
-      <c r="E62" s="183" t="s">
+      <c r="D62" s="184"/>
+      <c r="E62" s="202" t="s">
         <v>387</v>
       </c>
-      <c r="F62" s="183"/>
+      <c r="F62" s="202"/>
       <c r="G62" s="108"/>
       <c r="H62" s="108"/>
       <c r="I62" s="108"/>
@@ -14174,13 +14277,13 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="107"/>
-      <c r="B63" s="182"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="182"/>
-      <c r="E63" s="183" t="s">
+      <c r="B63" s="184"/>
+      <c r="C63" s="184"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="202" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="183"/>
+      <c r="F63" s="202"/>
       <c r="G63" s="108"/>
       <c r="H63" s="108"/>
       <c r="I63" s="108"/>
@@ -14208,13 +14311,13 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="107"/>
-      <c r="B64" s="182"/>
-      <c r="C64" s="182"/>
-      <c r="D64" s="182"/>
-      <c r="E64" s="183" t="s">
+      <c r="B64" s="184"/>
+      <c r="C64" s="184"/>
+      <c r="D64" s="184"/>
+      <c r="E64" s="202" t="s">
         <v>389</v>
       </c>
-      <c r="F64" s="183"/>
+      <c r="F64" s="202"/>
       <c r="G64" s="108"/>
       <c r="H64" s="108"/>
       <c r="I64" s="108"/>
@@ -14242,13 +14345,13 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="107"/>
-      <c r="B65" s="182"/>
-      <c r="C65" s="182"/>
-      <c r="D65" s="182"/>
-      <c r="E65" s="183" t="s">
+      <c r="B65" s="184"/>
+      <c r="C65" s="184"/>
+      <c r="D65" s="184"/>
+      <c r="E65" s="202" t="s">
         <v>390</v>
       </c>
-      <c r="F65" s="183"/>
+      <c r="F65" s="202"/>
       <c r="G65" s="108"/>
       <c r="H65" s="108">
         <f>'Presupuesto de Inversion'!$C$154/12</f>
@@ -14313,13 +14416,13 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="107"/>
-      <c r="B66" s="182"/>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="183" t="s">
+      <c r="B66" s="184"/>
+      <c r="C66" s="184"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="202" t="s">
         <v>391</v>
       </c>
-      <c r="F66" s="183"/>
+      <c r="F66" s="202"/>
       <c r="G66" s="108"/>
       <c r="H66" s="108">
         <f>'Presupuesto de Inversion'!$C$155/12</f>
@@ -14384,13 +14487,13 @@
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="107"/>
-      <c r="B67" s="182"/>
-      <c r="C67" s="182"/>
-      <c r="D67" s="182"/>
-      <c r="E67" s="183" t="s">
+      <c r="B67" s="184"/>
+      <c r="C67" s="184"/>
+      <c r="D67" s="184"/>
+      <c r="E67" s="202" t="s">
         <v>392</v>
       </c>
-      <c r="F67" s="183"/>
+      <c r="F67" s="202"/>
       <c r="G67" s="108"/>
       <c r="H67" s="108">
         <f>'Presupuesto de Inversion'!C140</f>
@@ -14455,13 +14558,13 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="107"/>
-      <c r="B68" s="182"/>
-      <c r="C68" s="182"/>
-      <c r="D68" s="182"/>
-      <c r="E68" s="183" t="s">
+      <c r="B68" s="184"/>
+      <c r="C68" s="184"/>
+      <c r="D68" s="184"/>
+      <c r="E68" s="202" t="s">
         <v>393</v>
       </c>
-      <c r="F68" s="183"/>
+      <c r="F68" s="202"/>
       <c r="G68" s="108"/>
       <c r="H68" s="108">
         <f>'Presupuesto de Inversion'!C141</f>
@@ -14526,13 +14629,13 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="107"/>
-      <c r="B69" s="182"/>
-      <c r="C69" s="182"/>
-      <c r="D69" s="182"/>
-      <c r="E69" s="183" t="s">
+      <c r="B69" s="184"/>
+      <c r="C69" s="184"/>
+      <c r="D69" s="184"/>
+      <c r="E69" s="202" t="s">
         <v>394</v>
       </c>
-      <c r="F69" s="183"/>
+      <c r="F69" s="202"/>
       <c r="G69" s="108"/>
       <c r="H69" s="108">
         <f>$E$14/12</f>
@@ -14597,13 +14700,13 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="107"/>
-      <c r="B70" s="182"/>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="206" t="s">
+      <c r="B70" s="184"/>
+      <c r="C70" s="184"/>
+      <c r="D70" s="184"/>
+      <c r="E70" s="186" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="206"/>
+      <c r="F70" s="186"/>
       <c r="G70" s="109"/>
       <c r="H70" s="109">
         <f>SUM(H62:H69)</f>
@@ -14668,13 +14771,13 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="107"/>
-      <c r="B71" s="182"/>
-      <c r="C71" s="216" t="s">
+      <c r="B71" s="184"/>
+      <c r="C71" s="227" t="s">
         <v>395</v>
       </c>
-      <c r="D71" s="216"/>
-      <c r="E71" s="216"/>
-      <c r="F71" s="216"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="227"/>
+      <c r="F71" s="227"/>
       <c r="G71" s="108"/>
       <c r="H71" s="108">
         <f>$E$17/12</f>
@@ -14739,13 +14842,13 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="107"/>
-      <c r="B72" s="182"/>
-      <c r="C72" s="183" t="s">
+      <c r="B72" s="184"/>
+      <c r="C72" s="202" t="s">
         <v>396</v>
       </c>
-      <c r="D72" s="183"/>
-      <c r="E72" s="183"/>
-      <c r="F72" s="183"/>
+      <c r="D72" s="202"/>
+      <c r="E72" s="202"/>
+      <c r="F72" s="202"/>
       <c r="G72" s="108"/>
       <c r="H72" s="108"/>
       <c r="I72" s="108"/>
@@ -14765,13 +14868,13 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="107"/>
-      <c r="B73" s="182"/>
-      <c r="C73" s="207" t="s">
+      <c r="B73" s="184"/>
+      <c r="C73" s="179" t="s">
         <v>355</v>
       </c>
-      <c r="D73" s="207"/>
-      <c r="E73" s="207"/>
-      <c r="F73" s="207"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
       <c r="G73" s="110">
         <f>G31</f>
         <v>5488000</v>
@@ -14839,13 +14942,13 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="107"/>
-      <c r="B74" s="217" t="s">
+      <c r="B74" s="225" t="s">
         <v>397</v>
       </c>
-      <c r="C74" s="217"/>
-      <c r="D74" s="217"/>
-      <c r="E74" s="217"/>
-      <c r="F74" s="217"/>
+      <c r="C74" s="225"/>
+      <c r="D74" s="225"/>
+      <c r="E74" s="225"/>
+      <c r="F74" s="225"/>
       <c r="G74" s="112">
         <f>G28-G73</f>
         <v>24369983.585259475</v>
@@ -14913,13 +15016,13 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="107"/>
-      <c r="B75" s="161" t="s">
+      <c r="B75" s="177" t="s">
         <v>398</v>
       </c>
-      <c r="C75" s="161"/>
-      <c r="D75" s="161"/>
-      <c r="E75" s="161"/>
-      <c r="F75" s="161"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="177"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
       <c r="G75" s="108"/>
       <c r="H75" s="108"/>
       <c r="I75" s="108"/>
@@ -14941,26 +15044,26 @@
       <c r="A76" s="107"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="B77" s="219" t="s">
+      <c r="B77" s="226" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="219"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="219"/>
-      <c r="F77" s="219"/>
-      <c r="G77" s="219"/>
-      <c r="H77" s="219"/>
-      <c r="I77" s="219"/>
-      <c r="J77" s="219"/>
+      <c r="C77" s="226"/>
+      <c r="D77" s="226"/>
+      <c r="E77" s="226"/>
+      <c r="F77" s="226"/>
+      <c r="G77" s="226"/>
+      <c r="H77" s="226"/>
+      <c r="I77" s="226"/>
+      <c r="J77" s="226"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
-      <c r="E78" s="182"/>
-      <c r="F78" s="182"/>
+      <c r="C78" s="184"/>
+      <c r="D78" s="184"/>
+      <c r="E78" s="184"/>
+      <c r="F78" s="184"/>
       <c r="G78" s="61" t="s">
         <v>418</v>
       </c>
@@ -14975,17 +15078,17 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="B79" s="182" t="s">
+      <c r="B79" s="184" t="s">
         <v>416</v>
       </c>
-      <c r="C79" s="182" t="s">
+      <c r="C79" s="184" t="s">
         <v>406</v>
       </c>
-      <c r="D79" s="182"/>
-      <c r="E79" s="183" t="s">
+      <c r="D79" s="184"/>
+      <c r="E79" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="F79" s="183"/>
+      <c r="F79" s="202"/>
       <c r="G79" s="108">
         <f>G74</f>
         <v>24369983.585259475</v>
@@ -15004,13 +15107,13 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="B80" s="182"/>
-      <c r="C80" s="182"/>
-      <c r="D80" s="182"/>
-      <c r="E80" s="183" t="s">
+      <c r="B80" s="184"/>
+      <c r="C80" s="184"/>
+      <c r="D80" s="184"/>
+      <c r="E80" s="202" t="s">
         <v>403</v>
       </c>
-      <c r="F80" s="183"/>
+      <c r="F80" s="202"/>
       <c r="G80" s="108">
         <v>0</v>
       </c>
@@ -15028,39 +15131,39 @@
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="B81" s="182"/>
-      <c r="C81" s="182"/>
-      <c r="D81" s="182"/>
-      <c r="E81" s="183" t="s">
+      <c r="B81" s="184"/>
+      <c r="C81" s="184"/>
+      <c r="D81" s="184"/>
+      <c r="E81" s="202" t="s">
         <v>404</v>
       </c>
-      <c r="F81" s="183"/>
+      <c r="F81" s="202"/>
       <c r="G81" s="108"/>
       <c r="H81" s="108"/>
       <c r="I81" s="108"/>
       <c r="J81" s="108"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="B82" s="182"/>
-      <c r="C82" s="182"/>
-      <c r="D82" s="182"/>
-      <c r="E82" s="183" t="s">
+      <c r="B82" s="184"/>
+      <c r="C82" s="184"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="202" t="s">
         <v>405</v>
       </c>
-      <c r="F82" s="183"/>
+      <c r="F82" s="202"/>
       <c r="G82" s="108"/>
       <c r="H82" s="108"/>
       <c r="I82" s="108"/>
       <c r="J82" s="108"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="B83" s="182"/>
-      <c r="C83" s="182"/>
-      <c r="D83" s="182"/>
-      <c r="E83" s="206" t="s">
+      <c r="B83" s="184"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="186" t="s">
         <v>407</v>
       </c>
-      <c r="F83" s="206"/>
+      <c r="F83" s="186"/>
       <c r="G83" s="109">
         <f>SUM(G79:G82)</f>
         <v>24369983.585259475</v>
@@ -15079,15 +15182,15 @@
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="B84" s="182"/>
-      <c r="C84" s="182" t="s">
+      <c r="B84" s="184"/>
+      <c r="C84" s="184" t="s">
         <v>417</v>
       </c>
-      <c r="D84" s="182"/>
-      <c r="E84" s="161" t="s">
+      <c r="D84" s="184"/>
+      <c r="E84" s="177" t="s">
         <v>408</v>
       </c>
-      <c r="F84" s="161"/>
+      <c r="F84" s="177"/>
       <c r="G84" s="108">
         <f>'Presupuesto de Inversion'!E5</f>
         <v>3348000</v>
@@ -15097,13 +15200,13 @@
       <c r="J84" s="108"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="B85" s="182"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="161" t="s">
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="177" t="s">
         <v>409</v>
       </c>
-      <c r="F85" s="161"/>
+      <c r="F85" s="177"/>
       <c r="G85" s="108">
         <f>'Presupuesto de Inversion'!E8</f>
         <v>1500000</v>
@@ -15129,13 +15232,13 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="B86" s="182"/>
-      <c r="C86" s="182"/>
-      <c r="D86" s="182"/>
-      <c r="E86" s="161" t="s">
+      <c r="B86" s="184"/>
+      <c r="C86" s="184"/>
+      <c r="D86" s="184"/>
+      <c r="E86" s="177" t="s">
         <v>410</v>
       </c>
-      <c r="F86" s="161"/>
+      <c r="F86" s="177"/>
       <c r="G86" s="108">
         <f>'Presupuesto de Inversion'!E11</f>
         <v>0</v>
@@ -15145,13 +15248,13 @@
       <c r="J86" s="108"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="B87" s="182"/>
-      <c r="C87" s="182"/>
-      <c r="D87" s="182"/>
-      <c r="E87" s="161" t="s">
+      <c r="B87" s="184"/>
+      <c r="C87" s="184"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="177" t="s">
         <v>411</v>
       </c>
-      <c r="F87" s="161"/>
+      <c r="F87" s="177"/>
       <c r="G87" s="108">
         <f>0</f>
         <v>0</v>
@@ -15161,13 +15264,13 @@
       <c r="J87" s="108"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="B88" s="182"/>
-      <c r="C88" s="182"/>
-      <c r="D88" s="182"/>
-      <c r="E88" s="161" t="s">
+      <c r="B88" s="184"/>
+      <c r="C88" s="184"/>
+      <c r="D88" s="184"/>
+      <c r="E88" s="177" t="s">
         <v>412</v>
       </c>
-      <c r="F88" s="161"/>
+      <c r="F88" s="177"/>
       <c r="G88" s="108">
         <f>'Presupuesto de Inversion'!E15</f>
         <v>0</v>
@@ -15177,13 +15280,13 @@
       <c r="J88" s="108"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="B89" s="182"/>
-      <c r="C89" s="182"/>
-      <c r="D89" s="182"/>
-      <c r="E89" s="161" t="s">
+      <c r="B89" s="184"/>
+      <c r="C89" s="184"/>
+      <c r="D89" s="184"/>
+      <c r="E89" s="177" t="s">
         <v>413</v>
       </c>
-      <c r="F89" s="161"/>
+      <c r="F89" s="177"/>
       <c r="G89" s="108"/>
       <c r="H89" s="108">
         <f>'Presupuesto de Inversion'!G31</f>
@@ -15199,13 +15302,13 @@
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="B90" s="182"/>
-      <c r="C90" s="182"/>
-      <c r="D90" s="182"/>
-      <c r="E90" s="218" t="s">
+      <c r="B90" s="184"/>
+      <c r="C90" s="184"/>
+      <c r="D90" s="184"/>
+      <c r="E90" s="229" t="s">
         <v>414</v>
       </c>
-      <c r="F90" s="218"/>
+      <c r="F90" s="229"/>
       <c r="G90" s="112">
         <f>SUM(G84:G89)</f>
         <v>4848000</v>
@@ -15224,13 +15327,13 @@
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="B91" s="182"/>
-      <c r="C91" s="207" t="s">
+      <c r="B91" s="184"/>
+      <c r="C91" s="179" t="s">
         <v>415</v>
       </c>
-      <c r="D91" s="207"/>
-      <c r="E91" s="207"/>
-      <c r="F91" s="207"/>
+      <c r="D91" s="179"/>
+      <c r="E91" s="179"/>
+      <c r="F91" s="179"/>
       <c r="G91" s="115">
         <f>G83+G90</f>
         <v>29217983.585259475</v>
@@ -15250,27 +15353,27 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="107"/>
-      <c r="B93" s="219" t="s">
+      <c r="B93" s="226" t="s">
         <v>419</v>
       </c>
-      <c r="C93" s="219"/>
-      <c r="D93" s="219"/>
-      <c r="E93" s="219"/>
-      <c r="F93" s="219"/>
-      <c r="G93" s="219"/>
-      <c r="H93" s="219"/>
-      <c r="I93" s="219"/>
-      <c r="J93" s="219"/>
+      <c r="C93" s="226"/>
+      <c r="D93" s="226"/>
+      <c r="E93" s="226"/>
+      <c r="F93" s="226"/>
+      <c r="G93" s="226"/>
+      <c r="H93" s="226"/>
+      <c r="I93" s="226"/>
+      <c r="J93" s="226"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="107"/>
-      <c r="B94" s="182" t="s">
+      <c r="B94" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="182"/>
-      <c r="D94" s="182"/>
-      <c r="E94" s="182"/>
-      <c r="F94" s="182"/>
+      <c r="C94" s="184"/>
+      <c r="D94" s="184"/>
+      <c r="E94" s="184"/>
+      <c r="F94" s="184"/>
       <c r="G94" s="145" t="s">
         <v>443</v>
       </c>
@@ -15286,17 +15389,17 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="107"/>
-      <c r="B95" s="182" t="s">
+      <c r="B95" s="184" t="s">
         <v>434</v>
       </c>
-      <c r="C95" s="182" t="s">
+      <c r="C95" s="184" t="s">
         <v>429</v>
       </c>
-      <c r="D95" s="182"/>
-      <c r="E95" s="183" t="s">
+      <c r="D95" s="184"/>
+      <c r="E95" s="202" t="s">
         <v>420</v>
       </c>
-      <c r="F95" s="183"/>
+      <c r="F95" s="202"/>
       <c r="G95" s="76"/>
       <c r="H95" s="76"/>
       <c r="I95" s="76"/>
@@ -15304,13 +15407,13 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="107"/>
-      <c r="B96" s="182"/>
-      <c r="C96" s="182"/>
-      <c r="D96" s="182"/>
-      <c r="E96" s="183" t="s">
+      <c r="B96" s="184"/>
+      <c r="C96" s="184"/>
+      <c r="D96" s="184"/>
+      <c r="E96" s="202" t="s">
         <v>421</v>
       </c>
-      <c r="F96" s="183"/>
+      <c r="F96" s="202"/>
       <c r="G96" s="76"/>
       <c r="H96" s="76">
         <f>'Presupuesto de Inversion'!E64</f>
@@ -15327,13 +15430,13 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="107"/>
-      <c r="B97" s="182"/>
-      <c r="C97" s="182"/>
-      <c r="D97" s="182"/>
-      <c r="E97" s="216" t="s">
+      <c r="B97" s="184"/>
+      <c r="C97" s="184"/>
+      <c r="D97" s="184"/>
+      <c r="E97" s="227" t="s">
         <v>422</v>
       </c>
-      <c r="F97" s="216"/>
+      <c r="F97" s="227"/>
       <c r="G97" s="76"/>
       <c r="H97" s="76"/>
       <c r="I97" s="76"/>
@@ -15341,13 +15444,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="107"/>
-      <c r="B98" s="182"/>
-      <c r="C98" s="182"/>
-      <c r="D98" s="182"/>
-      <c r="E98" s="216" t="s">
+      <c r="B98" s="184"/>
+      <c r="C98" s="184"/>
+      <c r="D98" s="184"/>
+      <c r="E98" s="227" t="s">
         <v>423</v>
       </c>
-      <c r="F98" s="216"/>
+      <c r="F98" s="227"/>
       <c r="G98" s="76"/>
       <c r="H98" s="76">
         <f>'Presupuesto de Inversion'!C154</f>
@@ -15364,13 +15467,13 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="107"/>
-      <c r="B99" s="182"/>
-      <c r="C99" s="182"/>
-      <c r="D99" s="182"/>
-      <c r="E99" s="216" t="s">
+      <c r="B99" s="184"/>
+      <c r="C99" s="184"/>
+      <c r="D99" s="184"/>
+      <c r="E99" s="227" t="s">
         <v>391</v>
       </c>
-      <c r="F99" s="216"/>
+      <c r="F99" s="227"/>
       <c r="G99" s="76"/>
       <c r="H99" s="76">
         <f>'Presupuesto de Inversion'!C155</f>
@@ -15387,13 +15490,13 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="107"/>
-      <c r="B100" s="182"/>
-      <c r="C100" s="182"/>
-      <c r="D100" s="182"/>
-      <c r="E100" s="216" t="s">
+      <c r="B100" s="184"/>
+      <c r="C100" s="184"/>
+      <c r="D100" s="184"/>
+      <c r="E100" s="227" t="s">
         <v>424</v>
       </c>
-      <c r="F100" s="216"/>
+      <c r="F100" s="227"/>
       <c r="G100" s="76"/>
       <c r="H100" s="76">
         <f>'Presupuesto de Inversion'!O140</f>
@@ -15410,13 +15513,13 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="107"/>
-      <c r="B101" s="182"/>
-      <c r="C101" s="182"/>
-      <c r="D101" s="182"/>
-      <c r="E101" s="216" t="s">
+      <c r="B101" s="184"/>
+      <c r="C101" s="184"/>
+      <c r="D101" s="184"/>
+      <c r="E101" s="227" t="s">
         <v>425</v>
       </c>
-      <c r="F101" s="216"/>
+      <c r="F101" s="227"/>
       <c r="G101" s="76"/>
       <c r="H101" s="76">
         <f>'Presupuesto de Inversion'!O141</f>
@@ -15433,13 +15536,13 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="107"/>
-      <c r="B102" s="182"/>
-      <c r="C102" s="182"/>
-      <c r="D102" s="182"/>
-      <c r="E102" s="216" t="s">
+      <c r="B102" s="184"/>
+      <c r="C102" s="184"/>
+      <c r="D102" s="184"/>
+      <c r="E102" s="227" t="s">
         <v>426</v>
       </c>
-      <c r="F102" s="216"/>
+      <c r="F102" s="227"/>
       <c r="G102" s="76"/>
       <c r="H102" s="76">
         <f>E14+E15</f>
@@ -15456,13 +15559,13 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="107"/>
-      <c r="B103" s="182"/>
-      <c r="C103" s="182"/>
-      <c r="D103" s="182"/>
-      <c r="E103" s="216" t="s">
+      <c r="B103" s="184"/>
+      <c r="C103" s="184"/>
+      <c r="D103" s="184"/>
+      <c r="E103" s="227" t="s">
         <v>427</v>
       </c>
-      <c r="F103" s="216"/>
+      <c r="F103" s="227"/>
       <c r="G103" s="76"/>
       <c r="H103" s="76">
         <v>0</v>
@@ -15476,13 +15579,13 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="107"/>
-      <c r="B104" s="182"/>
-      <c r="C104" s="182"/>
-      <c r="D104" s="182"/>
-      <c r="E104" s="221" t="s">
+      <c r="B104" s="184"/>
+      <c r="C104" s="184"/>
+      <c r="D104" s="184"/>
+      <c r="E104" s="228" t="s">
         <v>428</v>
       </c>
-      <c r="F104" s="221"/>
+      <c r="F104" s="228"/>
       <c r="G104" s="101">
         <f>SUM(G95:G103)</f>
         <v>0</v>
@@ -15502,15 +15605,15 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="107"/>
-      <c r="B105" s="182"/>
-      <c r="C105" s="182" t="s">
+      <c r="B105" s="184"/>
+      <c r="C105" s="184" t="s">
         <v>433</v>
       </c>
-      <c r="D105" s="182"/>
-      <c r="E105" s="183" t="s">
+      <c r="D105" s="184"/>
+      <c r="E105" s="202" t="s">
         <v>430</v>
       </c>
-      <c r="F105" s="183"/>
+      <c r="F105" s="202"/>
       <c r="G105" s="76"/>
       <c r="H105" s="76"/>
       <c r="I105" s="76"/>
@@ -15518,9 +15621,9 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="107"/>
-      <c r="B106" s="182"/>
-      <c r="C106" s="182"/>
-      <c r="D106" s="182"/>
+      <c r="B106" s="184"/>
+      <c r="C106" s="184"/>
+      <c r="D106" s="184"/>
       <c r="E106" s="147" t="s">
         <v>431</v>
       </c>
@@ -15532,13 +15635,13 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="107"/>
-      <c r="B107" s="182"/>
-      <c r="C107" s="182"/>
-      <c r="D107" s="182"/>
-      <c r="E107" s="183" t="s">
+      <c r="B107" s="184"/>
+      <c r="C107" s="184"/>
+      <c r="D107" s="184"/>
+      <c r="E107" s="202" t="s">
         <v>427</v>
       </c>
-      <c r="F107" s="183"/>
+      <c r="F107" s="202"/>
       <c r="G107" s="76"/>
       <c r="H107" s="76"/>
       <c r="I107" s="76"/>
@@ -15546,13 +15649,13 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="107"/>
-      <c r="B108" s="182"/>
-      <c r="C108" s="182"/>
-      <c r="D108" s="182"/>
-      <c r="E108" s="206" t="s">
+      <c r="B108" s="184"/>
+      <c r="C108" s="184"/>
+      <c r="D108" s="184"/>
+      <c r="E108" s="186" t="s">
         <v>432</v>
       </c>
-      <c r="F108" s="206"/>
+      <c r="F108" s="186"/>
       <c r="G108" s="101">
         <f>SUM(G105:G107)</f>
         <v>0</v>
@@ -15572,13 +15675,13 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="107"/>
-      <c r="B109" s="182"/>
-      <c r="C109" s="220" t="s">
+      <c r="B109" s="184"/>
+      <c r="C109" s="224" t="s">
         <v>435</v>
       </c>
-      <c r="D109" s="220"/>
-      <c r="E109" s="220"/>
-      <c r="F109" s="220"/>
+      <c r="D109" s="224"/>
+      <c r="E109" s="224"/>
+      <c r="F109" s="224"/>
       <c r="G109" s="116">
         <f>G104+G108</f>
         <v>0</v>
@@ -15598,11 +15701,11 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="107"/>
-      <c r="B110" s="182" t="s">
+      <c r="B110" s="184" t="s">
         <v>441</v>
       </c>
-      <c r="C110" s="182"/>
-      <c r="D110" s="182"/>
+      <c r="C110" s="184"/>
+      <c r="D110" s="184"/>
       <c r="E110" s="2" t="s">
         <v>436</v>
       </c>
@@ -15614,9 +15717,9 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="107"/>
-      <c r="B111" s="182"/>
-      <c r="C111" s="182"/>
-      <c r="D111" s="182"/>
+      <c r="B111" s="184"/>
+      <c r="C111" s="184"/>
+      <c r="D111" s="184"/>
       <c r="E111" s="2" t="s">
         <v>437</v>
       </c>
@@ -15637,9 +15740,9 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="107"/>
-      <c r="B112" s="182"/>
-      <c r="C112" s="182"/>
-      <c r="D112" s="182"/>
+      <c r="B112" s="184"/>
+      <c r="C112" s="184"/>
+      <c r="D112" s="184"/>
       <c r="E112" s="2" t="s">
         <v>438</v>
       </c>
@@ -15649,11 +15752,11 @@
       <c r="I112" s="76"/>
       <c r="J112" s="76"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:17">
       <c r="A113" s="107"/>
-      <c r="B113" s="182"/>
-      <c r="C113" s="182"/>
-      <c r="D113" s="182"/>
+      <c r="B113" s="184"/>
+      <c r="C113" s="184"/>
+      <c r="D113" s="184"/>
       <c r="E113" s="2" t="s">
         <v>439</v>
       </c>
@@ -15672,15 +15775,15 @@
         <v>2332172.1638157172</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:17">
       <c r="A114" s="107"/>
-      <c r="B114" s="182"/>
-      <c r="C114" s="182"/>
-      <c r="D114" s="182"/>
-      <c r="E114" s="206" t="s">
+      <c r="B114" s="184"/>
+      <c r="C114" s="184"/>
+      <c r="D114" s="184"/>
+      <c r="E114" s="186" t="s">
         <v>440</v>
       </c>
-      <c r="F114" s="206"/>
+      <c r="F114" s="186"/>
       <c r="G114" s="101">
         <f>SUM(G110:G113)</f>
         <v>0</v>
@@ -15698,15 +15801,15 @@
         <v>25653893.801972888</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:17">
       <c r="A115" s="107"/>
-      <c r="B115" s="220" t="s">
+      <c r="B115" s="224" t="s">
         <v>442</v>
       </c>
-      <c r="C115" s="220"/>
-      <c r="D115" s="220"/>
-      <c r="E115" s="220"/>
-      <c r="F115" s="220"/>
+      <c r="C115" s="224"/>
+      <c r="D115" s="224"/>
+      <c r="E115" s="224"/>
+      <c r="F115" s="224"/>
       <c r="G115" s="116">
         <f>G109+G114</f>
         <v>0</v>
@@ -15724,15 +15827,15 @@
         <v>64713812.003669761</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:17">
       <c r="A116" s="107"/>
-      <c r="B116" s="161" t="s">
+      <c r="B116" s="177" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="161"/>
-      <c r="D116" s="161"/>
-      <c r="E116" s="161"/>
-      <c r="F116" s="161"/>
+      <c r="C116" s="177"/>
+      <c r="D116" s="177"/>
+      <c r="E116" s="177"/>
+      <c r="F116" s="177"/>
       <c r="G116" s="76">
         <f>G91</f>
         <v>29217983.585259475</v>
@@ -15750,15 +15853,15 @@
         <v>104888080.19171657</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:17">
       <c r="A117" s="107"/>
-      <c r="B117" s="217" t="s">
+      <c r="B117" s="225" t="s">
         <v>444</v>
       </c>
-      <c r="C117" s="217"/>
-      <c r="D117" s="217"/>
-      <c r="E117" s="217"/>
-      <c r="F117" s="217"/>
+      <c r="C117" s="225"/>
+      <c r="D117" s="225"/>
+      <c r="E117" s="225"/>
+      <c r="F117" s="225"/>
       <c r="G117" s="94">
         <f>G116-(G109+G114)</f>
         <v>29217983.585259475</v>
@@ -15776,60 +15879,1480 @@
         <v>40174268.188046806</v>
       </c>
     </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="159"/>
+      <c r="B119" s="184" t="s">
+        <v>507</v>
+      </c>
+      <c r="C119" s="184"/>
+      <c r="D119" s="184"/>
+      <c r="E119" s="184"/>
+      <c r="F119" s="184"/>
+      <c r="G119" s="184"/>
+      <c r="H119" s="184"/>
+      <c r="I119" s="184"/>
+      <c r="J119" s="184"/>
+      <c r="K119" s="184"/>
+      <c r="L119" s="184"/>
+      <c r="M119" s="184"/>
+      <c r="N119" s="184"/>
+      <c r="O119" s="184"/>
+      <c r="P119" s="184"/>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="B120" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" s="184"/>
+      <c r="D120" s="184"/>
+      <c r="E120" s="158" t="s">
+        <v>265</v>
+      </c>
+      <c r="F120" s="158" t="s">
+        <v>334</v>
+      </c>
+      <c r="G120" s="158" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="158" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" s="158" t="s">
+        <v>268</v>
+      </c>
+      <c r="J120" s="158" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="158" t="s">
+        <v>269</v>
+      </c>
+      <c r="L120" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="M120" s="158" t="s">
+        <v>42</v>
+      </c>
+      <c r="N120" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="O120" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="P120" s="158" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="B121" s="236" t="s">
+        <v>508</v>
+      </c>
+      <c r="C121" s="236"/>
+      <c r="D121" s="236"/>
+      <c r="E121" s="250">
+        <f>'Presupuesto de Inversion'!C139</f>
+        <v>2804306.59266055</v>
+      </c>
+      <c r="F121" s="250">
+        <f>'Presupuesto de Inversion'!D139</f>
+        <v>5541843.9807339441</v>
+      </c>
+      <c r="G121" s="250">
+        <f>'Presupuesto de Inversion'!E139</f>
+        <v>7544920.1183486227</v>
+      </c>
+      <c r="H121" s="250">
+        <f>'Presupuesto de Inversion'!F139</f>
+        <v>13787840.747247703</v>
+      </c>
+      <c r="I121" s="250">
+        <f>'Presupuesto de Inversion'!G139</f>
+        <v>4373382.9004587149</v>
+      </c>
+      <c r="J121" s="250">
+        <f>'Presupuesto de Inversion'!H139</f>
+        <v>3672306.2522935774</v>
+      </c>
+      <c r="K121" s="250">
+        <f>'Presupuesto de Inversion'!I139</f>
+        <v>5775536.1967889899</v>
+      </c>
+      <c r="L121" s="250">
+        <f>'Presupuesto de Inversion'!J139</f>
+        <v>15290147.850458715</v>
+      </c>
+      <c r="M121" s="250">
+        <f>'Presupuesto de Inversion'!K139</f>
+        <v>15156609.441284399</v>
+      </c>
+      <c r="N121" s="250">
+        <f>'Presupuesto de Inversion'!L139</f>
+        <v>12185379.837155961</v>
+      </c>
+      <c r="O121" s="250">
+        <f>'Presupuesto de Inversion'!M139</f>
+        <v>5107844.1509174304</v>
+      </c>
+      <c r="P121" s="250">
+        <f>'Presupuesto de Inversion'!N139</f>
+        <v>3438614.0362385316</v>
+      </c>
+      <c r="Q121" s="252"/>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="B122" s="202" t="s">
+        <v>525</v>
+      </c>
+      <c r="C122" s="202"/>
+      <c r="D122" s="202"/>
+      <c r="E122" s="251">
+        <v>0</v>
+      </c>
+      <c r="F122" s="251">
+        <v>0</v>
+      </c>
+      <c r="G122" s="251">
+        <v>0</v>
+      </c>
+      <c r="H122" s="251">
+        <v>0</v>
+      </c>
+      <c r="I122" s="251">
+        <v>0</v>
+      </c>
+      <c r="J122" s="251">
+        <v>0</v>
+      </c>
+      <c r="K122" s="251">
+        <v>0</v>
+      </c>
+      <c r="L122" s="251">
+        <v>0</v>
+      </c>
+      <c r="M122" s="251">
+        <v>0</v>
+      </c>
+      <c r="N122" s="251">
+        <v>0</v>
+      </c>
+      <c r="O122" s="251">
+        <v>0</v>
+      </c>
+      <c r="P122" s="251">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="252"/>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="B123" s="236" t="s">
+        <v>509</v>
+      </c>
+      <c r="C123" s="236"/>
+      <c r="D123" s="236"/>
+      <c r="E123" s="251">
+        <f>E121-E122</f>
+        <v>2804306.59266055</v>
+      </c>
+      <c r="F123" s="251">
+        <f t="shared" ref="F123:P123" si="34">F121-F122</f>
+        <v>5541843.9807339441</v>
+      </c>
+      <c r="G123" s="251">
+        <f t="shared" si="34"/>
+        <v>7544920.1183486227</v>
+      </c>
+      <c r="H123" s="251">
+        <f t="shared" si="34"/>
+        <v>13787840.747247703</v>
+      </c>
+      <c r="I123" s="251">
+        <f t="shared" si="34"/>
+        <v>4373382.9004587149</v>
+      </c>
+      <c r="J123" s="251">
+        <f t="shared" si="34"/>
+        <v>3672306.2522935774</v>
+      </c>
+      <c r="K123" s="251">
+        <f t="shared" si="34"/>
+        <v>5775536.1967889899</v>
+      </c>
+      <c r="L123" s="251">
+        <f t="shared" si="34"/>
+        <v>15290147.850458715</v>
+      </c>
+      <c r="M123" s="251">
+        <f t="shared" si="34"/>
+        <v>15156609.441284399</v>
+      </c>
+      <c r="N123" s="251">
+        <f t="shared" si="34"/>
+        <v>12185379.837155961</v>
+      </c>
+      <c r="O123" s="251">
+        <f t="shared" si="34"/>
+        <v>5107844.1509174304</v>
+      </c>
+      <c r="P123" s="251">
+        <f t="shared" si="34"/>
+        <v>3438614.0362385316</v>
+      </c>
+      <c r="Q123" s="252"/>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="B124" s="202" t="s">
+        <v>510</v>
+      </c>
+      <c r="C124" s="202"/>
+      <c r="D124" s="202"/>
+      <c r="E124" s="251">
+        <f>'Demanda Dinamica'!C13*'Presupuesto de Inversion'!$E$78</f>
+        <v>265618.09166666667</v>
+      </c>
+      <c r="F124" s="251">
+        <f>'Demanda Dinamica'!D13*'Presupuesto de Inversion'!$E$78</f>
+        <v>524911.94305555557</v>
+      </c>
+      <c r="G124" s="251">
+        <f>'Demanda Dinamica'!E13*'Presupuesto de Inversion'!$E$78</f>
+        <v>714639.15138888895</v>
+      </c>
+      <c r="H124" s="251">
+        <f>'Demanda Dinamica'!F13*'Presupuesto de Inversion'!$E$78</f>
+        <v>1305955.6173611111</v>
+      </c>
+      <c r="I124" s="251">
+        <f>'Demanda Dinamica'!G13*'Presupuesto de Inversion'!$E$78</f>
+        <v>414237.73819444445</v>
+      </c>
+      <c r="J124" s="251">
+        <f>'Demanda Dinamica'!H13*'Presupuesto de Inversion'!$E$78</f>
+        <v>347833.21527777781</v>
+      </c>
+      <c r="K124" s="251">
+        <f>'Demanda Dinamica'!I13*'Presupuesto de Inversion'!$E$78</f>
+        <v>547046.78402777785</v>
+      </c>
+      <c r="L124" s="251">
+        <f>'Demanda Dinamica'!J13*'Presupuesto de Inversion'!$E$78</f>
+        <v>1448251.0236111111</v>
+      </c>
+      <c r="M124" s="251">
+        <f>'Demanda Dinamica'!K13*'Presupuesto de Inversion'!$E$78</f>
+        <v>1435602.5430555556</v>
+      </c>
+      <c r="N124" s="251">
+        <f>'Demanda Dinamica'!L13*'Presupuesto de Inversion'!$E$78</f>
+        <v>1154173.8506944445</v>
+      </c>
+      <c r="O124" s="251">
+        <f>'Demanda Dinamica'!M13*'Presupuesto de Inversion'!$E$78</f>
+        <v>483804.38125000003</v>
+      </c>
+      <c r="P124" s="251">
+        <f>'Demanda Dinamica'!N13*'Presupuesto de Inversion'!$E$78</f>
+        <v>325698.37430555554</v>
+      </c>
+      <c r="Q124" s="252"/>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="B125" s="236" t="s">
+        <v>511</v>
+      </c>
+      <c r="C125" s="236"/>
+      <c r="D125" s="236"/>
+      <c r="E125" s="251">
+        <f>E123-E124</f>
+        <v>2538688.5009938832</v>
+      </c>
+      <c r="F125" s="251">
+        <f t="shared" ref="F125:P125" si="35">F123-F124</f>
+        <v>5016932.0376783889</v>
+      </c>
+      <c r="G125" s="251">
+        <f t="shared" si="35"/>
+        <v>6830280.9669597335</v>
+      </c>
+      <c r="H125" s="251">
+        <f t="shared" si="35"/>
+        <v>12481885.129886592</v>
+      </c>
+      <c r="I125" s="251">
+        <f t="shared" si="35"/>
+        <v>3959145.1622642707</v>
+      </c>
+      <c r="J125" s="251">
+        <f t="shared" si="35"/>
+        <v>3324473.0370157994</v>
+      </c>
+      <c r="K125" s="251">
+        <f t="shared" si="35"/>
+        <v>5228489.4127612123</v>
+      </c>
+      <c r="L125" s="251">
+        <f t="shared" si="35"/>
+        <v>13841896.826847604</v>
+      </c>
+      <c r="M125" s="251">
+        <f t="shared" si="35"/>
+        <v>13721006.898228845</v>
+      </c>
+      <c r="N125" s="251">
+        <f t="shared" si="35"/>
+        <v>11031205.986461516</v>
+      </c>
+      <c r="O125" s="251">
+        <f t="shared" si="35"/>
+        <v>4624039.7696674308</v>
+      </c>
+      <c r="P125" s="251">
+        <f t="shared" si="35"/>
+        <v>3112915.661932976</v>
+      </c>
+      <c r="Q125" s="252"/>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="B126" s="202" t="s">
+        <v>512</v>
+      </c>
+      <c r="C126" s="202"/>
+      <c r="D126" s="202"/>
+      <c r="E126" s="251">
+        <f>E127+E128</f>
+        <v>3685753.2642984781</v>
+      </c>
+      <c r="F126" s="251">
+        <f t="shared" ref="F126:P126" si="36">F127+F128</f>
+        <v>3485753.2642984781</v>
+      </c>
+      <c r="G126" s="251">
+        <f t="shared" si="36"/>
+        <v>3485753.2642984781</v>
+      </c>
+      <c r="H126" s="251">
+        <f t="shared" si="36"/>
+        <v>4402093.2642984781</v>
+      </c>
+      <c r="I126" s="251">
+        <f t="shared" si="36"/>
+        <v>4382093.2642984781</v>
+      </c>
+      <c r="J126" s="251">
+        <f t="shared" si="36"/>
+        <v>5066043.2642984781</v>
+      </c>
+      <c r="K126" s="251">
+        <f t="shared" si="36"/>
+        <v>5066043.2642984781</v>
+      </c>
+      <c r="L126" s="251">
+        <f t="shared" si="36"/>
+        <v>5066043.2642984781</v>
+      </c>
+      <c r="M126" s="251">
+        <f t="shared" si="36"/>
+        <v>5066043.2642984781</v>
+      </c>
+      <c r="N126" s="251">
+        <f t="shared" si="36"/>
+        <v>6362383.2642984791</v>
+      </c>
+      <c r="O126" s="251">
+        <f t="shared" si="36"/>
+        <v>5066043.2642984781</v>
+      </c>
+      <c r="P126" s="251">
+        <f t="shared" si="36"/>
+        <v>5066043.2642984781</v>
+      </c>
+      <c r="Q126" s="252"/>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="B127" s="238" t="s">
+        <v>523</v>
+      </c>
+      <c r="C127" s="239"/>
+      <c r="D127" s="240"/>
+      <c r="E127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="F127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="G127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="H127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="I127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="J127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="K127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="L127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="M127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="N127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="O127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="P127" s="251">
+        <f>('Presupuesto de Inversion'!$C$156/12)</f>
+        <v>888796.59763181175</v>
+      </c>
+      <c r="Q127" s="252"/>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="B128" s="238" t="s">
+        <v>524</v>
+      </c>
+      <c r="C128" s="239"/>
+      <c r="D128" s="240"/>
+      <c r="E128" s="251">
+        <f>'Demanda Dinamica'!J36+'Demanda Dinamica'!J39+'Demanda Dinamica'!J42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>2796956.6666666665</v>
+      </c>
+      <c r="F128" s="251">
+        <f>'Demanda Dinamica'!K36+'Demanda Dinamica'!K39+'Demanda Dinamica'!K42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>2596956.6666666665</v>
+      </c>
+      <c r="G128" s="251">
+        <f>'Demanda Dinamica'!L36+'Demanda Dinamica'!L39+'Demanda Dinamica'!L42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>2596956.6666666665</v>
+      </c>
+      <c r="H128" s="251">
+        <f>'Demanda Dinamica'!M36+'Demanda Dinamica'!M39+'Demanda Dinamica'!M42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>3513296.6666666665</v>
+      </c>
+      <c r="I128" s="251">
+        <f>'Demanda Dinamica'!N36+'Demanda Dinamica'!N39+'Demanda Dinamica'!N42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>3493296.6666666665</v>
+      </c>
+      <c r="J128" s="251">
+        <f>'Demanda Dinamica'!O36+'Demanda Dinamica'!O39+'Demanda Dinamica'!O42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>4177246.6666666665</v>
+      </c>
+      <c r="K128" s="251">
+        <f>'Demanda Dinamica'!P36+'Demanda Dinamica'!P39+'Demanda Dinamica'!P42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>4177246.6666666665</v>
+      </c>
+      <c r="L128" s="251">
+        <f>'Demanda Dinamica'!Q36+'Demanda Dinamica'!Q39+'Demanda Dinamica'!Q42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>4177246.6666666665</v>
+      </c>
+      <c r="M128" s="251">
+        <f>'Demanda Dinamica'!R36+'Demanda Dinamica'!R39+'Demanda Dinamica'!R42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>4177246.6666666665</v>
+      </c>
+      <c r="N128" s="251">
+        <f>'Demanda Dinamica'!S36+'Demanda Dinamica'!S39+'Demanda Dinamica'!S42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>5473586.666666667</v>
+      </c>
+      <c r="O128" s="251">
+        <f>'Demanda Dinamica'!T36+'Demanda Dinamica'!T39+'Demanda Dinamica'!T42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>4177246.6666666665</v>
+      </c>
+      <c r="P128" s="251">
+        <f>'Demanda Dinamica'!U36+'Demanda Dinamica'!U39+'Demanda Dinamica'!U42+('Presupuesto de Inversion'!$E$71/12)</f>
+        <v>4177246.6666666665</v>
+      </c>
+      <c r="Q128" s="252"/>
+    </row>
+    <row r="129" spans="2:17">
+      <c r="B129" s="202" t="s">
+        <v>513</v>
+      </c>
+      <c r="C129" s="202"/>
+      <c r="D129" s="202"/>
+      <c r="E129" s="251">
+        <f>E130</f>
+        <v>382040</v>
+      </c>
+      <c r="F129" s="251">
+        <f t="shared" ref="F129:P129" si="37">F130</f>
+        <v>382040</v>
+      </c>
+      <c r="G129" s="251">
+        <f t="shared" si="37"/>
+        <v>382040</v>
+      </c>
+      <c r="H129" s="251">
+        <f t="shared" si="37"/>
+        <v>382040</v>
+      </c>
+      <c r="I129" s="251">
+        <f t="shared" si="37"/>
+        <v>382040</v>
+      </c>
+      <c r="J129" s="251">
+        <f t="shared" si="37"/>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="K129" s="251">
+        <f t="shared" si="37"/>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="L129" s="251">
+        <f t="shared" si="37"/>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="M129" s="251">
+        <f t="shared" si="37"/>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="N129" s="251">
+        <f t="shared" si="37"/>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="O129" s="251">
+        <f t="shared" si="37"/>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="P129" s="251">
+        <f t="shared" si="37"/>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="Q129" s="252"/>
+    </row>
+    <row r="130" spans="2:17">
+      <c r="B130" s="238" t="s">
+        <v>522</v>
+      </c>
+      <c r="C130" s="239"/>
+      <c r="D130" s="240"/>
+      <c r="E130" s="251">
+        <f>'Demanda Dinamica'!J36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>382040</v>
+      </c>
+      <c r="F130" s="251">
+        <f>'Demanda Dinamica'!K36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>382040</v>
+      </c>
+      <c r="G130" s="251">
+        <f>'Demanda Dinamica'!L36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>382040</v>
+      </c>
+      <c r="H130" s="251">
+        <f>'Demanda Dinamica'!M36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>382040</v>
+      </c>
+      <c r="I130" s="251">
+        <f>'Demanda Dinamica'!N36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>382040</v>
+      </c>
+      <c r="J130" s="251">
+        <f>'Demanda Dinamica'!O36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="K130" s="251">
+        <f>'Demanda Dinamica'!P36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="L130" s="251">
+        <f>'Demanda Dinamica'!Q36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="M130" s="251">
+        <f>'Demanda Dinamica'!R36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="N130" s="251">
+        <f>'Demanda Dinamica'!S36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="O130" s="251">
+        <f>'Demanda Dinamica'!T36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="P130" s="251">
+        <f>'Demanda Dinamica'!U36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
+        <v>2362329.9999999995</v>
+      </c>
+      <c r="Q130" s="252"/>
+    </row>
+    <row r="131" spans="2:17">
+      <c r="B131" s="236" t="s">
+        <v>514</v>
+      </c>
+      <c r="C131" s="236"/>
+      <c r="D131" s="236"/>
+      <c r="E131" s="251">
+        <f>E125-(E126+E129)</f>
+        <v>-1529104.7633045949</v>
+      </c>
+      <c r="F131" s="251">
+        <f t="shared" ref="F131:P131" si="38">F125-(F126+F129)</f>
+        <v>1149138.7733799107</v>
+      </c>
+      <c r="G131" s="251">
+        <f t="shared" si="38"/>
+        <v>2962487.7026612554</v>
+      </c>
+      <c r="H131" s="251">
+        <f t="shared" si="38"/>
+        <v>7697751.8655881137</v>
+      </c>
+      <c r="I131" s="251">
+        <f t="shared" si="38"/>
+        <v>-804988.10203420743</v>
+      </c>
+      <c r="J131" s="251">
+        <f t="shared" si="38"/>
+        <v>-4103900.2272826787</v>
+      </c>
+      <c r="K131" s="251">
+        <f t="shared" si="38"/>
+        <v>-2199883.8515372658</v>
+      </c>
+      <c r="L131" s="251">
+        <f t="shared" si="38"/>
+        <v>6413523.5625491254</v>
+      </c>
+      <c r="M131" s="251">
+        <f t="shared" si="38"/>
+        <v>6292633.6339303665</v>
+      </c>
+      <c r="N131" s="251">
+        <f t="shared" si="38"/>
+        <v>2306492.7221630383</v>
+      </c>
+      <c r="O131" s="251">
+        <f t="shared" si="38"/>
+        <v>-2804333.4946310474</v>
+      </c>
+      <c r="P131" s="251">
+        <f t="shared" si="38"/>
+        <v>-4315457.6023655022</v>
+      </c>
+      <c r="Q131" s="252"/>
+    </row>
+    <row r="132" spans="2:17">
+      <c r="B132" s="202" t="s">
+        <v>515</v>
+      </c>
+      <c r="C132" s="202"/>
+      <c r="D132" s="202"/>
+      <c r="E132" s="251"/>
+      <c r="F132" s="251"/>
+      <c r="G132" s="251"/>
+      <c r="H132" s="251"/>
+      <c r="I132" s="251"/>
+      <c r="J132" s="251"/>
+      <c r="K132" s="251"/>
+      <c r="L132" s="251"/>
+      <c r="M132" s="251"/>
+      <c r="N132" s="251"/>
+      <c r="O132" s="251"/>
+      <c r="P132" s="251"/>
+      <c r="Q132" s="252"/>
+    </row>
+    <row r="133" spans="2:17">
+      <c r="B133" s="202" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" s="202"/>
+      <c r="D133" s="202"/>
+      <c r="E133" s="251">
+        <f>H59</f>
+        <v>143213.09586082425</v>
+      </c>
+      <c r="F133" s="251">
+        <f t="shared" ref="F133:P133" si="39">I59</f>
+        <v>143213.09586082425</v>
+      </c>
+      <c r="G133" s="251">
+        <f t="shared" si="39"/>
+        <v>132582.21974079567</v>
+      </c>
+      <c r="H133" s="251">
+        <f t="shared" si="39"/>
+        <v>121730.38374700681</v>
+      </c>
+      <c r="I133" s="251">
+        <f t="shared" si="39"/>
+        <v>110652.99528847446</v>
+      </c>
+      <c r="J133" s="251">
+        <f t="shared" si="39"/>
+        <v>849345.36631845881</v>
+      </c>
+      <c r="K133" s="251">
+        <f t="shared" si="39"/>
+        <v>72214.164983316194</v>
+      </c>
+      <c r="L133" s="251">
+        <f t="shared" si="39"/>
+        <v>810107.59536195383</v>
+      </c>
+      <c r="M133" s="251">
+        <f t="shared" si="39"/>
+        <v>32160.847610947087</v>
+      </c>
+      <c r="N133" s="251">
+        <f t="shared" si="39"/>
+        <v>19221.780662896253</v>
+      </c>
+      <c r="O133" s="251">
+        <f t="shared" si="39"/>
+        <v>6013.778721422721</v>
+      </c>
+      <c r="P133" s="251">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="252"/>
+    </row>
+    <row r="134" spans="2:17">
+      <c r="B134" s="236" t="s">
+        <v>517</v>
+      </c>
+      <c r="C134" s="236"/>
+      <c r="D134" s="236"/>
+      <c r="E134" s="251">
+        <f>E131+E132-E133</f>
+        <v>-1672317.8591654191</v>
+      </c>
+      <c r="F134" s="251">
+        <f t="shared" ref="F134:P134" si="40">F131+F132-F133</f>
+        <v>1005925.6775190865</v>
+      </c>
+      <c r="G134" s="251">
+        <f t="shared" si="40"/>
+        <v>2829905.4829204595</v>
+      </c>
+      <c r="H134" s="251">
+        <f t="shared" si="40"/>
+        <v>7576021.4818411069</v>
+      </c>
+      <c r="I134" s="251">
+        <f t="shared" si="40"/>
+        <v>-915641.09732268192</v>
+      </c>
+      <c r="J134" s="251">
+        <f t="shared" si="40"/>
+        <v>-4953245.5936011374</v>
+      </c>
+      <c r="K134" s="251">
+        <f t="shared" si="40"/>
+        <v>-2272098.0165205821</v>
+      </c>
+      <c r="L134" s="251">
+        <f t="shared" si="40"/>
+        <v>5603415.9671871718</v>
+      </c>
+      <c r="M134" s="251">
+        <f t="shared" si="40"/>
+        <v>6260472.7863194197</v>
+      </c>
+      <c r="N134" s="251">
+        <f t="shared" si="40"/>
+        <v>2287270.9415001422</v>
+      </c>
+      <c r="O134" s="251">
+        <f t="shared" si="40"/>
+        <v>-2810347.2733524702</v>
+      </c>
+      <c r="P134" s="251">
+        <f t="shared" si="40"/>
+        <v>-4315457.6023655022</v>
+      </c>
+      <c r="Q134" s="252"/>
+    </row>
+    <row r="135" spans="2:17">
+      <c r="B135" s="202" t="s">
+        <v>518</v>
+      </c>
+      <c r="C135" s="202"/>
+      <c r="D135" s="202"/>
+      <c r="E135" s="251">
+        <f>'Presupuesto de Inversion'!C140</f>
+        <v>532818.25260550447</v>
+      </c>
+      <c r="F135" s="251">
+        <f>'Presupuesto de Inversion'!D140</f>
+        <v>1052950.3563394493</v>
+      </c>
+      <c r="G135" s="251">
+        <f>'Presupuesto de Inversion'!E140</f>
+        <v>1433534.8224862383</v>
+      </c>
+      <c r="H135" s="251">
+        <f>'Presupuesto de Inversion'!F140</f>
+        <v>2619689.7419770635</v>
+      </c>
+      <c r="I135" s="251">
+        <f>'Presupuesto de Inversion'!G140</f>
+        <v>830942.75108715589</v>
+      </c>
+      <c r="J135" s="251">
+        <f>'Presupuesto de Inversion'!H140</f>
+        <v>697738.18793577969</v>
+      </c>
+      <c r="K135" s="251">
+        <f>'Presupuesto de Inversion'!I140</f>
+        <v>1097351.8773899081</v>
+      </c>
+      <c r="L135" s="251">
+        <f>'Presupuesto de Inversion'!J140</f>
+        <v>2905128.0915871561</v>
+      </c>
+      <c r="M135" s="251">
+        <f>'Presupuesto de Inversion'!K140</f>
+        <v>2879755.7938440358</v>
+      </c>
+      <c r="N135" s="251">
+        <f>'Presupuesto de Inversion'!L140</f>
+        <v>2315222.1690596323</v>
+      </c>
+      <c r="O135" s="251">
+        <f>'Presupuesto de Inversion'!M140</f>
+        <v>970490.38867431181</v>
+      </c>
+      <c r="P135" s="251">
+        <f>'Presupuesto de Inversion'!N140</f>
+        <v>653336.66688532103</v>
+      </c>
+      <c r="Q135" s="252"/>
+    </row>
+    <row r="136" spans="2:17">
+      <c r="B136" s="236" t="s">
+        <v>519</v>
+      </c>
+      <c r="C136" s="236"/>
+      <c r="D136" s="236"/>
+      <c r="E136" s="251">
+        <f>E134-E135</f>
+        <v>-2205136.1117709237</v>
+      </c>
+      <c r="F136" s="251">
+        <f t="shared" ref="F136:P136" si="41">F134-F135</f>
+        <v>-47024.67882036278</v>
+      </c>
+      <c r="G136" s="251">
+        <f t="shared" si="41"/>
+        <v>1396370.6604342212</v>
+      </c>
+      <c r="H136" s="251">
+        <f t="shared" si="41"/>
+        <v>4956331.7398640439</v>
+      </c>
+      <c r="I136" s="251">
+        <f t="shared" si="41"/>
+        <v>-1746583.8484098378</v>
+      </c>
+      <c r="J136" s="251">
+        <f t="shared" si="41"/>
+        <v>-5650983.7815369172</v>
+      </c>
+      <c r="K136" s="251">
+        <f t="shared" si="41"/>
+        <v>-3369449.89391049</v>
+      </c>
+      <c r="L136" s="251">
+        <f t="shared" si="41"/>
+        <v>2698287.8756000157</v>
+      </c>
+      <c r="M136" s="251">
+        <f t="shared" si="41"/>
+        <v>3380716.9924753839</v>
+      </c>
+      <c r="N136" s="251">
+        <f t="shared" si="41"/>
+        <v>-27951.227559490129</v>
+      </c>
+      <c r="O136" s="251">
+        <f t="shared" si="41"/>
+        <v>-3780837.6620267821</v>
+      </c>
+      <c r="P136" s="251">
+        <f t="shared" si="41"/>
+        <v>-4968794.2692508232</v>
+      </c>
+      <c r="Q136" s="252"/>
+    </row>
+    <row r="137" spans="2:17">
+      <c r="B137" s="202" t="s">
+        <v>520</v>
+      </c>
+      <c r="C137" s="202"/>
+      <c r="D137" s="202"/>
+      <c r="E137" s="251">
+        <f>E136*0.1</f>
+        <v>-220513.61117709239</v>
+      </c>
+      <c r="F137" s="251">
+        <f t="shared" ref="F137:P137" si="42">F136*0.1</f>
+        <v>-4702.4678820362778</v>
+      </c>
+      <c r="G137" s="251">
+        <f t="shared" si="42"/>
+        <v>139637.06604342212</v>
+      </c>
+      <c r="H137" s="251">
+        <f t="shared" si="42"/>
+        <v>495633.17398640444</v>
+      </c>
+      <c r="I137" s="251">
+        <f t="shared" si="42"/>
+        <v>-174658.38484098378</v>
+      </c>
+      <c r="J137" s="251">
+        <f t="shared" si="42"/>
+        <v>-565098.37815369177</v>
+      </c>
+      <c r="K137" s="251">
+        <f t="shared" si="42"/>
+        <v>-336944.98939104902</v>
+      </c>
+      <c r="L137" s="251">
+        <f t="shared" si="42"/>
+        <v>269828.7875600016</v>
+      </c>
+      <c r="M137" s="251">
+        <f t="shared" si="42"/>
+        <v>338071.6992475384</v>
+      </c>
+      <c r="N137" s="251">
+        <f t="shared" si="42"/>
+        <v>-2795.122755949013</v>
+      </c>
+      <c r="O137" s="251">
+        <f t="shared" si="42"/>
+        <v>-378083.76620267821</v>
+      </c>
+      <c r="P137" s="251">
+        <f t="shared" si="42"/>
+        <v>-496879.42692508234</v>
+      </c>
+      <c r="Q137" s="252"/>
+    </row>
+    <row r="138" spans="2:17">
+      <c r="B138" s="236" t="s">
+        <v>521</v>
+      </c>
+      <c r="C138" s="236"/>
+      <c r="D138" s="236"/>
+      <c r="E138" s="251">
+        <f>E136-E137</f>
+        <v>-1984622.5005938313</v>
+      </c>
+      <c r="F138" s="251">
+        <f t="shared" ref="F138:P138" si="43">F136-F137</f>
+        <v>-42322.210938326505</v>
+      </c>
+      <c r="G138" s="251">
+        <f t="shared" si="43"/>
+        <v>1256733.5943907991</v>
+      </c>
+      <c r="H138" s="251">
+        <f t="shared" si="43"/>
+        <v>4460698.5658776397</v>
+      </c>
+      <c r="I138" s="251">
+        <f t="shared" si="43"/>
+        <v>-1571925.4635688541</v>
+      </c>
+      <c r="J138" s="251">
+        <f t="shared" si="43"/>
+        <v>-5085885.4033832252</v>
+      </c>
+      <c r="K138" s="251">
+        <f t="shared" si="43"/>
+        <v>-3032504.9045194411</v>
+      </c>
+      <c r="L138" s="251">
+        <f t="shared" si="43"/>
+        <v>2428459.0880400143</v>
+      </c>
+      <c r="M138" s="251">
+        <f t="shared" si="43"/>
+        <v>3042645.2932278453</v>
+      </c>
+      <c r="N138" s="251">
+        <f t="shared" si="43"/>
+        <v>-25156.104803541115</v>
+      </c>
+      <c r="O138" s="251">
+        <f t="shared" si="43"/>
+        <v>-3402753.8958241036</v>
+      </c>
+      <c r="P138" s="251">
+        <f t="shared" si="43"/>
+        <v>-4471914.8423257405</v>
+      </c>
+      <c r="Q138" s="252"/>
+    </row>
+    <row r="139" spans="2:17">
+      <c r="B139" s="237"/>
+      <c r="C139" s="237"/>
+      <c r="D139" s="237"/>
+    </row>
+    <row r="140" spans="2:17">
+      <c r="B140" s="184" t="s">
+        <v>527</v>
+      </c>
+      <c r="C140" s="184"/>
+      <c r="D140" s="184"/>
+      <c r="E140" s="184"/>
+      <c r="F140" s="184"/>
+      <c r="G140" s="184"/>
+    </row>
+    <row r="141" spans="2:17">
+      <c r="B141" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="C141" s="184"/>
+      <c r="D141" s="184"/>
+      <c r="E141" s="160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="160" t="s">
+        <v>526</v>
+      </c>
+      <c r="G141" s="160" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141" s="252"/>
+    </row>
+    <row r="142" spans="2:17">
+      <c r="B142" s="236" t="s">
+        <v>508</v>
+      </c>
+      <c r="C142" s="236"/>
+      <c r="D142" s="236"/>
+      <c r="E142" s="251">
+        <f>SUM(E121:P121)</f>
+        <v>94678732.104587138</v>
+      </c>
+      <c r="F142" s="251">
+        <f>E142+(E142*'Demanda Dinamica'!S6)</f>
+        <v>102253030.67295411</v>
+      </c>
+      <c r="G142" s="251">
+        <f>E142+(E142*'Demanda Dinamica'!S7)</f>
+        <v>108880541.92027521</v>
+      </c>
+      <c r="K142" s="252"/>
+    </row>
+    <row r="143" spans="2:17">
+      <c r="B143" s="202" t="s">
+        <v>525</v>
+      </c>
+      <c r="C143" s="202"/>
+      <c r="D143" s="202"/>
+      <c r="E143" s="251">
+        <f>SUM(E122:P122)</f>
+        <v>0</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17">
+      <c r="B144" s="236" t="s">
+        <v>509</v>
+      </c>
+      <c r="C144" s="236"/>
+      <c r="D144" s="236"/>
+      <c r="E144" s="251">
+        <f>E142-E143</f>
+        <v>94678732.104587138</v>
+      </c>
+      <c r="F144" s="251">
+        <f t="shared" ref="F144:G144" si="44">F142-F143</f>
+        <v>102253030.67295411</v>
+      </c>
+      <c r="G144" s="251">
+        <f t="shared" si="44"/>
+        <v>108880541.92027521</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="202" t="s">
+        <v>510</v>
+      </c>
+      <c r="C145" s="202"/>
+      <c r="D145" s="202"/>
+      <c r="E145" s="251">
+        <f>SUM(E124:P124)</f>
+        <v>8967772.7138888892</v>
+      </c>
+      <c r="F145" s="251">
+        <f>E145+(E145*'Demanda Dinamica'!$D$6)</f>
+        <v>9505839.0767222233</v>
+      </c>
+      <c r="G145" s="253">
+        <f>F145+(F145*'Demanda Dinamica'!$D$7)</f>
+        <v>10123718.616709167</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="236" t="s">
+        <v>511</v>
+      </c>
+      <c r="C146" s="236"/>
+      <c r="D146" s="236"/>
+      <c r="E146" s="251">
+        <f>E144-E145</f>
+        <v>85710959.390698254</v>
+      </c>
+      <c r="F146" s="251">
+        <f t="shared" ref="F146:G146" si="45">F144-F145</f>
+        <v>92747191.596231893</v>
+      </c>
+      <c r="G146" s="251">
+        <f t="shared" si="45"/>
+        <v>98756823.303566039</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="202" t="s">
+        <v>512</v>
+      </c>
+      <c r="C147" s="202"/>
+      <c r="D147" s="202"/>
+      <c r="E147" s="251">
+        <f>E148+E149</f>
+        <v>13462515.838248409</v>
+      </c>
+      <c r="F147" s="251">
+        <f t="shared" ref="F147:G147" si="46">F148+F149</f>
+        <v>14270266.788543314</v>
+      </c>
+      <c r="G147" s="251">
+        <f t="shared" si="46"/>
+        <v>15197834.129798628</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="254" t="s">
+        <v>523</v>
+      </c>
+      <c r="C148" s="254"/>
+      <c r="D148" s="254"/>
+      <c r="E148" s="251">
+        <f>SUM(E127:P127)</f>
+        <v>10665559.171581743</v>
+      </c>
+      <c r="F148" s="251">
+        <f>E148+(E148*'Demanda Dinamica'!$D$6)</f>
+        <v>11305492.721876647</v>
+      </c>
+      <c r="G148" s="253">
+        <f>F148+(F148*'Demanda Dinamica'!$D$7)</f>
+        <v>12040349.748798629</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="254" t="s">
+        <v>524</v>
+      </c>
+      <c r="C149" s="254"/>
+      <c r="D149" s="254"/>
+      <c r="E149" s="251">
+        <f>E128:P128</f>
+        <v>2796956.6666666665</v>
+      </c>
+      <c r="F149" s="251">
+        <f>E149+(E149*'Demanda Dinamica'!$D$6)</f>
+        <v>2964774.0666666664</v>
+      </c>
+      <c r="G149" s="253">
+        <f>F149+(F149*'Demanda Dinamica'!$D$7)</f>
+        <v>3157484.3809999996</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="202" t="s">
+        <v>513</v>
+      </c>
+      <c r="C150" s="202"/>
+      <c r="D150" s="202"/>
+      <c r="E150" s="251">
+        <f>E151</f>
+        <v>18446510</v>
+      </c>
+      <c r="F150" s="251">
+        <f t="shared" ref="F150:G150" si="47">F151</f>
+        <v>19553300.600000001</v>
+      </c>
+      <c r="G150" s="251">
+        <f t="shared" si="47"/>
+        <v>20824265.139000002</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="254" t="s">
+        <v>522</v>
+      </c>
+      <c r="C151" s="254"/>
+      <c r="D151" s="254"/>
+      <c r="E151" s="251">
+        <f>SUM(E130:P130)</f>
+        <v>18446510</v>
+      </c>
+      <c r="F151" s="2">
+        <f>E150+(E150*'Demanda Dinamica'!$D$6)</f>
+        <v>19553300.600000001</v>
+      </c>
+      <c r="G151" s="2">
+        <f>F150+(F150*'Demanda Dinamica'!$D$7)</f>
+        <v>20824265.139000002</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="236" t="s">
+        <v>514</v>
+      </c>
+      <c r="C152" s="236"/>
+      <c r="D152" s="236"/>
+      <c r="E152" s="251">
+        <f>E146-E147-E150</f>
+        <v>53801933.552449852</v>
+      </c>
+      <c r="F152" s="251">
+        <f t="shared" ref="F152:G152" si="48">F146-F147-F150</f>
+        <v>58923624.207688577</v>
+      </c>
+      <c r="G152" s="251">
+        <f t="shared" si="48"/>
+        <v>62734724.034767419</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="202" t="s">
+        <v>515</v>
+      </c>
+      <c r="C153" s="202"/>
+      <c r="D153" s="202"/>
+      <c r="E153" s="251">
+        <f>SUM(E132:P132)</f>
+        <v>0</v>
+      </c>
+      <c r="F153" s="251">
+        <f>E153+(E153*'Demanda Dinamica'!$D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="253">
+        <f>F153+(F153*'Demanda Dinamica'!$D$7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="202" t="s">
+        <v>516</v>
+      </c>
+      <c r="C154" s="202"/>
+      <c r="D154" s="202"/>
+      <c r="E154" s="251">
+        <f>SUM(E133:P133)</f>
+        <v>2440455.3241569204</v>
+      </c>
+      <c r="F154" s="251">
+        <f>E154+(E154*'Demanda Dinamica'!$D$6)</f>
+        <v>2586882.6436063359</v>
+      </c>
+      <c r="G154" s="253">
+        <f>F154+(F154*'Demanda Dinamica'!$D$7)</f>
+        <v>2755030.0154407476</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="236" t="s">
+        <v>517</v>
+      </c>
+      <c r="C155" s="236"/>
+      <c r="D155" s="236"/>
+      <c r="E155" s="251">
+        <f>E152+E153-E154</f>
+        <v>51361478.228292935</v>
+      </c>
+      <c r="F155" s="251">
+        <f t="shared" ref="F155:G155" si="49">F152+F153-F154</f>
+        <v>56336741.564082243</v>
+      </c>
+      <c r="G155" s="251">
+        <f t="shared" si="49"/>
+        <v>59979694.019326672</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="202" t="s">
+        <v>518</v>
+      </c>
+      <c r="C156" s="202"/>
+      <c r="D156" s="202"/>
+      <c r="E156" s="251">
+        <f>SUM(E135:P135)</f>
+        <v>17988959.099871557</v>
+      </c>
+      <c r="F156" s="251">
+        <f>E156+(E156*'Demanda Dinamica'!$D$6)</f>
+        <v>19068296.64586385</v>
+      </c>
+      <c r="G156" s="253">
+        <f>F156+(F156*'Demanda Dinamica'!$D$7)</f>
+        <v>20307735.927845001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="236" t="s">
+        <v>519</v>
+      </c>
+      <c r="C157" s="236"/>
+      <c r="D157" s="236"/>
+      <c r="E157" s="251">
+        <f>E155-E156</f>
+        <v>33372519.128421377</v>
+      </c>
+      <c r="F157" s="251">
+        <f t="shared" ref="F157:G157" si="50">F155-F156</f>
+        <v>37268444.918218389</v>
+      </c>
+      <c r="G157" s="251">
+        <f t="shared" si="50"/>
+        <v>39671958.091481671</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="202" t="s">
+        <v>520</v>
+      </c>
+      <c r="C158" s="202"/>
+      <c r="D158" s="202"/>
+      <c r="E158" s="251">
+        <f>E157*0.1</f>
+        <v>3337251.9128421377</v>
+      </c>
+      <c r="F158" s="251">
+        <f t="shared" ref="F158:G158" si="51">F157*0.1</f>
+        <v>3726844.491821839</v>
+      </c>
+      <c r="G158" s="251">
+        <f t="shared" si="51"/>
+        <v>3967195.8091481673</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="236" t="s">
+        <v>521</v>
+      </c>
+      <c r="C159" s="236"/>
+      <c r="D159" s="236"/>
+      <c r="E159" s="251">
+        <f>E157-E158</f>
+        <v>30035267.215579242</v>
+      </c>
+      <c r="F159" s="251">
+        <f t="shared" ref="F159:G159" si="52">F157-F158</f>
+        <v>33541600.426396549</v>
+      </c>
+      <c r="G159" s="251">
+        <f t="shared" si="52"/>
+        <v>35704762.282333501</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="C53:D61"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B93:J93"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="B110:D114"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="C105:D108"/>
-    <mergeCell ref="B95:B109"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="C95:D104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="B79:B91"/>
-    <mergeCell ref="C84:D90"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C79:D83"/>
-    <mergeCell ref="E83:F83"/>
+  <mergeCells count="152">
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B119:P119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="C72:F72"/>
     <mergeCell ref="C73:F73"/>
@@ -15854,43 +17377,64 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="B79:B91"/>
+    <mergeCell ref="C84:D90"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C79:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B93:J93"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="B110:D114"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="C105:D108"/>
+    <mergeCell ref="B95:B109"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C95:D104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="C53:D61"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E124:P124 E144:E145 F145 E155:G155 E158:G158 E152" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -15898,8 +17442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:L12"/>
+    <sheetView topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15922,10 +17466,10 @@
         <f>'Presupuesto de Inversion'!C209</f>
         <v>22967679.680968828</v>
       </c>
-      <c r="J2" s="240" t="s">
+      <c r="J2" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="240"/>
+      <c r="K2" s="243"/>
     </row>
     <row r="3" spans="2:12">
       <c r="J3" s="142" t="s">
@@ -15944,14 +17488,14 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="238" t="s">
+      <c r="B5" s="241" t="s">
         <v>450</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
       <c r="J5" s="142" t="s">
         <v>4</v>
       </c>
@@ -15960,10 +17504,10 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="182"/>
+      <c r="C6" s="184"/>
       <c r="D6" s="61" t="s">
         <v>418</v>
       </c>
@@ -15978,10 +17522,10 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="202" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="183"/>
+      <c r="C7" s="202"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
         <f>'Analisis Financiero'!T74</f>
@@ -15997,10 +17541,10 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="202" t="s">
         <v>501</v>
       </c>
-      <c r="C8" s="183"/>
+      <c r="C8" s="202"/>
       <c r="D8" s="19">
         <f>C2*0.7</f>
         <v>16077375.776678178</v>
@@ -16014,17 +17558,17 @@
       <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="233" t="s">
+      <c r="J8" s="245" t="s">
         <v>502</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="233"/>
+      <c r="K8" s="245"/>
+      <c r="L8" s="245"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="202" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="183"/>
+      <c r="C9" s="202"/>
       <c r="D9" s="19">
         <f>C2*0.3</f>
         <v>6890303.9042906482</v>
@@ -16049,10 +17593,10 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="202" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="202"/>
       <c r="D10" s="19">
         <f>SUM(D8:D9)</f>
         <v>22967679.680968828</v>
@@ -16082,10 +17626,10 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="241" t="s">
+      <c r="B11" s="244" t="s">
         <v>448</v>
       </c>
-      <c r="C11" s="241"/>
+      <c r="C11" s="244"/>
       <c r="D11" s="119">
         <f>D7-D10</f>
         <v>-22967679.680968828</v>
@@ -16129,12 +17673,12 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="239" t="s">
+      <c r="B13" s="242" t="s">
         <v>451</v>
       </c>
-      <c r="C13" s="239"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="239"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="61" t="s">
@@ -16241,10 +17785,10 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="184" t="s">
         <v>475</v>
       </c>
-      <c r="C32" s="182"/>
+      <c r="C32" s="184"/>
       <c r="D32" s="122" t="s">
         <v>2</v>
       </c>
@@ -16256,20 +17800,20 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="237" t="s">
+      <c r="B33" s="249" t="s">
         <v>476</v>
       </c>
-      <c r="C33" s="237"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="237"/>
-      <c r="F33" s="237"/>
+      <c r="C33" s="249"/>
+      <c r="D33" s="249"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
       <c r="J33" s="150"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="183" t="s">
+      <c r="B34" s="202" t="s">
         <v>477</v>
       </c>
-      <c r="C34" s="183"/>
+      <c r="C34" s="202"/>
       <c r="D34" s="19">
         <f>'Presupuesto de Inversion'!E172</f>
         <v>48303010</v>
@@ -16284,10 +17828,10 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="183" t="s">
+      <c r="B35" s="202" t="s">
         <v>478</v>
       </c>
-      <c r="C35" s="183"/>
+      <c r="C35" s="202"/>
       <c r="D35" s="19">
         <f>'Presupuesto de Inversion'!O196</f>
         <v>94678732.104587138</v>
@@ -16302,10 +17846,10 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="202" t="s">
         <v>479</v>
       </c>
-      <c r="C36" s="183"/>
+      <c r="C36" s="202"/>
       <c r="D36" s="19">
         <f>'Presupuesto de Inversion'!E182</f>
         <v>10665559.171581741</v>
@@ -16338,19 +17882,19 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="216" t="s">
+      <c r="B38" s="227" t="s">
         <v>481</v>
       </c>
-      <c r="C38" s="216"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="227"/>
+      <c r="E38" s="227"/>
+      <c r="F38" s="227"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="216" t="s">
+      <c r="B39" s="227" t="s">
         <v>477</v>
       </c>
-      <c r="C39" s="216"/>
+      <c r="C39" s="227"/>
       <c r="D39" s="19">
         <f>D34</f>
         <v>48303010</v>
@@ -16365,10 +17909,10 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="216" t="s">
+      <c r="B40" s="227" t="s">
         <v>482</v>
       </c>
-      <c r="C40" s="216"/>
+      <c r="C40" s="227"/>
       <c r="D40" s="19">
         <f>'Presupuesto de Inversion'!D188</f>
         <v>29349.100917431191</v>
@@ -16383,10 +17927,10 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="216" t="s">
+      <c r="B41" s="227" t="s">
         <v>483</v>
       </c>
-      <c r="C41" s="216"/>
+      <c r="C41" s="227"/>
       <c r="D41" s="19">
         <f>'Presupuesto de Inversion'!D189</f>
         <v>4892.4583355879549</v>
@@ -16401,10 +17945,10 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="236" t="s">
+      <c r="B42" s="246" t="s">
         <v>484</v>
       </c>
-      <c r="C42" s="236"/>
+      <c r="C42" s="246"/>
       <c r="D42" s="134">
         <f>D39/(D40-D41)</f>
         <v>1975.0466499379786</v>
@@ -16419,19 +17963,19 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="216" t="s">
+      <c r="B43" s="227" t="s">
         <v>485</v>
       </c>
-      <c r="C43" s="216"/>
-      <c r="D43" s="216"/>
-      <c r="E43" s="216"/>
-      <c r="F43" s="216"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="227"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="227"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="227" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="216"/>
+      <c r="C44" s="227"/>
       <c r="D44" s="19">
         <f>D34</f>
         <v>48303010</v>
@@ -16446,10 +17990,10 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="216" t="s">
+      <c r="B45" s="227" t="s">
         <v>486</v>
       </c>
-      <c r="C45" s="216"/>
+      <c r="C45" s="227"/>
       <c r="D45" s="19">
         <f>D36</f>
         <v>10665559.171581741</v>
@@ -16464,10 +18008,10 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="216" t="s">
+      <c r="B46" s="227" t="s">
         <v>478</v>
       </c>
-      <c r="C46" s="216"/>
+      <c r="C46" s="227"/>
       <c r="D46" s="19">
         <f>D35</f>
         <v>94678732.104587138</v>
@@ -16482,10 +18026,10 @@
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="236" t="s">
+      <c r="B47" s="246" t="s">
         <v>487</v>
       </c>
-      <c r="C47" s="236"/>
+      <c r="C47" s="246"/>
       <c r="D47" s="120">
         <f>D44/(1-(D45/D46))</f>
         <v>54435127.063729085</v>
@@ -16500,19 +18044,19 @@
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="216" t="s">
+      <c r="B48" s="227" t="s">
         <v>500</v>
       </c>
-      <c r="C48" s="216"/>
-      <c r="D48" s="216"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
+      <c r="C48" s="227"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="227"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="216" t="s">
+      <c r="B49" s="227" t="s">
         <v>488</v>
       </c>
-      <c r="C49" s="216"/>
+      <c r="C49" s="227"/>
       <c r="D49" s="19">
         <f>D47</f>
         <v>54435127.063729085</v>
@@ -16527,10 +18071,10 @@
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="234" t="s">
+      <c r="B50" s="247" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="235"/>
+      <c r="C50" s="248"/>
       <c r="D50" s="19">
         <f>D35</f>
         <v>94678732.104587138</v>
@@ -16545,10 +18089,10 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="216" t="s">
+      <c r="B51" s="227" t="s">
         <v>489</v>
       </c>
-      <c r="C51" s="216"/>
+      <c r="C51" s="227"/>
       <c r="D51" s="2">
         <v>243</v>
       </c>
@@ -16564,10 +18108,10 @@
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="236" t="s">
+      <c r="B52" s="246" t="s">
         <v>490</v>
       </c>
-      <c r="C52" s="236"/>
+      <c r="C52" s="246"/>
       <c r="D52" s="149">
         <f>D49/(D50/D51)</f>
         <v>139.71179780770734</v>
@@ -16887,6 +18431,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="J2:K2"/>
@@ -16896,27 +18460,7 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16928,8 +18472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H24" sqref="B2:H24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17024,36 +18568,36 @@
       <c r="H6" s="124"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="184" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="174" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="174" t="s">
         <v>470</v>
       </c>
-      <c r="E8" s="163" t="s">
+      <c r="E8" s="174" t="s">
         <v>471</v>
       </c>
-      <c r="F8" s="163" t="s">
+      <c r="F8" s="174" t="s">
         <v>472</v>
       </c>
-      <c r="G8" s="163" t="s">
+      <c r="G8" s="174" t="s">
         <v>473</v>
       </c>
-      <c r="H8" s="163" t="s">
+      <c r="H8" s="174" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="182"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="129">

--- a/Estudio_financiero_Estatica.xlsx
+++ b/Estudio_financiero_Estatica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda Dinamica" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Analisis Prestamo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1619,7 +1618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0.00"/>
@@ -1632,7 +1631,6 @@
     <numFmt numFmtId="172" formatCode="_-[$$-240A]\ * #,##0_ ;_-[$$-240A]\ * \-#,##0\ ;_-[$$-240A]\ * &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="173" formatCode="[$$-240A]\ #,##0.00;[Red][$$-240A]\ #,##0.00"/>
     <numFmt numFmtId="174" formatCode="[$$-240A]\ #,##0.0_ ;\-[$$-240A]\ #,##0.0\ "/>
-    <numFmt numFmtId="175" formatCode="[$$-240A]\ #,##0.00_ ;\-[$$-240A]\ #,##0.00\ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2102,7 +2100,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2396,6 +2394,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2410,38 +2440,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2449,38 +2482,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2503,43 +2509,88 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2575,56 +2626,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2641,25 +2651,15 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="174" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6159,36 +6159,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
+      <c r="A2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="176"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4">
         <v>0.19</v>
       </c>
-      <c r="M4" s="165" t="s">
+      <c r="M4" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="166"/>
-      <c r="O4" s="164"/>
-      <c r="R4" s="167" t="s">
+      <c r="N4" s="180"/>
+      <c r="O4" s="178"/>
+      <c r="R4" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="168"/>
+      <c r="S4" s="171"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="70" t="s">
@@ -6212,12 +6212,12 @@
       <c r="M5" s="6">
         <v>0.5</v>
       </c>
-      <c r="N5" s="163" t="s">
+      <c r="N5" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="164"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="170"/>
+      <c r="O5" s="178"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="173"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="70" t="s">
@@ -6232,10 +6232,10 @@
       <c r="M6" s="6">
         <v>0.5</v>
       </c>
-      <c r="N6" s="163" t="s">
+      <c r="N6" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="164"/>
+      <c r="O6" s="178"/>
       <c r="R6" s="7" t="s">
         <v>11</v>
       </c>
@@ -6258,24 +6258,24 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="10"/>
@@ -6482,31 +6482,31 @@
       </c>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="173"/>
-      <c r="V32" s="173"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="174"/>
+      <c r="U32" s="174"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="174"/>
+      <c r="X32" s="174"/>
     </row>
     <row r="33" spans="2:25" ht="27.75" customHeight="1">
       <c r="B33" s="11" t="s">
@@ -6580,7 +6580,7 @@
       </c>
     </row>
     <row r="34" spans="2:25">
-      <c r="B34" s="172" t="s">
+      <c r="B34" s="165" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6657,7 +6657,7 @@
       </c>
     </row>
     <row r="35" spans="2:25">
-      <c r="B35" s="172"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
@@ -6731,7 +6731,7 @@
       </c>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="172"/>
+      <c r="B36" s="165"/>
       <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
@@ -6821,7 +6821,7 @@
       </c>
     </row>
     <row r="37" spans="2:25">
-      <c r="B37" s="172" t="s">
+      <c r="B37" s="165" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6898,7 +6898,7 @@
       </c>
     </row>
     <row r="38" spans="2:25">
-      <c r="B38" s="172"/>
+      <c r="B38" s="165"/>
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
@@ -6973,7 +6973,7 @@
       </c>
     </row>
     <row r="39" spans="2:25">
-      <c r="B39" s="172"/>
+      <c r="B39" s="165"/>
       <c r="C39" s="21" t="s">
         <v>51</v>
       </c>
@@ -7063,7 +7063,7 @@
       </c>
     </row>
     <row r="40" spans="2:25">
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="165" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7140,7 +7140,7 @@
       </c>
     </row>
     <row r="41" spans="2:25">
-      <c r="B41" s="172"/>
+      <c r="B41" s="165"/>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
@@ -7215,7 +7215,7 @@
       </c>
     </row>
     <row r="42" spans="2:25">
-      <c r="B42" s="172"/>
+      <c r="B42" s="165"/>
       <c r="C42" s="21" t="s">
         <v>54</v>
       </c>
@@ -7394,54 +7394,54 @@
       </c>
     </row>
     <row r="47" spans="2:25">
-      <c r="B47" s="171" t="s">
+      <c r="B47" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="169"/>
     </row>
     <row r="48" spans="2:25" ht="27.75" customHeight="1">
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="174"/>
+      <c r="C48" s="168"/>
       <c r="D48" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="175" t="s">
+      <c r="G48" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="H48" s="175"/>
-      <c r="J48" s="175" t="s">
+      <c r="H48" s="164"/>
+      <c r="J48" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="175"/>
-      <c r="L48" s="175"/>
+      <c r="K48" s="164"/>
+      <c r="L48" s="164"/>
       <c r="N48" s="30" t="s">
         <v>97</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q48" s="178" t="s">
+      <c r="Q48" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="R48" s="178"/>
-      <c r="S48" s="178"/>
-      <c r="T48" s="178"/>
-      <c r="U48" s="178"/>
-      <c r="W48" s="176" t="s">
+      <c r="R48" s="167"/>
+      <c r="S48" s="167"/>
+      <c r="T48" s="167"/>
+      <c r="U48" s="167"/>
+      <c r="W48" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="X48" s="176"/>
-      <c r="Y48" s="176"/>
+      <c r="X48" s="163"/>
+      <c r="Y48" s="163"/>
     </row>
     <row r="49" spans="2:25">
-      <c r="B49" s="174" t="s">
+      <c r="B49" s="168" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -7475,19 +7475,19 @@
       <c r="O49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="172" t="s">
+      <c r="Q49" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="R49" s="177" t="s">
+      <c r="R49" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="S49" s="177" t="s">
+      <c r="S49" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="T49" s="177" t="s">
+      <c r="T49" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="U49" s="177"/>
+      <c r="U49" s="166"/>
       <c r="W49" s="34" t="s">
         <v>115</v>
       </c>
@@ -7499,7 +7499,7 @@
       </c>
     </row>
     <row r="50" spans="2:25">
-      <c r="B50" s="174"/>
+      <c r="B50" s="168"/>
       <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
@@ -7532,9 +7532,9 @@
       <c r="O50" s="2">
         <v>8</v>
       </c>
-      <c r="Q50" s="172"/>
-      <c r="R50" s="177"/>
-      <c r="S50" s="177"/>
+      <c r="Q50" s="165"/>
+      <c r="R50" s="166"/>
+      <c r="S50" s="166"/>
       <c r="T50" s="10" t="s">
         <v>104</v>
       </c>
@@ -7553,7 +7553,7 @@
       </c>
     </row>
     <row r="51" spans="2:25">
-      <c r="B51" s="174"/>
+      <c r="B51" s="168"/>
       <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
@@ -7610,7 +7610,7 @@
       </c>
     </row>
     <row r="52" spans="2:25">
-      <c r="B52" s="174"/>
+      <c r="B52" s="168"/>
       <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
@@ -7666,7 +7666,7 @@
       </c>
     </row>
     <row r="53" spans="2:25">
-      <c r="B53" s="174"/>
+      <c r="B53" s="168"/>
       <c r="C53" s="2" t="s">
         <v>61</v>
       </c>
@@ -7716,7 +7716,7 @@
       </c>
     </row>
     <row r="54" spans="2:25">
-      <c r="B54" s="174"/>
+      <c r="B54" s="168"/>
       <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
@@ -7756,7 +7756,7 @@
       </c>
     </row>
     <row r="55" spans="2:25">
-      <c r="B55" s="174" t="s">
+      <c r="B55" s="168" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -7795,7 +7795,7 @@
       </c>
     </row>
     <row r="56" spans="2:25">
-      <c r="B56" s="174"/>
+      <c r="B56" s="168"/>
       <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
@@ -7818,7 +7818,7 @@
       </c>
     </row>
     <row r="57" spans="2:25">
-      <c r="B57" s="174"/>
+      <c r="B57" s="168"/>
       <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
@@ -7841,7 +7841,7 @@
       </c>
     </row>
     <row r="58" spans="2:25">
-      <c r="B58" s="174"/>
+      <c r="B58" s="168"/>
       <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
@@ -7868,6 +7868,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:X32"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B47:E47"/>
     <mergeCell ref="W48:Y48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="Q49:Q50"/>
@@ -7875,22 +7891,6 @@
     <mergeCell ref="S49:S50"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B32:X32"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7902,8 +7902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T209"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149:E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7918,34 +7918,34 @@
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
     <col min="16" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="194" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="H3" s="202" t="s">
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="H3" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
       <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
@@ -7969,11 +7969,11 @@
       <c r="F4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="202" t="s">
+      <c r="H4" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
       <c r="K4" s="40">
         <v>0</v>
       </c>
@@ -8000,11 +8000,11 @@
         <f>E5/$E$16</f>
         <v>0.69059405940594054</v>
       </c>
-      <c r="H5" s="202" t="s">
+      <c r="H5" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
       <c r="K5" s="40">
         <v>51000</v>
       </c>
@@ -8021,11 +8021,11 @@
       <c r="D6" s="72"/>
       <c r="E6" s="27"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="202" t="s">
+      <c r="H6" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
       <c r="K6" s="40">
         <v>0</v>
       </c>
@@ -8100,11 +8100,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="188" t="s">
+      <c r="H9" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
       <c r="K9" s="40">
         <v>0</v>
       </c>
@@ -8129,11 +8129,11 @@
       <c r="F10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="202" t="s">
+      <c r="H10" s="188" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
       <c r="K10" s="40">
         <v>0</v>
       </c>
@@ -8155,11 +8155,11 @@
         <f>E11/$E$16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="202" t="s">
+      <c r="H11" s="188" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
       <c r="K11" s="40">
         <v>0</v>
       </c>
@@ -8176,11 +8176,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="203" t="s">
+      <c r="H12" s="189" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="203"/>
-      <c r="J12" s="203"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
       <c r="K12" s="42">
         <f>SUM(K4:K11)</f>
         <v>640000</v>
@@ -8239,11 +8239,11 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
       <c r="E16" s="37">
         <f>E5+E8+E11+E15</f>
         <v>4848000</v>
@@ -8258,10 +8258,10 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="196"/>
+      <c r="C18" s="200"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
@@ -8299,49 +8299,49 @@
       <c r="E21" s="16"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="193" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="177" t="s">
+      <c r="F24" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="205" t="s">
+      <c r="G24" s="191" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="177" t="s">
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="166" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="177"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
       <c r="G25" s="2" t="s">
         <v>2</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="I25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="177"/>
+      <c r="J25" s="166"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="22" t="s">
@@ -8399,13 +8399,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="197" t="s">
+      <c r="B28" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="199"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="203"/>
       <c r="G28" s="63">
         <f>G27</f>
         <v>200000</v>
@@ -8482,13 +8482,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="189" t="s">
+      <c r="B31" s="204" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="191"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="206"/>
       <c r="G31" s="80">
         <f>G28+G30+G29</f>
         <v>200000</v>
@@ -8511,35 +8511,35 @@
       <c r="L31" s="17"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="166" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="177" t="s">
+      <c r="E34" s="166" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="10" t="s">
         <v>2</v>
       </c>
@@ -8575,12 +8575,12 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="193" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="193"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="50" t="s">
@@ -8641,12 +8641,12 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="180" t="s">
+      <c r="B44" s="193" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="180"/>
-      <c r="D44" s="180"/>
-      <c r="F44" s="181" t="s">
+      <c r="C44" s="193"/>
+      <c r="D44" s="193"/>
+      <c r="F44" s="194" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
       <c r="D45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="181"/>
+      <c r="F45" s="194"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="2" t="s">
@@ -8674,7 +8674,7 @@
         <f>C46*'Demanda Dinamica'!$L$50*'Demanda Dinamica'!F37</f>
         <v>606666.66666666663</v>
       </c>
-      <c r="F46" s="181"/>
+      <c r="F46" s="194"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="2" t="s">
@@ -8735,20 +8735,20 @@
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="208" t="s">
+      <c r="B52" s="186" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="208"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="208"/>
-      <c r="F52" s="208"/>
-      <c r="G52" s="208"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="201" t="s">
+      <c r="B53" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="201"/>
+      <c r="C53" s="207"/>
       <c r="D53" s="22" t="s">
         <v>177</v>
       </c>
@@ -8763,10 +8763,10 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="162" t="s">
+      <c r="B54" s="176" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="162"/>
+      <c r="C54" s="176"/>
       <c r="D54" s="18">
         <f>E16</f>
         <v>4848000</v>
@@ -8785,10 +8785,10 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="162" t="s">
+      <c r="B55" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="162"/>
+      <c r="C55" s="176"/>
       <c r="D55" s="18">
         <v>0</v>
       </c>
@@ -8805,10 +8805,10 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="162" t="s">
+      <c r="B56" s="176" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="162"/>
+      <c r="C56" s="176"/>
       <c r="D56" s="18">
         <v>10000</v>
       </c>
@@ -8826,10 +8826,10 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="162" t="s">
+      <c r="B57" s="176" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="162"/>
+      <c r="C57" s="176"/>
       <c r="D57" s="18">
         <v>0</v>
       </c>
@@ -8844,10 +8844,10 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="162" t="s">
+      <c r="B58" s="176" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="162"/>
+      <c r="C58" s="176"/>
       <c r="D58" s="18">
         <v>0</v>
       </c>
@@ -8862,10 +8862,10 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="176" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="162"/>
+      <c r="C59" s="176"/>
       <c r="D59" s="18">
         <v>0</v>
       </c>
@@ -8880,11 +8880,11 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="200" t="s">
+      <c r="B60" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="200"/>
-      <c r="D60" s="200"/>
+      <c r="C60" s="185"/>
+      <c r="D60" s="185"/>
       <c r="E60" s="25">
         <f>SUM(E54:E59)</f>
         <v>168480</v>
@@ -8899,21 +8899,21 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="195" t="s">
+      <c r="B62" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="195"/>
-      <c r="D62" s="195"/>
-      <c r="E62" s="195"/>
-      <c r="F62" s="195"/>
-      <c r="G62" s="195"/>
+      <c r="C62" s="199"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="199"/>
+      <c r="F62" s="199"/>
+      <c r="G62" s="199"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="174" t="s">
+      <c r="B63" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="174"/>
-      <c r="D63" s="174"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
       <c r="E63" s="22" t="s">
         <v>2</v>
       </c>
@@ -8925,13 +8925,13 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="184" t="s">
+      <c r="B64" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="162" t="s">
+      <c r="C64" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="162"/>
+      <c r="D64" s="176"/>
       <c r="E64" s="19">
         <f>0</f>
         <v>0</v>
@@ -8946,11 +8946,11 @@
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="184"/>
-      <c r="C65" s="162" t="s">
+      <c r="B65" s="187"/>
+      <c r="C65" s="176" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="162"/>
+      <c r="D65" s="176"/>
       <c r="E65" s="19">
         <f>'Demanda Dinamica'!V39</f>
         <v>24963480</v>
@@ -8965,11 +8965,11 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="184"/>
-      <c r="C66" s="162" t="s">
+      <c r="B66" s="187"/>
+      <c r="C66" s="176" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="162"/>
+      <c r="D66" s="176"/>
       <c r="E66" s="19">
         <f>'Demanda Dinamica'!$V$42</f>
         <v>4109020</v>
@@ -8984,11 +8984,11 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="184"/>
-      <c r="C67" s="162" t="s">
+      <c r="B67" s="187"/>
+      <c r="C67" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="162"/>
+      <c r="D67" s="176"/>
       <c r="E67" s="19">
         <f>'Demanda Dinamica'!V36</f>
         <v>16262030</v>
@@ -9003,11 +9003,11 @@
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="184"/>
-      <c r="C68" s="162" t="s">
+      <c r="B68" s="187"/>
+      <c r="C68" s="176" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="162"/>
+      <c r="D68" s="176"/>
       <c r="E68" s="19">
         <v>0</v>
       </c>
@@ -9021,11 +9021,11 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="184"/>
-      <c r="C69" s="209" t="s">
+      <c r="B69" s="187"/>
+      <c r="C69" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="209"/>
+      <c r="D69" s="182"/>
       <c r="E69" s="57">
         <f>SUM(E64:E67)-E68</f>
         <v>45334530</v>
@@ -9043,13 +9043,13 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="184" t="s">
+      <c r="B70" s="187" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="162" t="s">
+      <c r="C70" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="162"/>
+      <c r="D70" s="176"/>
       <c r="E70" s="19">
         <v>0</v>
       </c>
@@ -9065,11 +9065,11 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="184"/>
-      <c r="C71" s="162" t="s">
+      <c r="B71" s="187"/>
+      <c r="C71" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="162"/>
+      <c r="D71" s="176"/>
       <c r="E71" s="19">
         <f>G28</f>
         <v>200000</v>
@@ -9088,11 +9088,11 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="184"/>
-      <c r="C72" s="162" t="s">
+      <c r="B72" s="187"/>
+      <c r="C72" s="176" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="162"/>
+      <c r="D72" s="176"/>
       <c r="E72" s="19">
         <v>0</v>
       </c>
@@ -9108,11 +9108,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="184"/>
-      <c r="C73" s="162" t="s">
+      <c r="B73" s="187"/>
+      <c r="C73" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="162"/>
+      <c r="D73" s="176"/>
       <c r="E73" s="19">
         <v>0</v>
       </c>
@@ -9128,11 +9128,11 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="184"/>
-      <c r="C74" s="209" t="s">
+      <c r="B74" s="187"/>
+      <c r="C74" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="D74" s="209"/>
+      <c r="D74" s="182"/>
       <c r="E74" s="57">
         <f xml:space="preserve"> SUM(E70:E73)</f>
         <v>200000</v>
@@ -9147,11 +9147,11 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="200" t="s">
+      <c r="B75" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="200"/>
-      <c r="D75" s="200"/>
+      <c r="C75" s="185"/>
+      <c r="D75" s="185"/>
       <c r="E75" s="57">
         <f>E69+E74</f>
         <v>45534530</v>
@@ -9166,11 +9166,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="209" t="s">
+      <c r="B78" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="182"/>
       <c r="E78" s="57">
         <f>E75/('Demanda Dinamica'!$Y$52*12)</f>
         <v>3162.120138888889</v>
@@ -9185,23 +9185,23 @@
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="211" t="s">
+      <c r="B81" s="183" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="211"/>
+      <c r="C81" s="183"/>
       <c r="D81" s="4">
         <v>0.35</v>
       </c>
-      <c r="F81" s="211" t="s">
+      <c r="F81" s="183" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="211"/>
+      <c r="G81" s="183"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="211" t="s">
+      <c r="B82" s="183" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="211"/>
+      <c r="C82" s="183"/>
       <c r="D82" s="19">
         <f>E78*D81</f>
         <v>1106.7420486111112</v>
@@ -9215,10 +9215,10 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="212" t="s">
+      <c r="B83" s="184" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="212"/>
+      <c r="C83" s="184"/>
       <c r="D83" s="65">
         <f>E78*(1+D81)</f>
         <v>4268.8621875000008</v>
@@ -9259,11 +9259,11 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="200" t="s">
+      <c r="B89" s="185" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="200"/>
-      <c r="D89" s="200"/>
+      <c r="C89" s="185"/>
+      <c r="D89" s="185"/>
       <c r="E89" s="57">
         <f>E78+G86</f>
         <v>4016.063330876389</v>
@@ -9278,32 +9278,32 @@
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="210" t="s">
+      <c r="B92" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="C92" s="210"/>
+      <c r="C92" s="181"/>
       <c r="D92" s="68">
         <f>+(D83-E89)/D83</f>
         <v>5.9219259259259402E-2</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="210" t="s">
+      <c r="B93" s="181" t="s">
         <v>213</v>
       </c>
-      <c r="C93" s="210"/>
+      <c r="C93" s="181"/>
       <c r="D93" s="69">
         <f>E89*D92</f>
         <v>237.82829559277377</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="193" t="s">
+      <c r="B95" s="197" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="193"/>
-      <c r="D95" s="193"/>
-      <c r="E95" s="193"/>
+      <c r="C95" s="197"/>
+      <c r="D95" s="197"/>
+      <c r="E95" s="197"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="59" t="s">
@@ -9392,20 +9392,20 @@
       <c r="D102" s="151"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="194" t="s">
+      <c r="B103" s="198" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="194"/>
-      <c r="D103" s="194"/>
-      <c r="E103" s="194"/>
-      <c r="F103" s="194"/>
-      <c r="G103" s="194"/>
+      <c r="C103" s="198"/>
+      <c r="D103" s="198"/>
+      <c r="E103" s="198"/>
+      <c r="F103" s="198"/>
+      <c r="G103" s="198"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="174" t="s">
+      <c r="B104" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="174"/>
+      <c r="C104" s="168"/>
       <c r="D104" s="62" t="s">
         <v>236</v>
       </c>
@@ -9420,10 +9420,10 @@
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="188" t="s">
+      <c r="B105" s="192" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="188"/>
+      <c r="C105" s="192"/>
       <c r="D105" s="78">
         <f>'Demanda Dinamica'!I36</f>
         <v>2180290</v>
@@ -9442,10 +9442,10 @@
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="188" t="s">
+      <c r="B106" s="192" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="188"/>
+      <c r="C106" s="192"/>
       <c r="D106" s="78">
         <f>E16</f>
         <v>4848000</v>
@@ -9464,10 +9464,10 @@
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="188" t="s">
+      <c r="B107" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="188"/>
+      <c r="C107" s="192"/>
       <c r="D107" s="78">
         <f>D55</f>
         <v>0</v>
@@ -9486,10 +9486,10 @@
       </c>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="188" t="s">
+      <c r="B108" s="192" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="188"/>
+      <c r="C108" s="192"/>
       <c r="D108" s="78">
         <f>D56</f>
         <v>10000</v>
@@ -9508,10 +9508,10 @@
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="188" t="s">
+      <c r="B109" s="192" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="188"/>
+      <c r="C109" s="192"/>
       <c r="D109" s="78">
         <f>D57</f>
         <v>0</v>
@@ -9530,10 +9530,10 @@
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="188" t="s">
+      <c r="B110" s="192" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="188"/>
+      <c r="C110" s="192"/>
       <c r="D110" s="78"/>
       <c r="E110" s="78">
         <f>G31</f>
@@ -9549,10 +9549,10 @@
       </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="188" t="s">
+      <c r="B111" s="192" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="188"/>
+      <c r="C111" s="192"/>
       <c r="D111" s="78"/>
       <c r="E111" s="78">
         <f>G31</f>
@@ -9568,10 +9568,10 @@
       </c>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="188" t="s">
+      <c r="B112" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="188"/>
+      <c r="C112" s="192"/>
       <c r="D112" s="78"/>
       <c r="E112" s="78">
         <f>E16/3</f>
@@ -9587,10 +9587,10 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="B113" s="188" t="s">
+      <c r="B113" s="192" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="188"/>
+      <c r="C113" s="192"/>
       <c r="D113" s="78"/>
       <c r="E113" s="78">
         <v>0</v>
@@ -9604,10 +9604,10 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="B114" s="188" t="s">
+      <c r="B114" s="192" t="s">
         <v>235</v>
       </c>
-      <c r="C114" s="188"/>
+      <c r="C114" s="192"/>
       <c r="D114" s="78"/>
       <c r="E114" s="78">
         <v>0</v>
@@ -9620,11 +9620,11 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="189" t="s">
+      <c r="B115" s="204" t="s">
         <v>237</v>
       </c>
-      <c r="C115" s="190"/>
-      <c r="D115" s="191"/>
+      <c r="C115" s="205"/>
+      <c r="D115" s="206"/>
       <c r="E115" s="82">
         <f>SUM(E105:E114)</f>
         <v>18446510</v>
@@ -9639,12 +9639,12 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="B117" s="192" t="s">
+      <c r="B117" s="208" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="192"/>
-      <c r="D117" s="192"/>
-      <c r="E117" s="192"/>
+      <c r="C117" s="208"/>
+      <c r="D117" s="208"/>
+      <c r="E117" s="208"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="83"/>
@@ -9760,51 +9760,51 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="B127" s="187" t="s">
+      <c r="B127" s="209" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="187"/>
-      <c r="D127" s="187"/>
-      <c r="E127" s="187"/>
-      <c r="F127" s="187"/>
-      <c r="G127" s="187"/>
-      <c r="H127" s="187"/>
-      <c r="I127" s="187"/>
-      <c r="J127" s="187"/>
-      <c r="K127" s="187"/>
-      <c r="L127" s="187"/>
+      <c r="C127" s="209"/>
+      <c r="D127" s="209"/>
+      <c r="E127" s="209"/>
+      <c r="F127" s="209"/>
+      <c r="G127" s="209"/>
+      <c r="H127" s="209"/>
+      <c r="I127" s="209"/>
+      <c r="J127" s="209"/>
+      <c r="K127" s="209"/>
+      <c r="L127" s="209"/>
     </row>
     <row r="128" spans="1:12">
-      <c r="B128" s="177" t="s">
+      <c r="B128" s="166" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="177"/>
-      <c r="D128" s="177" t="s">
+      <c r="C128" s="166"/>
+      <c r="D128" s="166" t="s">
         <v>256</v>
       </c>
-      <c r="E128" s="177" t="s">
+      <c r="E128" s="166" t="s">
         <v>259</v>
       </c>
-      <c r="F128" s="177"/>
-      <c r="G128" s="177"/>
-      <c r="H128" s="172" t="s">
+      <c r="F128" s="166"/>
+      <c r="G128" s="166"/>
+      <c r="H128" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="I128" s="172" t="s">
+      <c r="I128" s="165" t="s">
         <v>261</v>
       </c>
-      <c r="J128" s="172" t="s">
+      <c r="J128" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="K128" s="172" t="s">
+      <c r="K128" s="165" t="s">
         <v>263</v>
       </c>
-      <c r="L128" s="172"/>
+      <c r="L128" s="165"/>
     </row>
     <row r="129" spans="2:20">
-      <c r="B129" s="177"/>
-      <c r="C129" s="177"/>
-      <c r="D129" s="177"/>
+      <c r="B129" s="166"/>
+      <c r="C129" s="166"/>
+      <c r="D129" s="166"/>
       <c r="E129" s="60" t="s">
         <v>125</v>
       </c>
@@ -9814,11 +9814,11 @@
       <c r="G129" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="H129" s="172"/>
-      <c r="I129" s="172"/>
-      <c r="J129" s="172"/>
-      <c r="K129" s="172"/>
-      <c r="L129" s="172"/>
+      <c r="H129" s="165"/>
+      <c r="I129" s="165"/>
+      <c r="J129" s="165"/>
+      <c r="K129" s="165"/>
+      <c r="L129" s="165"/>
     </row>
     <row r="130" spans="2:20">
       <c r="B130" s="2" t="s">
@@ -9928,24 +9928,24 @@
       </c>
     </row>
     <row r="135" spans="2:20">
-      <c r="B135" s="187" t="s">
+      <c r="B135" s="209" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="187"/>
-      <c r="D135" s="187"/>
-      <c r="E135" s="187"/>
-      <c r="F135" s="187"/>
-      <c r="G135" s="187"/>
-      <c r="H135" s="187"/>
-      <c r="I135" s="187"/>
-      <c r="J135" s="187"/>
-      <c r="K135" s="187"/>
-      <c r="L135" s="187"/>
-      <c r="M135" s="187"/>
-      <c r="N135" s="187"/>
-      <c r="O135" s="187"/>
-      <c r="P135" s="187"/>
-      <c r="Q135" s="187"/>
+      <c r="C135" s="209"/>
+      <c r="D135" s="209"/>
+      <c r="E135" s="209"/>
+      <c r="F135" s="209"/>
+      <c r="G135" s="209"/>
+      <c r="H135" s="209"/>
+      <c r="I135" s="209"/>
+      <c r="J135" s="209"/>
+      <c r="K135" s="209"/>
+      <c r="L135" s="209"/>
+      <c r="M135" s="209"/>
+      <c r="N135" s="209"/>
+      <c r="O135" s="209"/>
+      <c r="P135" s="209"/>
+      <c r="Q135" s="209"/>
     </row>
     <row r="136" spans="2:20">
       <c r="B136" s="2" t="s">
@@ -10719,19 +10719,19 @@
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="185" t="s">
+      <c r="B149" s="210" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="185"/>
-      <c r="D149" s="185"/>
-      <c r="E149" s="185"/>
-      <c r="G149" s="186" t="s">
+      <c r="C149" s="210"/>
+      <c r="D149" s="210"/>
+      <c r="E149" s="210"/>
+      <c r="G149" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="H149" s="186"/>
-      <c r="I149" s="186"/>
-      <c r="J149" s="186"/>
-      <c r="K149" s="186"/>
+      <c r="H149" s="211"/>
+      <c r="I149" s="211"/>
+      <c r="J149" s="211"/>
+      <c r="K149" s="211"/>
     </row>
     <row r="150" spans="2:17">
       <c r="B150" s="22" t="s">
@@ -10885,21 +10885,21 @@
       </c>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" s="180" t="s">
+      <c r="B158" s="193" t="s">
         <v>318</v>
       </c>
-      <c r="C158" s="180"/>
-      <c r="D158" s="180"/>
-      <c r="E158" s="180"/>
-      <c r="F158" s="180"/>
-      <c r="G158" s="180"/>
+      <c r="C158" s="193"/>
+      <c r="D158" s="193"/>
+      <c r="E158" s="193"/>
+      <c r="F158" s="193"/>
+      <c r="G158" s="193"/>
     </row>
     <row r="159" spans="2:17">
-      <c r="B159" s="184" t="s">
+      <c r="B159" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="184"/>
-      <c r="D159" s="184"/>
+      <c r="C159" s="187"/>
+      <c r="D159" s="187"/>
       <c r="E159" s="62" t="s">
         <v>2</v>
       </c>
@@ -10911,13 +10911,13 @@
       </c>
     </row>
     <row r="160" spans="2:17">
-      <c r="B160" s="174" t="s">
+      <c r="B160" s="168" t="s">
         <v>295</v>
       </c>
-      <c r="C160" s="177" t="s">
+      <c r="C160" s="166" t="s">
         <v>296</v>
       </c>
-      <c r="D160" s="177"/>
+      <c r="D160" s="166"/>
       <c r="E160" s="2" t="s">
         <v>297</v>
       </c>
@@ -10931,11 +10931,11 @@
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="174"/>
-      <c r="C161" s="177" t="s">
+      <c r="B161" s="168"/>
+      <c r="C161" s="166" t="s">
         <v>298</v>
       </c>
-      <c r="D161" s="177"/>
+      <c r="D161" s="166"/>
       <c r="E161" s="2" t="s">
         <v>297</v>
       </c>
@@ -10947,11 +10947,11 @@
       </c>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="174"/>
-      <c r="C162" s="162" t="s">
+      <c r="B162" s="168"/>
+      <c r="C162" s="176" t="s">
         <v>299</v>
       </c>
-      <c r="D162" s="162"/>
+      <c r="D162" s="176"/>
       <c r="E162" s="76">
         <f>'Demanda Dinamica'!V43</f>
         <v>45334530</v>
@@ -10966,11 +10966,11 @@
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="174"/>
-      <c r="C163" s="177" t="s">
+      <c r="B163" s="168"/>
+      <c r="C163" s="166" t="s">
         <v>300</v>
       </c>
-      <c r="D163" s="177"/>
+      <c r="D163" s="166"/>
       <c r="E163" s="76">
         <f>'Demanda Dinamica'!V35</f>
         <v>2400000</v>
@@ -10985,11 +10985,11 @@
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="174"/>
-      <c r="C164" s="177" t="s">
+      <c r="B164" s="168"/>
+      <c r="C164" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="D164" s="177"/>
+      <c r="D164" s="166"/>
       <c r="E164" s="76">
         <v>0</v>
       </c>
@@ -11001,11 +11001,11 @@
       </c>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="174"/>
-      <c r="C165" s="177" t="s">
+      <c r="B165" s="168"/>
+      <c r="C165" s="166" t="s">
         <v>302</v>
       </c>
-      <c r="D165" s="177"/>
+      <c r="D165" s="166"/>
       <c r="E165" s="76">
         <f>E106</f>
         <v>48480</v>
@@ -11020,11 +11020,11 @@
       </c>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="174"/>
-      <c r="C166" s="177" t="s">
+      <c r="B166" s="168"/>
+      <c r="C166" s="166" t="s">
         <v>303</v>
       </c>
-      <c r="D166" s="177"/>
+      <c r="D166" s="166"/>
       <c r="E166" s="76">
         <f>E107</f>
         <v>0</v>
@@ -11039,11 +11039,11 @@
       </c>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="174"/>
-      <c r="C167" s="177" t="s">
+      <c r="B167" s="168"/>
+      <c r="C167" s="166" t="s">
         <v>304</v>
       </c>
-      <c r="D167" s="177"/>
+      <c r="D167" s="166"/>
       <c r="E167" s="76">
         <f t="shared" ref="E167:G168" si="42">E108</f>
         <v>120000</v>
@@ -11058,11 +11058,11 @@
       </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="174"/>
-      <c r="C168" s="177" t="s">
+      <c r="B168" s="168"/>
+      <c r="C168" s="166" t="s">
         <v>305</v>
       </c>
-      <c r="D168" s="177"/>
+      <c r="D168" s="166"/>
       <c r="E168" s="76">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -11077,11 +11077,11 @@
       </c>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="174"/>
-      <c r="C169" s="177" t="s">
+      <c r="B169" s="168"/>
+      <c r="C169" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="D169" s="177"/>
+      <c r="D169" s="166"/>
       <c r="E169" s="76">
         <f>E110</f>
         <v>200000</v>
@@ -11096,11 +11096,11 @@
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="174"/>
-      <c r="C170" s="177" t="s">
+      <c r="B170" s="168"/>
+      <c r="C170" s="166" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="177"/>
+      <c r="D170" s="166"/>
       <c r="E170" s="76">
         <f>E111</f>
         <v>200000</v>
@@ -11115,11 +11115,11 @@
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="174"/>
-      <c r="C171" s="177" t="s">
+      <c r="B171" s="168"/>
+      <c r="C171" s="166" t="s">
         <v>319</v>
       </c>
-      <c r="D171" s="177"/>
+      <c r="D171" s="166"/>
       <c r="E171" s="76">
         <v>0</v>
       </c>
@@ -11131,11 +11131,11 @@
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="174"/>
-      <c r="C172" s="184" t="s">
+      <c r="B172" s="168"/>
+      <c r="C172" s="187" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="184"/>
+      <c r="D172" s="187"/>
       <c r="E172" s="81">
         <f>SUM(E162:E171)</f>
         <v>48303010</v>
@@ -11150,13 +11150,13 @@
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="184" t="s">
+      <c r="B173" s="187" t="s">
         <v>308</v>
       </c>
-      <c r="C173" s="177" t="s">
+      <c r="C173" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="D173" s="177"/>
+      <c r="D173" s="166"/>
       <c r="E173" s="76">
         <f>E64</f>
         <v>0</v>
@@ -11171,11 +11171,11 @@
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="184"/>
-      <c r="C174" s="177" t="s">
+      <c r="B174" s="187"/>
+      <c r="C174" s="166" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="177"/>
+      <c r="D174" s="166"/>
       <c r="E174" s="76">
         <f>0</f>
         <v>0</v>
@@ -11190,11 +11190,11 @@
       </c>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="184"/>
-      <c r="C175" s="177" t="s">
+      <c r="B175" s="187"/>
+      <c r="C175" s="166" t="s">
         <v>310</v>
       </c>
-      <c r="D175" s="177"/>
+      <c r="D175" s="166"/>
       <c r="E175" s="76">
         <v>0</v>
       </c>
@@ -11206,11 +11206,11 @@
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="184"/>
-      <c r="C176" s="177" t="s">
+      <c r="B176" s="187"/>
+      <c r="C176" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="D176" s="177"/>
+      <c r="D176" s="166"/>
       <c r="E176" s="76">
         <v>0</v>
       </c>
@@ -11222,11 +11222,11 @@
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="184"/>
-      <c r="C177" s="177" t="s">
+      <c r="B177" s="187"/>
+      <c r="C177" s="166" t="s">
         <v>284</v>
       </c>
-      <c r="D177" s="177"/>
+      <c r="D177" s="166"/>
       <c r="E177" s="76">
         <v>0</v>
       </c>
@@ -11238,11 +11238,11 @@
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="184"/>
-      <c r="C178" s="177" t="s">
+      <c r="B178" s="187"/>
+      <c r="C178" s="166" t="s">
         <v>312</v>
       </c>
-      <c r="D178" s="177"/>
+      <c r="D178" s="166"/>
       <c r="E178" s="76">
         <f>C152</f>
         <v>4733936.6052293573</v>
@@ -11257,11 +11257,11 @@
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="184"/>
-      <c r="C179" s="177" t="s">
+      <c r="B179" s="187"/>
+      <c r="C179" s="166" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="177"/>
+      <c r="D179" s="166"/>
       <c r="E179" s="76">
         <f>C153</f>
         <v>4733936.6052293573</v>
@@ -11276,11 +11276,11 @@
       </c>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="184"/>
-      <c r="C180" s="177" t="s">
+      <c r="B180" s="187"/>
+      <c r="C180" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="D180" s="177"/>
+      <c r="D180" s="166"/>
       <c r="E180" s="76">
         <f t="shared" ref="E180:E181" si="48">C154</f>
         <v>1041466.0531504585</v>
@@ -11295,11 +11295,11 @@
       </c>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="184"/>
-      <c r="C181" s="177" t="s">
+      <c r="B181" s="187"/>
+      <c r="C181" s="166" t="s">
         <v>315</v>
       </c>
-      <c r="D181" s="177"/>
+      <c r="D181" s="166"/>
       <c r="E181" s="76">
         <f t="shared" si="48"/>
         <v>156219.90797256876</v>
@@ -11314,11 +11314,11 @@
       </c>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="184"/>
-      <c r="C182" s="184" t="s">
+      <c r="B182" s="187"/>
+      <c r="C182" s="187" t="s">
         <v>316</v>
       </c>
-      <c r="D182" s="184"/>
+      <c r="D182" s="187"/>
       <c r="E182" s="81">
         <f>SUM(E173:E181)</f>
         <v>10665559.171581741</v>
@@ -11333,11 +11333,11 @@
       </c>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="179" t="s">
+      <c r="B183" s="212" t="s">
         <v>317</v>
       </c>
-      <c r="C183" s="179"/>
-      <c r="D183" s="179"/>
+      <c r="C183" s="212"/>
+      <c r="D183" s="212"/>
       <c r="E183" s="100">
         <f>E172+E182</f>
         <v>58968569.171581745</v>
@@ -11359,13 +11359,13 @@
       <c r="F184" s="66"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="180" t="s">
+      <c r="B185" s="193" t="s">
         <v>321</v>
       </c>
-      <c r="C185" s="180"/>
-      <c r="D185" s="180"/>
-      <c r="E185" s="180"/>
-      <c r="F185" s="180"/>
+      <c r="C185" s="193"/>
+      <c r="D185" s="193"/>
+      <c r="E185" s="193"/>
+      <c r="F185" s="193"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="62" t="s">
@@ -11505,24 +11505,24 @@
       </c>
     </row>
     <row r="194" spans="2:17">
-      <c r="B194" s="181" t="s">
+      <c r="B194" s="194" t="s">
         <v>336</v>
       </c>
-      <c r="C194" s="181"/>
-      <c r="D194" s="181"/>
-      <c r="E194" s="181"/>
-      <c r="F194" s="181"/>
-      <c r="G194" s="181"/>
-      <c r="H194" s="181"/>
-      <c r="I194" s="181"/>
-      <c r="J194" s="181"/>
-      <c r="K194" s="181"/>
-      <c r="L194" s="181"/>
-      <c r="M194" s="181"/>
-      <c r="N194" s="181"/>
-      <c r="O194" s="181"/>
-      <c r="P194" s="181"/>
-      <c r="Q194" s="181"/>
+      <c r="C194" s="194"/>
+      <c r="D194" s="194"/>
+      <c r="E194" s="194"/>
+      <c r="F194" s="194"/>
+      <c r="G194" s="194"/>
+      <c r="H194" s="194"/>
+      <c r="I194" s="194"/>
+      <c r="J194" s="194"/>
+      <c r="K194" s="194"/>
+      <c r="L194" s="194"/>
+      <c r="M194" s="194"/>
+      <c r="N194" s="194"/>
+      <c r="O194" s="194"/>
+      <c r="P194" s="194"/>
+      <c r="Q194" s="194"/>
     </row>
     <row r="195" spans="2:17">
       <c r="B195" s="62" t="s">
@@ -11770,13 +11770,13 @@
       </c>
     </row>
     <row r="200" spans="2:17">
-      <c r="B200" s="182" t="s">
+      <c r="B200" s="213" t="s">
         <v>340</v>
       </c>
-      <c r="C200" s="182"/>
-      <c r="D200" s="182"/>
-      <c r="E200" s="182"/>
-      <c r="F200" s="182"/>
+      <c r="C200" s="213"/>
+      <c r="D200" s="213"/>
+      <c r="E200" s="213"/>
+      <c r="F200" s="213"/>
     </row>
     <row r="201" spans="2:17">
       <c r="B201" s="102" t="s">
@@ -11841,11 +11841,11 @@
       </c>
     </row>
     <row r="205" spans="2:17">
-      <c r="B205" s="183" t="s">
+      <c r="B205" s="214" t="s">
         <v>343</v>
       </c>
-      <c r="C205" s="183"/>
-      <c r="D205" s="183"/>
+      <c r="C205" s="214"/>
+      <c r="D205" s="214"/>
     </row>
     <row r="206" spans="2:17">
       <c r="B206" s="102" t="s">
@@ -11901,50 +11901,59 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:B172"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:L129"/>
+    <mergeCell ref="B127:L127"/>
+    <mergeCell ref="B135:Q135"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="B128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="B104:C104"/>
@@ -11969,59 +11978,50 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:L129"/>
-    <mergeCell ref="B127:L127"/>
-    <mergeCell ref="B135:Q135"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="B128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:B172"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B194:Q194"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:C92"/>
   </mergeCells>
   <conditionalFormatting sqref="C198:Q198">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -12040,18 +12040,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N143" sqref="N143"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" customWidth="1"/>
@@ -12063,21 +12065,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="220" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
       <c r="E3" s="61" t="s">
         <v>2</v>
       </c>
@@ -12089,13 +12091,13 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="187" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="166" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="177"/>
+      <c r="D4" s="166"/>
       <c r="E4" s="77">
         <f>'Presupuesto de Inversion'!O139</f>
         <v>94678732.104587138</v>
@@ -12110,11 +12112,11 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.5" customHeight="1">
-      <c r="B5" s="184"/>
-      <c r="C5" s="172" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="165" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="172"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="77">
         <v>0</v>
       </c>
@@ -12126,11 +12128,11 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="184"/>
-      <c r="C6" s="174" t="s">
+      <c r="B6" s="187"/>
+      <c r="C6" s="168" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="174"/>
+      <c r="D6" s="168"/>
       <c r="E6" s="104">
         <f>SUM(E4:E5)</f>
         <v>94678732.104587138</v>
@@ -12145,13 +12147,13 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="187" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="166" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="177"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="77">
         <f>'Presupuesto de Inversion'!E75</f>
         <v>45534530</v>
@@ -12166,11 +12168,11 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="184"/>
-      <c r="C8" s="162" t="s">
+      <c r="B8" s="187"/>
+      <c r="C8" s="176" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="176"/>
       <c r="E8" s="77">
         <f>'Presupuesto de Inversion'!E115</f>
         <v>18446510</v>
@@ -12185,11 +12187,11 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="184"/>
-      <c r="C9" s="177" t="s">
+      <c r="B9" s="187"/>
+      <c r="C9" s="166" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="177"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="77">
         <f>'Presupuesto de Inversion'!C156</f>
         <v>10665559.171581741</v>
@@ -12204,11 +12206,11 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B10" s="184"/>
-      <c r="C10" s="172" t="s">
+      <c r="B10" s="187"/>
+      <c r="C10" s="165" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="77">
         <v>0</v>
       </c>
@@ -12220,11 +12222,11 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="184"/>
-      <c r="C11" s="172" t="s">
+      <c r="B11" s="187"/>
+      <c r="C11" s="165" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="77">
         <v>0</v>
       </c>
@@ -12236,11 +12238,11 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="184"/>
-      <c r="C12" s="184" t="s">
+      <c r="B12" s="187"/>
+      <c r="C12" s="187" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="184"/>
+      <c r="D12" s="187"/>
       <c r="E12" s="104">
         <f>SUM(E7:E11)</f>
         <v>74646599.171581745</v>
@@ -12255,11 +12257,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B13" s="234" t="s">
+      <c r="B13" s="223" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
       <c r="E13" s="77">
         <f>E6-E12</f>
         <v>20032132.933005393</v>
@@ -12274,11 +12276,11 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="166" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="77">
         <f>(E13*0.25)</f>
         <v>5008033.2332513481</v>
@@ -12293,11 +12295,11 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="224" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
       <c r="E15" s="77">
         <f>E13*0.09</f>
         <v>1802891.9639704854</v>
@@ -12312,11 +12314,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="29.25" customHeight="1">
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="165" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="77">
         <f>E13-E14-E15</f>
         <v>13221207.735783558</v>
@@ -12331,11 +12333,11 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="166" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="77">
         <f>E16*0.1</f>
         <v>1322120.773578356</v>
@@ -12350,11 +12352,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="32.25" customHeight="1">
-      <c r="B18" s="232" t="s">
+      <c r="B18" s="221" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="232"/>
-      <c r="D18" s="232"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="105">
         <f>E16-E17</f>
         <v>11899086.962205201</v>
@@ -12373,39 +12375,39 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="107"/>
-      <c r="B20" s="233" t="s">
+      <c r="B20" s="222" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="233"/>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="233"/>
-      <c r="M20" s="233"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="233"/>
-      <c r="P20" s="233"/>
-      <c r="Q20" s="233"/>
-      <c r="R20" s="233"/>
-      <c r="S20" s="233"/>
-      <c r="T20" s="233"/>
-      <c r="U20" s="233"/>
-      <c r="V20" s="233"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="222"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="222"/>
+      <c r="L20" s="222"/>
+      <c r="M20" s="222"/>
+      <c r="N20" s="222"/>
+      <c r="O20" s="222"/>
+      <c r="P20" s="222"/>
+      <c r="Q20" s="222"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="222"/>
+      <c r="U20" s="222"/>
+      <c r="V20" s="222"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="107"/>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
       <c r="G21" s="61" t="s">
         <v>399</v>
       </c>
@@ -12457,13 +12459,13 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="107"/>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="187" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
       <c r="G22" s="108">
         <f>'Presupuesto de Inversion'!C209</f>
         <v>22967679.680968828</v>
@@ -12486,15 +12488,15 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="107"/>
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="187" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="202" t="s">
+      <c r="C23" s="188" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
       <c r="G23" s="108">
         <v>0</v>
       </c>
@@ -12561,13 +12563,13 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="107"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="202" t="s">
+      <c r="B24" s="187"/>
+      <c r="C24" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
       <c r="G24" s="108">
         <v>0</v>
       </c>
@@ -12634,13 +12636,13 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="107"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="188" t="s">
+      <c r="B25" s="187"/>
+      <c r="C25" s="192" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
       <c r="G25" s="108"/>
       <c r="H25" s="108"/>
       <c r="I25" s="108"/>
@@ -12660,13 +12662,13 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="107"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="202" t="s">
+      <c r="B26" s="187"/>
+      <c r="C26" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
       <c r="G26" s="108"/>
       <c r="H26" s="108"/>
       <c r="I26" s="108"/>
@@ -12686,13 +12688,13 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="107"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="202" t="s">
+      <c r="B27" s="187"/>
+      <c r="C27" s="188" t="s">
         <v>367</v>
       </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
       <c r="G27" s="108">
         <f>'Indicadores Financieros'!D9</f>
         <v>6890303.9042906482</v>
@@ -12715,13 +12717,13 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="107"/>
-      <c r="B28" s="186" t="s">
+      <c r="B28" s="211" t="s">
         <v>368</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
       <c r="G28" s="109">
         <f>SUM(G22:G27)</f>
         <v>29857983.585259475</v>
@@ -12789,17 +12791,17 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="107"/>
-      <c r="B29" s="184" t="s">
+      <c r="B29" s="187" t="s">
         <v>338</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="168" t="s">
         <v>369</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="202" t="s">
+      <c r="D29" s="168"/>
+      <c r="E29" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="202"/>
+      <c r="F29" s="188"/>
       <c r="G29" s="108">
         <f>'Presupuesto de Inversion'!E16</f>
         <v>4848000</v>
@@ -12822,13 +12824,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="107"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="202" t="s">
+      <c r="B30" s="187"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="202"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="108">
         <f>'Presupuesto de Inversion'!K12</f>
         <v>640000</v>
@@ -12851,13 +12853,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="107"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="186" t="s">
+      <c r="B31" s="187"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="211" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="186"/>
+      <c r="F31" s="211"/>
       <c r="G31" s="112">
         <f>SUM(G29:G30)</f>
         <v>5488000</v>
@@ -12880,12 +12882,12 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="107"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="184" t="s">
+      <c r="B32" s="187"/>
+      <c r="C32" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="174" t="s">
+      <c r="D32" s="187"/>
+      <c r="E32" s="168" t="s">
         <v>381</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -12955,10 +12957,10 @@
     </row>
     <row r="33" spans="1:22" ht="30">
       <c r="A33" s="107"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="174"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="168"/>
       <c r="F33" s="106" t="s">
         <v>374</v>
       </c>
@@ -12981,10 +12983,10 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="107"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="174"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="168"/>
       <c r="F34" s="2" t="s">
         <v>375</v>
       </c>
@@ -13007,10 +13009,10 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="107"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="174"/>
+      <c r="B35" s="187"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="168"/>
       <c r="F35" s="2" t="s">
         <v>58</v>
       </c>
@@ -13033,10 +13035,10 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="107"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="174"/>
+      <c r="B36" s="187"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="168"/>
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
@@ -13059,10 +13061,10 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="107"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="174"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="168"/>
       <c r="F37" s="2" t="s">
         <v>376</v>
       </c>
@@ -13085,10 +13087,10 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="107"/>
-      <c r="B38" s="184"/>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="174"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="168"/>
       <c r="F38" s="2" t="s">
         <v>377</v>
       </c>
@@ -13111,10 +13113,10 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="107"/>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="174"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="168"/>
       <c r="F39" s="2" t="s">
         <v>62</v>
       </c>
@@ -13137,10 +13139,10 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="107"/>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="174"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="168"/>
       <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
@@ -13163,10 +13165,10 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="107"/>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="174"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="168"/>
       <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
@@ -13189,10 +13191,10 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="107"/>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="174"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="168"/>
       <c r="F42" s="2" t="s">
         <v>378</v>
       </c>
@@ -13215,10 +13217,10 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="107"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="184"/>
-      <c r="E43" s="174"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="168"/>
       <c r="F43" s="2" t="s">
         <v>379</v>
       </c>
@@ -13241,10 +13243,10 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="107"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="184"/>
-      <c r="E44" s="174"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="168"/>
       <c r="F44" s="113" t="s">
         <v>380</v>
       </c>
@@ -13312,13 +13314,13 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="107"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="230" t="s">
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="225" t="s">
         <v>382</v>
       </c>
-      <c r="F45" s="230"/>
+      <c r="F45" s="225"/>
       <c r="G45" s="108"/>
       <c r="H45" s="108">
         <f>'Presupuesto de Inversion'!$E$163/12</f>
@@ -13383,13 +13385,13 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="107"/>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="230" t="s">
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="225" t="s">
         <v>383</v>
       </c>
-      <c r="F46" s="230"/>
+      <c r="F46" s="225"/>
       <c r="G46" s="108"/>
       <c r="H46" s="108">
         <f>'Presupuesto de Inversion'!$E$164/12</f>
@@ -13454,13 +13456,13 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="107"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="230" t="s">
+      <c r="B47" s="187"/>
+      <c r="C47" s="187"/>
+      <c r="D47" s="187"/>
+      <c r="E47" s="225" t="s">
         <v>384</v>
       </c>
-      <c r="F47" s="230"/>
+      <c r="F47" s="225"/>
       <c r="G47" s="108"/>
       <c r="H47" s="108">
         <f>'Presupuesto de Inversion'!$E$165/12</f>
@@ -13525,13 +13527,13 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="107"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="184"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="230" t="s">
+      <c r="B48" s="187"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="225" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="230"/>
+      <c r="F48" s="225"/>
       <c r="G48" s="108"/>
       <c r="H48" s="108">
         <f>'Presupuesto de Inversion'!$E$166/12</f>
@@ -13596,13 +13598,13 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="107"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="230" t="s">
+      <c r="B49" s="187"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="225" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="230"/>
+      <c r="F49" s="225"/>
       <c r="G49" s="108"/>
       <c r="H49" s="108">
         <f>'Presupuesto de Inversion'!$E$167/12</f>
@@ -13667,13 +13669,13 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="107"/>
-      <c r="B50" s="184"/>
-      <c r="C50" s="184"/>
-      <c r="D50" s="184"/>
-      <c r="E50" s="230" t="s">
+      <c r="B50" s="187"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="225" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="230"/>
+      <c r="F50" s="225"/>
       <c r="G50" s="108"/>
       <c r="H50" s="108">
         <f>'Presupuesto de Inversion'!$E$168/12</f>
@@ -13738,13 +13740,13 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="107"/>
-      <c r="B51" s="184"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="184"/>
-      <c r="E51" s="230" t="s">
+      <c r="B51" s="187"/>
+      <c r="C51" s="187"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="225" t="s">
         <v>386</v>
       </c>
-      <c r="F51" s="230"/>
+      <c r="F51" s="225"/>
       <c r="G51" s="108"/>
       <c r="H51" s="108"/>
       <c r="I51" s="108"/>
@@ -13764,13 +13766,13 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="107"/>
-      <c r="B52" s="184"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="184"/>
-      <c r="E52" s="186" t="s">
+      <c r="B52" s="187"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="211" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="186"/>
+      <c r="F52" s="211"/>
       <c r="G52" s="109"/>
       <c r="H52" s="109">
         <f>SUM(H45:H51)</f>
@@ -13835,15 +13837,15 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="107"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="213" t="s">
+      <c r="B53" s="187"/>
+      <c r="C53" s="232" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="214"/>
-      <c r="E53" s="219" t="s">
+      <c r="D53" s="233"/>
+      <c r="E53" s="238" t="s">
         <v>494</v>
       </c>
-      <c r="F53" s="220"/>
+      <c r="F53" s="239"/>
       <c r="G53" s="152"/>
       <c r="H53" s="152"/>
       <c r="I53" s="152"/>
@@ -13863,13 +13865,13 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="107"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="215"/>
-      <c r="D54" s="216"/>
-      <c r="E54" s="219" t="s">
+      <c r="B54" s="187"/>
+      <c r="C54" s="234"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="238" t="s">
         <v>495</v>
       </c>
-      <c r="F54" s="220"/>
+      <c r="F54" s="239"/>
       <c r="G54" s="152"/>
       <c r="H54" s="152"/>
       <c r="I54" s="152"/>
@@ -13889,13 +13891,13 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="107"/>
-      <c r="B55" s="184"/>
-      <c r="C55" s="215"/>
-      <c r="D55" s="216"/>
-      <c r="E55" s="219" t="s">
+      <c r="B55" s="187"/>
+      <c r="C55" s="234"/>
+      <c r="D55" s="235"/>
+      <c r="E55" s="238" t="s">
         <v>496</v>
       </c>
-      <c r="F55" s="220"/>
+      <c r="F55" s="239"/>
       <c r="G55" s="152"/>
       <c r="H55" s="152"/>
       <c r="I55" s="152"/>
@@ -13915,13 +13917,13 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="107"/>
-      <c r="B56" s="184"/>
-      <c r="C56" s="215"/>
-      <c r="D56" s="216"/>
-      <c r="E56" s="219" t="s">
+      <c r="B56" s="187"/>
+      <c r="C56" s="234"/>
+      <c r="D56" s="235"/>
+      <c r="E56" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="F56" s="220"/>
+      <c r="F56" s="239"/>
       <c r="G56" s="152"/>
       <c r="H56" s="152"/>
       <c r="I56" s="152"/>
@@ -13941,13 +13943,13 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="107"/>
-      <c r="B57" s="184"/>
-      <c r="C57" s="215"/>
-      <c r="D57" s="216"/>
-      <c r="E57" s="219" t="s">
+      <c r="B57" s="187"/>
+      <c r="C57" s="234"/>
+      <c r="D57" s="235"/>
+      <c r="E57" s="238" t="s">
         <v>312</v>
       </c>
-      <c r="F57" s="220"/>
+      <c r="F57" s="239"/>
       <c r="G57" s="152"/>
       <c r="H57" s="153">
         <f>'Presupuesto de Inversion'!C139*0.05</f>
@@ -14012,13 +14014,13 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="107"/>
-      <c r="B58" s="184"/>
-      <c r="C58" s="215"/>
-      <c r="D58" s="216"/>
-      <c r="E58" s="219" t="s">
+      <c r="B58" s="187"/>
+      <c r="C58" s="234"/>
+      <c r="D58" s="235"/>
+      <c r="E58" s="238" t="s">
         <v>313</v>
       </c>
-      <c r="F58" s="221"/>
+      <c r="F58" s="240"/>
       <c r="G58" s="152"/>
       <c r="H58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
@@ -14083,13 +14085,13 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="107"/>
-      <c r="B59" s="184"/>
-      <c r="C59" s="215"/>
-      <c r="D59" s="216"/>
-      <c r="E59" s="219" t="s">
+      <c r="B59" s="187"/>
+      <c r="C59" s="234"/>
+      <c r="D59" s="235"/>
+      <c r="E59" s="238" t="s">
         <v>497</v>
       </c>
-      <c r="F59" s="221"/>
+      <c r="F59" s="240"/>
       <c r="G59" s="152"/>
       <c r="H59" s="153">
         <f>'Analisis Prestamo'!D10+'Analisis Prestamo'!F10</f>
@@ -14152,13 +14154,13 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="107"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="215"/>
-      <c r="D60" s="216"/>
-      <c r="E60" s="219" t="s">
+      <c r="B60" s="187"/>
+      <c r="C60" s="234"/>
+      <c r="D60" s="235"/>
+      <c r="E60" s="238" t="s">
         <v>498</v>
       </c>
-      <c r="F60" s="220"/>
+      <c r="F60" s="239"/>
       <c r="G60" s="152"/>
       <c r="H60" s="152"/>
       <c r="I60" s="152"/>
@@ -14178,13 +14180,13 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="107"/>
-      <c r="B61" s="184"/>
-      <c r="C61" s="217"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="222" t="s">
+      <c r="B61" s="187"/>
+      <c r="C61" s="236"/>
+      <c r="D61" s="237"/>
+      <c r="E61" s="241" t="s">
         <v>499</v>
       </c>
-      <c r="F61" s="223"/>
+      <c r="F61" s="242"/>
       <c r="G61" s="109"/>
       <c r="H61" s="109">
         <f>SUM(H53:H60)</f>
@@ -14249,15 +14251,15 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="107"/>
-      <c r="B62" s="184"/>
-      <c r="C62" s="184" t="s">
+      <c r="B62" s="187"/>
+      <c r="C62" s="187" t="s">
         <v>206</v>
       </c>
-      <c r="D62" s="184"/>
-      <c r="E62" s="202" t="s">
+      <c r="D62" s="187"/>
+      <c r="E62" s="188" t="s">
         <v>387</v>
       </c>
-      <c r="F62" s="202"/>
+      <c r="F62" s="188"/>
       <c r="G62" s="108"/>
       <c r="H62" s="108"/>
       <c r="I62" s="108"/>
@@ -14277,13 +14279,13 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="107"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="202" t="s">
+      <c r="B63" s="187"/>
+      <c r="C63" s="187"/>
+      <c r="D63" s="187"/>
+      <c r="E63" s="188" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="202"/>
+      <c r="F63" s="188"/>
       <c r="G63" s="108"/>
       <c r="H63" s="108"/>
       <c r="I63" s="108"/>
@@ -14311,13 +14313,13 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="107"/>
-      <c r="B64" s="184"/>
-      <c r="C64" s="184"/>
-      <c r="D64" s="184"/>
-      <c r="E64" s="202" t="s">
+      <c r="B64" s="187"/>
+      <c r="C64" s="187"/>
+      <c r="D64" s="187"/>
+      <c r="E64" s="188" t="s">
         <v>389</v>
       </c>
-      <c r="F64" s="202"/>
+      <c r="F64" s="188"/>
       <c r="G64" s="108"/>
       <c r="H64" s="108"/>
       <c r="I64" s="108"/>
@@ -14345,13 +14347,13 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="107"/>
-      <c r="B65" s="184"/>
-      <c r="C65" s="184"/>
-      <c r="D65" s="184"/>
-      <c r="E65" s="202" t="s">
+      <c r="B65" s="187"/>
+      <c r="C65" s="187"/>
+      <c r="D65" s="187"/>
+      <c r="E65" s="188" t="s">
         <v>390</v>
       </c>
-      <c r="F65" s="202"/>
+      <c r="F65" s="188"/>
       <c r="G65" s="108"/>
       <c r="H65" s="108">
         <f>'Presupuesto de Inversion'!$C$154/12</f>
@@ -14416,13 +14418,13 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="107"/>
-      <c r="B66" s="184"/>
-      <c r="C66" s="184"/>
-      <c r="D66" s="184"/>
-      <c r="E66" s="202" t="s">
+      <c r="B66" s="187"/>
+      <c r="C66" s="187"/>
+      <c r="D66" s="187"/>
+      <c r="E66" s="188" t="s">
         <v>391</v>
       </c>
-      <c r="F66" s="202"/>
+      <c r="F66" s="188"/>
       <c r="G66" s="108"/>
       <c r="H66" s="108">
         <f>'Presupuesto de Inversion'!$C$155/12</f>
@@ -14487,13 +14489,13 @@
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="107"/>
-      <c r="B67" s="184"/>
-      <c r="C67" s="184"/>
-      <c r="D67" s="184"/>
-      <c r="E67" s="202" t="s">
+      <c r="B67" s="187"/>
+      <c r="C67" s="187"/>
+      <c r="D67" s="187"/>
+      <c r="E67" s="188" t="s">
         <v>392</v>
       </c>
-      <c r="F67" s="202"/>
+      <c r="F67" s="188"/>
       <c r="G67" s="108"/>
       <c r="H67" s="108">
         <f>'Presupuesto de Inversion'!C140</f>
@@ -14558,13 +14560,13 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="107"/>
-      <c r="B68" s="184"/>
-      <c r="C68" s="184"/>
-      <c r="D68" s="184"/>
-      <c r="E68" s="202" t="s">
+      <c r="B68" s="187"/>
+      <c r="C68" s="187"/>
+      <c r="D68" s="187"/>
+      <c r="E68" s="188" t="s">
         <v>393</v>
       </c>
-      <c r="F68" s="202"/>
+      <c r="F68" s="188"/>
       <c r="G68" s="108"/>
       <c r="H68" s="108">
         <f>'Presupuesto de Inversion'!C141</f>
@@ -14629,13 +14631,13 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="107"/>
-      <c r="B69" s="184"/>
-      <c r="C69" s="184"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="202" t="s">
+      <c r="B69" s="187"/>
+      <c r="C69" s="187"/>
+      <c r="D69" s="187"/>
+      <c r="E69" s="188" t="s">
         <v>394</v>
       </c>
-      <c r="F69" s="202"/>
+      <c r="F69" s="188"/>
       <c r="G69" s="108"/>
       <c r="H69" s="108">
         <f>$E$14/12</f>
@@ -14700,13 +14702,13 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="107"/>
-      <c r="B70" s="184"/>
-      <c r="C70" s="184"/>
-      <c r="D70" s="184"/>
-      <c r="E70" s="186" t="s">
+      <c r="B70" s="187"/>
+      <c r="C70" s="187"/>
+      <c r="D70" s="187"/>
+      <c r="E70" s="211" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="186"/>
+      <c r="F70" s="211"/>
       <c r="G70" s="109"/>
       <c r="H70" s="109">
         <f>SUM(H62:H69)</f>
@@ -14771,13 +14773,13 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="107"/>
-      <c r="B71" s="184"/>
-      <c r="C71" s="227" t="s">
+      <c r="B71" s="187"/>
+      <c r="C71" s="226" t="s">
         <v>395</v>
       </c>
-      <c r="D71" s="227"/>
-      <c r="E71" s="227"/>
-      <c r="F71" s="227"/>
+      <c r="D71" s="226"/>
+      <c r="E71" s="226"/>
+      <c r="F71" s="226"/>
       <c r="G71" s="108"/>
       <c r="H71" s="108">
         <f>$E$17/12</f>
@@ -14842,13 +14844,13 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="107"/>
-      <c r="B72" s="184"/>
-      <c r="C72" s="202" t="s">
+      <c r="B72" s="187"/>
+      <c r="C72" s="188" t="s">
         <v>396</v>
       </c>
-      <c r="D72" s="202"/>
-      <c r="E72" s="202"/>
-      <c r="F72" s="202"/>
+      <c r="D72" s="188"/>
+      <c r="E72" s="188"/>
+      <c r="F72" s="188"/>
       <c r="G72" s="108"/>
       <c r="H72" s="108"/>
       <c r="I72" s="108"/>
@@ -14868,13 +14870,13 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="107"/>
-      <c r="B73" s="184"/>
-      <c r="C73" s="179" t="s">
+      <c r="B73" s="187"/>
+      <c r="C73" s="212" t="s">
         <v>355</v>
       </c>
-      <c r="D73" s="179"/>
-      <c r="E73" s="179"/>
-      <c r="F73" s="179"/>
+      <c r="D73" s="212"/>
+      <c r="E73" s="212"/>
+      <c r="F73" s="212"/>
       <c r="G73" s="110">
         <f>G31</f>
         <v>5488000</v>
@@ -14942,13 +14944,13 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="107"/>
-      <c r="B74" s="225" t="s">
+      <c r="B74" s="227" t="s">
         <v>397</v>
       </c>
-      <c r="C74" s="225"/>
-      <c r="D74" s="225"/>
-      <c r="E74" s="225"/>
-      <c r="F74" s="225"/>
+      <c r="C74" s="227"/>
+      <c r="D74" s="227"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
       <c r="G74" s="112">
         <f>G28-G73</f>
         <v>24369983.585259475</v>
@@ -15016,13 +15018,13 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="107"/>
-      <c r="B75" s="177" t="s">
+      <c r="B75" s="166" t="s">
         <v>398</v>
       </c>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="166"/>
+      <c r="E75" s="166"/>
+      <c r="F75" s="166"/>
       <c r="G75" s="108"/>
       <c r="H75" s="108"/>
       <c r="I75" s="108"/>
@@ -15044,26 +15046,26 @@
       <c r="A76" s="107"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="B77" s="226" t="s">
+      <c r="B77" s="229" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="226"/>
-      <c r="D77" s="226"/>
-      <c r="E77" s="226"/>
-      <c r="F77" s="226"/>
-      <c r="G77" s="226"/>
-      <c r="H77" s="226"/>
-      <c r="I77" s="226"/>
-      <c r="J77" s="226"/>
+      <c r="C77" s="229"/>
+      <c r="D77" s="229"/>
+      <c r="E77" s="229"/>
+      <c r="F77" s="229"/>
+      <c r="G77" s="229"/>
+      <c r="H77" s="229"/>
+      <c r="I77" s="229"/>
+      <c r="J77" s="229"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="B78" s="184" t="s">
+      <c r="B78" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="184"/>
-      <c r="D78" s="184"/>
-      <c r="E78" s="184"/>
-      <c r="F78" s="184"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="187"/>
+      <c r="F78" s="187"/>
       <c r="G78" s="61" t="s">
         <v>418</v>
       </c>
@@ -15078,17 +15080,17 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="B79" s="184" t="s">
+      <c r="B79" s="187" t="s">
         <v>416</v>
       </c>
-      <c r="C79" s="184" t="s">
+      <c r="C79" s="187" t="s">
         <v>406</v>
       </c>
-      <c r="D79" s="184"/>
-      <c r="E79" s="202" t="s">
+      <c r="D79" s="187"/>
+      <c r="E79" s="188" t="s">
         <v>402</v>
       </c>
-      <c r="F79" s="202"/>
+      <c r="F79" s="188"/>
       <c r="G79" s="108">
         <f>G74</f>
         <v>24369983.585259475</v>
@@ -15107,13 +15109,13 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="B80" s="184"/>
-      <c r="C80" s="184"/>
-      <c r="D80" s="184"/>
-      <c r="E80" s="202" t="s">
+      <c r="B80" s="187"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="187"/>
+      <c r="E80" s="188" t="s">
         <v>403</v>
       </c>
-      <c r="F80" s="202"/>
+      <c r="F80" s="188"/>
       <c r="G80" s="108">
         <v>0</v>
       </c>
@@ -15131,39 +15133,39 @@
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="B81" s="184"/>
-      <c r="C81" s="184"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="202" t="s">
+      <c r="B81" s="187"/>
+      <c r="C81" s="187"/>
+      <c r="D81" s="187"/>
+      <c r="E81" s="188" t="s">
         <v>404</v>
       </c>
-      <c r="F81" s="202"/>
+      <c r="F81" s="188"/>
       <c r="G81" s="108"/>
       <c r="H81" s="108"/>
       <c r="I81" s="108"/>
       <c r="J81" s="108"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="B82" s="184"/>
-      <c r="C82" s="184"/>
-      <c r="D82" s="184"/>
-      <c r="E82" s="202" t="s">
+      <c r="B82" s="187"/>
+      <c r="C82" s="187"/>
+      <c r="D82" s="187"/>
+      <c r="E82" s="188" t="s">
         <v>405</v>
       </c>
-      <c r="F82" s="202"/>
+      <c r="F82" s="188"/>
       <c r="G82" s="108"/>
       <c r="H82" s="108"/>
       <c r="I82" s="108"/>
       <c r="J82" s="108"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="B83" s="184"/>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="186" t="s">
+      <c r="B83" s="187"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="187"/>
+      <c r="E83" s="211" t="s">
         <v>407</v>
       </c>
-      <c r="F83" s="186"/>
+      <c r="F83" s="211"/>
       <c r="G83" s="109">
         <f>SUM(G79:G82)</f>
         <v>24369983.585259475</v>
@@ -15182,15 +15184,15 @@
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="B84" s="184"/>
-      <c r="C84" s="184" t="s">
+      <c r="B84" s="187"/>
+      <c r="C84" s="187" t="s">
         <v>417</v>
       </c>
-      <c r="D84" s="184"/>
-      <c r="E84" s="177" t="s">
+      <c r="D84" s="187"/>
+      <c r="E84" s="166" t="s">
         <v>408</v>
       </c>
-      <c r="F84" s="177"/>
+      <c r="F84" s="166"/>
       <c r="G84" s="108">
         <f>'Presupuesto de Inversion'!E5</f>
         <v>3348000</v>
@@ -15200,13 +15202,13 @@
       <c r="J84" s="108"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="B85" s="184"/>
-      <c r="C85" s="184"/>
-      <c r="D85" s="184"/>
-      <c r="E85" s="177" t="s">
+      <c r="B85" s="187"/>
+      <c r="C85" s="187"/>
+      <c r="D85" s="187"/>
+      <c r="E85" s="166" t="s">
         <v>409</v>
       </c>
-      <c r="F85" s="177"/>
+      <c r="F85" s="166"/>
       <c r="G85" s="108">
         <f>'Presupuesto de Inversion'!E8</f>
         <v>1500000</v>
@@ -15232,13 +15234,13 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="B86" s="184"/>
-      <c r="C86" s="184"/>
-      <c r="D86" s="184"/>
-      <c r="E86" s="177" t="s">
+      <c r="B86" s="187"/>
+      <c r="C86" s="187"/>
+      <c r="D86" s="187"/>
+      <c r="E86" s="166" t="s">
         <v>410</v>
       </c>
-      <c r="F86" s="177"/>
+      <c r="F86" s="166"/>
       <c r="G86" s="108">
         <f>'Presupuesto de Inversion'!E11</f>
         <v>0</v>
@@ -15248,13 +15250,13 @@
       <c r="J86" s="108"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="B87" s="184"/>
-      <c r="C87" s="184"/>
-      <c r="D87" s="184"/>
-      <c r="E87" s="177" t="s">
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="166" t="s">
         <v>411</v>
       </c>
-      <c r="F87" s="177"/>
+      <c r="F87" s="166"/>
       <c r="G87" s="108">
         <f>0</f>
         <v>0</v>
@@ -15264,13 +15266,13 @@
       <c r="J87" s="108"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="B88" s="184"/>
-      <c r="C88" s="184"/>
-      <c r="D88" s="184"/>
-      <c r="E88" s="177" t="s">
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="166" t="s">
         <v>412</v>
       </c>
-      <c r="F88" s="177"/>
+      <c r="F88" s="166"/>
       <c r="G88" s="108">
         <f>'Presupuesto de Inversion'!E15</f>
         <v>0</v>
@@ -15280,13 +15282,13 @@
       <c r="J88" s="108"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="B89" s="184"/>
-      <c r="C89" s="184"/>
-      <c r="D89" s="184"/>
-      <c r="E89" s="177" t="s">
+      <c r="B89" s="187"/>
+      <c r="C89" s="187"/>
+      <c r="D89" s="187"/>
+      <c r="E89" s="166" t="s">
         <v>413</v>
       </c>
-      <c r="F89" s="177"/>
+      <c r="F89" s="166"/>
       <c r="G89" s="108"/>
       <c r="H89" s="108">
         <f>'Presupuesto de Inversion'!G31</f>
@@ -15302,13 +15304,13 @@
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="B90" s="184"/>
-      <c r="C90" s="184"/>
-      <c r="D90" s="184"/>
-      <c r="E90" s="229" t="s">
+      <c r="B90" s="187"/>
+      <c r="C90" s="187"/>
+      <c r="D90" s="187"/>
+      <c r="E90" s="228" t="s">
         <v>414</v>
       </c>
-      <c r="F90" s="229"/>
+      <c r="F90" s="228"/>
       <c r="G90" s="112">
         <f>SUM(G84:G89)</f>
         <v>4848000</v>
@@ -15327,13 +15329,13 @@
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="B91" s="184"/>
-      <c r="C91" s="179" t="s">
+      <c r="B91" s="187"/>
+      <c r="C91" s="212" t="s">
         <v>415</v>
       </c>
-      <c r="D91" s="179"/>
-      <c r="E91" s="179"/>
-      <c r="F91" s="179"/>
+      <c r="D91" s="212"/>
+      <c r="E91" s="212"/>
+      <c r="F91" s="212"/>
       <c r="G91" s="115">
         <f>G83+G90</f>
         <v>29217983.585259475</v>
@@ -15353,27 +15355,27 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="107"/>
-      <c r="B93" s="226" t="s">
+      <c r="B93" s="229" t="s">
         <v>419</v>
       </c>
-      <c r="C93" s="226"/>
-      <c r="D93" s="226"/>
-      <c r="E93" s="226"/>
-      <c r="F93" s="226"/>
-      <c r="G93" s="226"/>
-      <c r="H93" s="226"/>
-      <c r="I93" s="226"/>
-      <c r="J93" s="226"/>
+      <c r="C93" s="229"/>
+      <c r="D93" s="229"/>
+      <c r="E93" s="229"/>
+      <c r="F93" s="229"/>
+      <c r="G93" s="229"/>
+      <c r="H93" s="229"/>
+      <c r="I93" s="229"/>
+      <c r="J93" s="229"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="107"/>
-      <c r="B94" s="184" t="s">
+      <c r="B94" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="184"/>
-      <c r="D94" s="184"/>
-      <c r="E94" s="184"/>
-      <c r="F94" s="184"/>
+      <c r="C94" s="187"/>
+      <c r="D94" s="187"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="187"/>
       <c r="G94" s="145" t="s">
         <v>443</v>
       </c>
@@ -15389,17 +15391,17 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="107"/>
-      <c r="B95" s="184" t="s">
+      <c r="B95" s="187" t="s">
         <v>434</v>
       </c>
-      <c r="C95" s="184" t="s">
+      <c r="C95" s="187" t="s">
         <v>429</v>
       </c>
-      <c r="D95" s="184"/>
-      <c r="E95" s="202" t="s">
+      <c r="D95" s="187"/>
+      <c r="E95" s="188" t="s">
         <v>420</v>
       </c>
-      <c r="F95" s="202"/>
+      <c r="F95" s="188"/>
       <c r="G95" s="76"/>
       <c r="H95" s="76"/>
       <c r="I95" s="76"/>
@@ -15407,13 +15409,13 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="107"/>
-      <c r="B96" s="184"/>
-      <c r="C96" s="184"/>
-      <c r="D96" s="184"/>
-      <c r="E96" s="202" t="s">
+      <c r="B96" s="187"/>
+      <c r="C96" s="187"/>
+      <c r="D96" s="187"/>
+      <c r="E96" s="188" t="s">
         <v>421</v>
       </c>
-      <c r="F96" s="202"/>
+      <c r="F96" s="188"/>
       <c r="G96" s="76"/>
       <c r="H96" s="76">
         <f>'Presupuesto de Inversion'!E64</f>
@@ -15430,13 +15432,13 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="107"/>
-      <c r="B97" s="184"/>
-      <c r="C97" s="184"/>
-      <c r="D97" s="184"/>
-      <c r="E97" s="227" t="s">
+      <c r="B97" s="187"/>
+      <c r="C97" s="187"/>
+      <c r="D97" s="187"/>
+      <c r="E97" s="226" t="s">
         <v>422</v>
       </c>
-      <c r="F97" s="227"/>
+      <c r="F97" s="226"/>
       <c r="G97" s="76"/>
       <c r="H97" s="76"/>
       <c r="I97" s="76"/>
@@ -15444,13 +15446,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="107"/>
-      <c r="B98" s="184"/>
-      <c r="C98" s="184"/>
-      <c r="D98" s="184"/>
-      <c r="E98" s="227" t="s">
+      <c r="B98" s="187"/>
+      <c r="C98" s="187"/>
+      <c r="D98" s="187"/>
+      <c r="E98" s="226" t="s">
         <v>423</v>
       </c>
-      <c r="F98" s="227"/>
+      <c r="F98" s="226"/>
       <c r="G98" s="76"/>
       <c r="H98" s="76">
         <f>'Presupuesto de Inversion'!C154</f>
@@ -15467,13 +15469,13 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="107"/>
-      <c r="B99" s="184"/>
-      <c r="C99" s="184"/>
-      <c r="D99" s="184"/>
-      <c r="E99" s="227" t="s">
+      <c r="B99" s="187"/>
+      <c r="C99" s="187"/>
+      <c r="D99" s="187"/>
+      <c r="E99" s="226" t="s">
         <v>391</v>
       </c>
-      <c r="F99" s="227"/>
+      <c r="F99" s="226"/>
       <c r="G99" s="76"/>
       <c r="H99" s="76">
         <f>'Presupuesto de Inversion'!C155</f>
@@ -15490,13 +15492,13 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="107"/>
-      <c r="B100" s="184"/>
-      <c r="C100" s="184"/>
-      <c r="D100" s="184"/>
-      <c r="E100" s="227" t="s">
+      <c r="B100" s="187"/>
+      <c r="C100" s="187"/>
+      <c r="D100" s="187"/>
+      <c r="E100" s="226" t="s">
         <v>424</v>
       </c>
-      <c r="F100" s="227"/>
+      <c r="F100" s="226"/>
       <c r="G100" s="76"/>
       <c r="H100" s="76">
         <f>'Presupuesto de Inversion'!O140</f>
@@ -15513,13 +15515,13 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="107"/>
-      <c r="B101" s="184"/>
-      <c r="C101" s="184"/>
-      <c r="D101" s="184"/>
-      <c r="E101" s="227" t="s">
+      <c r="B101" s="187"/>
+      <c r="C101" s="187"/>
+      <c r="D101" s="187"/>
+      <c r="E101" s="226" t="s">
         <v>425</v>
       </c>
-      <c r="F101" s="227"/>
+      <c r="F101" s="226"/>
       <c r="G101" s="76"/>
       <c r="H101" s="76">
         <f>'Presupuesto de Inversion'!O141</f>
@@ -15536,13 +15538,13 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="107"/>
-      <c r="B102" s="184"/>
-      <c r="C102" s="184"/>
-      <c r="D102" s="184"/>
-      <c r="E102" s="227" t="s">
+      <c r="B102" s="187"/>
+      <c r="C102" s="187"/>
+      <c r="D102" s="187"/>
+      <c r="E102" s="226" t="s">
         <v>426</v>
       </c>
-      <c r="F102" s="227"/>
+      <c r="F102" s="226"/>
       <c r="G102" s="76"/>
       <c r="H102" s="76">
         <f>E14+E15</f>
@@ -15559,13 +15561,13 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="107"/>
-      <c r="B103" s="184"/>
-      <c r="C103" s="184"/>
-      <c r="D103" s="184"/>
-      <c r="E103" s="227" t="s">
+      <c r="B103" s="187"/>
+      <c r="C103" s="187"/>
+      <c r="D103" s="187"/>
+      <c r="E103" s="226" t="s">
         <v>427</v>
       </c>
-      <c r="F103" s="227"/>
+      <c r="F103" s="226"/>
       <c r="G103" s="76"/>
       <c r="H103" s="76">
         <v>0</v>
@@ -15579,13 +15581,13 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="107"/>
-      <c r="B104" s="184"/>
-      <c r="C104" s="184"/>
-      <c r="D104" s="184"/>
-      <c r="E104" s="228" t="s">
+      <c r="B104" s="187"/>
+      <c r="C104" s="187"/>
+      <c r="D104" s="187"/>
+      <c r="E104" s="231" t="s">
         <v>428</v>
       </c>
-      <c r="F104" s="228"/>
+      <c r="F104" s="231"/>
       <c r="G104" s="101">
         <f>SUM(G95:G103)</f>
         <v>0</v>
@@ -15605,15 +15607,15 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="107"/>
-      <c r="B105" s="184"/>
-      <c r="C105" s="184" t="s">
+      <c r="B105" s="187"/>
+      <c r="C105" s="187" t="s">
         <v>433</v>
       </c>
-      <c r="D105" s="184"/>
-      <c r="E105" s="202" t="s">
+      <c r="D105" s="187"/>
+      <c r="E105" s="188" t="s">
         <v>430</v>
       </c>
-      <c r="F105" s="202"/>
+      <c r="F105" s="188"/>
       <c r="G105" s="76"/>
       <c r="H105" s="76"/>
       <c r="I105" s="76"/>
@@ -15621,9 +15623,9 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="107"/>
-      <c r="B106" s="184"/>
-      <c r="C106" s="184"/>
-      <c r="D106" s="184"/>
+      <c r="B106" s="187"/>
+      <c r="C106" s="187"/>
+      <c r="D106" s="187"/>
       <c r="E106" s="147" t="s">
         <v>431</v>
       </c>
@@ -15635,13 +15637,13 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="107"/>
-      <c r="B107" s="184"/>
-      <c r="C107" s="184"/>
-      <c r="D107" s="184"/>
-      <c r="E107" s="202" t="s">
+      <c r="B107" s="187"/>
+      <c r="C107" s="187"/>
+      <c r="D107" s="187"/>
+      <c r="E107" s="188" t="s">
         <v>427</v>
       </c>
-      <c r="F107" s="202"/>
+      <c r="F107" s="188"/>
       <c r="G107" s="76"/>
       <c r="H107" s="76"/>
       <c r="I107" s="76"/>
@@ -15649,13 +15651,13 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="107"/>
-      <c r="B108" s="184"/>
-      <c r="C108" s="184"/>
-      <c r="D108" s="184"/>
-      <c r="E108" s="186" t="s">
+      <c r="B108" s="187"/>
+      <c r="C108" s="187"/>
+      <c r="D108" s="187"/>
+      <c r="E108" s="211" t="s">
         <v>432</v>
       </c>
-      <c r="F108" s="186"/>
+      <c r="F108" s="211"/>
       <c r="G108" s="101">
         <f>SUM(G105:G107)</f>
         <v>0</v>
@@ -15675,13 +15677,13 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="107"/>
-      <c r="B109" s="184"/>
-      <c r="C109" s="224" t="s">
+      <c r="B109" s="187"/>
+      <c r="C109" s="230" t="s">
         <v>435</v>
       </c>
-      <c r="D109" s="224"/>
-      <c r="E109" s="224"/>
-      <c r="F109" s="224"/>
+      <c r="D109" s="230"/>
+      <c r="E109" s="230"/>
+      <c r="F109" s="230"/>
       <c r="G109" s="116">
         <f>G104+G108</f>
         <v>0</v>
@@ -15701,11 +15703,11 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="107"/>
-      <c r="B110" s="184" t="s">
+      <c r="B110" s="187" t="s">
         <v>441</v>
       </c>
-      <c r="C110" s="184"/>
-      <c r="D110" s="184"/>
+      <c r="C110" s="187"/>
+      <c r="D110" s="187"/>
       <c r="E110" s="2" t="s">
         <v>436</v>
       </c>
@@ -15717,9 +15719,9 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="107"/>
-      <c r="B111" s="184"/>
-      <c r="C111" s="184"/>
-      <c r="D111" s="184"/>
+      <c r="B111" s="187"/>
+      <c r="C111" s="187"/>
+      <c r="D111" s="187"/>
       <c r="E111" s="2" t="s">
         <v>437</v>
       </c>
@@ -15740,9 +15742,9 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="107"/>
-      <c r="B112" s="184"/>
-      <c r="C112" s="184"/>
-      <c r="D112" s="184"/>
+      <c r="B112" s="187"/>
+      <c r="C112" s="187"/>
+      <c r="D112" s="187"/>
       <c r="E112" s="2" t="s">
         <v>438</v>
       </c>
@@ -15754,9 +15756,9 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="107"/>
-      <c r="B113" s="184"/>
-      <c r="C113" s="184"/>
-      <c r="D113" s="184"/>
+      <c r="B113" s="187"/>
+      <c r="C113" s="187"/>
+      <c r="D113" s="187"/>
       <c r="E113" s="2" t="s">
         <v>439</v>
       </c>
@@ -15777,13 +15779,13 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="107"/>
-      <c r="B114" s="184"/>
-      <c r="C114" s="184"/>
-      <c r="D114" s="184"/>
-      <c r="E114" s="186" t="s">
+      <c r="B114" s="187"/>
+      <c r="C114" s="187"/>
+      <c r="D114" s="187"/>
+      <c r="E114" s="211" t="s">
         <v>440</v>
       </c>
-      <c r="F114" s="186"/>
+      <c r="F114" s="211"/>
       <c r="G114" s="101">
         <f>SUM(G110:G113)</f>
         <v>0</v>
@@ -15803,13 +15805,13 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="107"/>
-      <c r="B115" s="224" t="s">
+      <c r="B115" s="230" t="s">
         <v>442</v>
       </c>
-      <c r="C115" s="224"/>
-      <c r="D115" s="224"/>
-      <c r="E115" s="224"/>
-      <c r="F115" s="224"/>
+      <c r="C115" s="230"/>
+      <c r="D115" s="230"/>
+      <c r="E115" s="230"/>
+      <c r="F115" s="230"/>
       <c r="G115" s="116">
         <f>G109+G114</f>
         <v>0</v>
@@ -15829,13 +15831,13 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="107"/>
-      <c r="B116" s="177" t="s">
+      <c r="B116" s="166" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="177"/>
-      <c r="D116" s="177"/>
-      <c r="E116" s="177"/>
-      <c r="F116" s="177"/>
+      <c r="C116" s="166"/>
+      <c r="D116" s="166"/>
+      <c r="E116" s="166"/>
+      <c r="F116" s="166"/>
       <c r="G116" s="76">
         <f>G91</f>
         <v>29217983.585259475</v>
@@ -15855,13 +15857,13 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="107"/>
-      <c r="B117" s="225" t="s">
+      <c r="B117" s="227" t="s">
         <v>444</v>
       </c>
-      <c r="C117" s="225"/>
-      <c r="D117" s="225"/>
-      <c r="E117" s="225"/>
-      <c r="F117" s="225"/>
+      <c r="C117" s="227"/>
+      <c r="D117" s="227"/>
+      <c r="E117" s="227"/>
+      <c r="F117" s="227"/>
       <c r="G117" s="94">
         <f>G116-(G109+G114)</f>
         <v>29217983.585259475</v>
@@ -15881,30 +15883,30 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="159"/>
-      <c r="B119" s="184" t="s">
+      <c r="B119" s="229" t="s">
         <v>507</v>
       </c>
-      <c r="C119" s="184"/>
-      <c r="D119" s="184"/>
-      <c r="E119" s="184"/>
-      <c r="F119" s="184"/>
-      <c r="G119" s="184"/>
-      <c r="H119" s="184"/>
-      <c r="I119" s="184"/>
-      <c r="J119" s="184"/>
-      <c r="K119" s="184"/>
-      <c r="L119" s="184"/>
-      <c r="M119" s="184"/>
-      <c r="N119" s="184"/>
-      <c r="O119" s="184"/>
-      <c r="P119" s="184"/>
+      <c r="C119" s="229"/>
+      <c r="D119" s="229"/>
+      <c r="E119" s="229"/>
+      <c r="F119" s="229"/>
+      <c r="G119" s="229"/>
+      <c r="H119" s="229"/>
+      <c r="I119" s="229"/>
+      <c r="J119" s="229"/>
+      <c r="K119" s="229"/>
+      <c r="L119" s="229"/>
+      <c r="M119" s="229"/>
+      <c r="N119" s="229"/>
+      <c r="O119" s="229"/>
+      <c r="P119" s="229"/>
     </row>
     <row r="120" spans="1:17">
-      <c r="B120" s="184" t="s">
+      <c r="B120" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="C120" s="184"/>
-      <c r="D120" s="184"/>
+      <c r="C120" s="187"/>
+      <c r="D120" s="187"/>
       <c r="E120" s="158" t="s">
         <v>265</v>
       </c>
@@ -15943,986 +15945,986 @@
       </c>
     </row>
     <row r="121" spans="1:17">
-      <c r="B121" s="236" t="s">
+      <c r="B121" s="252" t="s">
         <v>508</v>
       </c>
-      <c r="C121" s="236"/>
-      <c r="D121" s="236"/>
-      <c r="E121" s="250">
-        <f>'Presupuesto de Inversion'!C139</f>
-        <v>2804306.59266055</v>
-      </c>
-      <c r="F121" s="250">
-        <f>'Presupuesto de Inversion'!D139</f>
-        <v>5541843.9807339441</v>
-      </c>
-      <c r="G121" s="250">
-        <f>'Presupuesto de Inversion'!E139</f>
-        <v>7544920.1183486227</v>
-      </c>
-      <c r="H121" s="250">
-        <f>'Presupuesto de Inversion'!F139</f>
-        <v>13787840.747247703</v>
-      </c>
-      <c r="I121" s="250">
-        <f>'Presupuesto de Inversion'!G139</f>
-        <v>4373382.9004587149</v>
-      </c>
-      <c r="J121" s="250">
-        <f>'Presupuesto de Inversion'!H139</f>
-        <v>3672306.2522935774</v>
-      </c>
-      <c r="K121" s="250">
-        <f>'Presupuesto de Inversion'!I139</f>
-        <v>5775536.1967889899</v>
-      </c>
-      <c r="L121" s="250">
-        <f>'Presupuesto de Inversion'!J139</f>
-        <v>15290147.850458715</v>
-      </c>
-      <c r="M121" s="250">
-        <f>'Presupuesto de Inversion'!K139</f>
-        <v>15156609.441284399</v>
-      </c>
-      <c r="N121" s="250">
-        <f>'Presupuesto de Inversion'!L139</f>
-        <v>12185379.837155961</v>
-      </c>
-      <c r="O121" s="250">
-        <f>'Presupuesto de Inversion'!M139</f>
-        <v>5107844.1509174304</v>
-      </c>
-      <c r="P121" s="250">
-        <f>'Presupuesto de Inversion'!N139</f>
-        <v>3438614.0362385316</v>
-      </c>
-      <c r="Q121" s="252"/>
+      <c r="C121" s="252"/>
+      <c r="D121" s="252"/>
+      <c r="E121" s="253">
+        <f>'Presupuesto de Inversion'!C142</f>
+        <v>3257202.1073752288</v>
+      </c>
+      <c r="F121" s="253">
+        <f>'Presupuesto de Inversion'!D142</f>
+        <v>6436851.7836224753</v>
+      </c>
+      <c r="G121" s="253">
+        <f>'Presupuesto de Inversion'!E142</f>
+        <v>8763424.717461925</v>
+      </c>
+      <c r="H121" s="253">
+        <f>'Presupuesto de Inversion'!F142</f>
+        <v>16014577.027928207</v>
+      </c>
+      <c r="I121" s="253">
+        <f>'Presupuesto de Inversion'!G142</f>
+        <v>5079684.2388827978</v>
+      </c>
+      <c r="J121" s="253">
+        <f>'Presupuesto de Inversion'!H142</f>
+        <v>4265383.7120389901</v>
+      </c>
+      <c r="K121" s="253">
+        <f>'Presupuesto de Inversion'!I142</f>
+        <v>6708285.2925704112</v>
+      </c>
+      <c r="L121" s="253">
+        <f>'Presupuesto de Inversion'!J142</f>
+        <v>17759506.728307799</v>
+      </c>
+      <c r="M121" s="253">
+        <f>'Presupuesto de Inversion'!K142</f>
+        <v>17604401.86605183</v>
+      </c>
+      <c r="N121" s="253">
+        <f>'Presupuesto de Inversion'!L142</f>
+        <v>14153318.680856649</v>
+      </c>
+      <c r="O121" s="253">
+        <f>'Presupuesto de Inversion'!M142</f>
+        <v>5932760.9812905956</v>
+      </c>
+      <c r="P121" s="253">
+        <f>'Presupuesto de Inversion'!N142</f>
+        <v>3993950.2030910542</v>
+      </c>
+      <c r="Q121" s="162"/>
     </row>
     <row r="122" spans="1:17">
-      <c r="B122" s="202" t="s">
+      <c r="B122" s="188" t="s">
         <v>525</v>
       </c>
-      <c r="C122" s="202"/>
-      <c r="D122" s="202"/>
-      <c r="E122" s="251">
-        <v>0</v>
-      </c>
-      <c r="F122" s="251">
-        <v>0</v>
-      </c>
-      <c r="G122" s="251">
-        <v>0</v>
-      </c>
-      <c r="H122" s="251">
-        <v>0</v>
-      </c>
-      <c r="I122" s="251">
-        <v>0</v>
-      </c>
-      <c r="J122" s="251">
-        <v>0</v>
-      </c>
-      <c r="K122" s="251">
-        <v>0</v>
-      </c>
-      <c r="L122" s="251">
-        <v>0</v>
-      </c>
-      <c r="M122" s="251">
-        <v>0</v>
-      </c>
-      <c r="N122" s="251">
-        <v>0</v>
-      </c>
-      <c r="O122" s="251">
-        <v>0</v>
-      </c>
-      <c r="P122" s="251">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="252"/>
+      <c r="C122" s="188"/>
+      <c r="D122" s="188"/>
+      <c r="E122" s="161">
+        <v>0</v>
+      </c>
+      <c r="F122" s="161">
+        <v>0</v>
+      </c>
+      <c r="G122" s="161">
+        <v>0</v>
+      </c>
+      <c r="H122" s="161">
+        <v>0</v>
+      </c>
+      <c r="I122" s="161">
+        <v>0</v>
+      </c>
+      <c r="J122" s="161">
+        <v>0</v>
+      </c>
+      <c r="K122" s="161">
+        <v>0</v>
+      </c>
+      <c r="L122" s="161">
+        <v>0</v>
+      </c>
+      <c r="M122" s="161">
+        <v>0</v>
+      </c>
+      <c r="N122" s="161">
+        <v>0</v>
+      </c>
+      <c r="O122" s="161">
+        <v>0</v>
+      </c>
+      <c r="P122" s="161">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="162"/>
     </row>
     <row r="123" spans="1:17">
-      <c r="B123" s="236" t="s">
+      <c r="B123" s="252" t="s">
         <v>509</v>
       </c>
-      <c r="C123" s="236"/>
-      <c r="D123" s="236"/>
-      <c r="E123" s="251">
+      <c r="C123" s="252"/>
+      <c r="D123" s="252"/>
+      <c r="E123" s="255">
         <f>E121-E122</f>
-        <v>2804306.59266055</v>
-      </c>
-      <c r="F123" s="251">
+        <v>3257202.1073752288</v>
+      </c>
+      <c r="F123" s="255">
         <f t="shared" ref="F123:P123" si="34">F121-F122</f>
-        <v>5541843.9807339441</v>
-      </c>
-      <c r="G123" s="251">
+        <v>6436851.7836224753</v>
+      </c>
+      <c r="G123" s="255">
         <f t="shared" si="34"/>
-        <v>7544920.1183486227</v>
-      </c>
-      <c r="H123" s="251">
+        <v>8763424.717461925</v>
+      </c>
+      <c r="H123" s="255">
         <f t="shared" si="34"/>
-        <v>13787840.747247703</v>
-      </c>
-      <c r="I123" s="251">
+        <v>16014577.027928207</v>
+      </c>
+      <c r="I123" s="255">
         <f t="shared" si="34"/>
-        <v>4373382.9004587149</v>
-      </c>
-      <c r="J123" s="251">
+        <v>5079684.2388827978</v>
+      </c>
+      <c r="J123" s="255">
         <f t="shared" si="34"/>
-        <v>3672306.2522935774</v>
-      </c>
-      <c r="K123" s="251">
+        <v>4265383.7120389901</v>
+      </c>
+      <c r="K123" s="255">
         <f t="shared" si="34"/>
-        <v>5775536.1967889899</v>
-      </c>
-      <c r="L123" s="251">
+        <v>6708285.2925704112</v>
+      </c>
+      <c r="L123" s="255">
         <f t="shared" si="34"/>
-        <v>15290147.850458715</v>
-      </c>
-      <c r="M123" s="251">
+        <v>17759506.728307799</v>
+      </c>
+      <c r="M123" s="255">
         <f t="shared" si="34"/>
-        <v>15156609.441284399</v>
-      </c>
-      <c r="N123" s="251">
+        <v>17604401.86605183</v>
+      </c>
+      <c r="N123" s="255">
         <f t="shared" si="34"/>
-        <v>12185379.837155961</v>
-      </c>
-      <c r="O123" s="251">
+        <v>14153318.680856649</v>
+      </c>
+      <c r="O123" s="255">
         <f t="shared" si="34"/>
-        <v>5107844.1509174304</v>
-      </c>
-      <c r="P123" s="251">
+        <v>5932760.9812905956</v>
+      </c>
+      <c r="P123" s="255">
         <f t="shared" si="34"/>
-        <v>3438614.0362385316</v>
-      </c>
-      <c r="Q123" s="252"/>
+        <v>3993950.2030910542</v>
+      </c>
+      <c r="Q123" s="162"/>
     </row>
     <row r="124" spans="1:17">
-      <c r="B124" s="202" t="s">
+      <c r="B124" s="188" t="s">
         <v>510</v>
       </c>
-      <c r="C124" s="202"/>
-      <c r="D124" s="202"/>
-      <c r="E124" s="251">
+      <c r="C124" s="188"/>
+      <c r="D124" s="188"/>
+      <c r="E124" s="161">
         <f>'Demanda Dinamica'!C13*'Presupuesto de Inversion'!$E$78</f>
         <v>265618.09166666667</v>
       </c>
-      <c r="F124" s="251">
+      <c r="F124" s="161">
         <f>'Demanda Dinamica'!D13*'Presupuesto de Inversion'!$E$78</f>
         <v>524911.94305555557</v>
       </c>
-      <c r="G124" s="251">
+      <c r="G124" s="161">
         <f>'Demanda Dinamica'!E13*'Presupuesto de Inversion'!$E$78</f>
         <v>714639.15138888895</v>
       </c>
-      <c r="H124" s="251">
+      <c r="H124" s="161">
         <f>'Demanda Dinamica'!F13*'Presupuesto de Inversion'!$E$78</f>
         <v>1305955.6173611111</v>
       </c>
-      <c r="I124" s="251">
+      <c r="I124" s="161">
         <f>'Demanda Dinamica'!G13*'Presupuesto de Inversion'!$E$78</f>
         <v>414237.73819444445</v>
       </c>
-      <c r="J124" s="251">
+      <c r="J124" s="161">
         <f>'Demanda Dinamica'!H13*'Presupuesto de Inversion'!$E$78</f>
         <v>347833.21527777781</v>
       </c>
-      <c r="K124" s="251">
+      <c r="K124" s="161">
         <f>'Demanda Dinamica'!I13*'Presupuesto de Inversion'!$E$78</f>
         <v>547046.78402777785</v>
       </c>
-      <c r="L124" s="251">
+      <c r="L124" s="161">
         <f>'Demanda Dinamica'!J13*'Presupuesto de Inversion'!$E$78</f>
         <v>1448251.0236111111</v>
       </c>
-      <c r="M124" s="251">
+      <c r="M124" s="161">
         <f>'Demanda Dinamica'!K13*'Presupuesto de Inversion'!$E$78</f>
         <v>1435602.5430555556</v>
       </c>
-      <c r="N124" s="251">
+      <c r="N124" s="161">
         <f>'Demanda Dinamica'!L13*'Presupuesto de Inversion'!$E$78</f>
         <v>1154173.8506944445</v>
       </c>
-      <c r="O124" s="251">
+      <c r="O124" s="161">
         <f>'Demanda Dinamica'!M13*'Presupuesto de Inversion'!$E$78</f>
         <v>483804.38125000003</v>
       </c>
-      <c r="P124" s="251">
+      <c r="P124" s="161">
         <f>'Demanda Dinamica'!N13*'Presupuesto de Inversion'!$E$78</f>
         <v>325698.37430555554</v>
       </c>
-      <c r="Q124" s="252"/>
+      <c r="Q124" s="162"/>
     </row>
     <row r="125" spans="1:17">
-      <c r="B125" s="236" t="s">
+      <c r="B125" s="252" t="s">
         <v>511</v>
       </c>
-      <c r="C125" s="236"/>
-      <c r="D125" s="236"/>
-      <c r="E125" s="251">
+      <c r="C125" s="252"/>
+      <c r="D125" s="252"/>
+      <c r="E125" s="254">
         <f>E123-E124</f>
-        <v>2538688.5009938832</v>
-      </c>
-      <c r="F125" s="251">
+        <v>2991584.015708562</v>
+      </c>
+      <c r="F125" s="254">
         <f t="shared" ref="F125:P125" si="35">F123-F124</f>
-        <v>5016932.0376783889</v>
-      </c>
-      <c r="G125" s="251">
+        <v>5911939.8405669201</v>
+      </c>
+      <c r="G125" s="254">
         <f t="shared" si="35"/>
-        <v>6830280.9669597335</v>
-      </c>
-      <c r="H125" s="251">
+        <v>8048785.5660730358</v>
+      </c>
+      <c r="H125" s="254">
         <f t="shared" si="35"/>
-        <v>12481885.129886592</v>
-      </c>
-      <c r="I125" s="251">
+        <v>14708621.410567096</v>
+      </c>
+      <c r="I125" s="254">
         <f t="shared" si="35"/>
-        <v>3959145.1622642707</v>
-      </c>
-      <c r="J125" s="251">
+        <v>4665446.5006883536</v>
+      </c>
+      <c r="J125" s="254">
         <f t="shared" si="35"/>
-        <v>3324473.0370157994</v>
-      </c>
-      <c r="K125" s="251">
+        <v>3917550.4967612121</v>
+      </c>
+      <c r="K125" s="254">
         <f t="shared" si="35"/>
-        <v>5228489.4127612123</v>
-      </c>
-      <c r="L125" s="251">
+        <v>6161238.5085426336</v>
+      </c>
+      <c r="L125" s="254">
         <f t="shared" si="35"/>
-        <v>13841896.826847604</v>
-      </c>
-      <c r="M125" s="251">
+        <v>16311255.704696687</v>
+      </c>
+      <c r="M125" s="254">
         <f t="shared" si="35"/>
-        <v>13721006.898228845</v>
-      </c>
-      <c r="N125" s="251">
+        <v>16168799.322996275</v>
+      </c>
+      <c r="N125" s="254">
         <f t="shared" si="35"/>
-        <v>11031205.986461516</v>
-      </c>
-      <c r="O125" s="251">
+        <v>12999144.830162205</v>
+      </c>
+      <c r="O125" s="254">
         <f t="shared" si="35"/>
-        <v>4624039.7696674308</v>
-      </c>
-      <c r="P125" s="251">
+        <v>5448956.600040596</v>
+      </c>
+      <c r="P125" s="254">
         <f t="shared" si="35"/>
-        <v>3112915.661932976</v>
-      </c>
-      <c r="Q125" s="252"/>
+        <v>3668251.8287854986</v>
+      </c>
+      <c r="Q125" s="162"/>
     </row>
     <row r="126" spans="1:17">
-      <c r="B126" s="202" t="s">
+      <c r="B126" s="188" t="s">
         <v>512</v>
       </c>
-      <c r="C126" s="202"/>
-      <c r="D126" s="202"/>
-      <c r="E126" s="251">
+      <c r="C126" s="188"/>
+      <c r="D126" s="188"/>
+      <c r="E126" s="161">
         <f>E127+E128</f>
         <v>3685753.2642984781</v>
       </c>
-      <c r="F126" s="251">
+      <c r="F126" s="161">
         <f t="shared" ref="F126:P126" si="36">F127+F128</f>
         <v>3485753.2642984781</v>
       </c>
-      <c r="G126" s="251">
+      <c r="G126" s="161">
         <f t="shared" si="36"/>
         <v>3485753.2642984781</v>
       </c>
-      <c r="H126" s="251">
+      <c r="H126" s="161">
         <f t="shared" si="36"/>
         <v>4402093.2642984781</v>
       </c>
-      <c r="I126" s="251">
+      <c r="I126" s="161">
         <f t="shared" si="36"/>
         <v>4382093.2642984781</v>
       </c>
-      <c r="J126" s="251">
+      <c r="J126" s="161">
         <f t="shared" si="36"/>
         <v>5066043.2642984781</v>
       </c>
-      <c r="K126" s="251">
+      <c r="K126" s="161">
         <f t="shared" si="36"/>
         <v>5066043.2642984781</v>
       </c>
-      <c r="L126" s="251">
+      <c r="L126" s="161">
         <f t="shared" si="36"/>
         <v>5066043.2642984781</v>
       </c>
-      <c r="M126" s="251">
+      <c r="M126" s="161">
         <f t="shared" si="36"/>
         <v>5066043.2642984781</v>
       </c>
-      <c r="N126" s="251">
+      <c r="N126" s="161">
         <f t="shared" si="36"/>
         <v>6362383.2642984791</v>
       </c>
-      <c r="O126" s="251">
+      <c r="O126" s="161">
         <f t="shared" si="36"/>
         <v>5066043.2642984781</v>
       </c>
-      <c r="P126" s="251">
+      <c r="P126" s="161">
         <f t="shared" si="36"/>
         <v>5066043.2642984781</v>
       </c>
-      <c r="Q126" s="252"/>
+      <c r="Q126" s="162"/>
     </row>
     <row r="127" spans="1:17">
-      <c r="B127" s="238" t="s">
+      <c r="B127" s="216" t="s">
         <v>523</v>
       </c>
-      <c r="C127" s="239"/>
-      <c r="D127" s="240"/>
-      <c r="E127" s="251">
+      <c r="C127" s="217"/>
+      <c r="D127" s="218"/>
+      <c r="E127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="F127" s="251">
+      <c r="F127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="G127" s="251">
+      <c r="G127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="H127" s="251">
+      <c r="H127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="I127" s="251">
+      <c r="I127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="J127" s="251">
+      <c r="J127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="K127" s="251">
+      <c r="K127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="L127" s="251">
+      <c r="L127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="M127" s="251">
+      <c r="M127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="N127" s="251">
+      <c r="N127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="O127" s="251">
+      <c r="O127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="P127" s="251">
+      <c r="P127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
       </c>
-      <c r="Q127" s="252"/>
+      <c r="Q127" s="162"/>
     </row>
     <row r="128" spans="1:17">
-      <c r="B128" s="238" t="s">
+      <c r="B128" s="216" t="s">
         <v>524</v>
       </c>
-      <c r="C128" s="239"/>
-      <c r="D128" s="240"/>
-      <c r="E128" s="251">
+      <c r="C128" s="217"/>
+      <c r="D128" s="218"/>
+      <c r="E128" s="161">
         <f>'Demanda Dinamica'!J36+'Demanda Dinamica'!J39+'Demanda Dinamica'!J42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>2796956.6666666665</v>
       </c>
-      <c r="F128" s="251">
+      <c r="F128" s="161">
         <f>'Demanda Dinamica'!K36+'Demanda Dinamica'!K39+'Demanda Dinamica'!K42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>2596956.6666666665</v>
       </c>
-      <c r="G128" s="251">
+      <c r="G128" s="161">
         <f>'Demanda Dinamica'!L36+'Demanda Dinamica'!L39+'Demanda Dinamica'!L42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>2596956.6666666665</v>
       </c>
-      <c r="H128" s="251">
+      <c r="H128" s="161">
         <f>'Demanda Dinamica'!M36+'Demanda Dinamica'!M39+'Demanda Dinamica'!M42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>3513296.6666666665</v>
       </c>
-      <c r="I128" s="251">
+      <c r="I128" s="161">
         <f>'Demanda Dinamica'!N36+'Demanda Dinamica'!N39+'Demanda Dinamica'!N42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>3493296.6666666665</v>
       </c>
-      <c r="J128" s="251">
+      <c r="J128" s="161">
         <f>'Demanda Dinamica'!O36+'Demanda Dinamica'!O39+'Demanda Dinamica'!O42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>4177246.6666666665</v>
       </c>
-      <c r="K128" s="251">
+      <c r="K128" s="161">
         <f>'Demanda Dinamica'!P36+'Demanda Dinamica'!P39+'Demanda Dinamica'!P42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>4177246.6666666665</v>
       </c>
-      <c r="L128" s="251">
+      <c r="L128" s="161">
         <f>'Demanda Dinamica'!Q36+'Demanda Dinamica'!Q39+'Demanda Dinamica'!Q42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>4177246.6666666665</v>
       </c>
-      <c r="M128" s="251">
+      <c r="M128" s="161">
         <f>'Demanda Dinamica'!R36+'Demanda Dinamica'!R39+'Demanda Dinamica'!R42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>4177246.6666666665</v>
       </c>
-      <c r="N128" s="251">
+      <c r="N128" s="161">
         <f>'Demanda Dinamica'!S36+'Demanda Dinamica'!S39+'Demanda Dinamica'!S42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>5473586.666666667</v>
       </c>
-      <c r="O128" s="251">
+      <c r="O128" s="161">
         <f>'Demanda Dinamica'!T36+'Demanda Dinamica'!T39+'Demanda Dinamica'!T42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>4177246.6666666665</v>
       </c>
-      <c r="P128" s="251">
+      <c r="P128" s="161">
         <f>'Demanda Dinamica'!U36+'Demanda Dinamica'!U39+'Demanda Dinamica'!U42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>4177246.6666666665</v>
       </c>
-      <c r="Q128" s="252"/>
+      <c r="Q128" s="162"/>
     </row>
     <row r="129" spans="2:17">
-      <c r="B129" s="202" t="s">
+      <c r="B129" s="188" t="s">
         <v>513</v>
       </c>
-      <c r="C129" s="202"/>
-      <c r="D129" s="202"/>
-      <c r="E129" s="251">
+      <c r="C129" s="188"/>
+      <c r="D129" s="188"/>
+      <c r="E129" s="161">
         <f>E130</f>
         <v>382040</v>
       </c>
-      <c r="F129" s="251">
+      <c r="F129" s="161">
         <f t="shared" ref="F129:P129" si="37">F130</f>
         <v>382040</v>
       </c>
-      <c r="G129" s="251">
+      <c r="G129" s="161">
         <f t="shared" si="37"/>
         <v>382040</v>
       </c>
-      <c r="H129" s="251">
+      <c r="H129" s="161">
         <f t="shared" si="37"/>
         <v>382040</v>
       </c>
-      <c r="I129" s="251">
+      <c r="I129" s="161">
         <f t="shared" si="37"/>
         <v>382040</v>
       </c>
-      <c r="J129" s="251">
+      <c r="J129" s="161">
         <f t="shared" si="37"/>
         <v>2362329.9999999995</v>
       </c>
-      <c r="K129" s="251">
+      <c r="K129" s="161">
         <f t="shared" si="37"/>
         <v>2362329.9999999995</v>
       </c>
-      <c r="L129" s="251">
+      <c r="L129" s="161">
         <f t="shared" si="37"/>
         <v>2362329.9999999995</v>
       </c>
-      <c r="M129" s="251">
+      <c r="M129" s="161">
         <f t="shared" si="37"/>
         <v>2362329.9999999995</v>
       </c>
-      <c r="N129" s="251">
+      <c r="N129" s="161">
         <f t="shared" si="37"/>
         <v>2362329.9999999995</v>
       </c>
-      <c r="O129" s="251">
+      <c r="O129" s="161">
         <f t="shared" si="37"/>
         <v>2362329.9999999995</v>
       </c>
-      <c r="P129" s="251">
+      <c r="P129" s="161">
         <f t="shared" si="37"/>
         <v>2362329.9999999995</v>
       </c>
-      <c r="Q129" s="252"/>
+      <c r="Q129" s="162"/>
     </row>
     <row r="130" spans="2:17">
-      <c r="B130" s="238" t="s">
+      <c r="B130" s="216" t="s">
         <v>522</v>
       </c>
-      <c r="C130" s="239"/>
-      <c r="D130" s="240"/>
-      <c r="E130" s="251">
+      <c r="C130" s="217"/>
+      <c r="D130" s="218"/>
+      <c r="E130" s="161">
         <f>'Demanda Dinamica'!J36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>382040</v>
       </c>
-      <c r="F130" s="251">
+      <c r="F130" s="161">
         <f>'Demanda Dinamica'!K36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>382040</v>
       </c>
-      <c r="G130" s="251">
+      <c r="G130" s="161">
         <f>'Demanda Dinamica'!L36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>382040</v>
       </c>
-      <c r="H130" s="251">
+      <c r="H130" s="161">
         <f>'Demanda Dinamica'!M36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>382040</v>
       </c>
-      <c r="I130" s="251">
+      <c r="I130" s="161">
         <f>'Demanda Dinamica'!N36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>382040</v>
       </c>
-      <c r="J130" s="251">
+      <c r="J130" s="161">
         <f>'Demanda Dinamica'!O36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>2362329.9999999995</v>
       </c>
-      <c r="K130" s="251">
+      <c r="K130" s="161">
         <f>'Demanda Dinamica'!P36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>2362329.9999999995</v>
       </c>
-      <c r="L130" s="251">
+      <c r="L130" s="161">
         <f>'Demanda Dinamica'!Q36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>2362329.9999999995</v>
       </c>
-      <c r="M130" s="251">
+      <c r="M130" s="161">
         <f>'Demanda Dinamica'!R36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>2362329.9999999995</v>
       </c>
-      <c r="N130" s="251">
+      <c r="N130" s="161">
         <f>'Demanda Dinamica'!S36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>2362329.9999999995</v>
       </c>
-      <c r="O130" s="251">
+      <c r="O130" s="161">
         <f>'Demanda Dinamica'!T36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>2362329.9999999995</v>
       </c>
-      <c r="P130" s="251">
+      <c r="P130" s="161">
         <f>'Demanda Dinamica'!U36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>2362329.9999999995</v>
       </c>
-      <c r="Q130" s="252"/>
+      <c r="Q130" s="162"/>
     </row>
     <row r="131" spans="2:17">
-      <c r="B131" s="236" t="s">
+      <c r="B131" s="252" t="s">
         <v>514</v>
       </c>
-      <c r="C131" s="236"/>
-      <c r="D131" s="236"/>
-      <c r="E131" s="251">
+      <c r="C131" s="252"/>
+      <c r="D131" s="252"/>
+      <c r="E131" s="255">
         <f>E125-(E126+E129)</f>
-        <v>-1529104.7633045949</v>
-      </c>
-      <c r="F131" s="251">
+        <v>-1076209.2485899162</v>
+      </c>
+      <c r="F131" s="255">
         <f t="shared" ref="F131:P131" si="38">F125-(F126+F129)</f>
-        <v>1149138.7733799107</v>
-      </c>
-      <c r="G131" s="251">
+        <v>2044146.576268442</v>
+      </c>
+      <c r="G131" s="255">
         <f t="shared" si="38"/>
-        <v>2962487.7026612554</v>
-      </c>
-      <c r="H131" s="251">
+        <v>4180992.3017745577</v>
+      </c>
+      <c r="H131" s="255">
         <f t="shared" si="38"/>
-        <v>7697751.8655881137</v>
-      </c>
-      <c r="I131" s="251">
+        <v>9924488.1462686174</v>
+      </c>
+      <c r="I131" s="255">
         <f t="shared" si="38"/>
-        <v>-804988.10203420743</v>
-      </c>
-      <c r="J131" s="251">
+        <v>-98686.763610124588</v>
+      </c>
+      <c r="J131" s="255">
         <f t="shared" si="38"/>
-        <v>-4103900.2272826787</v>
-      </c>
-      <c r="K131" s="251">
+        <v>-3510822.767537266</v>
+      </c>
+      <c r="K131" s="255">
         <f t="shared" si="38"/>
-        <v>-2199883.8515372658</v>
-      </c>
-      <c r="L131" s="251">
+        <v>-1267134.7557558445</v>
+      </c>
+      <c r="L131" s="255">
         <f t="shared" si="38"/>
-        <v>6413523.5625491254</v>
-      </c>
-      <c r="M131" s="251">
+        <v>8882882.4403982088</v>
+      </c>
+      <c r="M131" s="255">
         <f t="shared" si="38"/>
-        <v>6292633.6339303665</v>
-      </c>
-      <c r="N131" s="251">
+        <v>8740426.0586977974</v>
+      </c>
+      <c r="N131" s="255">
         <f t="shared" si="38"/>
-        <v>2306492.7221630383</v>
-      </c>
-      <c r="O131" s="251">
+        <v>4274431.5658637267</v>
+      </c>
+      <c r="O131" s="255">
         <f t="shared" si="38"/>
-        <v>-2804333.4946310474</v>
-      </c>
-      <c r="P131" s="251">
+        <v>-1979416.6642578822</v>
+      </c>
+      <c r="P131" s="255">
         <f t="shared" si="38"/>
-        <v>-4315457.6023655022</v>
-      </c>
-      <c r="Q131" s="252"/>
+        <v>-3760121.4355129795</v>
+      </c>
+      <c r="Q131" s="162"/>
     </row>
     <row r="132" spans="2:17">
-      <c r="B132" s="202" t="s">
+      <c r="B132" s="188" t="s">
         <v>515</v>
       </c>
-      <c r="C132" s="202"/>
-      <c r="D132" s="202"/>
-      <c r="E132" s="251"/>
-      <c r="F132" s="251"/>
-      <c r="G132" s="251"/>
-      <c r="H132" s="251"/>
-      <c r="I132" s="251"/>
-      <c r="J132" s="251"/>
-      <c r="K132" s="251"/>
-      <c r="L132" s="251"/>
-      <c r="M132" s="251"/>
-      <c r="N132" s="251"/>
-      <c r="O132" s="251"/>
-      <c r="P132" s="251"/>
-      <c r="Q132" s="252"/>
+      <c r="C132" s="188"/>
+      <c r="D132" s="188"/>
+      <c r="E132" s="161"/>
+      <c r="F132" s="161"/>
+      <c r="G132" s="161"/>
+      <c r="H132" s="161"/>
+      <c r="I132" s="161"/>
+      <c r="J132" s="161"/>
+      <c r="K132" s="161"/>
+      <c r="L132" s="161"/>
+      <c r="M132" s="161"/>
+      <c r="N132" s="161"/>
+      <c r="O132" s="161"/>
+      <c r="P132" s="161"/>
+      <c r="Q132" s="162"/>
     </row>
     <row r="133" spans="2:17">
-      <c r="B133" s="202" t="s">
+      <c r="B133" s="188" t="s">
         <v>516</v>
       </c>
-      <c r="C133" s="202"/>
-      <c r="D133" s="202"/>
-      <c r="E133" s="251">
+      <c r="C133" s="188"/>
+      <c r="D133" s="188"/>
+      <c r="E133" s="161">
         <f>H59</f>
         <v>143213.09586082425</v>
       </c>
-      <c r="F133" s="251">
+      <c r="F133" s="161">
         <f t="shared" ref="F133:P133" si="39">I59</f>
         <v>143213.09586082425</v>
       </c>
-      <c r="G133" s="251">
+      <c r="G133" s="161">
         <f t="shared" si="39"/>
         <v>132582.21974079567</v>
       </c>
-      <c r="H133" s="251">
+      <c r="H133" s="161">
         <f t="shared" si="39"/>
         <v>121730.38374700681</v>
       </c>
-      <c r="I133" s="251">
+      <c r="I133" s="161">
         <f t="shared" si="39"/>
         <v>110652.99528847446</v>
       </c>
-      <c r="J133" s="251">
+      <c r="J133" s="161">
         <f t="shared" si="39"/>
         <v>849345.36631845881</v>
       </c>
-      <c r="K133" s="251">
+      <c r="K133" s="161">
         <f t="shared" si="39"/>
         <v>72214.164983316194</v>
       </c>
-      <c r="L133" s="251">
+      <c r="L133" s="161">
         <f t="shared" si="39"/>
         <v>810107.59536195383</v>
       </c>
-      <c r="M133" s="251">
+      <c r="M133" s="161">
         <f t="shared" si="39"/>
         <v>32160.847610947087</v>
       </c>
-      <c r="N133" s="251">
+      <c r="N133" s="161">
         <f t="shared" si="39"/>
         <v>19221.780662896253</v>
       </c>
-      <c r="O133" s="251">
+      <c r="O133" s="161">
         <f t="shared" si="39"/>
         <v>6013.778721422721</v>
       </c>
-      <c r="P133" s="251">
+      <c r="P133" s="161">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Q133" s="252"/>
+      <c r="Q133" s="162"/>
     </row>
     <row r="134" spans="2:17">
-      <c r="B134" s="236" t="s">
+      <c r="B134" s="252" t="s">
         <v>517</v>
       </c>
-      <c r="C134" s="236"/>
-      <c r="D134" s="236"/>
-      <c r="E134" s="251">
+      <c r="C134" s="252"/>
+      <c r="D134" s="252"/>
+      <c r="E134" s="255">
         <f>E131+E132-E133</f>
-        <v>-1672317.8591654191</v>
-      </c>
-      <c r="F134" s="251">
+        <v>-1219422.3444507404</v>
+      </c>
+      <c r="F134" s="255">
         <f t="shared" ref="F134:P134" si="40">F131+F132-F133</f>
-        <v>1005925.6775190865</v>
-      </c>
-      <c r="G134" s="251">
+        <v>1900933.4804076178</v>
+      </c>
+      <c r="G134" s="255">
         <f t="shared" si="40"/>
-        <v>2829905.4829204595</v>
-      </c>
-      <c r="H134" s="251">
+        <v>4048410.0820337618</v>
+      </c>
+      <c r="H134" s="255">
         <f t="shared" si="40"/>
-        <v>7576021.4818411069</v>
-      </c>
-      <c r="I134" s="251">
+        <v>9802757.7625216097</v>
+      </c>
+      <c r="I134" s="255">
         <f t="shared" si="40"/>
-        <v>-915641.09732268192</v>
-      </c>
-      <c r="J134" s="251">
+        <v>-209339.75889859904</v>
+      </c>
+      <c r="J134" s="255">
         <f t="shared" si="40"/>
-        <v>-4953245.5936011374</v>
-      </c>
-      <c r="K134" s="251">
+        <v>-4360168.1338557247</v>
+      </c>
+      <c r="K134" s="255">
         <f t="shared" si="40"/>
-        <v>-2272098.0165205821</v>
-      </c>
-      <c r="L134" s="251">
+        <v>-1339348.9207391606</v>
+      </c>
+      <c r="L134" s="255">
         <f t="shared" si="40"/>
-        <v>5603415.9671871718</v>
-      </c>
-      <c r="M134" s="251">
+        <v>8072774.8450362552</v>
+      </c>
+      <c r="M134" s="255">
         <f t="shared" si="40"/>
-        <v>6260472.7863194197</v>
-      </c>
-      <c r="N134" s="251">
+        <v>8708265.2110868506</v>
+      </c>
+      <c r="N134" s="255">
         <f t="shared" si="40"/>
-        <v>2287270.9415001422</v>
-      </c>
-      <c r="O134" s="251">
+        <v>4255209.7852008305</v>
+      </c>
+      <c r="O134" s="255">
         <f t="shared" si="40"/>
-        <v>-2810347.2733524702</v>
-      </c>
-      <c r="P134" s="251">
+        <v>-1985430.4429793048</v>
+      </c>
+      <c r="P134" s="255">
         <f t="shared" si="40"/>
-        <v>-4315457.6023655022</v>
-      </c>
-      <c r="Q134" s="252"/>
+        <v>-3760121.4355129795</v>
+      </c>
+      <c r="Q134" s="162"/>
     </row>
     <row r="135" spans="2:17">
-      <c r="B135" s="202" t="s">
+      <c r="B135" s="188" t="s">
         <v>518</v>
       </c>
-      <c r="C135" s="202"/>
-      <c r="D135" s="202"/>
-      <c r="E135" s="251">
+      <c r="C135" s="188"/>
+      <c r="D135" s="188"/>
+      <c r="E135" s="161">
         <f>'Presupuesto de Inversion'!C140</f>
         <v>532818.25260550447</v>
       </c>
-      <c r="F135" s="251">
+      <c r="F135" s="161">
         <f>'Presupuesto de Inversion'!D140</f>
         <v>1052950.3563394493</v>
       </c>
-      <c r="G135" s="251">
+      <c r="G135" s="161">
         <f>'Presupuesto de Inversion'!E140</f>
         <v>1433534.8224862383</v>
       </c>
-      <c r="H135" s="251">
+      <c r="H135" s="161">
         <f>'Presupuesto de Inversion'!F140</f>
         <v>2619689.7419770635</v>
       </c>
-      <c r="I135" s="251">
+      <c r="I135" s="161">
         <f>'Presupuesto de Inversion'!G140</f>
         <v>830942.75108715589</v>
       </c>
-      <c r="J135" s="251">
+      <c r="J135" s="161">
         <f>'Presupuesto de Inversion'!H140</f>
         <v>697738.18793577969</v>
       </c>
-      <c r="K135" s="251">
+      <c r="K135" s="161">
         <f>'Presupuesto de Inversion'!I140</f>
         <v>1097351.8773899081</v>
       </c>
-      <c r="L135" s="251">
+      <c r="L135" s="161">
         <f>'Presupuesto de Inversion'!J140</f>
         <v>2905128.0915871561</v>
       </c>
-      <c r="M135" s="251">
+      <c r="M135" s="161">
         <f>'Presupuesto de Inversion'!K140</f>
         <v>2879755.7938440358</v>
       </c>
-      <c r="N135" s="251">
+      <c r="N135" s="161">
         <f>'Presupuesto de Inversion'!L140</f>
         <v>2315222.1690596323</v>
       </c>
-      <c r="O135" s="251">
+      <c r="O135" s="161">
         <f>'Presupuesto de Inversion'!M140</f>
         <v>970490.38867431181</v>
       </c>
-      <c r="P135" s="251">
+      <c r="P135" s="161">
         <f>'Presupuesto de Inversion'!N140</f>
         <v>653336.66688532103</v>
       </c>
-      <c r="Q135" s="252"/>
+      <c r="Q135" s="162"/>
     </row>
     <row r="136" spans="2:17">
-      <c r="B136" s="236" t="s">
+      <c r="B136" s="252" t="s">
         <v>519</v>
       </c>
-      <c r="C136" s="236"/>
-      <c r="D136" s="236"/>
-      <c r="E136" s="251">
+      <c r="C136" s="252"/>
+      <c r="D136" s="252"/>
+      <c r="E136" s="255">
         <f>E134-E135</f>
-        <v>-2205136.1117709237</v>
-      </c>
-      <c r="F136" s="251">
+        <v>-1752240.597056245</v>
+      </c>
+      <c r="F136" s="255">
         <f t="shared" ref="F136:P136" si="41">F134-F135</f>
-        <v>-47024.67882036278</v>
-      </c>
-      <c r="G136" s="251">
+        <v>847983.12406816846</v>
+      </c>
+      <c r="G136" s="255">
         <f t="shared" si="41"/>
-        <v>1396370.6604342212</v>
-      </c>
-      <c r="H136" s="251">
+        <v>2614875.2595475232</v>
+      </c>
+      <c r="H136" s="255">
         <f t="shared" si="41"/>
-        <v>4956331.7398640439</v>
-      </c>
-      <c r="I136" s="251">
+        <v>7183068.0205445457</v>
+      </c>
+      <c r="I136" s="255">
         <f t="shared" si="41"/>
-        <v>-1746583.8484098378</v>
-      </c>
-      <c r="J136" s="251">
+        <v>-1040282.509985755</v>
+      </c>
+      <c r="J136" s="255">
         <f t="shared" si="41"/>
-        <v>-5650983.7815369172</v>
-      </c>
-      <c r="K136" s="251">
+        <v>-5057906.3217915045</v>
+      </c>
+      <c r="K136" s="255">
         <f t="shared" si="41"/>
-        <v>-3369449.89391049</v>
-      </c>
-      <c r="L136" s="251">
+        <v>-2436700.7981290687</v>
+      </c>
+      <c r="L136" s="255">
         <f t="shared" si="41"/>
-        <v>2698287.8756000157</v>
-      </c>
-      <c r="M136" s="251">
+        <v>5167646.7534490991</v>
+      </c>
+      <c r="M136" s="255">
         <f t="shared" si="41"/>
-        <v>3380716.9924753839</v>
-      </c>
-      <c r="N136" s="251">
+        <v>5828509.4172428148</v>
+      </c>
+      <c r="N136" s="255">
         <f t="shared" si="41"/>
-        <v>-27951.227559490129</v>
-      </c>
-      <c r="O136" s="251">
+        <v>1939987.6161411982</v>
+      </c>
+      <c r="O136" s="255">
         <f t="shared" si="41"/>
-        <v>-3780837.6620267821</v>
-      </c>
-      <c r="P136" s="251">
+        <v>-2955920.8316536164</v>
+      </c>
+      <c r="P136" s="255">
         <f t="shared" si="41"/>
-        <v>-4968794.2692508232</v>
-      </c>
-      <c r="Q136" s="252"/>
+        <v>-4413458.1023983005</v>
+      </c>
+      <c r="Q136" s="162"/>
     </row>
     <row r="137" spans="2:17">
-      <c r="B137" s="202" t="s">
+      <c r="B137" s="188" t="s">
         <v>520</v>
       </c>
-      <c r="C137" s="202"/>
-      <c r="D137" s="202"/>
-      <c r="E137" s="251">
+      <c r="C137" s="188"/>
+      <c r="D137" s="188"/>
+      <c r="E137" s="161">
         <f>E136*0.1</f>
-        <v>-220513.61117709239</v>
-      </c>
-      <c r="F137" s="251">
+        <v>-175224.0597056245</v>
+      </c>
+      <c r="F137" s="161">
         <f t="shared" ref="F137:P137" si="42">F136*0.1</f>
-        <v>-4702.4678820362778</v>
-      </c>
-      <c r="G137" s="251">
+        <v>84798.312406816854</v>
+      </c>
+      <c r="G137" s="161">
         <f t="shared" si="42"/>
-        <v>139637.06604342212</v>
-      </c>
-      <c r="H137" s="251">
+        <v>261487.52595475235</v>
+      </c>
+      <c r="H137" s="161">
         <f t="shared" si="42"/>
-        <v>495633.17398640444</v>
-      </c>
-      <c r="I137" s="251">
+        <v>718306.80205445457</v>
+      </c>
+      <c r="I137" s="161">
         <f t="shared" si="42"/>
-        <v>-174658.38484098378</v>
-      </c>
-      <c r="J137" s="251">
+        <v>-104028.2509985755</v>
+      </c>
+      <c r="J137" s="161">
         <f t="shared" si="42"/>
-        <v>-565098.37815369177</v>
-      </c>
-      <c r="K137" s="251">
+        <v>-505790.63217915047</v>
+      </c>
+      <c r="K137" s="161">
         <f t="shared" si="42"/>
-        <v>-336944.98939104902</v>
-      </c>
-      <c r="L137" s="251">
+        <v>-243670.07981290689</v>
+      </c>
+      <c r="L137" s="161">
         <f t="shared" si="42"/>
-        <v>269828.7875600016</v>
-      </c>
-      <c r="M137" s="251">
+        <v>516764.67534490995</v>
+      </c>
+      <c r="M137" s="161">
         <f t="shared" si="42"/>
-        <v>338071.6992475384</v>
-      </c>
-      <c r="N137" s="251">
+        <v>582850.94172428153</v>
+      </c>
+      <c r="N137" s="161">
         <f t="shared" si="42"/>
-        <v>-2795.122755949013</v>
-      </c>
-      <c r="O137" s="251">
+        <v>193998.76161411984</v>
+      </c>
+      <c r="O137" s="161">
         <f t="shared" si="42"/>
-        <v>-378083.76620267821</v>
-      </c>
-      <c r="P137" s="251">
+        <v>-295592.08316536166</v>
+      </c>
+      <c r="P137" s="161">
         <f t="shared" si="42"/>
-        <v>-496879.42692508234</v>
-      </c>
-      <c r="Q137" s="252"/>
+        <v>-441345.81023983005</v>
+      </c>
+      <c r="Q137" s="162"/>
     </row>
     <row r="138" spans="2:17">
-      <c r="B138" s="236" t="s">
+      <c r="B138" s="252" t="s">
         <v>521</v>
       </c>
-      <c r="C138" s="236"/>
-      <c r="D138" s="236"/>
-      <c r="E138" s="251">
+      <c r="C138" s="252"/>
+      <c r="D138" s="252"/>
+      <c r="E138" s="255">
         <f>E136-E137</f>
-        <v>-1984622.5005938313</v>
-      </c>
-      <c r="F138" s="251">
+        <v>-1577016.5373506204</v>
+      </c>
+      <c r="F138" s="255">
         <f t="shared" ref="F138:P138" si="43">F136-F137</f>
-        <v>-42322.210938326505</v>
-      </c>
-      <c r="G138" s="251">
+        <v>763184.81166135159</v>
+      </c>
+      <c r="G138" s="255">
         <f t="shared" si="43"/>
-        <v>1256733.5943907991</v>
-      </c>
-      <c r="H138" s="251">
+        <v>2353387.733592771</v>
+      </c>
+      <c r="H138" s="255">
         <f t="shared" si="43"/>
-        <v>4460698.5658776397</v>
-      </c>
-      <c r="I138" s="251">
+        <v>6464761.2184900912</v>
+      </c>
+      <c r="I138" s="255">
         <f t="shared" si="43"/>
-        <v>-1571925.4635688541</v>
-      </c>
-      <c r="J138" s="251">
+        <v>-936254.25898717949</v>
+      </c>
+      <c r="J138" s="255">
         <f t="shared" si="43"/>
-        <v>-5085885.4033832252</v>
-      </c>
-      <c r="K138" s="251">
+        <v>-4552115.6896123542</v>
+      </c>
+      <c r="K138" s="255">
         <f t="shared" si="43"/>
-        <v>-3032504.9045194411</v>
-      </c>
-      <c r="L138" s="251">
+        <v>-2193030.718316162</v>
+      </c>
+      <c r="L138" s="255">
         <f t="shared" si="43"/>
-        <v>2428459.0880400143</v>
-      </c>
-      <c r="M138" s="251">
+        <v>4650882.0781041896</v>
+      </c>
+      <c r="M138" s="255">
         <f t="shared" si="43"/>
-        <v>3042645.2932278453</v>
-      </c>
-      <c r="N138" s="251">
+        <v>5245658.475518533</v>
+      </c>
+      <c r="N138" s="255">
         <f t="shared" si="43"/>
-        <v>-25156.104803541115</v>
-      </c>
-      <c r="O138" s="251">
+        <v>1745988.8545270783</v>
+      </c>
+      <c r="O138" s="255">
         <f t="shared" si="43"/>
-        <v>-3402753.8958241036</v>
-      </c>
-      <c r="P138" s="251">
+        <v>-2660328.7484882548</v>
+      </c>
+      <c r="P138" s="255">
         <f t="shared" si="43"/>
-        <v>-4471914.8423257405</v>
-      </c>
-      <c r="Q138" s="252"/>
+        <v>-3972112.2921584705</v>
+      </c>
+      <c r="Q138" s="162"/>
     </row>
     <row r="139" spans="2:17">
-      <c r="B139" s="237"/>
-      <c r="C139" s="237"/>
-      <c r="D139" s="237"/>
+      <c r="B139" s="219"/>
+      <c r="C139" s="219"/>
+      <c r="D139" s="219"/>
     </row>
     <row r="140" spans="2:17">
-      <c r="B140" s="184" t="s">
+      <c r="B140" s="229" t="s">
         <v>527</v>
       </c>
-      <c r="C140" s="184"/>
-      <c r="D140" s="184"/>
-      <c r="E140" s="184"/>
-      <c r="F140" s="184"/>
-      <c r="G140" s="184"/>
+      <c r="C140" s="229"/>
+      <c r="D140" s="229"/>
+      <c r="E140" s="229"/>
+      <c r="F140" s="229"/>
+      <c r="G140" s="229"/>
     </row>
     <row r="141" spans="2:17">
-      <c r="B141" s="184" t="s">
+      <c r="B141" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="C141" s="184"/>
-      <c r="D141" s="184"/>
+      <c r="C141" s="187"/>
+      <c r="D141" s="187"/>
       <c r="E141" s="160" t="s">
         <v>2</v>
       </c>
@@ -16932,427 +16934,405 @@
       <c r="G141" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="K141" s="252"/>
+      <c r="K141" s="162"/>
     </row>
     <row r="142" spans="2:17">
-      <c r="B142" s="236" t="s">
+      <c r="B142" s="252" t="s">
         <v>508</v>
       </c>
-      <c r="C142" s="236"/>
-      <c r="D142" s="236"/>
-      <c r="E142" s="251">
+      <c r="C142" s="252"/>
+      <c r="D142" s="252"/>
+      <c r="E142" s="256">
         <f>SUM(E121:P121)</f>
-        <v>94678732.104587138</v>
-      </c>
-      <c r="F142" s="251">
+        <v>109969347.33947797</v>
+      </c>
+      <c r="F142" s="256">
         <f>E142+(E142*'Demanda Dinamica'!S6)</f>
-        <v>102253030.67295411</v>
-      </c>
-      <c r="G142" s="251">
+        <v>118766895.12663621</v>
+      </c>
+      <c r="G142" s="256">
         <f>E142+(E142*'Demanda Dinamica'!S7)</f>
-        <v>108880541.92027521</v>
-      </c>
-      <c r="K142" s="252"/>
+        <v>126464749.44039966</v>
+      </c>
+      <c r="K142" s="162"/>
     </row>
     <row r="143" spans="2:17">
-      <c r="B143" s="202" t="s">
+      <c r="B143" s="188" t="s">
         <v>525</v>
       </c>
-      <c r="C143" s="202"/>
-      <c r="D143" s="202"/>
-      <c r="E143" s="251">
+      <c r="C143" s="188"/>
+      <c r="D143" s="188"/>
+      <c r="E143" s="40">
         <f>SUM(E122:P122)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="2">
-        <v>0</v>
-      </c>
-      <c r="G143" s="2">
+      <c r="F143" s="40">
+        <v>0</v>
+      </c>
+      <c r="G143" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:17">
-      <c r="B144" s="236" t="s">
+      <c r="B144" s="252" t="s">
         <v>509</v>
       </c>
-      <c r="C144" s="236"/>
-      <c r="D144" s="236"/>
-      <c r="E144" s="251">
+      <c r="C144" s="252"/>
+      <c r="D144" s="252"/>
+      <c r="E144" s="256">
         <f>E142-E143</f>
-        <v>94678732.104587138</v>
-      </c>
-      <c r="F144" s="251">
+        <v>109969347.33947797</v>
+      </c>
+      <c r="F144" s="256">
         <f t="shared" ref="F144:G144" si="44">F142-F143</f>
-        <v>102253030.67295411</v>
-      </c>
-      <c r="G144" s="251">
+        <v>118766895.12663621</v>
+      </c>
+      <c r="G144" s="256">
         <f t="shared" si="44"/>
-        <v>108880541.92027521</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="202" t="s">
+        <v>126464749.44039966</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="B145" s="188" t="s">
         <v>510</v>
       </c>
-      <c r="C145" s="202"/>
-      <c r="D145" s="202"/>
-      <c r="E145" s="251">
+      <c r="C145" s="188"/>
+      <c r="D145" s="188"/>
+      <c r="E145" s="40">
         <f>SUM(E124:P124)</f>
         <v>8967772.7138888892</v>
       </c>
-      <c r="F145" s="251">
+      <c r="F145" s="40">
         <f>E145+(E145*'Demanda Dinamica'!$D$6)</f>
         <v>9505839.0767222233</v>
       </c>
-      <c r="G145" s="253">
+      <c r="G145" s="40">
         <f>F145+(F145*'Demanda Dinamica'!$D$7)</f>
         <v>10123718.616709167</v>
       </c>
     </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="236" t="s">
+    <row r="146" spans="1:7">
+      <c r="B146" s="252" t="s">
         <v>511</v>
       </c>
-      <c r="C146" s="236"/>
-      <c r="D146" s="236"/>
-      <c r="E146" s="251">
+      <c r="C146" s="252"/>
+      <c r="D146" s="252"/>
+      <c r="E146" s="256">
         <f>E144-E145</f>
-        <v>85710959.390698254</v>
-      </c>
-      <c r="F146" s="251">
+        <v>101001574.62558909</v>
+      </c>
+      <c r="F146" s="256">
         <f t="shared" ref="F146:G146" si="45">F144-F145</f>
-        <v>92747191.596231893</v>
-      </c>
-      <c r="G146" s="251">
+        <v>109261056.04991399</v>
+      </c>
+      <c r="G146" s="256">
         <f t="shared" si="45"/>
-        <v>98756823.303566039</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
-      <c r="B147" s="202" t="s">
+        <v>116341030.82369049</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="162"/>
+      <c r="B147" s="188" t="s">
         <v>512</v>
       </c>
-      <c r="C147" s="202"/>
-      <c r="D147" s="202"/>
-      <c r="E147" s="251">
+      <c r="C147" s="188"/>
+      <c r="D147" s="188"/>
+      <c r="E147" s="40">
         <f>E148+E149</f>
-        <v>13462515.838248409</v>
-      </c>
-      <c r="F147" s="251">
+        <v>56200089.171581745</v>
+      </c>
+      <c r="F147" s="40">
         <f t="shared" ref="F147:G147" si="46">F148+F149</f>
-        <v>14270266.788543314</v>
-      </c>
-      <c r="G147" s="251">
+        <v>59761451.986085817</v>
+      </c>
+      <c r="G147" s="40">
         <f t="shared" si="46"/>
-        <v>15197834.129798628</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7">
-      <c r="B148" s="254" t="s">
+        <v>61605440.658901513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="162"/>
+      <c r="B148" s="215" t="s">
         <v>523</v>
       </c>
-      <c r="C148" s="254"/>
-      <c r="D148" s="254"/>
-      <c r="E148" s="251">
+      <c r="C148" s="215"/>
+      <c r="D148" s="215"/>
+      <c r="E148" s="40">
         <f>SUM(E127:P127)</f>
         <v>10665559.171581743</v>
       </c>
-      <c r="F148" s="251">
-        <f>E148+(E148*'Demanda Dinamica'!$D$6)</f>
-        <v>11305492.721876647</v>
-      </c>
-      <c r="G148" s="253">
-        <f>F148+(F148*'Demanda Dinamica'!$D$7)</f>
-        <v>12040349.748798629</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7">
-      <c r="B149" s="254" t="s">
+      <c r="F148" s="40">
+        <f>'Presupuesto de Inversion'!D156</f>
+        <v>11494850.18608582</v>
+      </c>
+      <c r="G148" s="40">
+        <f>'Presupuesto de Inversion'!E156</f>
+        <v>13111166.208901508</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="B149" s="215" t="s">
         <v>524</v>
       </c>
-      <c r="C149" s="254"/>
-      <c r="D149" s="254"/>
-      <c r="E149" s="251">
-        <f>E128:P128</f>
-        <v>2796956.6666666665</v>
-      </c>
-      <c r="F149" s="251">
-        <f>E149+(E149*'Demanda Dinamica'!$D$6)</f>
-        <v>2964774.0666666664</v>
-      </c>
-      <c r="G149" s="253">
-        <f>F149+(F149*'Demanda Dinamica'!$D$7)</f>
-        <v>3157484.3809999996</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7">
-      <c r="B150" s="202" t="s">
+      <c r="C149" s="215"/>
+      <c r="D149" s="215"/>
+      <c r="E149" s="40">
+        <f>SUM(E128:P128)</f>
+        <v>45534530</v>
+      </c>
+      <c r="F149" s="40">
+        <f>'Presupuesto de Inversion'!F75</f>
+        <v>48266601.799999997</v>
+      </c>
+      <c r="G149" s="40">
+        <f>'Presupuesto de Inversion'!G75</f>
+        <v>48494274.450000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="B150" s="188" t="s">
         <v>513</v>
       </c>
-      <c r="C150" s="202"/>
-      <c r="D150" s="202"/>
-      <c r="E150" s="251">
+      <c r="C150" s="188"/>
+      <c r="D150" s="188"/>
+      <c r="E150" s="40">
         <f>E151</f>
         <v>18446510</v>
       </c>
-      <c r="F150" s="251">
+      <c r="F150" s="40">
         <f t="shared" ref="F150:G150" si="47">F151</f>
-        <v>19553300.600000001</v>
-      </c>
-      <c r="G150" s="251">
+        <v>19512340.600000001</v>
+      </c>
+      <c r="G150" s="40">
         <f t="shared" si="47"/>
-        <v>20824265.139000002</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7">
-      <c r="B151" s="254" t="s">
+        <v>20649602.739000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="B151" s="215" t="s">
         <v>522</v>
       </c>
-      <c r="C151" s="254"/>
-      <c r="D151" s="254"/>
-      <c r="E151" s="251">
+      <c r="C151" s="215"/>
+      <c r="D151" s="215"/>
+      <c r="E151" s="40">
         <f>SUM(E130:P130)</f>
         <v>18446510</v>
       </c>
-      <c r="F151" s="2">
-        <f>E150+(E150*'Demanda Dinamica'!$D$6)</f>
-        <v>19553300.600000001</v>
-      </c>
-      <c r="G151" s="2">
-        <f>F150+(F150*'Demanda Dinamica'!$D$7)</f>
-        <v>20824265.139000002</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7">
-      <c r="B152" s="236" t="s">
+      <c r="F151" s="40">
+        <f>'Presupuesto de Inversion'!F115</f>
+        <v>19512340.600000001</v>
+      </c>
+      <c r="G151" s="40">
+        <f>'Presupuesto de Inversion'!G115</f>
+        <v>20649602.739000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="B152" s="252" t="s">
         <v>514</v>
       </c>
-      <c r="C152" s="236"/>
-      <c r="D152" s="236"/>
-      <c r="E152" s="251">
+      <c r="C152" s="252"/>
+      <c r="D152" s="252"/>
+      <c r="E152" s="256">
         <f>E146-E147-E150</f>
-        <v>53801933.552449852</v>
-      </c>
-      <c r="F152" s="251">
+        <v>26354975.454007342</v>
+      </c>
+      <c r="F152" s="256">
         <f t="shared" ref="F152:G152" si="48">F146-F147-F150</f>
-        <v>58923624.207688577</v>
-      </c>
-      <c r="G152" s="251">
+        <v>29987263.463828169</v>
+      </c>
+      <c r="G152" s="256">
         <f t="shared" si="48"/>
-        <v>62734724.034767419</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153" s="202" t="s">
+        <v>34085987.425788969</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="B153" s="188" t="s">
         <v>515</v>
       </c>
-      <c r="C153" s="202"/>
-      <c r="D153" s="202"/>
-      <c r="E153" s="251">
+      <c r="C153" s="188"/>
+      <c r="D153" s="188"/>
+      <c r="E153" s="40">
         <f>SUM(E132:P132)</f>
         <v>0</v>
       </c>
-      <c r="F153" s="251">
+      <c r="F153" s="40">
         <f>E153+(E153*'Demanda Dinamica'!$D$6)</f>
         <v>0</v>
       </c>
-      <c r="G153" s="253">
+      <c r="G153" s="40">
         <f>F153+(F153*'Demanda Dinamica'!$D$7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:7">
-      <c r="B154" s="202" t="s">
+    <row r="154" spans="1:7">
+      <c r="B154" s="188" t="s">
         <v>516</v>
       </c>
-      <c r="C154" s="202"/>
-      <c r="D154" s="202"/>
-      <c r="E154" s="251">
+      <c r="C154" s="188"/>
+      <c r="D154" s="188"/>
+      <c r="E154" s="40">
         <f>SUM(E133:P133)</f>
         <v>2440455.3241569204</v>
       </c>
-      <c r="F154" s="251">
+      <c r="F154" s="40">
         <f>E154+(E154*'Demanda Dinamica'!$D$6)</f>
         <v>2586882.6436063359</v>
       </c>
-      <c r="G154" s="253">
+      <c r="G154" s="40">
         <f>F154+(F154*'Demanda Dinamica'!$D$7)</f>
         <v>2755030.0154407476</v>
       </c>
     </row>
-    <row r="155" spans="2:7">
-      <c r="B155" s="236" t="s">
+    <row r="155" spans="1:7">
+      <c r="B155" s="252" t="s">
         <v>517</v>
       </c>
-      <c r="C155" s="236"/>
-      <c r="D155" s="236"/>
-      <c r="E155" s="251">
+      <c r="C155" s="252"/>
+      <c r="D155" s="252"/>
+      <c r="E155" s="256">
         <f>E152+E153-E154</f>
-        <v>51361478.228292935</v>
-      </c>
-      <c r="F155" s="251">
+        <v>23914520.129850421</v>
+      </c>
+      <c r="F155" s="256">
         <f t="shared" ref="F155:G155" si="49">F152+F153-F154</f>
-        <v>56336741.564082243</v>
-      </c>
-      <c r="G155" s="251">
+        <v>27400380.820221834</v>
+      </c>
+      <c r="G155" s="256">
         <f t="shared" si="49"/>
-        <v>59979694.019326672</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7">
-      <c r="B156" s="202" t="s">
+        <v>31330957.410348222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="B156" s="188" t="s">
         <v>518</v>
       </c>
-      <c r="C156" s="202"/>
-      <c r="D156" s="202"/>
-      <c r="E156" s="251">
+      <c r="C156" s="188"/>
+      <c r="D156" s="188"/>
+      <c r="E156" s="40">
         <f>SUM(E135:P135)</f>
         <v>17988959.099871557</v>
       </c>
-      <c r="F156" s="251">
+      <c r="F156" s="40">
         <f>E156+(E156*'Demanda Dinamica'!$D$6)</f>
         <v>19068296.64586385</v>
       </c>
-      <c r="G156" s="253">
+      <c r="G156" s="40">
         <f>F156+(F156*'Demanda Dinamica'!$D$7)</f>
         <v>20307735.927845001</v>
       </c>
     </row>
-    <row r="157" spans="2:7">
-      <c r="B157" s="236" t="s">
+    <row r="157" spans="1:7">
+      <c r="B157" s="252" t="s">
         <v>519</v>
       </c>
-      <c r="C157" s="236"/>
-      <c r="D157" s="236"/>
-      <c r="E157" s="251">
+      <c r="C157" s="252"/>
+      <c r="D157" s="252"/>
+      <c r="E157" s="256">
         <f>E155-E156</f>
-        <v>33372519.128421377</v>
-      </c>
-      <c r="F157" s="251">
+        <v>5925561.0299788639</v>
+      </c>
+      <c r="F157" s="256">
         <f t="shared" ref="F157:G157" si="50">F155-F156</f>
-        <v>37268444.918218389</v>
-      </c>
-      <c r="G157" s="251">
+        <v>8332084.1743579842</v>
+      </c>
+      <c r="G157" s="256">
         <f t="shared" si="50"/>
-        <v>39671958.091481671</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7">
-      <c r="B158" s="202" t="s">
+        <v>11023221.48250322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="B158" s="188" t="s">
         <v>520</v>
       </c>
-      <c r="C158" s="202"/>
-      <c r="D158" s="202"/>
-      <c r="E158" s="251">
+      <c r="C158" s="188"/>
+      <c r="D158" s="188"/>
+      <c r="E158" s="40">
         <f>E157*0.1</f>
-        <v>3337251.9128421377</v>
-      </c>
-      <c r="F158" s="251">
+        <v>592556.10299788637</v>
+      </c>
+      <c r="F158" s="40">
         <f t="shared" ref="F158:G158" si="51">F157*0.1</f>
-        <v>3726844.491821839</v>
-      </c>
-      <c r="G158" s="251">
+        <v>833208.41743579844</v>
+      </c>
+      <c r="G158" s="40">
         <f t="shared" si="51"/>
-        <v>3967195.8091481673</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7">
-      <c r="B159" s="236" t="s">
+        <v>1102322.1482503221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="B159" s="252" t="s">
         <v>521</v>
       </c>
-      <c r="C159" s="236"/>
-      <c r="D159" s="236"/>
-      <c r="E159" s="251">
+      <c r="C159" s="252"/>
+      <c r="D159" s="252"/>
+      <c r="E159" s="256">
         <f>E157-E158</f>
-        <v>30035267.215579242</v>
-      </c>
-      <c r="F159" s="251">
+        <v>5333004.9269809779</v>
+      </c>
+      <c r="F159" s="256">
         <f t="shared" ref="F159:G159" si="52">F157-F158</f>
-        <v>33541600.426396549</v>
-      </c>
-      <c r="G159" s="251">
+        <v>7498875.7569221854</v>
+      </c>
+      <c r="G159" s="256">
         <f t="shared" si="52"/>
-        <v>35704762.282333501</v>
+        <v>9920899.3342528977</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B119:P119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C53:D61"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B93:J93"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="B110:D114"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="C105:D108"/>
+    <mergeCell ref="B95:B109"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C95:D104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="B79:B91"/>
+    <mergeCell ref="C84:D90"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C79:D83"/>
+    <mergeCell ref="E83:F83"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="C72:F72"/>
     <mergeCell ref="C73:F73"/>
@@ -17377,58 +17357,82 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="B79:B91"/>
-    <mergeCell ref="C84:D90"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C79:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B93:J93"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="B110:D114"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="C105:D108"/>
-    <mergeCell ref="B95:B109"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="C95:D104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="C53:D61"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B119:P119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17442,8 +17446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17466,10 +17470,10 @@
         <f>'Presupuesto de Inversion'!C209</f>
         <v>22967679.680968828</v>
       </c>
-      <c r="J2" s="243" t="s">
+      <c r="J2" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="243"/>
+      <c r="K2" s="249"/>
     </row>
     <row r="3" spans="2:12">
       <c r="J3" s="142" t="s">
@@ -17488,14 +17492,14 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="247" t="s">
         <v>450</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
       <c r="J5" s="142" t="s">
         <v>4</v>
       </c>
@@ -17504,10 +17508,10 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="184"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="61" t="s">
         <v>418</v>
       </c>
@@ -17522,10 +17526,10 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="188" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="202"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
         <f>'Analisis Financiero'!T74</f>
@@ -17541,10 +17545,10 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="188" t="s">
         <v>501</v>
       </c>
-      <c r="C8" s="202"/>
+      <c r="C8" s="188"/>
       <c r="D8" s="19">
         <f>C2*0.7</f>
         <v>16077375.776678178</v>
@@ -17558,17 +17562,17 @@
       <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="245" t="s">
+      <c r="J8" s="251" t="s">
         <v>502</v>
       </c>
-      <c r="K8" s="245"/>
-      <c r="L8" s="245"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="251"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="188" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="202"/>
+      <c r="C9" s="188"/>
       <c r="D9" s="19">
         <f>C2*0.3</f>
         <v>6890303.9042906482</v>
@@ -17593,10 +17597,10 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="202" t="s">
+      <c r="B10" s="188" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="202"/>
+      <c r="C10" s="188"/>
       <c r="D10" s="19">
         <f>SUM(D8:D9)</f>
         <v>22967679.680968828</v>
@@ -17626,10 +17630,10 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="244" t="s">
+      <c r="B11" s="250" t="s">
         <v>448</v>
       </c>
-      <c r="C11" s="244"/>
+      <c r="C11" s="250"/>
       <c r="D11" s="119">
         <f>D7-D10</f>
         <v>-22967679.680968828</v>
@@ -17673,12 +17677,12 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="242" t="s">
+      <c r="B13" s="248" t="s">
         <v>451</v>
       </c>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="242"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="61" t="s">
@@ -17785,10 +17789,10 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="184" t="s">
+      <c r="B32" s="187" t="s">
         <v>475</v>
       </c>
-      <c r="C32" s="184"/>
+      <c r="C32" s="187"/>
       <c r="D32" s="122" t="s">
         <v>2</v>
       </c>
@@ -17800,20 +17804,20 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="249" t="s">
+      <c r="B33" s="243" t="s">
         <v>476</v>
       </c>
-      <c r="C33" s="249"/>
-      <c r="D33" s="249"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
       <c r="J33" s="150"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="202" t="s">
+      <c r="B34" s="188" t="s">
         <v>477</v>
       </c>
-      <c r="C34" s="202"/>
+      <c r="C34" s="188"/>
       <c r="D34" s="19">
         <f>'Presupuesto de Inversion'!E172</f>
         <v>48303010</v>
@@ -17828,10 +17832,10 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="202" t="s">
+      <c r="B35" s="188" t="s">
         <v>478</v>
       </c>
-      <c r="C35" s="202"/>
+      <c r="C35" s="188"/>
       <c r="D35" s="19">
         <f>'Presupuesto de Inversion'!O196</f>
         <v>94678732.104587138</v>
@@ -17846,10 +17850,10 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="202" t="s">
+      <c r="B36" s="188" t="s">
         <v>479</v>
       </c>
-      <c r="C36" s="202"/>
+      <c r="C36" s="188"/>
       <c r="D36" s="19">
         <f>'Presupuesto de Inversion'!E182</f>
         <v>10665559.171581741</v>
@@ -17882,19 +17886,19 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="227" t="s">
+      <c r="B38" s="226" t="s">
         <v>481</v>
       </c>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
-      <c r="E38" s="227"/>
-      <c r="F38" s="227"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="226"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="227" t="s">
+      <c r="B39" s="226" t="s">
         <v>477</v>
       </c>
-      <c r="C39" s="227"/>
+      <c r="C39" s="226"/>
       <c r="D39" s="19">
         <f>D34</f>
         <v>48303010</v>
@@ -17909,10 +17913,10 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="227" t="s">
+      <c r="B40" s="226" t="s">
         <v>482</v>
       </c>
-      <c r="C40" s="227"/>
+      <c r="C40" s="226"/>
       <c r="D40" s="19">
         <f>'Presupuesto de Inversion'!D188</f>
         <v>29349.100917431191</v>
@@ -17927,10 +17931,10 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="227" t="s">
+      <c r="B41" s="226" t="s">
         <v>483</v>
       </c>
-      <c r="C41" s="227"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="19">
         <f>'Presupuesto de Inversion'!D189</f>
         <v>4892.4583355879549</v>
@@ -17945,10 +17949,10 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="246" t="s">
+      <c r="B42" s="244" t="s">
         <v>484</v>
       </c>
-      <c r="C42" s="246"/>
+      <c r="C42" s="244"/>
       <c r="D42" s="134">
         <f>D39/(D40-D41)</f>
         <v>1975.0466499379786</v>
@@ -17963,19 +17967,19 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>485</v>
       </c>
-      <c r="C43" s="227"/>
-      <c r="D43" s="227"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="227"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="226"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="227" t="s">
+      <c r="B44" s="226" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="227"/>
+      <c r="C44" s="226"/>
       <c r="D44" s="19">
         <f>D34</f>
         <v>48303010</v>
@@ -17990,10 +17994,10 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="227" t="s">
+      <c r="B45" s="226" t="s">
         <v>486</v>
       </c>
-      <c r="C45" s="227"/>
+      <c r="C45" s="226"/>
       <c r="D45" s="19">
         <f>D36</f>
         <v>10665559.171581741</v>
@@ -18008,10 +18012,10 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="227" t="s">
+      <c r="B46" s="226" t="s">
         <v>478</v>
       </c>
-      <c r="C46" s="227"/>
+      <c r="C46" s="226"/>
       <c r="D46" s="19">
         <f>D35</f>
         <v>94678732.104587138</v>
@@ -18026,10 +18030,10 @@
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="246" t="s">
+      <c r="B47" s="244" t="s">
         <v>487</v>
       </c>
-      <c r="C47" s="246"/>
+      <c r="C47" s="244"/>
       <c r="D47" s="120">
         <f>D44/(1-(D45/D46))</f>
         <v>54435127.063729085</v>
@@ -18044,19 +18048,19 @@
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="227" t="s">
+      <c r="B48" s="226" t="s">
         <v>500</v>
       </c>
-      <c r="C48" s="227"/>
-      <c r="D48" s="227"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="227"/>
+      <c r="C48" s="226"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="226"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="227" t="s">
+      <c r="B49" s="226" t="s">
         <v>488</v>
       </c>
-      <c r="C49" s="227"/>
+      <c r="C49" s="226"/>
       <c r="D49" s="19">
         <f>D47</f>
         <v>54435127.063729085</v>
@@ -18071,10 +18075,10 @@
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="247" t="s">
+      <c r="B50" s="245" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="248"/>
+      <c r="C50" s="246"/>
       <c r="D50" s="19">
         <f>D35</f>
         <v>94678732.104587138</v>
@@ -18089,10 +18093,10 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="227" t="s">
+      <c r="B51" s="226" t="s">
         <v>489</v>
       </c>
-      <c r="C51" s="227"/>
+      <c r="C51" s="226"/>
       <c r="D51" s="2">
         <v>243</v>
       </c>
@@ -18108,10 +18112,10 @@
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="246" t="s">
+      <c r="B52" s="244" t="s">
         <v>490</v>
       </c>
-      <c r="C52" s="246"/>
+      <c r="C52" s="244"/>
       <c r="D52" s="149">
         <f>D49/(D50/D51)</f>
         <v>139.71179780770734</v>
@@ -18431,16 +18435,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:C44"/>
@@ -18451,16 +18455,16 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18568,36 +18572,36 @@
       <c r="H6" s="124"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="187" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="168" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="174" t="s">
+      <c r="D8" s="168" t="s">
         <v>470</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="168" t="s">
         <v>471</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="F8" s="168" t="s">
         <v>472</v>
       </c>
-      <c r="G8" s="174" t="s">
+      <c r="G8" s="168" t="s">
         <v>473</v>
       </c>
-      <c r="H8" s="174" t="s">
+      <c r="H8" s="168" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="184"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="129">

--- a/Estudio_financiero_Estatica.xlsx
+++ b/Estudio_financiero_Estatica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda Dinamica" sheetId="1" r:id="rId1"/>
@@ -2396,36 +2396,12 @@
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="174" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2440,41 +2416,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2482,11 +2455,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2509,88 +2509,43 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2626,15 +2581,59 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2651,15 +2650,16 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5750,8 +5750,8 @@
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>273434</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>519240</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -6129,26 +6129,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49:Q50"/>
+    <sheetView topLeftCell="J1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="H1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.5703125" customWidth="1"/>
     <col min="19" max="19" width="16.28515625" customWidth="1"/>
     <col min="20" max="20" width="13.140625" customWidth="1"/>
@@ -6159,36 +6160,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
+      <c r="A2" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="176"/>
+      <c r="D4" s="168"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4">
         <v>0.19</v>
       </c>
-      <c r="M4" s="179" t="s">
+      <c r="M4" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="180"/>
-      <c r="O4" s="178"/>
-      <c r="R4" s="170" t="s">
+      <c r="N4" s="172"/>
+      <c r="O4" s="170"/>
+      <c r="R4" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="171"/>
+      <c r="S4" s="174"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="70" t="s">
@@ -6212,12 +6213,12 @@
       <c r="M5" s="6">
         <v>0.5</v>
       </c>
-      <c r="N5" s="177" t="s">
+      <c r="N5" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="178"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="173"/>
+      <c r="O5" s="170"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="176"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="70" t="s">
@@ -6232,10 +6233,10 @@
       <c r="M6" s="6">
         <v>0.5</v>
       </c>
-      <c r="N6" s="177" t="s">
+      <c r="N6" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="178"/>
+      <c r="O6" s="170"/>
       <c r="R6" s="7" t="s">
         <v>11</v>
       </c>
@@ -6258,24 +6259,24 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="10"/>
@@ -6482,31 +6483,31 @@
       </c>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="174"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="174"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="179"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="179"/>
+      <c r="Q32" s="179"/>
+      <c r="R32" s="179"/>
+      <c r="S32" s="179"/>
+      <c r="T32" s="179"/>
+      <c r="U32" s="179"/>
+      <c r="V32" s="179"/>
+      <c r="W32" s="179"/>
+      <c r="X32" s="179"/>
     </row>
     <row r="33" spans="2:25" ht="27.75" customHeight="1">
       <c r="B33" s="11" t="s">
@@ -6580,7 +6581,7 @@
       </c>
     </row>
     <row r="34" spans="2:25">
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="178" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6657,7 +6658,7 @@
       </c>
     </row>
     <row r="35" spans="2:25">
-      <c r="B35" s="165"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
@@ -6731,7 +6732,7 @@
       </c>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="165"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
@@ -6821,7 +6822,7 @@
       </c>
     </row>
     <row r="37" spans="2:25">
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="178" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6898,7 +6899,7 @@
       </c>
     </row>
     <row r="38" spans="2:25">
-      <c r="B38" s="165"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
@@ -6973,7 +6974,7 @@
       </c>
     </row>
     <row r="39" spans="2:25">
-      <c r="B39" s="165"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="21" t="s">
         <v>51</v>
       </c>
@@ -7063,7 +7064,7 @@
       </c>
     </row>
     <row r="40" spans="2:25">
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="178" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7140,7 +7141,7 @@
       </c>
     </row>
     <row r="41" spans="2:25">
-      <c r="B41" s="165"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
@@ -7215,7 +7216,7 @@
       </c>
     </row>
     <row r="42" spans="2:25">
-      <c r="B42" s="165"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="21" t="s">
         <v>54</v>
       </c>
@@ -7394,54 +7395,54 @@
       </c>
     </row>
     <row r="47" spans="2:25">
-      <c r="B47" s="169" t="s">
+      <c r="B47" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="177"/>
     </row>
     <row r="48" spans="2:25" ht="27.75" customHeight="1">
-      <c r="B48" s="168" t="s">
+      <c r="B48" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="168"/>
+      <c r="C48" s="180"/>
       <c r="D48" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="164" t="s">
+      <c r="G48" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="H48" s="164"/>
-      <c r="J48" s="164" t="s">
+      <c r="H48" s="181"/>
+      <c r="J48" s="181" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="164"/>
-      <c r="L48" s="164"/>
+      <c r="K48" s="181"/>
+      <c r="L48" s="181"/>
       <c r="N48" s="30" t="s">
         <v>97</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q48" s="167" t="s">
+      <c r="Q48" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="R48" s="167"/>
-      <c r="S48" s="167"/>
-      <c r="T48" s="167"/>
-      <c r="U48" s="167"/>
-      <c r="W48" s="163" t="s">
+      <c r="R48" s="184"/>
+      <c r="S48" s="184"/>
+      <c r="T48" s="184"/>
+      <c r="U48" s="184"/>
+      <c r="W48" s="182" t="s">
         <v>114</v>
       </c>
-      <c r="X48" s="163"/>
-      <c r="Y48" s="163"/>
+      <c r="X48" s="182"/>
+      <c r="Y48" s="182"/>
     </row>
     <row r="49" spans="2:25">
-      <c r="B49" s="168" t="s">
+      <c r="B49" s="180" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -7475,19 +7476,19 @@
       <c r="O49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="165" t="s">
+      <c r="Q49" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="R49" s="166" t="s">
+      <c r="R49" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="S49" s="166" t="s">
+      <c r="S49" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="T49" s="166" t="s">
+      <c r="T49" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="U49" s="166"/>
+      <c r="U49" s="183"/>
       <c r="W49" s="34" t="s">
         <v>115</v>
       </c>
@@ -7499,7 +7500,7 @@
       </c>
     </row>
     <row r="50" spans="2:25">
-      <c r="B50" s="168"/>
+      <c r="B50" s="180"/>
       <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
@@ -7532,9 +7533,9 @@
       <c r="O50" s="2">
         <v>8</v>
       </c>
-      <c r="Q50" s="165"/>
-      <c r="R50" s="166"/>
-      <c r="S50" s="166"/>
+      <c r="Q50" s="178"/>
+      <c r="R50" s="183"/>
+      <c r="S50" s="183"/>
       <c r="T50" s="10" t="s">
         <v>104</v>
       </c>
@@ -7553,7 +7554,7 @@
       </c>
     </row>
     <row r="51" spans="2:25">
-      <c r="B51" s="168"/>
+      <c r="B51" s="180"/>
       <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
@@ -7610,7 +7611,7 @@
       </c>
     </row>
     <row r="52" spans="2:25">
-      <c r="B52" s="168"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
@@ -7666,7 +7667,7 @@
       </c>
     </row>
     <row r="53" spans="2:25">
-      <c r="B53" s="168"/>
+      <c r="B53" s="180"/>
       <c r="C53" s="2" t="s">
         <v>61</v>
       </c>
@@ -7716,7 +7717,7 @@
       </c>
     </row>
     <row r="54" spans="2:25">
-      <c r="B54" s="168"/>
+      <c r="B54" s="180"/>
       <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
@@ -7756,7 +7757,7 @@
       </c>
     </row>
     <row r="55" spans="2:25">
-      <c r="B55" s="168" t="s">
+      <c r="B55" s="180" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -7795,7 +7796,7 @@
       </c>
     </row>
     <row r="56" spans="2:25">
-      <c r="B56" s="168"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
@@ -7818,7 +7819,7 @@
       </c>
     </row>
     <row r="57" spans="2:25">
-      <c r="B57" s="168"/>
+      <c r="B57" s="180"/>
       <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
@@ -7841,7 +7842,7 @@
       </c>
     </row>
     <row r="58" spans="2:25">
-      <c r="B58" s="168"/>
+      <c r="B58" s="180"/>
       <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
@@ -7868,22 +7869,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B32:X32"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B47:E47"/>
     <mergeCell ref="W48:Y48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="Q49:Q50"/>
@@ -7891,6 +7876,22 @@
     <mergeCell ref="S49:S50"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:X32"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7902,8 +7903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T209"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149:E156"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7925,27 +7926,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="H2" s="190" t="s">
+      <c r="H2" s="210" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="H3" s="188" t="s">
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="H3" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
       <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
@@ -7969,11 +7970,11 @@
       <c r="F4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="188" t="s">
+      <c r="H4" s="208" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
       <c r="K4" s="40">
         <v>0</v>
       </c>
@@ -8000,11 +8001,11 @@
         <f>E5/$E$16</f>
         <v>0.69059405940594054</v>
       </c>
-      <c r="H5" s="188" t="s">
+      <c r="H5" s="208" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
       <c r="K5" s="40">
         <v>51000</v>
       </c>
@@ -8021,11 +8022,11 @@
       <c r="D6" s="72"/>
       <c r="E6" s="27"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="208" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
       <c r="K6" s="40">
         <v>0</v>
       </c>
@@ -8100,11 +8101,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="192" t="s">
+      <c r="H9" s="194" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
       <c r="K9" s="40">
         <v>0</v>
       </c>
@@ -8129,11 +8130,11 @@
       <c r="F10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="188" t="s">
+      <c r="H10" s="208" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="208"/>
       <c r="K10" s="40">
         <v>0</v>
       </c>
@@ -8155,11 +8156,11 @@
         <f>E11/$E$16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="188" t="s">
+      <c r="H11" s="208" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="208"/>
       <c r="K11" s="40">
         <v>0</v>
       </c>
@@ -8176,11 +8177,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="189" t="s">
+      <c r="H12" s="209" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
       <c r="K12" s="42">
         <f>SUM(K4:K11)</f>
         <v>640000</v>
@@ -8239,11 +8240,11 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
       <c r="E16" s="37">
         <f>E5+E8+E11+E15</f>
         <v>4848000</v>
@@ -8258,10 +8259,10 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="200" t="s">
+      <c r="B18" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="200"/>
+      <c r="C18" s="202"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
@@ -8299,49 +8300,49 @@
       <c r="E21" s="16"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="186" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="186"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="166" t="s">
+      <c r="C24" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="166" t="s">
+      <c r="E24" s="183" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="166" t="s">
+      <c r="F24" s="183" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="191" t="s">
+      <c r="G24" s="211" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="166" t="s">
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="183" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
       <c r="G25" s="2" t="s">
         <v>2</v>
       </c>
@@ -8351,7 +8352,7 @@
       <c r="I25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="166"/>
+      <c r="J25" s="183"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="22" t="s">
@@ -8399,13 +8400,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="201" t="s">
+      <c r="B28" s="203" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="203"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="205"/>
       <c r="G28" s="63">
         <f>G27</f>
         <v>200000</v>
@@ -8482,13 +8483,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="204" t="s">
+      <c r="B31" s="195" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="205"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="206"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
       <c r="G31" s="80">
         <f>G28+G30+G29</f>
         <v>200000</v>
@@ -8511,35 +8512,35 @@
       <c r="L31" s="17"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="186" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="166" t="s">
+      <c r="B34" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="166" t="s">
+      <c r="C34" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="166" t="s">
+      <c r="D34" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="166" t="s">
+      <c r="E34" s="183" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="166"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
       <c r="E35" s="10" t="s">
         <v>2</v>
       </c>
@@ -8575,12 +8576,12 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="186" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="193"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="50" t="s">
@@ -8641,12 +8642,12 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="193" t="s">
+      <c r="B44" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="193"/>
-      <c r="D44" s="193"/>
-      <c r="F44" s="194" t="s">
+      <c r="C44" s="186"/>
+      <c r="D44" s="186"/>
+      <c r="F44" s="187" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8660,7 +8661,7 @@
       <c r="D45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="194"/>
+      <c r="F45" s="187"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="2" t="s">
@@ -8674,7 +8675,7 @@
         <f>C46*'Demanda Dinamica'!$L$50*'Demanda Dinamica'!F37</f>
         <v>606666.66666666663</v>
       </c>
-      <c r="F46" s="194"/>
+      <c r="F46" s="187"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="2" t="s">
@@ -8735,14 +8736,14 @@
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="186" t="s">
+      <c r="B52" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="186"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
+      <c r="C52" s="214"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="214"/>
+      <c r="F52" s="214"/>
+      <c r="G52" s="214"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="207" t="s">
@@ -8763,10 +8764,10 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="176" t="s">
+      <c r="B54" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="176"/>
+      <c r="C54" s="168"/>
       <c r="D54" s="18">
         <f>E16</f>
         <v>4848000</v>
@@ -8785,10 +8786,10 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="176" t="s">
+      <c r="B55" s="168" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="176"/>
+      <c r="C55" s="168"/>
       <c r="D55" s="18">
         <v>0</v>
       </c>
@@ -8805,10 +8806,10 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="176" t="s">
+      <c r="B56" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="176"/>
+      <c r="C56" s="168"/>
       <c r="D56" s="18">
         <v>10000</v>
       </c>
@@ -8826,10 +8827,10 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="176" t="s">
+      <c r="B57" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="176"/>
+      <c r="C57" s="168"/>
       <c r="D57" s="18">
         <v>0</v>
       </c>
@@ -8844,10 +8845,10 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="176" t="s">
+      <c r="B58" s="168" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="176"/>
+      <c r="C58" s="168"/>
       <c r="D58" s="18">
         <v>0</v>
       </c>
@@ -8862,10 +8863,10 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="176" t="s">
+      <c r="B59" s="168" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="176"/>
+      <c r="C59" s="168"/>
       <c r="D59" s="18">
         <v>0</v>
       </c>
@@ -8880,11 +8881,11 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="185" t="s">
+      <c r="B60" s="206" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="185"/>
-      <c r="D60" s="185"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="206"/>
       <c r="E60" s="25">
         <f>SUM(E54:E59)</f>
         <v>168480</v>
@@ -8899,21 +8900,21 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="199" t="s">
+      <c r="B62" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="199"/>
-      <c r="D62" s="199"/>
-      <c r="E62" s="199"/>
-      <c r="F62" s="199"/>
-      <c r="G62" s="199"/>
+      <c r="C62" s="201"/>
+      <c r="D62" s="201"/>
+      <c r="E62" s="201"/>
+      <c r="F62" s="201"/>
+      <c r="G62" s="201"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="168" t="s">
+      <c r="B63" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
+      <c r="C63" s="180"/>
+      <c r="D63" s="180"/>
       <c r="E63" s="22" t="s">
         <v>2</v>
       </c>
@@ -8925,13 +8926,13 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="187" t="s">
+      <c r="B64" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="176" t="s">
+      <c r="C64" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="176"/>
+      <c r="D64" s="168"/>
       <c r="E64" s="19">
         <f>0</f>
         <v>0</v>
@@ -8946,11 +8947,11 @@
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="187"/>
-      <c r="C65" s="176" t="s">
+      <c r="B65" s="190"/>
+      <c r="C65" s="168" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="176"/>
+      <c r="D65" s="168"/>
       <c r="E65" s="19">
         <f>'Demanda Dinamica'!V39</f>
         <v>24963480</v>
@@ -8965,11 +8966,11 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="187"/>
-      <c r="C66" s="176" t="s">
+      <c r="B66" s="190"/>
+      <c r="C66" s="168" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="176"/>
+      <c r="D66" s="168"/>
       <c r="E66" s="19">
         <f>'Demanda Dinamica'!$V$42</f>
         <v>4109020</v>
@@ -8984,11 +8985,11 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="187"/>
-      <c r="C67" s="176" t="s">
+      <c r="B67" s="190"/>
+      <c r="C67" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="176"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="19">
         <f>'Demanda Dinamica'!V36</f>
         <v>16262030</v>
@@ -9003,11 +9004,11 @@
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="187"/>
-      <c r="C68" s="176" t="s">
+      <c r="B68" s="190"/>
+      <c r="C68" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="176"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="19">
         <v>0</v>
       </c>
@@ -9021,11 +9022,11 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="187"/>
-      <c r="C69" s="182" t="s">
+      <c r="B69" s="190"/>
+      <c r="C69" s="215" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="182"/>
+      <c r="D69" s="215"/>
       <c r="E69" s="57">
         <f>SUM(E64:E67)-E68</f>
         <v>45334530</v>
@@ -9043,13 +9044,13 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="187" t="s">
+      <c r="B70" s="190" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="176" t="s">
+      <c r="C70" s="168" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="176"/>
+      <c r="D70" s="168"/>
       <c r="E70" s="19">
         <v>0</v>
       </c>
@@ -9065,11 +9066,11 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="187"/>
-      <c r="C71" s="176" t="s">
+      <c r="B71" s="190"/>
+      <c r="C71" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="176"/>
+      <c r="D71" s="168"/>
       <c r="E71" s="19">
         <f>G28</f>
         <v>200000</v>
@@ -9088,11 +9089,11 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="187"/>
-      <c r="C72" s="176" t="s">
+      <c r="B72" s="190"/>
+      <c r="C72" s="168" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="176"/>
+      <c r="D72" s="168"/>
       <c r="E72" s="19">
         <v>0</v>
       </c>
@@ -9108,11 +9109,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="187"/>
-      <c r="C73" s="176" t="s">
+      <c r="B73" s="190"/>
+      <c r="C73" s="168" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="176"/>
+      <c r="D73" s="168"/>
       <c r="E73" s="19">
         <v>0</v>
       </c>
@@ -9128,11 +9129,11 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="187"/>
-      <c r="C74" s="182" t="s">
+      <c r="B74" s="190"/>
+      <c r="C74" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="D74" s="182"/>
+      <c r="D74" s="215"/>
       <c r="E74" s="57">
         <f xml:space="preserve"> SUM(E70:E73)</f>
         <v>200000</v>
@@ -9147,11 +9148,11 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="185" t="s">
+      <c r="B75" s="206" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="185"/>
-      <c r="D75" s="185"/>
+      <c r="C75" s="206"/>
+      <c r="D75" s="206"/>
       <c r="E75" s="57">
         <f>E69+E74</f>
         <v>45534530</v>
@@ -9166,11 +9167,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="215" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
+      <c r="C78" s="215"/>
+      <c r="D78" s="215"/>
       <c r="E78" s="57">
         <f>E75/('Demanda Dinamica'!$Y$52*12)</f>
         <v>3162.120138888889</v>
@@ -9185,23 +9186,23 @@
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="183" t="s">
+      <c r="B81" s="217" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="183"/>
+      <c r="C81" s="217"/>
       <c r="D81" s="4">
         <v>0.35</v>
       </c>
-      <c r="F81" s="183" t="s">
+      <c r="F81" s="217" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="183"/>
+      <c r="G81" s="217"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="183" t="s">
+      <c r="B82" s="217" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="183"/>
+      <c r="C82" s="217"/>
       <c r="D82" s="19">
         <f>E78*D81</f>
         <v>1106.7420486111112</v>
@@ -9215,10 +9216,10 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="184" t="s">
+      <c r="B83" s="218" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="184"/>
+      <c r="C83" s="218"/>
       <c r="D83" s="65">
         <f>E78*(1+D81)</f>
         <v>4268.8621875000008</v>
@@ -9259,11 +9260,11 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="185" t="s">
+      <c r="B89" s="206" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="185"/>
-      <c r="D89" s="185"/>
+      <c r="C89" s="206"/>
+      <c r="D89" s="206"/>
       <c r="E89" s="57">
         <f>E78+G86</f>
         <v>4016.063330876389</v>
@@ -9278,32 +9279,32 @@
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="181" t="s">
+      <c r="B92" s="216" t="s">
         <v>212</v>
       </c>
-      <c r="C92" s="181"/>
+      <c r="C92" s="216"/>
       <c r="D92" s="68">
         <f>+(D83-E89)/D83</f>
         <v>5.9219259259259402E-2</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="181" t="s">
+      <c r="B93" s="216" t="s">
         <v>213</v>
       </c>
-      <c r="C93" s="181"/>
+      <c r="C93" s="216"/>
       <c r="D93" s="69">
         <f>E89*D92</f>
         <v>237.82829559277377</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="197" t="s">
+      <c r="B95" s="199" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="197"/>
-      <c r="D95" s="197"/>
-      <c r="E95" s="197"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="199"/>
+      <c r="E95" s="199"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="59" t="s">
@@ -9392,20 +9393,20 @@
       <c r="D102" s="151"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="198" t="s">
+      <c r="B103" s="200" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="198"/>
-      <c r="D103" s="198"/>
-      <c r="E103" s="198"/>
-      <c r="F103" s="198"/>
-      <c r="G103" s="198"/>
+      <c r="C103" s="200"/>
+      <c r="D103" s="200"/>
+      <c r="E103" s="200"/>
+      <c r="F103" s="200"/>
+      <c r="G103" s="200"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="168" t="s">
+      <c r="B104" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="168"/>
+      <c r="C104" s="180"/>
       <c r="D104" s="62" t="s">
         <v>236</v>
       </c>
@@ -9420,10 +9421,10 @@
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="192" t="s">
+      <c r="B105" s="194" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="192"/>
+      <c r="C105" s="194"/>
       <c r="D105" s="78">
         <f>'Demanda Dinamica'!I36</f>
         <v>2180290</v>
@@ -9442,10 +9443,10 @@
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="192" t="s">
+      <c r="B106" s="194" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="192"/>
+      <c r="C106" s="194"/>
       <c r="D106" s="78">
         <f>E16</f>
         <v>4848000</v>
@@ -9464,10 +9465,10 @@
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="192" t="s">
+      <c r="B107" s="194" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="192"/>
+      <c r="C107" s="194"/>
       <c r="D107" s="78">
         <f>D55</f>
         <v>0</v>
@@ -9486,10 +9487,10 @@
       </c>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="192" t="s">
+      <c r="B108" s="194" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="192"/>
+      <c r="C108" s="194"/>
       <c r="D108" s="78">
         <f>D56</f>
         <v>10000</v>
@@ -9508,10 +9509,10 @@
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="192" t="s">
+      <c r="B109" s="194" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="192"/>
+      <c r="C109" s="194"/>
       <c r="D109" s="78">
         <f>D57</f>
         <v>0</v>
@@ -9530,10 +9531,10 @@
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="192" t="s">
+      <c r="B110" s="194" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="192"/>
+      <c r="C110" s="194"/>
       <c r="D110" s="78"/>
       <c r="E110" s="78">
         <f>G31</f>
@@ -9549,10 +9550,10 @@
       </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="192" t="s">
+      <c r="B111" s="194" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="192"/>
+      <c r="C111" s="194"/>
       <c r="D111" s="78"/>
       <c r="E111" s="78">
         <f>G31</f>
@@ -9568,10 +9569,10 @@
       </c>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="192" t="s">
+      <c r="B112" s="194" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="192"/>
+      <c r="C112" s="194"/>
       <c r="D112" s="78"/>
       <c r="E112" s="78">
         <f>E16/3</f>
@@ -9587,10 +9588,10 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="B113" s="192" t="s">
+      <c r="B113" s="194" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="192"/>
+      <c r="C113" s="194"/>
       <c r="D113" s="78"/>
       <c r="E113" s="78">
         <v>0</v>
@@ -9604,10 +9605,10 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="B114" s="192" t="s">
+      <c r="B114" s="194" t="s">
         <v>235</v>
       </c>
-      <c r="C114" s="192"/>
+      <c r="C114" s="194"/>
       <c r="D114" s="78"/>
       <c r="E114" s="78">
         <v>0</v>
@@ -9620,11 +9621,11 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="204" t="s">
+      <c r="B115" s="195" t="s">
         <v>237</v>
       </c>
-      <c r="C115" s="205"/>
-      <c r="D115" s="206"/>
+      <c r="C115" s="196"/>
+      <c r="D115" s="197"/>
       <c r="E115" s="82">
         <f>SUM(E105:E114)</f>
         <v>18446510</v>
@@ -9639,12 +9640,12 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="B117" s="208" t="s">
+      <c r="B117" s="198" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="208"/>
-      <c r="D117" s="208"/>
-      <c r="E117" s="208"/>
+      <c r="C117" s="198"/>
+      <c r="D117" s="198"/>
+      <c r="E117" s="198"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="83"/>
@@ -9760,51 +9761,51 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="B127" s="209" t="s">
+      <c r="B127" s="193" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="209"/>
-      <c r="D127" s="209"/>
-      <c r="E127" s="209"/>
-      <c r="F127" s="209"/>
-      <c r="G127" s="209"/>
-      <c r="H127" s="209"/>
-      <c r="I127" s="209"/>
-      <c r="J127" s="209"/>
-      <c r="K127" s="209"/>
-      <c r="L127" s="209"/>
+      <c r="C127" s="193"/>
+      <c r="D127" s="193"/>
+      <c r="E127" s="193"/>
+      <c r="F127" s="193"/>
+      <c r="G127" s="193"/>
+      <c r="H127" s="193"/>
+      <c r="I127" s="193"/>
+      <c r="J127" s="193"/>
+      <c r="K127" s="193"/>
+      <c r="L127" s="193"/>
     </row>
     <row r="128" spans="1:12">
-      <c r="B128" s="166" t="s">
+      <c r="B128" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="166"/>
-      <c r="D128" s="166" t="s">
+      <c r="C128" s="183"/>
+      <c r="D128" s="183" t="s">
         <v>256</v>
       </c>
-      <c r="E128" s="166" t="s">
+      <c r="E128" s="183" t="s">
         <v>259</v>
       </c>
-      <c r="F128" s="166"/>
-      <c r="G128" s="166"/>
-      <c r="H128" s="165" t="s">
+      <c r="F128" s="183"/>
+      <c r="G128" s="183"/>
+      <c r="H128" s="178" t="s">
         <v>260</v>
       </c>
-      <c r="I128" s="165" t="s">
+      <c r="I128" s="178" t="s">
         <v>261</v>
       </c>
-      <c r="J128" s="165" t="s">
+      <c r="J128" s="178" t="s">
         <v>262</v>
       </c>
-      <c r="K128" s="165" t="s">
+      <c r="K128" s="178" t="s">
         <v>263</v>
       </c>
-      <c r="L128" s="165"/>
+      <c r="L128" s="178"/>
     </row>
     <row r="129" spans="2:20">
-      <c r="B129" s="166"/>
-      <c r="C129" s="166"/>
-      <c r="D129" s="166"/>
+      <c r="B129" s="183"/>
+      <c r="C129" s="183"/>
+      <c r="D129" s="183"/>
       <c r="E129" s="60" t="s">
         <v>125</v>
       </c>
@@ -9814,11 +9815,11 @@
       <c r="G129" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="H129" s="165"/>
-      <c r="I129" s="165"/>
-      <c r="J129" s="165"/>
-      <c r="K129" s="165"/>
-      <c r="L129" s="165"/>
+      <c r="H129" s="178"/>
+      <c r="I129" s="178"/>
+      <c r="J129" s="178"/>
+      <c r="K129" s="178"/>
+      <c r="L129" s="178"/>
     </row>
     <row r="130" spans="2:20">
       <c r="B130" s="2" t="s">
@@ -9928,24 +9929,24 @@
       </c>
     </row>
     <row r="135" spans="2:20">
-      <c r="B135" s="209" t="s">
+      <c r="B135" s="193" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="209"/>
-      <c r="D135" s="209"/>
-      <c r="E135" s="209"/>
-      <c r="F135" s="209"/>
-      <c r="G135" s="209"/>
-      <c r="H135" s="209"/>
-      <c r="I135" s="209"/>
-      <c r="J135" s="209"/>
-      <c r="K135" s="209"/>
-      <c r="L135" s="209"/>
-      <c r="M135" s="209"/>
-      <c r="N135" s="209"/>
-      <c r="O135" s="209"/>
-      <c r="P135" s="209"/>
-      <c r="Q135" s="209"/>
+      <c r="C135" s="193"/>
+      <c r="D135" s="193"/>
+      <c r="E135" s="193"/>
+      <c r="F135" s="193"/>
+      <c r="G135" s="193"/>
+      <c r="H135" s="193"/>
+      <c r="I135" s="193"/>
+      <c r="J135" s="193"/>
+      <c r="K135" s="193"/>
+      <c r="L135" s="193"/>
+      <c r="M135" s="193"/>
+      <c r="N135" s="193"/>
+      <c r="O135" s="193"/>
+      <c r="P135" s="193"/>
+      <c r="Q135" s="193"/>
     </row>
     <row r="136" spans="2:20">
       <c r="B136" s="2" t="s">
@@ -10719,19 +10720,19 @@
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="210" t="s">
+      <c r="B149" s="191" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="210"/>
-      <c r="D149" s="210"/>
-      <c r="E149" s="210"/>
-      <c r="G149" s="211" t="s">
+      <c r="C149" s="191"/>
+      <c r="D149" s="191"/>
+      <c r="E149" s="191"/>
+      <c r="G149" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="H149" s="211"/>
-      <c r="I149" s="211"/>
-      <c r="J149" s="211"/>
-      <c r="K149" s="211"/>
+      <c r="H149" s="192"/>
+      <c r="I149" s="192"/>
+      <c r="J149" s="192"/>
+      <c r="K149" s="192"/>
     </row>
     <row r="150" spans="2:17">
       <c r="B150" s="22" t="s">
@@ -10885,21 +10886,21 @@
       </c>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" s="193" t="s">
+      <c r="B158" s="186" t="s">
         <v>318</v>
       </c>
-      <c r="C158" s="193"/>
-      <c r="D158" s="193"/>
-      <c r="E158" s="193"/>
-      <c r="F158" s="193"/>
-      <c r="G158" s="193"/>
+      <c r="C158" s="186"/>
+      <c r="D158" s="186"/>
+      <c r="E158" s="186"/>
+      <c r="F158" s="186"/>
+      <c r="G158" s="186"/>
     </row>
     <row r="159" spans="2:17">
-      <c r="B159" s="187" t="s">
+      <c r="B159" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="187"/>
-      <c r="D159" s="187"/>
+      <c r="C159" s="190"/>
+      <c r="D159" s="190"/>
       <c r="E159" s="62" t="s">
         <v>2</v>
       </c>
@@ -10911,13 +10912,13 @@
       </c>
     </row>
     <row r="160" spans="2:17">
-      <c r="B160" s="168" t="s">
+      <c r="B160" s="180" t="s">
         <v>295</v>
       </c>
-      <c r="C160" s="166" t="s">
+      <c r="C160" s="183" t="s">
         <v>296</v>
       </c>
-      <c r="D160" s="166"/>
+      <c r="D160" s="183"/>
       <c r="E160" s="2" t="s">
         <v>297</v>
       </c>
@@ -10931,11 +10932,11 @@
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="168"/>
-      <c r="C161" s="166" t="s">
+      <c r="B161" s="180"/>
+      <c r="C161" s="183" t="s">
         <v>298</v>
       </c>
-      <c r="D161" s="166"/>
+      <c r="D161" s="183"/>
       <c r="E161" s="2" t="s">
         <v>297</v>
       </c>
@@ -10947,11 +10948,11 @@
       </c>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="168"/>
-      <c r="C162" s="176" t="s">
+      <c r="B162" s="180"/>
+      <c r="C162" s="168" t="s">
         <v>299</v>
       </c>
-      <c r="D162" s="176"/>
+      <c r="D162" s="168"/>
       <c r="E162" s="76">
         <f>'Demanda Dinamica'!V43</f>
         <v>45334530</v>
@@ -10966,11 +10967,11 @@
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="168"/>
-      <c r="C163" s="166" t="s">
+      <c r="B163" s="180"/>
+      <c r="C163" s="183" t="s">
         <v>300</v>
       </c>
-      <c r="D163" s="166"/>
+      <c r="D163" s="183"/>
       <c r="E163" s="76">
         <f>'Demanda Dinamica'!V35</f>
         <v>2400000</v>
@@ -10985,11 +10986,11 @@
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="168"/>
-      <c r="C164" s="166" t="s">
+      <c r="B164" s="180"/>
+      <c r="C164" s="183" t="s">
         <v>301</v>
       </c>
-      <c r="D164" s="166"/>
+      <c r="D164" s="183"/>
       <c r="E164" s="76">
         <v>0</v>
       </c>
@@ -11001,11 +11002,11 @@
       </c>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="168"/>
-      <c r="C165" s="166" t="s">
+      <c r="B165" s="180"/>
+      <c r="C165" s="183" t="s">
         <v>302</v>
       </c>
-      <c r="D165" s="166"/>
+      <c r="D165" s="183"/>
       <c r="E165" s="76">
         <f>E106</f>
         <v>48480</v>
@@ -11020,11 +11021,11 @@
       </c>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="168"/>
-      <c r="C166" s="166" t="s">
+      <c r="B166" s="180"/>
+      <c r="C166" s="183" t="s">
         <v>303</v>
       </c>
-      <c r="D166" s="166"/>
+      <c r="D166" s="183"/>
       <c r="E166" s="76">
         <f>E107</f>
         <v>0</v>
@@ -11039,11 +11040,11 @@
       </c>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="168"/>
-      <c r="C167" s="166" t="s">
+      <c r="B167" s="180"/>
+      <c r="C167" s="183" t="s">
         <v>304</v>
       </c>
-      <c r="D167" s="166"/>
+      <c r="D167" s="183"/>
       <c r="E167" s="76">
         <f t="shared" ref="E167:G168" si="42">E108</f>
         <v>120000</v>
@@ -11058,11 +11059,11 @@
       </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="168"/>
-      <c r="C168" s="166" t="s">
+      <c r="B168" s="180"/>
+      <c r="C168" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="D168" s="166"/>
+      <c r="D168" s="183"/>
       <c r="E168" s="76">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -11077,11 +11078,11 @@
       </c>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="168"/>
-      <c r="C169" s="166" t="s">
+      <c r="B169" s="180"/>
+      <c r="C169" s="183" t="s">
         <v>161</v>
       </c>
-      <c r="D169" s="166"/>
+      <c r="D169" s="183"/>
       <c r="E169" s="76">
         <f>E110</f>
         <v>200000</v>
@@ -11096,11 +11097,11 @@
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="168"/>
-      <c r="C170" s="166" t="s">
+      <c r="B170" s="180"/>
+      <c r="C170" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="166"/>
+      <c r="D170" s="183"/>
       <c r="E170" s="76">
         <f>E111</f>
         <v>200000</v>
@@ -11115,11 +11116,11 @@
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="168"/>
-      <c r="C171" s="166" t="s">
+      <c r="B171" s="180"/>
+      <c r="C171" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="D171" s="166"/>
+      <c r="D171" s="183"/>
       <c r="E171" s="76">
         <v>0</v>
       </c>
@@ -11131,11 +11132,11 @@
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="168"/>
-      <c r="C172" s="187" t="s">
+      <c r="B172" s="180"/>
+      <c r="C172" s="190" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="187"/>
+      <c r="D172" s="190"/>
       <c r="E172" s="81">
         <f>SUM(E162:E171)</f>
         <v>48303010</v>
@@ -11150,13 +11151,13 @@
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="187" t="s">
+      <c r="B173" s="190" t="s">
         <v>308</v>
       </c>
-      <c r="C173" s="166" t="s">
+      <c r="C173" s="183" t="s">
         <v>186</v>
       </c>
-      <c r="D173" s="166"/>
+      <c r="D173" s="183"/>
       <c r="E173" s="76">
         <f>E64</f>
         <v>0</v>
@@ -11171,11 +11172,11 @@
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="187"/>
-      <c r="C174" s="166" t="s">
+      <c r="B174" s="190"/>
+      <c r="C174" s="183" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="166"/>
+      <c r="D174" s="183"/>
       <c r="E174" s="76">
         <f>0</f>
         <v>0</v>
@@ -11190,11 +11191,11 @@
       </c>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="187"/>
-      <c r="C175" s="166" t="s">
+      <c r="B175" s="190"/>
+      <c r="C175" s="183" t="s">
         <v>310</v>
       </c>
-      <c r="D175" s="166"/>
+      <c r="D175" s="183"/>
       <c r="E175" s="76">
         <v>0</v>
       </c>
@@ -11206,11 +11207,11 @@
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="187"/>
-      <c r="C176" s="166" t="s">
+      <c r="B176" s="190"/>
+      <c r="C176" s="183" t="s">
         <v>311</v>
       </c>
-      <c r="D176" s="166"/>
+      <c r="D176" s="183"/>
       <c r="E176" s="76">
         <v>0</v>
       </c>
@@ -11222,11 +11223,11 @@
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="187"/>
-      <c r="C177" s="166" t="s">
+      <c r="B177" s="190"/>
+      <c r="C177" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="D177" s="166"/>
+      <c r="D177" s="183"/>
       <c r="E177" s="76">
         <v>0</v>
       </c>
@@ -11238,11 +11239,11 @@
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="187"/>
-      <c r="C178" s="166" t="s">
+      <c r="B178" s="190"/>
+      <c r="C178" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="D178" s="166"/>
+      <c r="D178" s="183"/>
       <c r="E178" s="76">
         <f>C152</f>
         <v>4733936.6052293573</v>
@@ -11257,11 +11258,11 @@
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="187"/>
-      <c r="C179" s="166" t="s">
+      <c r="B179" s="190"/>
+      <c r="C179" s="183" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="166"/>
+      <c r="D179" s="183"/>
       <c r="E179" s="76">
         <f>C153</f>
         <v>4733936.6052293573</v>
@@ -11276,11 +11277,11 @@
       </c>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="187"/>
-      <c r="C180" s="166" t="s">
+      <c r="B180" s="190"/>
+      <c r="C180" s="183" t="s">
         <v>314</v>
       </c>
-      <c r="D180" s="166"/>
+      <c r="D180" s="183"/>
       <c r="E180" s="76">
         <f t="shared" ref="E180:E181" si="48">C154</f>
         <v>1041466.0531504585</v>
@@ -11295,11 +11296,11 @@
       </c>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="187"/>
-      <c r="C181" s="166" t="s">
+      <c r="B181" s="190"/>
+      <c r="C181" s="183" t="s">
         <v>315</v>
       </c>
-      <c r="D181" s="166"/>
+      <c r="D181" s="183"/>
       <c r="E181" s="76">
         <f t="shared" si="48"/>
         <v>156219.90797256876</v>
@@ -11314,11 +11315,11 @@
       </c>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="187"/>
-      <c r="C182" s="187" t="s">
+      <c r="B182" s="190"/>
+      <c r="C182" s="190" t="s">
         <v>316</v>
       </c>
-      <c r="D182" s="187"/>
+      <c r="D182" s="190"/>
       <c r="E182" s="81">
         <f>SUM(E173:E181)</f>
         <v>10665559.171581741</v>
@@ -11333,11 +11334,11 @@
       </c>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="212" t="s">
+      <c r="B183" s="185" t="s">
         <v>317</v>
       </c>
-      <c r="C183" s="212"/>
-      <c r="D183" s="212"/>
+      <c r="C183" s="185"/>
+      <c r="D183" s="185"/>
       <c r="E183" s="100">
         <f>E172+E182</f>
         <v>58968569.171581745</v>
@@ -11359,13 +11360,13 @@
       <c r="F184" s="66"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="193" t="s">
+      <c r="B185" s="186" t="s">
         <v>321</v>
       </c>
-      <c r="C185" s="193"/>
-      <c r="D185" s="193"/>
-      <c r="E185" s="193"/>
-      <c r="F185" s="193"/>
+      <c r="C185" s="186"/>
+      <c r="D185" s="186"/>
+      <c r="E185" s="186"/>
+      <c r="F185" s="186"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="62" t="s">
@@ -11505,24 +11506,24 @@
       </c>
     </row>
     <row r="194" spans="2:17">
-      <c r="B194" s="194" t="s">
+      <c r="B194" s="187" t="s">
         <v>336</v>
       </c>
-      <c r="C194" s="194"/>
-      <c r="D194" s="194"/>
-      <c r="E194" s="194"/>
-      <c r="F194" s="194"/>
-      <c r="G194" s="194"/>
-      <c r="H194" s="194"/>
-      <c r="I194" s="194"/>
-      <c r="J194" s="194"/>
-      <c r="K194" s="194"/>
-      <c r="L194" s="194"/>
-      <c r="M194" s="194"/>
-      <c r="N194" s="194"/>
-      <c r="O194" s="194"/>
-      <c r="P194" s="194"/>
-      <c r="Q194" s="194"/>
+      <c r="C194" s="187"/>
+      <c r="D194" s="187"/>
+      <c r="E194" s="187"/>
+      <c r="F194" s="187"/>
+      <c r="G194" s="187"/>
+      <c r="H194" s="187"/>
+      <c r="I194" s="187"/>
+      <c r="J194" s="187"/>
+      <c r="K194" s="187"/>
+      <c r="L194" s="187"/>
+      <c r="M194" s="187"/>
+      <c r="N194" s="187"/>
+      <c r="O194" s="187"/>
+      <c r="P194" s="187"/>
+      <c r="Q194" s="187"/>
     </row>
     <row r="195" spans="2:17">
       <c r="B195" s="62" t="s">
@@ -11770,13 +11771,13 @@
       </c>
     </row>
     <row r="200" spans="2:17">
-      <c r="B200" s="213" t="s">
+      <c r="B200" s="188" t="s">
         <v>340</v>
       </c>
-      <c r="C200" s="213"/>
-      <c r="D200" s="213"/>
-      <c r="E200" s="213"/>
-      <c r="F200" s="213"/>
+      <c r="C200" s="188"/>
+      <c r="D200" s="188"/>
+      <c r="E200" s="188"/>
+      <c r="F200" s="188"/>
     </row>
     <row r="201" spans="2:17">
       <c r="B201" s="102" t="s">
@@ -11841,11 +11842,11 @@
       </c>
     </row>
     <row r="205" spans="2:17">
-      <c r="B205" s="214" t="s">
+      <c r="B205" s="189" t="s">
         <v>343</v>
       </c>
-      <c r="C205" s="214"/>
-      <c r="D205" s="214"/>
+      <c r="C205" s="189"/>
+      <c r="D205" s="189"/>
     </row>
     <row r="206" spans="2:17">
       <c r="B206" s="102" t="s">
@@ -11901,59 +11902,50 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B194:Q194"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:B172"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:L129"/>
-    <mergeCell ref="B127:L127"/>
-    <mergeCell ref="B135:Q135"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="B128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="B104:C104"/>
@@ -11978,50 +11970,59 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:L129"/>
+    <mergeCell ref="B127:L127"/>
+    <mergeCell ref="B135:Q135"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="B128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:B172"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
   </mergeCells>
   <conditionalFormatting sqref="C198:Q198">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -12040,8 +12041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:D114"/>
+    <sheetView topLeftCell="A114" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12065,21 +12066,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="237" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
       <c r="E3" s="61" t="s">
         <v>2</v>
       </c>
@@ -12091,13 +12092,13 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="190" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="183" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="166"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="77">
         <f>'Presupuesto de Inversion'!O139</f>
         <v>94678732.104587138</v>
@@ -12112,11 +12113,11 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.5" customHeight="1">
-      <c r="B5" s="187"/>
-      <c r="C5" s="165" t="s">
+      <c r="B5" s="190"/>
+      <c r="C5" s="178" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="178"/>
       <c r="E5" s="77">
         <v>0</v>
       </c>
@@ -12128,11 +12129,11 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="187"/>
-      <c r="C6" s="168" t="s">
+      <c r="B6" s="190"/>
+      <c r="C6" s="180" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="168"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="104">
         <f>SUM(E4:E5)</f>
         <v>94678732.104587138</v>
@@ -12147,13 +12148,13 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="190" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="183" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="166"/>
+      <c r="D7" s="183"/>
       <c r="E7" s="77">
         <f>'Presupuesto de Inversion'!E75</f>
         <v>45534530</v>
@@ -12168,11 +12169,11 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="187"/>
-      <c r="C8" s="176" t="s">
+      <c r="B8" s="190"/>
+      <c r="C8" s="168" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="176"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="77">
         <f>'Presupuesto de Inversion'!E115</f>
         <v>18446510</v>
@@ -12187,11 +12188,11 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="187"/>
-      <c r="C9" s="166" t="s">
+      <c r="B9" s="190"/>
+      <c r="C9" s="183" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="166"/>
+      <c r="D9" s="183"/>
       <c r="E9" s="77">
         <f>'Presupuesto de Inversion'!C156</f>
         <v>10665559.171581741</v>
@@ -12206,11 +12207,11 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B10" s="187"/>
-      <c r="C10" s="165" t="s">
+      <c r="B10" s="190"/>
+      <c r="C10" s="178" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="165"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="77">
         <v>0</v>
       </c>
@@ -12222,11 +12223,11 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="187"/>
-      <c r="C11" s="165" t="s">
+      <c r="B11" s="190"/>
+      <c r="C11" s="178" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="165"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="77">
         <v>0</v>
       </c>
@@ -12238,11 +12239,11 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="187"/>
-      <c r="C12" s="187" t="s">
+      <c r="B12" s="190"/>
+      <c r="C12" s="190" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="187"/>
+      <c r="D12" s="190"/>
       <c r="E12" s="104">
         <f>SUM(E7:E11)</f>
         <v>74646599.171581745</v>
@@ -12257,11 +12258,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B13" s="223" t="s">
+      <c r="B13" s="240" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="77">
         <f>E6-E12</f>
         <v>20032132.933005393</v>
@@ -12276,11 +12277,11 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="183" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
       <c r="E14" s="77">
         <f>(E13*0.25)</f>
         <v>5008033.2332513481</v>
@@ -12295,11 +12296,11 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B15" s="224" t="s">
+      <c r="B15" s="241" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
       <c r="E15" s="77">
         <f>E13*0.09</f>
         <v>1802891.9639704854</v>
@@ -12314,11 +12315,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="29.25" customHeight="1">
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="178" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="77">
         <f>E13-E14-E15</f>
         <v>13221207.735783558</v>
@@ -12333,11 +12334,11 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="183" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
       <c r="E17" s="77">
         <f>E16*0.1</f>
         <v>1322120.773578356</v>
@@ -12352,11 +12353,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="32.25" customHeight="1">
-      <c r="B18" s="221" t="s">
+      <c r="B18" s="238" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="105">
         <f>E16-E17</f>
         <v>11899086.962205201</v>
@@ -12375,39 +12376,39 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="107"/>
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="239" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="222"/>
-      <c r="D20" s="222"/>
-      <c r="E20" s="222"/>
-      <c r="F20" s="222"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="222"/>
-      <c r="I20" s="222"/>
-      <c r="J20" s="222"/>
-      <c r="K20" s="222"/>
-      <c r="L20" s="222"/>
-      <c r="M20" s="222"/>
-      <c r="N20" s="222"/>
-      <c r="O20" s="222"/>
-      <c r="P20" s="222"/>
-      <c r="Q20" s="222"/>
-      <c r="R20" s="222"/>
-      <c r="S20" s="222"/>
-      <c r="T20" s="222"/>
-      <c r="U20" s="222"/>
-      <c r="V20" s="222"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="239"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="239"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="239"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="239"/>
+      <c r="O20" s="239"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="239"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="239"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="239"/>
+      <c r="V20" s="239"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="107"/>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
       <c r="G21" s="61" t="s">
         <v>399</v>
       </c>
@@ -12459,13 +12460,13 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="107"/>
-      <c r="B22" s="187" t="s">
+      <c r="B22" s="190" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
       <c r="G22" s="108">
         <f>'Presupuesto de Inversion'!C209</f>
         <v>22967679.680968828</v>
@@ -12488,15 +12489,15 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="107"/>
-      <c r="B23" s="187" t="s">
+      <c r="B23" s="190" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="188" t="s">
+      <c r="C23" s="208" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
       <c r="G23" s="108">
         <v>0</v>
       </c>
@@ -12563,13 +12564,13 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="107"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="188" t="s">
+      <c r="B24" s="190"/>
+      <c r="C24" s="208" t="s">
         <v>364</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
       <c r="G24" s="108">
         <v>0</v>
       </c>
@@ -12636,13 +12637,13 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="107"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="192" t="s">
+      <c r="B25" s="190"/>
+      <c r="C25" s="194" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
       <c r="G25" s="108"/>
       <c r="H25" s="108"/>
       <c r="I25" s="108"/>
@@ -12662,13 +12663,13 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="107"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="188" t="s">
+      <c r="B26" s="190"/>
+      <c r="C26" s="208" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="208"/>
       <c r="G26" s="108"/>
       <c r="H26" s="108"/>
       <c r="I26" s="108"/>
@@ -12688,13 +12689,13 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="107"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="188" t="s">
+      <c r="B27" s="190"/>
+      <c r="C27" s="208" t="s">
         <v>367</v>
       </c>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="208"/>
       <c r="G27" s="108">
         <f>'Indicadores Financieros'!D9</f>
         <v>6890303.9042906482</v>
@@ -12717,13 +12718,13 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="107"/>
-      <c r="B28" s="211" t="s">
+      <c r="B28" s="192" t="s">
         <v>368</v>
       </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="211"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
       <c r="G28" s="109">
         <f>SUM(G22:G27)</f>
         <v>29857983.585259475</v>
@@ -12791,17 +12792,17 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="107"/>
-      <c r="B29" s="187" t="s">
+      <c r="B29" s="190" t="s">
         <v>338</v>
       </c>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="180" t="s">
         <v>369</v>
       </c>
-      <c r="D29" s="168"/>
-      <c r="E29" s="188" t="s">
+      <c r="D29" s="180"/>
+      <c r="E29" s="208" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="188"/>
+      <c r="F29" s="208"/>
       <c r="G29" s="108">
         <f>'Presupuesto de Inversion'!E16</f>
         <v>4848000</v>
@@ -12824,13 +12825,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="107"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="188" t="s">
+      <c r="B30" s="190"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="208" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="188"/>
+      <c r="F30" s="208"/>
       <c r="G30" s="108">
         <f>'Presupuesto de Inversion'!K12</f>
         <v>640000</v>
@@ -12853,13 +12854,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="107"/>
-      <c r="B31" s="187"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="211" t="s">
+      <c r="B31" s="190"/>
+      <c r="C31" s="180"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="192" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="211"/>
+      <c r="F31" s="192"/>
       <c r="G31" s="112">
         <f>SUM(G29:G30)</f>
         <v>5488000</v>
@@ -12882,12 +12883,12 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="107"/>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187" t="s">
+      <c r="B32" s="190"/>
+      <c r="C32" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="187"/>
-      <c r="E32" s="168" t="s">
+      <c r="D32" s="190"/>
+      <c r="E32" s="180" t="s">
         <v>381</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -12957,10 +12958,10 @@
     </row>
     <row r="33" spans="1:22" ht="30">
       <c r="A33" s="107"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="168"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="180"/>
       <c r="F33" s="106" t="s">
         <v>374</v>
       </c>
@@ -12983,10 +12984,10 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="107"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="168"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="180"/>
       <c r="F34" s="2" t="s">
         <v>375</v>
       </c>
@@ -13009,10 +13010,10 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="107"/>
-      <c r="B35" s="187"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="168"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="180"/>
       <c r="F35" s="2" t="s">
         <v>58</v>
       </c>
@@ -13035,10 +13036,10 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="107"/>
-      <c r="B36" s="187"/>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="168"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="180"/>
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
@@ -13061,10 +13062,10 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="107"/>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="168"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="180"/>
       <c r="F37" s="2" t="s">
         <v>376</v>
       </c>
@@ -13087,10 +13088,10 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="107"/>
-      <c r="B38" s="187"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="168"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="180"/>
       <c r="F38" s="2" t="s">
         <v>377</v>
       </c>
@@ -13113,10 +13114,10 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="107"/>
-      <c r="B39" s="187"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="187"/>
-      <c r="E39" s="168"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="180"/>
       <c r="F39" s="2" t="s">
         <v>62</v>
       </c>
@@ -13139,10 +13140,10 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="107"/>
-      <c r="B40" s="187"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="168"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="180"/>
       <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
@@ -13165,10 +13166,10 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="107"/>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="168"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="180"/>
       <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
@@ -13191,10 +13192,10 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="107"/>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="168"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="180"/>
       <c r="F42" s="2" t="s">
         <v>378</v>
       </c>
@@ -13217,10 +13218,10 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="107"/>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="168"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="180"/>
       <c r="F43" s="2" t="s">
         <v>379</v>
       </c>
@@ -13243,10 +13244,10 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="107"/>
-      <c r="B44" s="187"/>
-      <c r="C44" s="187"/>
-      <c r="D44" s="187"/>
-      <c r="E44" s="168"/>
+      <c r="B44" s="190"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="180"/>
       <c r="F44" s="113" t="s">
         <v>380</v>
       </c>
@@ -13314,13 +13315,13 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="107"/>
-      <c r="B45" s="187"/>
-      <c r="C45" s="187"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="225" t="s">
+      <c r="B45" s="190"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="236" t="s">
         <v>382</v>
       </c>
-      <c r="F45" s="225"/>
+      <c r="F45" s="236"/>
       <c r="G45" s="108"/>
       <c r="H45" s="108">
         <f>'Presupuesto de Inversion'!$E$163/12</f>
@@ -13385,13 +13386,13 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="107"/>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="225" t="s">
+      <c r="B46" s="190"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="236" t="s">
         <v>383</v>
       </c>
-      <c r="F46" s="225"/>
+      <c r="F46" s="236"/>
       <c r="G46" s="108"/>
       <c r="H46" s="108">
         <f>'Presupuesto de Inversion'!$E$164/12</f>
@@ -13456,13 +13457,13 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="107"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="187"/>
-      <c r="D47" s="187"/>
-      <c r="E47" s="225" t="s">
+      <c r="B47" s="190"/>
+      <c r="C47" s="190"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="236" t="s">
         <v>384</v>
       </c>
-      <c r="F47" s="225"/>
+      <c r="F47" s="236"/>
       <c r="G47" s="108"/>
       <c r="H47" s="108">
         <f>'Presupuesto de Inversion'!$E$165/12</f>
@@ -13527,13 +13528,13 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="107"/>
-      <c r="B48" s="187"/>
-      <c r="C48" s="187"/>
-      <c r="D48" s="187"/>
-      <c r="E48" s="225" t="s">
+      <c r="B48" s="190"/>
+      <c r="C48" s="190"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="225"/>
+      <c r="F48" s="236"/>
       <c r="G48" s="108"/>
       <c r="H48" s="108">
         <f>'Presupuesto de Inversion'!$E$166/12</f>
@@ -13598,13 +13599,13 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="107"/>
-      <c r="B49" s="187"/>
-      <c r="C49" s="187"/>
-      <c r="D49" s="187"/>
-      <c r="E49" s="225" t="s">
+      <c r="B49" s="190"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="190"/>
+      <c r="E49" s="236" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="225"/>
+      <c r="F49" s="236"/>
       <c r="G49" s="108"/>
       <c r="H49" s="108">
         <f>'Presupuesto de Inversion'!$E$167/12</f>
@@ -13669,13 +13670,13 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="107"/>
-      <c r="B50" s="187"/>
-      <c r="C50" s="187"/>
-      <c r="D50" s="187"/>
-      <c r="E50" s="225" t="s">
+      <c r="B50" s="190"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="236" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="225"/>
+      <c r="F50" s="236"/>
       <c r="G50" s="108"/>
       <c r="H50" s="108">
         <f>'Presupuesto de Inversion'!$E$168/12</f>
@@ -13740,13 +13741,13 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="107"/>
-      <c r="B51" s="187"/>
-      <c r="C51" s="187"/>
-      <c r="D51" s="187"/>
-      <c r="E51" s="225" t="s">
+      <c r="B51" s="190"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="236" t="s">
         <v>386</v>
       </c>
-      <c r="F51" s="225"/>
+      <c r="F51" s="236"/>
       <c r="G51" s="108"/>
       <c r="H51" s="108"/>
       <c r="I51" s="108"/>
@@ -13766,13 +13767,13 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="107"/>
-      <c r="B52" s="187"/>
-      <c r="C52" s="187"/>
-      <c r="D52" s="187"/>
-      <c r="E52" s="211" t="s">
+      <c r="B52" s="190"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="192" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="211"/>
+      <c r="F52" s="192"/>
       <c r="G52" s="109"/>
       <c r="H52" s="109">
         <f>SUM(H45:H51)</f>
@@ -13837,15 +13838,15 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="107"/>
-      <c r="B53" s="187"/>
-      <c r="C53" s="232" t="s">
+      <c r="B53" s="190"/>
+      <c r="C53" s="219" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="233"/>
-      <c r="E53" s="238" t="s">
+      <c r="D53" s="220"/>
+      <c r="E53" s="225" t="s">
         <v>494</v>
       </c>
-      <c r="F53" s="239"/>
+      <c r="F53" s="226"/>
       <c r="G53" s="152"/>
       <c r="H53" s="152"/>
       <c r="I53" s="152"/>
@@ -13865,13 +13866,13 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="107"/>
-      <c r="B54" s="187"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="238" t="s">
+      <c r="B54" s="190"/>
+      <c r="C54" s="221"/>
+      <c r="D54" s="222"/>
+      <c r="E54" s="225" t="s">
         <v>495</v>
       </c>
-      <c r="F54" s="239"/>
+      <c r="F54" s="226"/>
       <c r="G54" s="152"/>
       <c r="H54" s="152"/>
       <c r="I54" s="152"/>
@@ -13891,13 +13892,13 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="107"/>
-      <c r="B55" s="187"/>
-      <c r="C55" s="234"/>
-      <c r="D55" s="235"/>
-      <c r="E55" s="238" t="s">
+      <c r="B55" s="190"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="222"/>
+      <c r="E55" s="225" t="s">
         <v>496</v>
       </c>
-      <c r="F55" s="239"/>
+      <c r="F55" s="226"/>
       <c r="G55" s="152"/>
       <c r="H55" s="152"/>
       <c r="I55" s="152"/>
@@ -13917,13 +13918,13 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="107"/>
-      <c r="B56" s="187"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="235"/>
-      <c r="E56" s="238" t="s">
+      <c r="B56" s="190"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="222"/>
+      <c r="E56" s="225" t="s">
         <v>311</v>
       </c>
-      <c r="F56" s="239"/>
+      <c r="F56" s="226"/>
       <c r="G56" s="152"/>
       <c r="H56" s="152"/>
       <c r="I56" s="152"/>
@@ -13943,13 +13944,13 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="107"/>
-      <c r="B57" s="187"/>
-      <c r="C57" s="234"/>
-      <c r="D57" s="235"/>
-      <c r="E57" s="238" t="s">
+      <c r="B57" s="190"/>
+      <c r="C57" s="221"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="225" t="s">
         <v>312</v>
       </c>
-      <c r="F57" s="239"/>
+      <c r="F57" s="226"/>
       <c r="G57" s="152"/>
       <c r="H57" s="153">
         <f>'Presupuesto de Inversion'!C139*0.05</f>
@@ -14014,13 +14015,13 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="107"/>
-      <c r="B58" s="187"/>
-      <c r="C58" s="234"/>
-      <c r="D58" s="235"/>
-      <c r="E58" s="238" t="s">
+      <c r="B58" s="190"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="222"/>
+      <c r="E58" s="225" t="s">
         <v>313</v>
       </c>
-      <c r="F58" s="240"/>
+      <c r="F58" s="227"/>
       <c r="G58" s="152"/>
       <c r="H58" s="153">
         <f>'Presupuesto de Inversion'!$C$153/12</f>
@@ -14085,13 +14086,13 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="107"/>
-      <c r="B59" s="187"/>
-      <c r="C59" s="234"/>
-      <c r="D59" s="235"/>
-      <c r="E59" s="238" t="s">
+      <c r="B59" s="190"/>
+      <c r="C59" s="221"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="225" t="s">
         <v>497</v>
       </c>
-      <c r="F59" s="240"/>
+      <c r="F59" s="227"/>
       <c r="G59" s="152"/>
       <c r="H59" s="153">
         <f>'Analisis Prestamo'!D10+'Analisis Prestamo'!F10</f>
@@ -14154,13 +14155,13 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="107"/>
-      <c r="B60" s="187"/>
-      <c r="C60" s="234"/>
-      <c r="D60" s="235"/>
-      <c r="E60" s="238" t="s">
+      <c r="B60" s="190"/>
+      <c r="C60" s="221"/>
+      <c r="D60" s="222"/>
+      <c r="E60" s="225" t="s">
         <v>498</v>
       </c>
-      <c r="F60" s="239"/>
+      <c r="F60" s="226"/>
       <c r="G60" s="152"/>
       <c r="H60" s="152"/>
       <c r="I60" s="152"/>
@@ -14180,13 +14181,13 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="107"/>
-      <c r="B61" s="187"/>
-      <c r="C61" s="236"/>
-      <c r="D61" s="237"/>
-      <c r="E61" s="241" t="s">
+      <c r="B61" s="190"/>
+      <c r="C61" s="223"/>
+      <c r="D61" s="224"/>
+      <c r="E61" s="228" t="s">
         <v>499</v>
       </c>
-      <c r="F61" s="242"/>
+      <c r="F61" s="229"/>
       <c r="G61" s="109"/>
       <c r="H61" s="109">
         <f>SUM(H53:H60)</f>
@@ -14251,15 +14252,15 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="107"/>
-      <c r="B62" s="187"/>
-      <c r="C62" s="187" t="s">
+      <c r="B62" s="190"/>
+      <c r="C62" s="190" t="s">
         <v>206</v>
       </c>
-      <c r="D62" s="187"/>
-      <c r="E62" s="188" t="s">
+      <c r="D62" s="190"/>
+      <c r="E62" s="208" t="s">
         <v>387</v>
       </c>
-      <c r="F62" s="188"/>
+      <c r="F62" s="208"/>
       <c r="G62" s="108"/>
       <c r="H62" s="108"/>
       <c r="I62" s="108"/>
@@ -14279,13 +14280,13 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="107"/>
-      <c r="B63" s="187"/>
-      <c r="C63" s="187"/>
-      <c r="D63" s="187"/>
-      <c r="E63" s="188" t="s">
+      <c r="B63" s="190"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="208" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="188"/>
+      <c r="F63" s="208"/>
       <c r="G63" s="108"/>
       <c r="H63" s="108"/>
       <c r="I63" s="108"/>
@@ -14313,13 +14314,13 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="107"/>
-      <c r="B64" s="187"/>
-      <c r="C64" s="187"/>
-      <c r="D64" s="187"/>
-      <c r="E64" s="188" t="s">
+      <c r="B64" s="190"/>
+      <c r="C64" s="190"/>
+      <c r="D64" s="190"/>
+      <c r="E64" s="208" t="s">
         <v>389</v>
       </c>
-      <c r="F64" s="188"/>
+      <c r="F64" s="208"/>
       <c r="G64" s="108"/>
       <c r="H64" s="108"/>
       <c r="I64" s="108"/>
@@ -14347,13 +14348,13 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="107"/>
-      <c r="B65" s="187"/>
-      <c r="C65" s="187"/>
-      <c r="D65" s="187"/>
-      <c r="E65" s="188" t="s">
+      <c r="B65" s="190"/>
+      <c r="C65" s="190"/>
+      <c r="D65" s="190"/>
+      <c r="E65" s="208" t="s">
         <v>390</v>
       </c>
-      <c r="F65" s="188"/>
+      <c r="F65" s="208"/>
       <c r="G65" s="108"/>
       <c r="H65" s="108">
         <f>'Presupuesto de Inversion'!$C$154/12</f>
@@ -14418,13 +14419,13 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="107"/>
-      <c r="B66" s="187"/>
-      <c r="C66" s="187"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="188" t="s">
+      <c r="B66" s="190"/>
+      <c r="C66" s="190"/>
+      <c r="D66" s="190"/>
+      <c r="E66" s="208" t="s">
         <v>391</v>
       </c>
-      <c r="F66" s="188"/>
+      <c r="F66" s="208"/>
       <c r="G66" s="108"/>
       <c r="H66" s="108">
         <f>'Presupuesto de Inversion'!$C$155/12</f>
@@ -14489,13 +14490,13 @@
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="107"/>
-      <c r="B67" s="187"/>
-      <c r="C67" s="187"/>
-      <c r="D67" s="187"/>
-      <c r="E67" s="188" t="s">
+      <c r="B67" s="190"/>
+      <c r="C67" s="190"/>
+      <c r="D67" s="190"/>
+      <c r="E67" s="208" t="s">
         <v>392</v>
       </c>
-      <c r="F67" s="188"/>
+      <c r="F67" s="208"/>
       <c r="G67" s="108"/>
       <c r="H67" s="108">
         <f>'Presupuesto de Inversion'!C140</f>
@@ -14560,13 +14561,13 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="107"/>
-      <c r="B68" s="187"/>
-      <c r="C68" s="187"/>
-      <c r="D68" s="187"/>
-      <c r="E68" s="188" t="s">
+      <c r="B68" s="190"/>
+      <c r="C68" s="190"/>
+      <c r="D68" s="190"/>
+      <c r="E68" s="208" t="s">
         <v>393</v>
       </c>
-      <c r="F68" s="188"/>
+      <c r="F68" s="208"/>
       <c r="G68" s="108"/>
       <c r="H68" s="108">
         <f>'Presupuesto de Inversion'!C141</f>
@@ -14631,13 +14632,13 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="107"/>
-      <c r="B69" s="187"/>
-      <c r="C69" s="187"/>
-      <c r="D69" s="187"/>
-      <c r="E69" s="188" t="s">
+      <c r="B69" s="190"/>
+      <c r="C69" s="190"/>
+      <c r="D69" s="190"/>
+      <c r="E69" s="208" t="s">
         <v>394</v>
       </c>
-      <c r="F69" s="188"/>
+      <c r="F69" s="208"/>
       <c r="G69" s="108"/>
       <c r="H69" s="108">
         <f>$E$14/12</f>
@@ -14702,13 +14703,13 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="107"/>
-      <c r="B70" s="187"/>
-      <c r="C70" s="187"/>
-      <c r="D70" s="187"/>
-      <c r="E70" s="211" t="s">
+      <c r="B70" s="190"/>
+      <c r="C70" s="190"/>
+      <c r="D70" s="190"/>
+      <c r="E70" s="192" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="211"/>
+      <c r="F70" s="192"/>
       <c r="G70" s="109"/>
       <c r="H70" s="109">
         <f>SUM(H62:H69)</f>
@@ -14773,13 +14774,13 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="107"/>
-      <c r="B71" s="187"/>
-      <c r="C71" s="226" t="s">
+      <c r="B71" s="190"/>
+      <c r="C71" s="233" t="s">
         <v>395</v>
       </c>
-      <c r="D71" s="226"/>
-      <c r="E71" s="226"/>
-      <c r="F71" s="226"/>
+      <c r="D71" s="233"/>
+      <c r="E71" s="233"/>
+      <c r="F71" s="233"/>
       <c r="G71" s="108"/>
       <c r="H71" s="108">
         <f>$E$17/12</f>
@@ -14844,13 +14845,13 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="107"/>
-      <c r="B72" s="187"/>
-      <c r="C72" s="188" t="s">
+      <c r="B72" s="190"/>
+      <c r="C72" s="208" t="s">
         <v>396</v>
       </c>
-      <c r="D72" s="188"/>
-      <c r="E72" s="188"/>
-      <c r="F72" s="188"/>
+      <c r="D72" s="208"/>
+      <c r="E72" s="208"/>
+      <c r="F72" s="208"/>
       <c r="G72" s="108"/>
       <c r="H72" s="108"/>
       <c r="I72" s="108"/>
@@ -14870,13 +14871,13 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="107"/>
-      <c r="B73" s="187"/>
-      <c r="C73" s="212" t="s">
+      <c r="B73" s="190"/>
+      <c r="C73" s="185" t="s">
         <v>355</v>
       </c>
-      <c r="D73" s="212"/>
-      <c r="E73" s="212"/>
-      <c r="F73" s="212"/>
+      <c r="D73" s="185"/>
+      <c r="E73" s="185"/>
+      <c r="F73" s="185"/>
       <c r="G73" s="110">
         <f>G31</f>
         <v>5488000</v>
@@ -14944,13 +14945,13 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="107"/>
-      <c r="B74" s="227" t="s">
+      <c r="B74" s="231" t="s">
         <v>397</v>
       </c>
-      <c r="C74" s="227"/>
-      <c r="D74" s="227"/>
-      <c r="E74" s="227"/>
-      <c r="F74" s="227"/>
+      <c r="C74" s="231"/>
+      <c r="D74" s="231"/>
+      <c r="E74" s="231"/>
+      <c r="F74" s="231"/>
       <c r="G74" s="112">
         <f>G28-G73</f>
         <v>24369983.585259475</v>
@@ -15018,13 +15019,13 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="107"/>
-      <c r="B75" s="166" t="s">
+      <c r="B75" s="183" t="s">
         <v>398</v>
       </c>
-      <c r="C75" s="166"/>
-      <c r="D75" s="166"/>
-      <c r="E75" s="166"/>
-      <c r="F75" s="166"/>
+      <c r="C75" s="183"/>
+      <c r="D75" s="183"/>
+      <c r="E75" s="183"/>
+      <c r="F75" s="183"/>
       <c r="G75" s="108"/>
       <c r="H75" s="108"/>
       <c r="I75" s="108"/>
@@ -15046,26 +15047,26 @@
       <c r="A76" s="107"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="B77" s="229" t="s">
+      <c r="B77" s="232" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="229"/>
-      <c r="D77" s="229"/>
-      <c r="E77" s="229"/>
-      <c r="F77" s="229"/>
-      <c r="G77" s="229"/>
-      <c r="H77" s="229"/>
-      <c r="I77" s="229"/>
-      <c r="J77" s="229"/>
+      <c r="C77" s="232"/>
+      <c r="D77" s="232"/>
+      <c r="E77" s="232"/>
+      <c r="F77" s="232"/>
+      <c r="G77" s="232"/>
+      <c r="H77" s="232"/>
+      <c r="I77" s="232"/>
+      <c r="J77" s="232"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="B78" s="187" t="s">
+      <c r="B78" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="187"/>
-      <c r="D78" s="187"/>
-      <c r="E78" s="187"/>
-      <c r="F78" s="187"/>
+      <c r="C78" s="190"/>
+      <c r="D78" s="190"/>
+      <c r="E78" s="190"/>
+      <c r="F78" s="190"/>
       <c r="G78" s="61" t="s">
         <v>418</v>
       </c>
@@ -15080,17 +15081,17 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="B79" s="187" t="s">
+      <c r="B79" s="190" t="s">
         <v>416</v>
       </c>
-      <c r="C79" s="187" t="s">
+      <c r="C79" s="190" t="s">
         <v>406</v>
       </c>
-      <c r="D79" s="187"/>
-      <c r="E79" s="188" t="s">
+      <c r="D79" s="190"/>
+      <c r="E79" s="208" t="s">
         <v>402</v>
       </c>
-      <c r="F79" s="188"/>
+      <c r="F79" s="208"/>
       <c r="G79" s="108">
         <f>G74</f>
         <v>24369983.585259475</v>
@@ -15109,13 +15110,13 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="B80" s="187"/>
-      <c r="C80" s="187"/>
-      <c r="D80" s="187"/>
-      <c r="E80" s="188" t="s">
+      <c r="B80" s="190"/>
+      <c r="C80" s="190"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="208" t="s">
         <v>403</v>
       </c>
-      <c r="F80" s="188"/>
+      <c r="F80" s="208"/>
       <c r="G80" s="108">
         <v>0</v>
       </c>
@@ -15133,39 +15134,39 @@
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="B81" s="187"/>
-      <c r="C81" s="187"/>
-      <c r="D81" s="187"/>
-      <c r="E81" s="188" t="s">
+      <c r="B81" s="190"/>
+      <c r="C81" s="190"/>
+      <c r="D81" s="190"/>
+      <c r="E81" s="208" t="s">
         <v>404</v>
       </c>
-      <c r="F81" s="188"/>
+      <c r="F81" s="208"/>
       <c r="G81" s="108"/>
       <c r="H81" s="108"/>
       <c r="I81" s="108"/>
       <c r="J81" s="108"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="B82" s="187"/>
-      <c r="C82" s="187"/>
-      <c r="D82" s="187"/>
-      <c r="E82" s="188" t="s">
+      <c r="B82" s="190"/>
+      <c r="C82" s="190"/>
+      <c r="D82" s="190"/>
+      <c r="E82" s="208" t="s">
         <v>405</v>
       </c>
-      <c r="F82" s="188"/>
+      <c r="F82" s="208"/>
       <c r="G82" s="108"/>
       <c r="H82" s="108"/>
       <c r="I82" s="108"/>
       <c r="J82" s="108"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="B83" s="187"/>
-      <c r="C83" s="187"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="211" t="s">
+      <c r="B83" s="190"/>
+      <c r="C83" s="190"/>
+      <c r="D83" s="190"/>
+      <c r="E83" s="192" t="s">
         <v>407</v>
       </c>
-      <c r="F83" s="211"/>
+      <c r="F83" s="192"/>
       <c r="G83" s="109">
         <f>SUM(G79:G82)</f>
         <v>24369983.585259475</v>
@@ -15184,15 +15185,15 @@
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="B84" s="187"/>
-      <c r="C84" s="187" t="s">
+      <c r="B84" s="190"/>
+      <c r="C84" s="190" t="s">
         <v>417</v>
       </c>
-      <c r="D84" s="187"/>
-      <c r="E84" s="166" t="s">
+      <c r="D84" s="190"/>
+      <c r="E84" s="183" t="s">
         <v>408</v>
       </c>
-      <c r="F84" s="166"/>
+      <c r="F84" s="183"/>
       <c r="G84" s="108">
         <f>'Presupuesto de Inversion'!E5</f>
         <v>3348000</v>
@@ -15202,13 +15203,13 @@
       <c r="J84" s="108"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="B85" s="187"/>
-      <c r="C85" s="187"/>
-      <c r="D85" s="187"/>
-      <c r="E85" s="166" t="s">
+      <c r="B85" s="190"/>
+      <c r="C85" s="190"/>
+      <c r="D85" s="190"/>
+      <c r="E85" s="183" t="s">
         <v>409</v>
       </c>
-      <c r="F85" s="166"/>
+      <c r="F85" s="183"/>
       <c r="G85" s="108">
         <f>'Presupuesto de Inversion'!E8</f>
         <v>1500000</v>
@@ -15234,13 +15235,13 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="B86" s="187"/>
-      <c r="C86" s="187"/>
-      <c r="D86" s="187"/>
-      <c r="E86" s="166" t="s">
+      <c r="B86" s="190"/>
+      <c r="C86" s="190"/>
+      <c r="D86" s="190"/>
+      <c r="E86" s="183" t="s">
         <v>410</v>
       </c>
-      <c r="F86" s="166"/>
+      <c r="F86" s="183"/>
       <c r="G86" s="108">
         <f>'Presupuesto de Inversion'!E11</f>
         <v>0</v>
@@ -15250,13 +15251,13 @@
       <c r="J86" s="108"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="B87" s="187"/>
-      <c r="C87" s="187"/>
-      <c r="D87" s="187"/>
-      <c r="E87" s="166" t="s">
+      <c r="B87" s="190"/>
+      <c r="C87" s="190"/>
+      <c r="D87" s="190"/>
+      <c r="E87" s="183" t="s">
         <v>411</v>
       </c>
-      <c r="F87" s="166"/>
+      <c r="F87" s="183"/>
       <c r="G87" s="108">
         <f>0</f>
         <v>0</v>
@@ -15266,13 +15267,13 @@
       <c r="J87" s="108"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="B88" s="187"/>
-      <c r="C88" s="187"/>
-      <c r="D88" s="187"/>
-      <c r="E88" s="166" t="s">
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="183" t="s">
         <v>412</v>
       </c>
-      <c r="F88" s="166"/>
+      <c r="F88" s="183"/>
       <c r="G88" s="108">
         <f>'Presupuesto de Inversion'!E15</f>
         <v>0</v>
@@ -15282,13 +15283,13 @@
       <c r="J88" s="108"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="B89" s="187"/>
-      <c r="C89" s="187"/>
-      <c r="D89" s="187"/>
-      <c r="E89" s="166" t="s">
+      <c r="B89" s="190"/>
+      <c r="C89" s="190"/>
+      <c r="D89" s="190"/>
+      <c r="E89" s="183" t="s">
         <v>413</v>
       </c>
-      <c r="F89" s="166"/>
+      <c r="F89" s="183"/>
       <c r="G89" s="108"/>
       <c r="H89" s="108">
         <f>'Presupuesto de Inversion'!G31</f>
@@ -15304,13 +15305,13 @@
       </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="B90" s="187"/>
-      <c r="C90" s="187"/>
-      <c r="D90" s="187"/>
-      <c r="E90" s="228" t="s">
+      <c r="B90" s="190"/>
+      <c r="C90" s="190"/>
+      <c r="D90" s="190"/>
+      <c r="E90" s="235" t="s">
         <v>414</v>
       </c>
-      <c r="F90" s="228"/>
+      <c r="F90" s="235"/>
       <c r="G90" s="112">
         <f>SUM(G84:G89)</f>
         <v>4848000</v>
@@ -15329,13 +15330,13 @@
       </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="B91" s="187"/>
-      <c r="C91" s="212" t="s">
+      <c r="B91" s="190"/>
+      <c r="C91" s="185" t="s">
         <v>415</v>
       </c>
-      <c r="D91" s="212"/>
-      <c r="E91" s="212"/>
-      <c r="F91" s="212"/>
+      <c r="D91" s="185"/>
+      <c r="E91" s="185"/>
+      <c r="F91" s="185"/>
       <c r="G91" s="115">
         <f>G83+G90</f>
         <v>29217983.585259475</v>
@@ -15355,27 +15356,27 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="107"/>
-      <c r="B93" s="229" t="s">
+      <c r="B93" s="232" t="s">
         <v>419</v>
       </c>
-      <c r="C93" s="229"/>
-      <c r="D93" s="229"/>
-      <c r="E93" s="229"/>
-      <c r="F93" s="229"/>
-      <c r="G93" s="229"/>
-      <c r="H93" s="229"/>
-      <c r="I93" s="229"/>
-      <c r="J93" s="229"/>
+      <c r="C93" s="232"/>
+      <c r="D93" s="232"/>
+      <c r="E93" s="232"/>
+      <c r="F93" s="232"/>
+      <c r="G93" s="232"/>
+      <c r="H93" s="232"/>
+      <c r="I93" s="232"/>
+      <c r="J93" s="232"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="107"/>
-      <c r="B94" s="187" t="s">
+      <c r="B94" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="187"/>
-      <c r="D94" s="187"/>
-      <c r="E94" s="187"/>
-      <c r="F94" s="187"/>
+      <c r="C94" s="190"/>
+      <c r="D94" s="190"/>
+      <c r="E94" s="190"/>
+      <c r="F94" s="190"/>
       <c r="G94" s="145" t="s">
         <v>443</v>
       </c>
@@ -15391,17 +15392,17 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="107"/>
-      <c r="B95" s="187" t="s">
+      <c r="B95" s="190" t="s">
         <v>434</v>
       </c>
-      <c r="C95" s="187" t="s">
+      <c r="C95" s="190" t="s">
         <v>429</v>
       </c>
-      <c r="D95" s="187"/>
-      <c r="E95" s="188" t="s">
+      <c r="D95" s="190"/>
+      <c r="E95" s="208" t="s">
         <v>420</v>
       </c>
-      <c r="F95" s="188"/>
+      <c r="F95" s="208"/>
       <c r="G95" s="76"/>
       <c r="H95" s="76"/>
       <c r="I95" s="76"/>
@@ -15409,13 +15410,13 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="107"/>
-      <c r="B96" s="187"/>
-      <c r="C96" s="187"/>
-      <c r="D96" s="187"/>
-      <c r="E96" s="188" t="s">
+      <c r="B96" s="190"/>
+      <c r="C96" s="190"/>
+      <c r="D96" s="190"/>
+      <c r="E96" s="208" t="s">
         <v>421</v>
       </c>
-      <c r="F96" s="188"/>
+      <c r="F96" s="208"/>
       <c r="G96" s="76"/>
       <c r="H96" s="76">
         <f>'Presupuesto de Inversion'!E64</f>
@@ -15432,13 +15433,13 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="107"/>
-      <c r="B97" s="187"/>
-      <c r="C97" s="187"/>
-      <c r="D97" s="187"/>
-      <c r="E97" s="226" t="s">
+      <c r="B97" s="190"/>
+      <c r="C97" s="190"/>
+      <c r="D97" s="190"/>
+      <c r="E97" s="233" t="s">
         <v>422</v>
       </c>
-      <c r="F97" s="226"/>
+      <c r="F97" s="233"/>
       <c r="G97" s="76"/>
       <c r="H97" s="76"/>
       <c r="I97" s="76"/>
@@ -15446,13 +15447,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="107"/>
-      <c r="B98" s="187"/>
-      <c r="C98" s="187"/>
-      <c r="D98" s="187"/>
-      <c r="E98" s="226" t="s">
+      <c r="B98" s="190"/>
+      <c r="C98" s="190"/>
+      <c r="D98" s="190"/>
+      <c r="E98" s="233" t="s">
         <v>423</v>
       </c>
-      <c r="F98" s="226"/>
+      <c r="F98" s="233"/>
       <c r="G98" s="76"/>
       <c r="H98" s="76">
         <f>'Presupuesto de Inversion'!C154</f>
@@ -15469,13 +15470,13 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="107"/>
-      <c r="B99" s="187"/>
-      <c r="C99" s="187"/>
-      <c r="D99" s="187"/>
-      <c r="E99" s="226" t="s">
+      <c r="B99" s="190"/>
+      <c r="C99" s="190"/>
+      <c r="D99" s="190"/>
+      <c r="E99" s="233" t="s">
         <v>391</v>
       </c>
-      <c r="F99" s="226"/>
+      <c r="F99" s="233"/>
       <c r="G99" s="76"/>
       <c r="H99" s="76">
         <f>'Presupuesto de Inversion'!C155</f>
@@ -15492,13 +15493,13 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="107"/>
-      <c r="B100" s="187"/>
-      <c r="C100" s="187"/>
-      <c r="D100" s="187"/>
-      <c r="E100" s="226" t="s">
+      <c r="B100" s="190"/>
+      <c r="C100" s="190"/>
+      <c r="D100" s="190"/>
+      <c r="E100" s="233" t="s">
         <v>424</v>
       </c>
-      <c r="F100" s="226"/>
+      <c r="F100" s="233"/>
       <c r="G100" s="76"/>
       <c r="H100" s="76">
         <f>'Presupuesto de Inversion'!O140</f>
@@ -15515,13 +15516,13 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="107"/>
-      <c r="B101" s="187"/>
-      <c r="C101" s="187"/>
-      <c r="D101" s="187"/>
-      <c r="E101" s="226" t="s">
+      <c r="B101" s="190"/>
+      <c r="C101" s="190"/>
+      <c r="D101" s="190"/>
+      <c r="E101" s="233" t="s">
         <v>425</v>
       </c>
-      <c r="F101" s="226"/>
+      <c r="F101" s="233"/>
       <c r="G101" s="76"/>
       <c r="H101" s="76">
         <f>'Presupuesto de Inversion'!O141</f>
@@ -15538,13 +15539,13 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="107"/>
-      <c r="B102" s="187"/>
-      <c r="C102" s="187"/>
-      <c r="D102" s="187"/>
-      <c r="E102" s="226" t="s">
+      <c r="B102" s="190"/>
+      <c r="C102" s="190"/>
+      <c r="D102" s="190"/>
+      <c r="E102" s="233" t="s">
         <v>426</v>
       </c>
-      <c r="F102" s="226"/>
+      <c r="F102" s="233"/>
       <c r="G102" s="76"/>
       <c r="H102" s="76">
         <f>E14+E15</f>
@@ -15561,13 +15562,13 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="107"/>
-      <c r="B103" s="187"/>
-      <c r="C103" s="187"/>
-      <c r="D103" s="187"/>
-      <c r="E103" s="226" t="s">
+      <c r="B103" s="190"/>
+      <c r="C103" s="190"/>
+      <c r="D103" s="190"/>
+      <c r="E103" s="233" t="s">
         <v>427</v>
       </c>
-      <c r="F103" s="226"/>
+      <c r="F103" s="233"/>
       <c r="G103" s="76"/>
       <c r="H103" s="76">
         <v>0</v>
@@ -15581,13 +15582,13 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="107"/>
-      <c r="B104" s="187"/>
-      <c r="C104" s="187"/>
-      <c r="D104" s="187"/>
-      <c r="E104" s="231" t="s">
+      <c r="B104" s="190"/>
+      <c r="C104" s="190"/>
+      <c r="D104" s="190"/>
+      <c r="E104" s="234" t="s">
         <v>428</v>
       </c>
-      <c r="F104" s="231"/>
+      <c r="F104" s="234"/>
       <c r="G104" s="101">
         <f>SUM(G95:G103)</f>
         <v>0</v>
@@ -15607,15 +15608,15 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="107"/>
-      <c r="B105" s="187"/>
-      <c r="C105" s="187" t="s">
+      <c r="B105" s="190"/>
+      <c r="C105" s="190" t="s">
         <v>433</v>
       </c>
-      <c r="D105" s="187"/>
-      <c r="E105" s="188" t="s">
+      <c r="D105" s="190"/>
+      <c r="E105" s="208" t="s">
         <v>430</v>
       </c>
-      <c r="F105" s="188"/>
+      <c r="F105" s="208"/>
       <c r="G105" s="76"/>
       <c r="H105" s="76"/>
       <c r="I105" s="76"/>
@@ -15623,9 +15624,9 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="107"/>
-      <c r="B106" s="187"/>
-      <c r="C106" s="187"/>
-      <c r="D106" s="187"/>
+      <c r="B106" s="190"/>
+      <c r="C106" s="190"/>
+      <c r="D106" s="190"/>
       <c r="E106" s="147" t="s">
         <v>431</v>
       </c>
@@ -15637,13 +15638,13 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="107"/>
-      <c r="B107" s="187"/>
-      <c r="C107" s="187"/>
-      <c r="D107" s="187"/>
-      <c r="E107" s="188" t="s">
+      <c r="B107" s="190"/>
+      <c r="C107" s="190"/>
+      <c r="D107" s="190"/>
+      <c r="E107" s="208" t="s">
         <v>427</v>
       </c>
-      <c r="F107" s="188"/>
+      <c r="F107" s="208"/>
       <c r="G107" s="76"/>
       <c r="H107" s="76"/>
       <c r="I107" s="76"/>
@@ -15651,13 +15652,13 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="107"/>
-      <c r="B108" s="187"/>
-      <c r="C108" s="187"/>
-      <c r="D108" s="187"/>
-      <c r="E108" s="211" t="s">
+      <c r="B108" s="190"/>
+      <c r="C108" s="190"/>
+      <c r="D108" s="190"/>
+      <c r="E108" s="192" t="s">
         <v>432</v>
       </c>
-      <c r="F108" s="211"/>
+      <c r="F108" s="192"/>
       <c r="G108" s="101">
         <f>SUM(G105:G107)</f>
         <v>0</v>
@@ -15677,7 +15678,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="107"/>
-      <c r="B109" s="187"/>
+      <c r="B109" s="190"/>
       <c r="C109" s="230" t="s">
         <v>435</v>
       </c>
@@ -15703,11 +15704,11 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="107"/>
-      <c r="B110" s="187" t="s">
+      <c r="B110" s="190" t="s">
         <v>441</v>
       </c>
-      <c r="C110" s="187"/>
-      <c r="D110" s="187"/>
+      <c r="C110" s="190"/>
+      <c r="D110" s="190"/>
       <c r="E110" s="2" t="s">
         <v>436</v>
       </c>
@@ -15719,9 +15720,9 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="107"/>
-      <c r="B111" s="187"/>
-      <c r="C111" s="187"/>
-      <c r="D111" s="187"/>
+      <c r="B111" s="190"/>
+      <c r="C111" s="190"/>
+      <c r="D111" s="190"/>
       <c r="E111" s="2" t="s">
         <v>437</v>
       </c>
@@ -15742,9 +15743,9 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="107"/>
-      <c r="B112" s="187"/>
-      <c r="C112" s="187"/>
-      <c r="D112" s="187"/>
+      <c r="B112" s="190"/>
+      <c r="C112" s="190"/>
+      <c r="D112" s="190"/>
       <c r="E112" s="2" t="s">
         <v>438</v>
       </c>
@@ -15756,9 +15757,9 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="107"/>
-      <c r="B113" s="187"/>
-      <c r="C113" s="187"/>
-      <c r="D113" s="187"/>
+      <c r="B113" s="190"/>
+      <c r="C113" s="190"/>
+      <c r="D113" s="190"/>
       <c r="E113" s="2" t="s">
         <v>439</v>
       </c>
@@ -15779,13 +15780,13 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="107"/>
-      <c r="B114" s="187"/>
-      <c r="C114" s="187"/>
-      <c r="D114" s="187"/>
-      <c r="E114" s="211" t="s">
+      <c r="B114" s="190"/>
+      <c r="C114" s="190"/>
+      <c r="D114" s="190"/>
+      <c r="E114" s="192" t="s">
         <v>440</v>
       </c>
-      <c r="F114" s="211"/>
+      <c r="F114" s="192"/>
       <c r="G114" s="101">
         <f>SUM(G110:G113)</f>
         <v>0</v>
@@ -15831,13 +15832,13 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="107"/>
-      <c r="B116" s="166" t="s">
+      <c r="B116" s="183" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="166"/>
-      <c r="D116" s="166"/>
-      <c r="E116" s="166"/>
-      <c r="F116" s="166"/>
+      <c r="C116" s="183"/>
+      <c r="D116" s="183"/>
+      <c r="E116" s="183"/>
+      <c r="F116" s="183"/>
       <c r="G116" s="76">
         <f>G91</f>
         <v>29217983.585259475</v>
@@ -15857,13 +15858,13 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="107"/>
-      <c r="B117" s="227" t="s">
+      <c r="B117" s="231" t="s">
         <v>444</v>
       </c>
-      <c r="C117" s="227"/>
-      <c r="D117" s="227"/>
-      <c r="E117" s="227"/>
-      <c r="F117" s="227"/>
+      <c r="C117" s="231"/>
+      <c r="D117" s="231"/>
+      <c r="E117" s="231"/>
+      <c r="F117" s="231"/>
       <c r="G117" s="94">
         <f>G116-(G109+G114)</f>
         <v>29217983.585259475</v>
@@ -15883,30 +15884,30 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="159"/>
-      <c r="B119" s="229" t="s">
+      <c r="B119" s="232" t="s">
         <v>507</v>
       </c>
-      <c r="C119" s="229"/>
-      <c r="D119" s="229"/>
-      <c r="E119" s="229"/>
-      <c r="F119" s="229"/>
-      <c r="G119" s="229"/>
-      <c r="H119" s="229"/>
-      <c r="I119" s="229"/>
-      <c r="J119" s="229"/>
-      <c r="K119" s="229"/>
-      <c r="L119" s="229"/>
-      <c r="M119" s="229"/>
-      <c r="N119" s="229"/>
-      <c r="O119" s="229"/>
-      <c r="P119" s="229"/>
+      <c r="C119" s="232"/>
+      <c r="D119" s="232"/>
+      <c r="E119" s="232"/>
+      <c r="F119" s="232"/>
+      <c r="G119" s="232"/>
+      <c r="H119" s="232"/>
+      <c r="I119" s="232"/>
+      <c r="J119" s="232"/>
+      <c r="K119" s="232"/>
+      <c r="L119" s="232"/>
+      <c r="M119" s="232"/>
+      <c r="N119" s="232"/>
+      <c r="O119" s="232"/>
+      <c r="P119" s="232"/>
     </row>
     <row r="120" spans="1:17">
-      <c r="B120" s="187" t="s">
+      <c r="B120" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C120" s="187"/>
-      <c r="D120" s="187"/>
+      <c r="C120" s="190"/>
+      <c r="D120" s="190"/>
       <c r="E120" s="158" t="s">
         <v>265</v>
       </c>
@@ -15945,67 +15946,67 @@
       </c>
     </row>
     <row r="121" spans="1:17">
-      <c r="B121" s="252" t="s">
+      <c r="B121" s="242" t="s">
         <v>508</v>
       </c>
-      <c r="C121" s="252"/>
-      <c r="D121" s="252"/>
-      <c r="E121" s="253">
+      <c r="C121" s="242"/>
+      <c r="D121" s="242"/>
+      <c r="E121" s="163">
         <f>'Presupuesto de Inversion'!C142</f>
         <v>3257202.1073752288</v>
       </c>
-      <c r="F121" s="253">
+      <c r="F121" s="163">
         <f>'Presupuesto de Inversion'!D142</f>
         <v>6436851.7836224753</v>
       </c>
-      <c r="G121" s="253">
+      <c r="G121" s="163">
         <f>'Presupuesto de Inversion'!E142</f>
         <v>8763424.717461925</v>
       </c>
-      <c r="H121" s="253">
+      <c r="H121" s="163">
         <f>'Presupuesto de Inversion'!F142</f>
         <v>16014577.027928207</v>
       </c>
-      <c r="I121" s="253">
+      <c r="I121" s="163">
         <f>'Presupuesto de Inversion'!G142</f>
         <v>5079684.2388827978</v>
       </c>
-      <c r="J121" s="253">
+      <c r="J121" s="163">
         <f>'Presupuesto de Inversion'!H142</f>
         <v>4265383.7120389901</v>
       </c>
-      <c r="K121" s="253">
+      <c r="K121" s="163">
         <f>'Presupuesto de Inversion'!I142</f>
         <v>6708285.2925704112</v>
       </c>
-      <c r="L121" s="253">
+      <c r="L121" s="163">
         <f>'Presupuesto de Inversion'!J142</f>
         <v>17759506.728307799</v>
       </c>
-      <c r="M121" s="253">
+      <c r="M121" s="163">
         <f>'Presupuesto de Inversion'!K142</f>
         <v>17604401.86605183</v>
       </c>
-      <c r="N121" s="253">
+      <c r="N121" s="163">
         <f>'Presupuesto de Inversion'!L142</f>
         <v>14153318.680856649</v>
       </c>
-      <c r="O121" s="253">
+      <c r="O121" s="163">
         <f>'Presupuesto de Inversion'!M142</f>
         <v>5932760.9812905956</v>
       </c>
-      <c r="P121" s="253">
+      <c r="P121" s="163">
         <f>'Presupuesto de Inversion'!N142</f>
         <v>3993950.2030910542</v>
       </c>
       <c r="Q121" s="162"/>
     </row>
     <row r="122" spans="1:17">
-      <c r="B122" s="188" t="s">
+      <c r="B122" s="208" t="s">
         <v>525</v>
       </c>
-      <c r="C122" s="188"/>
-      <c r="D122" s="188"/>
+      <c r="C122" s="208"/>
+      <c r="D122" s="208"/>
       <c r="E122" s="161">
         <v>0</v>
       </c>
@@ -16045,67 +16046,67 @@
       <c r="Q122" s="162"/>
     </row>
     <row r="123" spans="1:17">
-      <c r="B123" s="252" t="s">
+      <c r="B123" s="242" t="s">
         <v>509</v>
       </c>
-      <c r="C123" s="252"/>
-      <c r="D123" s="252"/>
-      <c r="E123" s="255">
+      <c r="C123" s="242"/>
+      <c r="D123" s="242"/>
+      <c r="E123" s="165">
         <f>E121-E122</f>
         <v>3257202.1073752288</v>
       </c>
-      <c r="F123" s="255">
+      <c r="F123" s="165">
         <f t="shared" ref="F123:P123" si="34">F121-F122</f>
         <v>6436851.7836224753</v>
       </c>
-      <c r="G123" s="255">
+      <c r="G123" s="165">
         <f t="shared" si="34"/>
         <v>8763424.717461925</v>
       </c>
-      <c r="H123" s="255">
+      <c r="H123" s="165">
         <f t="shared" si="34"/>
         <v>16014577.027928207</v>
       </c>
-      <c r="I123" s="255">
+      <c r="I123" s="165">
         <f t="shared" si="34"/>
         <v>5079684.2388827978</v>
       </c>
-      <c r="J123" s="255">
+      <c r="J123" s="165">
         <f t="shared" si="34"/>
         <v>4265383.7120389901</v>
       </c>
-      <c r="K123" s="255">
+      <c r="K123" s="165">
         <f t="shared" si="34"/>
         <v>6708285.2925704112</v>
       </c>
-      <c r="L123" s="255">
+      <c r="L123" s="165">
         <f t="shared" si="34"/>
         <v>17759506.728307799</v>
       </c>
-      <c r="M123" s="255">
+      <c r="M123" s="165">
         <f t="shared" si="34"/>
         <v>17604401.86605183</v>
       </c>
-      <c r="N123" s="255">
+      <c r="N123" s="165">
         <f t="shared" si="34"/>
         <v>14153318.680856649</v>
       </c>
-      <c r="O123" s="255">
+      <c r="O123" s="165">
         <f t="shared" si="34"/>
         <v>5932760.9812905956</v>
       </c>
-      <c r="P123" s="255">
+      <c r="P123" s="165">
         <f t="shared" si="34"/>
         <v>3993950.2030910542</v>
       </c>
       <c r="Q123" s="162"/>
     </row>
     <row r="124" spans="1:17">
-      <c r="B124" s="188" t="s">
+      <c r="B124" s="208" t="s">
         <v>510</v>
       </c>
-      <c r="C124" s="188"/>
-      <c r="D124" s="188"/>
+      <c r="C124" s="208"/>
+      <c r="D124" s="208"/>
       <c r="E124" s="161">
         <f>'Demanda Dinamica'!C13*'Presupuesto de Inversion'!$E$78</f>
         <v>265618.09166666667</v>
@@ -16157,67 +16158,67 @@
       <c r="Q124" s="162"/>
     </row>
     <row r="125" spans="1:17">
-      <c r="B125" s="252" t="s">
+      <c r="B125" s="242" t="s">
         <v>511</v>
       </c>
-      <c r="C125" s="252"/>
-      <c r="D125" s="252"/>
-      <c r="E125" s="254">
+      <c r="C125" s="242"/>
+      <c r="D125" s="242"/>
+      <c r="E125" s="164">
         <f>E123-E124</f>
         <v>2991584.015708562</v>
       </c>
-      <c r="F125" s="254">
+      <c r="F125" s="164">
         <f t="shared" ref="F125:P125" si="35">F123-F124</f>
         <v>5911939.8405669201</v>
       </c>
-      <c r="G125" s="254">
+      <c r="G125" s="164">
         <f t="shared" si="35"/>
         <v>8048785.5660730358</v>
       </c>
-      <c r="H125" s="254">
+      <c r="H125" s="164">
         <f t="shared" si="35"/>
         <v>14708621.410567096</v>
       </c>
-      <c r="I125" s="254">
+      <c r="I125" s="164">
         <f t="shared" si="35"/>
         <v>4665446.5006883536</v>
       </c>
-      <c r="J125" s="254">
+      <c r="J125" s="164">
         <f t="shared" si="35"/>
         <v>3917550.4967612121</v>
       </c>
-      <c r="K125" s="254">
+      <c r="K125" s="164">
         <f t="shared" si="35"/>
         <v>6161238.5085426336</v>
       </c>
-      <c r="L125" s="254">
+      <c r="L125" s="164">
         <f t="shared" si="35"/>
         <v>16311255.704696687</v>
       </c>
-      <c r="M125" s="254">
+      <c r="M125" s="164">
         <f t="shared" si="35"/>
         <v>16168799.322996275</v>
       </c>
-      <c r="N125" s="254">
+      <c r="N125" s="164">
         <f t="shared" si="35"/>
         <v>12999144.830162205</v>
       </c>
-      <c r="O125" s="254">
+      <c r="O125" s="164">
         <f t="shared" si="35"/>
         <v>5448956.600040596</v>
       </c>
-      <c r="P125" s="254">
+      <c r="P125" s="164">
         <f t="shared" si="35"/>
         <v>3668251.8287854986</v>
       </c>
       <c r="Q125" s="162"/>
     </row>
     <row r="126" spans="1:17">
-      <c r="B126" s="188" t="s">
+      <c r="B126" s="208" t="s">
         <v>512</v>
       </c>
-      <c r="C126" s="188"/>
-      <c r="D126" s="188"/>
+      <c r="C126" s="208"/>
+      <c r="D126" s="208"/>
       <c r="E126" s="161">
         <f>E127+E128</f>
         <v>3685753.2642984781</v>
@@ -16269,11 +16270,11 @@
       <c r="Q126" s="162"/>
     </row>
     <row r="127" spans="1:17">
-      <c r="B127" s="216" t="s">
+      <c r="B127" s="243" t="s">
         <v>523</v>
       </c>
-      <c r="C127" s="217"/>
-      <c r="D127" s="218"/>
+      <c r="C127" s="244"/>
+      <c r="D127" s="245"/>
       <c r="E127" s="161">
         <f>('Presupuesto de Inversion'!$C$156/12)</f>
         <v>888796.59763181175</v>
@@ -16325,11 +16326,11 @@
       <c r="Q127" s="162"/>
     </row>
     <row r="128" spans="1:17">
-      <c r="B128" s="216" t="s">
+      <c r="B128" s="243" t="s">
         <v>524</v>
       </c>
-      <c r="C128" s="217"/>
-      <c r="D128" s="218"/>
+      <c r="C128" s="244"/>
+      <c r="D128" s="245"/>
       <c r="E128" s="161">
         <f>'Demanda Dinamica'!J36+'Demanda Dinamica'!J39+'Demanda Dinamica'!J42+('Presupuesto de Inversion'!$E$71/12)</f>
         <v>2796956.6666666665</v>
@@ -16381,11 +16382,11 @@
       <c r="Q128" s="162"/>
     </row>
     <row r="129" spans="2:17">
-      <c r="B129" s="188" t="s">
+      <c r="B129" s="208" t="s">
         <v>513</v>
       </c>
-      <c r="C129" s="188"/>
-      <c r="D129" s="188"/>
+      <c r="C129" s="208"/>
+      <c r="D129" s="208"/>
       <c r="E129" s="161">
         <f>E130</f>
         <v>382040</v>
@@ -16437,11 +16438,11 @@
       <c r="Q129" s="162"/>
     </row>
     <row r="130" spans="2:17">
-      <c r="B130" s="216" t="s">
+      <c r="B130" s="243" t="s">
         <v>522</v>
       </c>
-      <c r="C130" s="217"/>
-      <c r="D130" s="218"/>
+      <c r="C130" s="244"/>
+      <c r="D130" s="245"/>
       <c r="E130" s="161">
         <f>'Demanda Dinamica'!J36+('Presupuesto de Inversion'!$E$106/12)+'Presupuesto de Inversion'!$D$108+('Presupuesto de Inversion'!$E$110/12)+('Presupuesto de Inversion'!$E$111/12)+('Presupuesto de Inversion'!$E$112/12)</f>
         <v>382040</v>
@@ -16493,67 +16494,67 @@
       <c r="Q130" s="162"/>
     </row>
     <row r="131" spans="2:17">
-      <c r="B131" s="252" t="s">
+      <c r="B131" s="242" t="s">
         <v>514</v>
       </c>
-      <c r="C131" s="252"/>
-      <c r="D131" s="252"/>
-      <c r="E131" s="255">
+      <c r="C131" s="242"/>
+      <c r="D131" s="242"/>
+      <c r="E131" s="165">
         <f>E125-(E126+E129)</f>
         <v>-1076209.2485899162</v>
       </c>
-      <c r="F131" s="255">
+      <c r="F131" s="165">
         <f t="shared" ref="F131:P131" si="38">F125-(F126+F129)</f>
         <v>2044146.576268442</v>
       </c>
-      <c r="G131" s="255">
+      <c r="G131" s="165">
         <f t="shared" si="38"/>
         <v>4180992.3017745577</v>
       </c>
-      <c r="H131" s="255">
+      <c r="H131" s="165">
         <f t="shared" si="38"/>
         <v>9924488.1462686174</v>
       </c>
-      <c r="I131" s="255">
+      <c r="I131" s="165">
         <f t="shared" si="38"/>
         <v>-98686.763610124588</v>
       </c>
-      <c r="J131" s="255">
+      <c r="J131" s="165">
         <f t="shared" si="38"/>
         <v>-3510822.767537266</v>
       </c>
-      <c r="K131" s="255">
+      <c r="K131" s="165">
         <f t="shared" si="38"/>
         <v>-1267134.7557558445</v>
       </c>
-      <c r="L131" s="255">
+      <c r="L131" s="165">
         <f t="shared" si="38"/>
         <v>8882882.4403982088</v>
       </c>
-      <c r="M131" s="255">
+      <c r="M131" s="165">
         <f t="shared" si="38"/>
         <v>8740426.0586977974</v>
       </c>
-      <c r="N131" s="255">
+      <c r="N131" s="165">
         <f t="shared" si="38"/>
         <v>4274431.5658637267</v>
       </c>
-      <c r="O131" s="255">
+      <c r="O131" s="165">
         <f t="shared" si="38"/>
         <v>-1979416.6642578822</v>
       </c>
-      <c r="P131" s="255">
+      <c r="P131" s="165">
         <f t="shared" si="38"/>
         <v>-3760121.4355129795</v>
       </c>
       <c r="Q131" s="162"/>
     </row>
     <row r="132" spans="2:17">
-      <c r="B132" s="188" t="s">
+      <c r="B132" s="208" t="s">
         <v>515</v>
       </c>
-      <c r="C132" s="188"/>
-      <c r="D132" s="188"/>
+      <c r="C132" s="208"/>
+      <c r="D132" s="208"/>
       <c r="E132" s="161"/>
       <c r="F132" s="161"/>
       <c r="G132" s="161"/>
@@ -16569,11 +16570,11 @@
       <c r="Q132" s="162"/>
     </row>
     <row r="133" spans="2:17">
-      <c r="B133" s="188" t="s">
+      <c r="B133" s="208" t="s">
         <v>516</v>
       </c>
-      <c r="C133" s="188"/>
-      <c r="D133" s="188"/>
+      <c r="C133" s="208"/>
+      <c r="D133" s="208"/>
       <c r="E133" s="161">
         <f>H59</f>
         <v>143213.09586082425</v>
@@ -16625,67 +16626,67 @@
       <c r="Q133" s="162"/>
     </row>
     <row r="134" spans="2:17">
-      <c r="B134" s="252" t="s">
+      <c r="B134" s="242" t="s">
         <v>517</v>
       </c>
-      <c r="C134" s="252"/>
-      <c r="D134" s="252"/>
-      <c r="E134" s="255">
+      <c r="C134" s="242"/>
+      <c r="D134" s="242"/>
+      <c r="E134" s="165">
         <f>E131+E132-E133</f>
         <v>-1219422.3444507404</v>
       </c>
-      <c r="F134" s="255">
+      <c r="F134" s="165">
         <f t="shared" ref="F134:P134" si="40">F131+F132-F133</f>
         <v>1900933.4804076178</v>
       </c>
-      <c r="G134" s="255">
+      <c r="G134" s="165">
         <f t="shared" si="40"/>
         <v>4048410.0820337618</v>
       </c>
-      <c r="H134" s="255">
+      <c r="H134" s="165">
         <f t="shared" si="40"/>
         <v>9802757.7625216097</v>
       </c>
-      <c r="I134" s="255">
+      <c r="I134" s="165">
         <f t="shared" si="40"/>
         <v>-209339.75889859904</v>
       </c>
-      <c r="J134" s="255">
+      <c r="J134" s="165">
         <f t="shared" si="40"/>
         <v>-4360168.1338557247</v>
       </c>
-      <c r="K134" s="255">
+      <c r="K134" s="165">
         <f t="shared" si="40"/>
         <v>-1339348.9207391606</v>
       </c>
-      <c r="L134" s="255">
+      <c r="L134" s="165">
         <f t="shared" si="40"/>
         <v>8072774.8450362552</v>
       </c>
-      <c r="M134" s="255">
+      <c r="M134" s="165">
         <f t="shared" si="40"/>
         <v>8708265.2110868506</v>
       </c>
-      <c r="N134" s="255">
+      <c r="N134" s="165">
         <f t="shared" si="40"/>
         <v>4255209.7852008305</v>
       </c>
-      <c r="O134" s="255">
+      <c r="O134" s="165">
         <f t="shared" si="40"/>
         <v>-1985430.4429793048</v>
       </c>
-      <c r="P134" s="255">
+      <c r="P134" s="165">
         <f t="shared" si="40"/>
         <v>-3760121.4355129795</v>
       </c>
       <c r="Q134" s="162"/>
     </row>
     <row r="135" spans="2:17">
-      <c r="B135" s="188" t="s">
+      <c r="B135" s="208" t="s">
         <v>518</v>
       </c>
-      <c r="C135" s="188"/>
-      <c r="D135" s="188"/>
+      <c r="C135" s="208"/>
+      <c r="D135" s="208"/>
       <c r="E135" s="161">
         <f>'Presupuesto de Inversion'!C140</f>
         <v>532818.25260550447</v>
@@ -16737,67 +16738,67 @@
       <c r="Q135" s="162"/>
     </row>
     <row r="136" spans="2:17">
-      <c r="B136" s="252" t="s">
+      <c r="B136" s="242" t="s">
         <v>519</v>
       </c>
-      <c r="C136" s="252"/>
-      <c r="D136" s="252"/>
-      <c r="E136" s="255">
+      <c r="C136" s="242"/>
+      <c r="D136" s="242"/>
+      <c r="E136" s="165">
         <f>E134-E135</f>
         <v>-1752240.597056245</v>
       </c>
-      <c r="F136" s="255">
+      <c r="F136" s="165">
         <f t="shared" ref="F136:P136" si="41">F134-F135</f>
         <v>847983.12406816846</v>
       </c>
-      <c r="G136" s="255">
+      <c r="G136" s="165">
         <f t="shared" si="41"/>
         <v>2614875.2595475232</v>
       </c>
-      <c r="H136" s="255">
+      <c r="H136" s="165">
         <f t="shared" si="41"/>
         <v>7183068.0205445457</v>
       </c>
-      <c r="I136" s="255">
+      <c r="I136" s="165">
         <f t="shared" si="41"/>
         <v>-1040282.509985755</v>
       </c>
-      <c r="J136" s="255">
+      <c r="J136" s="165">
         <f t="shared" si="41"/>
         <v>-5057906.3217915045</v>
       </c>
-      <c r="K136" s="255">
+      <c r="K136" s="165">
         <f t="shared" si="41"/>
         <v>-2436700.7981290687</v>
       </c>
-      <c r="L136" s="255">
+      <c r="L136" s="165">
         <f t="shared" si="41"/>
         <v>5167646.7534490991</v>
       </c>
-      <c r="M136" s="255">
+      <c r="M136" s="165">
         <f t="shared" si="41"/>
         <v>5828509.4172428148</v>
       </c>
-      <c r="N136" s="255">
+      <c r="N136" s="165">
         <f t="shared" si="41"/>
         <v>1939987.6161411982</v>
       </c>
-      <c r="O136" s="255">
+      <c r="O136" s="165">
         <f t="shared" si="41"/>
         <v>-2955920.8316536164</v>
       </c>
-      <c r="P136" s="255">
+      <c r="P136" s="165">
         <f t="shared" si="41"/>
         <v>-4413458.1023983005</v>
       </c>
       <c r="Q136" s="162"/>
     </row>
     <row r="137" spans="2:17">
-      <c r="B137" s="188" t="s">
+      <c r="B137" s="208" t="s">
         <v>520</v>
       </c>
-      <c r="C137" s="188"/>
-      <c r="D137" s="188"/>
+      <c r="C137" s="208"/>
+      <c r="D137" s="208"/>
       <c r="E137" s="161">
         <f>E136*0.1</f>
         <v>-175224.0597056245</v>
@@ -16849,82 +16850,82 @@
       <c r="Q137" s="162"/>
     </row>
     <row r="138" spans="2:17">
-      <c r="B138" s="252" t="s">
+      <c r="B138" s="242" t="s">
         <v>521</v>
       </c>
-      <c r="C138" s="252"/>
-      <c r="D138" s="252"/>
-      <c r="E138" s="255">
+      <c r="C138" s="242"/>
+      <c r="D138" s="242"/>
+      <c r="E138" s="165">
         <f>E136-E137</f>
         <v>-1577016.5373506204</v>
       </c>
-      <c r="F138" s="255">
+      <c r="F138" s="165">
         <f t="shared" ref="F138:P138" si="43">F136-F137</f>
         <v>763184.81166135159</v>
       </c>
-      <c r="G138" s="255">
+      <c r="G138" s="165">
         <f t="shared" si="43"/>
         <v>2353387.733592771</v>
       </c>
-      <c r="H138" s="255">
+      <c r="H138" s="165">
         <f t="shared" si="43"/>
         <v>6464761.2184900912</v>
       </c>
-      <c r="I138" s="255">
+      <c r="I138" s="165">
         <f t="shared" si="43"/>
         <v>-936254.25898717949</v>
       </c>
-      <c r="J138" s="255">
+      <c r="J138" s="165">
         <f t="shared" si="43"/>
         <v>-4552115.6896123542</v>
       </c>
-      <c r="K138" s="255">
+      <c r="K138" s="165">
         <f t="shared" si="43"/>
         <v>-2193030.718316162</v>
       </c>
-      <c r="L138" s="255">
+      <c r="L138" s="165">
         <f t="shared" si="43"/>
         <v>4650882.0781041896</v>
       </c>
-      <c r="M138" s="255">
+      <c r="M138" s="165">
         <f t="shared" si="43"/>
         <v>5245658.475518533</v>
       </c>
-      <c r="N138" s="255">
+      <c r="N138" s="165">
         <f t="shared" si="43"/>
         <v>1745988.8545270783</v>
       </c>
-      <c r="O138" s="255">
+      <c r="O138" s="165">
         <f t="shared" si="43"/>
         <v>-2660328.7484882548</v>
       </c>
-      <c r="P138" s="255">
+      <c r="P138" s="165">
         <f t="shared" si="43"/>
         <v>-3972112.2921584705</v>
       </c>
       <c r="Q138" s="162"/>
     </row>
     <row r="139" spans="2:17">
-      <c r="B139" s="219"/>
-      <c r="C139" s="219"/>
-      <c r="D139" s="219"/>
+      <c r="B139" s="247"/>
+      <c r="C139" s="247"/>
+      <c r="D139" s="247"/>
     </row>
     <row r="140" spans="2:17">
-      <c r="B140" s="229" t="s">
+      <c r="B140" s="232" t="s">
         <v>527</v>
       </c>
-      <c r="C140" s="229"/>
-      <c r="D140" s="229"/>
-      <c r="E140" s="229"/>
-      <c r="F140" s="229"/>
-      <c r="G140" s="229"/>
+      <c r="C140" s="232"/>
+      <c r="D140" s="232"/>
+      <c r="E140" s="232"/>
+      <c r="F140" s="232"/>
+      <c r="G140" s="232"/>
     </row>
     <row r="141" spans="2:17">
-      <c r="B141" s="187" t="s">
+      <c r="B141" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C141" s="187"/>
-      <c r="D141" s="187"/>
+      <c r="C141" s="190"/>
+      <c r="D141" s="190"/>
       <c r="E141" s="160" t="s">
         <v>2</v>
       </c>
@@ -16937,31 +16938,31 @@
       <c r="K141" s="162"/>
     </row>
     <row r="142" spans="2:17">
-      <c r="B142" s="252" t="s">
+      <c r="B142" s="242" t="s">
         <v>508</v>
       </c>
-      <c r="C142" s="252"/>
-      <c r="D142" s="252"/>
-      <c r="E142" s="256">
+      <c r="C142" s="242"/>
+      <c r="D142" s="242"/>
+      <c r="E142" s="166">
         <f>SUM(E121:P121)</f>
         <v>109969347.33947797</v>
       </c>
-      <c r="F142" s="256">
+      <c r="F142" s="166">
         <f>E142+(E142*'Demanda Dinamica'!S6)</f>
         <v>118766895.12663621</v>
       </c>
-      <c r="G142" s="256">
+      <c r="G142" s="166">
         <f>E142+(E142*'Demanda Dinamica'!S7)</f>
         <v>126464749.44039966</v>
       </c>
       <c r="K142" s="162"/>
     </row>
     <row r="143" spans="2:17">
-      <c r="B143" s="188" t="s">
+      <c r="B143" s="208" t="s">
         <v>525</v>
       </c>
-      <c r="C143" s="188"/>
-      <c r="D143" s="188"/>
+      <c r="C143" s="208"/>
+      <c r="D143" s="208"/>
       <c r="E143" s="40">
         <f>SUM(E122:P122)</f>
         <v>0</v>
@@ -16974,30 +16975,30 @@
       </c>
     </row>
     <row r="144" spans="2:17">
-      <c r="B144" s="252" t="s">
+      <c r="B144" s="242" t="s">
         <v>509</v>
       </c>
-      <c r="C144" s="252"/>
-      <c r="D144" s="252"/>
-      <c r="E144" s="256">
+      <c r="C144" s="242"/>
+      <c r="D144" s="242"/>
+      <c r="E144" s="166">
         <f>E142-E143</f>
         <v>109969347.33947797</v>
       </c>
-      <c r="F144" s="256">
+      <c r="F144" s="166">
         <f t="shared" ref="F144:G144" si="44">F142-F143</f>
         <v>118766895.12663621</v>
       </c>
-      <c r="G144" s="256">
+      <c r="G144" s="166">
         <f t="shared" si="44"/>
         <v>126464749.44039966</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="B145" s="188" t="s">
+      <c r="B145" s="208" t="s">
         <v>510</v>
       </c>
-      <c r="C145" s="188"/>
-      <c r="D145" s="188"/>
+      <c r="C145" s="208"/>
+      <c r="D145" s="208"/>
       <c r="E145" s="40">
         <f>SUM(E124:P124)</f>
         <v>8967772.7138888892</v>
@@ -17012,31 +17013,31 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="B146" s="252" t="s">
+      <c r="B146" s="242" t="s">
         <v>511</v>
       </c>
-      <c r="C146" s="252"/>
-      <c r="D146" s="252"/>
-      <c r="E146" s="256">
+      <c r="C146" s="242"/>
+      <c r="D146" s="242"/>
+      <c r="E146" s="166">
         <f>E144-E145</f>
         <v>101001574.62558909</v>
       </c>
-      <c r="F146" s="256">
+      <c r="F146" s="166">
         <f t="shared" ref="F146:G146" si="45">F144-F145</f>
         <v>109261056.04991399</v>
       </c>
-      <c r="G146" s="256">
+      <c r="G146" s="166">
         <f t="shared" si="45"/>
         <v>116341030.82369049</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="162"/>
-      <c r="B147" s="188" t="s">
+      <c r="B147" s="208" t="s">
         <v>512</v>
       </c>
-      <c r="C147" s="188"/>
-      <c r="D147" s="188"/>
+      <c r="C147" s="208"/>
+      <c r="D147" s="208"/>
       <c r="E147" s="40">
         <f>E148+E149</f>
         <v>56200089.171581745</v>
@@ -17052,11 +17053,11 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="162"/>
-      <c r="B148" s="215" t="s">
+      <c r="B148" s="246" t="s">
         <v>523</v>
       </c>
-      <c r="C148" s="215"/>
-      <c r="D148" s="215"/>
+      <c r="C148" s="246"/>
+      <c r="D148" s="246"/>
       <c r="E148" s="40">
         <f>SUM(E127:P127)</f>
         <v>10665559.171581743</v>
@@ -17071,11 +17072,11 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="B149" s="215" t="s">
+      <c r="B149" s="246" t="s">
         <v>524</v>
       </c>
-      <c r="C149" s="215"/>
-      <c r="D149" s="215"/>
+      <c r="C149" s="246"/>
+      <c r="D149" s="246"/>
       <c r="E149" s="40">
         <f>SUM(E128:P128)</f>
         <v>45534530</v>
@@ -17090,11 +17091,11 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="B150" s="188" t="s">
+      <c r="B150" s="208" t="s">
         <v>513</v>
       </c>
-      <c r="C150" s="188"/>
-      <c r="D150" s="188"/>
+      <c r="C150" s="208"/>
+      <c r="D150" s="208"/>
       <c r="E150" s="40">
         <f>E151</f>
         <v>18446510</v>
@@ -17109,11 +17110,11 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="B151" s="215" t="s">
+      <c r="B151" s="246" t="s">
         <v>522</v>
       </c>
-      <c r="C151" s="215"/>
-      <c r="D151" s="215"/>
+      <c r="C151" s="246"/>
+      <c r="D151" s="246"/>
       <c r="E151" s="40">
         <f>SUM(E130:P130)</f>
         <v>18446510</v>
@@ -17128,30 +17129,30 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="B152" s="252" t="s">
+      <c r="B152" s="242" t="s">
         <v>514</v>
       </c>
-      <c r="C152" s="252"/>
-      <c r="D152" s="252"/>
-      <c r="E152" s="256">
+      <c r="C152" s="242"/>
+      <c r="D152" s="242"/>
+      <c r="E152" s="166">
         <f>E146-E147-E150</f>
         <v>26354975.454007342</v>
       </c>
-      <c r="F152" s="256">
+      <c r="F152" s="166">
         <f t="shared" ref="F152:G152" si="48">F146-F147-F150</f>
         <v>29987263.463828169</v>
       </c>
-      <c r="G152" s="256">
+      <c r="G152" s="166">
         <f t="shared" si="48"/>
         <v>34085987.425788969</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="B153" s="188" t="s">
+      <c r="B153" s="208" t="s">
         <v>515</v>
       </c>
-      <c r="C153" s="188"/>
-      <c r="D153" s="188"/>
+      <c r="C153" s="208"/>
+      <c r="D153" s="208"/>
       <c r="E153" s="40">
         <f>SUM(E132:P132)</f>
         <v>0</v>
@@ -17166,11 +17167,11 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="B154" s="188" t="s">
+      <c r="B154" s="208" t="s">
         <v>516</v>
       </c>
-      <c r="C154" s="188"/>
-      <c r="D154" s="188"/>
+      <c r="C154" s="208"/>
+      <c r="D154" s="208"/>
       <c r="E154" s="40">
         <f>SUM(E133:P133)</f>
         <v>2440455.3241569204</v>
@@ -17185,30 +17186,30 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="B155" s="252" t="s">
+      <c r="B155" s="242" t="s">
         <v>517</v>
       </c>
-      <c r="C155" s="252"/>
-      <c r="D155" s="252"/>
-      <c r="E155" s="256">
+      <c r="C155" s="242"/>
+      <c r="D155" s="242"/>
+      <c r="E155" s="166">
         <f>E152+E153-E154</f>
         <v>23914520.129850421</v>
       </c>
-      <c r="F155" s="256">
+      <c r="F155" s="166">
         <f t="shared" ref="F155:G155" si="49">F152+F153-F154</f>
         <v>27400380.820221834</v>
       </c>
-      <c r="G155" s="256">
+      <c r="G155" s="166">
         <f t="shared" si="49"/>
         <v>31330957.410348222</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="B156" s="188" t="s">
+      <c r="B156" s="208" t="s">
         <v>518</v>
       </c>
-      <c r="C156" s="188"/>
-      <c r="D156" s="188"/>
+      <c r="C156" s="208"/>
+      <c r="D156" s="208"/>
       <c r="E156" s="40">
         <f>SUM(E135:P135)</f>
         <v>17988959.099871557</v>
@@ -17223,30 +17224,30 @@
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="B157" s="252" t="s">
+      <c r="B157" s="242" t="s">
         <v>519</v>
       </c>
-      <c r="C157" s="252"/>
-      <c r="D157" s="252"/>
-      <c r="E157" s="256">
+      <c r="C157" s="242"/>
+      <c r="D157" s="242"/>
+      <c r="E157" s="166">
         <f>E155-E156</f>
         <v>5925561.0299788639</v>
       </c>
-      <c r="F157" s="256">
+      <c r="F157" s="166">
         <f t="shared" ref="F157:G157" si="50">F155-F156</f>
         <v>8332084.1743579842</v>
       </c>
-      <c r="G157" s="256">
+      <c r="G157" s="166">
         <f t="shared" si="50"/>
         <v>11023221.48250322</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="B158" s="188" t="s">
+      <c r="B158" s="208" t="s">
         <v>520</v>
       </c>
-      <c r="C158" s="188"/>
-      <c r="D158" s="188"/>
+      <c r="C158" s="208"/>
+      <c r="D158" s="208"/>
       <c r="E158" s="40">
         <f>E157*0.1</f>
         <v>592556.10299788637</v>
@@ -17261,78 +17262,102 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="B159" s="252" t="s">
+      <c r="B159" s="242" t="s">
         <v>521</v>
       </c>
-      <c r="C159" s="252"/>
-      <c r="D159" s="252"/>
-      <c r="E159" s="256">
+      <c r="C159" s="242"/>
+      <c r="D159" s="242"/>
+      <c r="E159" s="166">
         <f>E157-E158</f>
         <v>5333004.9269809779</v>
       </c>
-      <c r="F159" s="256">
+      <c r="F159" s="166">
         <f t="shared" ref="F159:G159" si="52">F157-F158</f>
         <v>7498875.7569221854</v>
       </c>
-      <c r="G159" s="256">
+      <c r="G159" s="166">
         <f t="shared" si="52"/>
         <v>9920899.3342528977</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="C53:D61"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B93:J93"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="B110:D114"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="C105:D108"/>
-    <mergeCell ref="B95:B109"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="C95:D104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="B79:B91"/>
-    <mergeCell ref="C84:D90"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C79:D83"/>
-    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B119:P119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="C72:F72"/>
     <mergeCell ref="C73:F73"/>
@@ -17357,82 +17382,58 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B119:P119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="B79:B91"/>
+    <mergeCell ref="C84:D90"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C79:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B93:J93"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="B110:D114"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="C105:D108"/>
+    <mergeCell ref="B95:B109"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C95:D104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="C53:D61"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17470,10 +17471,10 @@
         <f>'Presupuesto de Inversion'!C209</f>
         <v>22967679.680968828</v>
       </c>
-      <c r="J2" s="249" t="s">
+      <c r="J2" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="249"/>
+      <c r="K2" s="250"/>
     </row>
     <row r="3" spans="2:12">
       <c r="J3" s="142" t="s">
@@ -17492,14 +17493,14 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="248" t="s">
         <v>450</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
       <c r="J5" s="142" t="s">
         <v>4</v>
       </c>
@@ -17508,10 +17509,10 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="187"/>
+      <c r="C6" s="190"/>
       <c r="D6" s="61" t="s">
         <v>418</v>
       </c>
@@ -17526,10 +17527,10 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="208" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="188"/>
+      <c r="C7" s="208"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
         <f>'Analisis Financiero'!T74</f>
@@ -17545,10 +17546,10 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="208" t="s">
         <v>501</v>
       </c>
-      <c r="C8" s="188"/>
+      <c r="C8" s="208"/>
       <c r="D8" s="19">
         <f>C2*0.7</f>
         <v>16077375.776678178</v>
@@ -17562,17 +17563,17 @@
       <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="251" t="s">
+      <c r="J8" s="252" t="s">
         <v>502</v>
       </c>
-      <c r="K8" s="251"/>
-      <c r="L8" s="251"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="252"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="208" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="188"/>
+      <c r="C9" s="208"/>
       <c r="D9" s="19">
         <f>C2*0.3</f>
         <v>6890303.9042906482</v>
@@ -17597,10 +17598,10 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="208" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="188"/>
+      <c r="C10" s="208"/>
       <c r="D10" s="19">
         <f>SUM(D8:D9)</f>
         <v>22967679.680968828</v>
@@ -17630,10 +17631,10 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="250" t="s">
+      <c r="B11" s="251" t="s">
         <v>448</v>
       </c>
-      <c r="C11" s="250"/>
+      <c r="C11" s="251"/>
       <c r="D11" s="119">
         <f>D7-D10</f>
         <v>-22967679.680968828</v>
@@ -17677,12 +17678,12 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="249" t="s">
         <v>451</v>
       </c>
-      <c r="C13" s="248"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="248"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="61" t="s">
@@ -17789,10 +17790,10 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="190" t="s">
         <v>475</v>
       </c>
-      <c r="C32" s="187"/>
+      <c r="C32" s="190"/>
       <c r="D32" s="122" t="s">
         <v>2</v>
       </c>
@@ -17804,20 +17805,20 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="243" t="s">
+      <c r="B33" s="256" t="s">
         <v>476</v>
       </c>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
       <c r="J33" s="150"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="188" t="s">
+      <c r="B34" s="208" t="s">
         <v>477</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="208"/>
       <c r="D34" s="19">
         <f>'Presupuesto de Inversion'!E172</f>
         <v>48303010</v>
@@ -17832,10 +17833,10 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="188" t="s">
+      <c r="B35" s="208" t="s">
         <v>478</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="208"/>
       <c r="D35" s="19">
         <f>'Presupuesto de Inversion'!O196</f>
         <v>94678732.104587138</v>
@@ -17850,10 +17851,10 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="188" t="s">
+      <c r="B36" s="208" t="s">
         <v>479</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="208"/>
       <c r="D36" s="19">
         <f>'Presupuesto de Inversion'!E182</f>
         <v>10665559.171581741</v>
@@ -17886,19 +17887,19 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="233" t="s">
         <v>481</v>
       </c>
-      <c r="C38" s="226"/>
-      <c r="D38" s="226"/>
-      <c r="E38" s="226"/>
-      <c r="F38" s="226"/>
+      <c r="C38" s="233"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="233"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="226" t="s">
+      <c r="B39" s="233" t="s">
         <v>477</v>
       </c>
-      <c r="C39" s="226"/>
+      <c r="C39" s="233"/>
       <c r="D39" s="19">
         <f>D34</f>
         <v>48303010</v>
@@ -17913,10 +17914,10 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="226" t="s">
+      <c r="B40" s="233" t="s">
         <v>482</v>
       </c>
-      <c r="C40" s="226"/>
+      <c r="C40" s="233"/>
       <c r="D40" s="19">
         <f>'Presupuesto de Inversion'!D188</f>
         <v>29349.100917431191</v>
@@ -17931,10 +17932,10 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="226" t="s">
+      <c r="B41" s="233" t="s">
         <v>483</v>
       </c>
-      <c r="C41" s="226"/>
+      <c r="C41" s="233"/>
       <c r="D41" s="19">
         <f>'Presupuesto de Inversion'!D189</f>
         <v>4892.4583355879549</v>
@@ -17949,10 +17950,10 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="244" t="s">
+      <c r="B42" s="253" t="s">
         <v>484</v>
       </c>
-      <c r="C42" s="244"/>
+      <c r="C42" s="253"/>
       <c r="D42" s="134">
         <f>D39/(D40-D41)</f>
         <v>1975.0466499379786</v>
@@ -17967,19 +17968,19 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="226" t="s">
+      <c r="B43" s="233" t="s">
         <v>485</v>
       </c>
-      <c r="C43" s="226"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="226"/>
-      <c r="F43" s="226"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
+      <c r="E43" s="233"/>
+      <c r="F43" s="233"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="226" t="s">
+      <c r="B44" s="233" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="226"/>
+      <c r="C44" s="233"/>
       <c r="D44" s="19">
         <f>D34</f>
         <v>48303010</v>
@@ -17994,10 +17995,10 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="226" t="s">
+      <c r="B45" s="233" t="s">
         <v>486</v>
       </c>
-      <c r="C45" s="226"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="19">
         <f>D36</f>
         <v>10665559.171581741</v>
@@ -18012,10 +18013,10 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="226" t="s">
+      <c r="B46" s="233" t="s">
         <v>478</v>
       </c>
-      <c r="C46" s="226"/>
+      <c r="C46" s="233"/>
       <c r="D46" s="19">
         <f>D35</f>
         <v>94678732.104587138</v>
@@ -18030,10 +18031,10 @@
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="244" t="s">
+      <c r="B47" s="253" t="s">
         <v>487</v>
       </c>
-      <c r="C47" s="244"/>
+      <c r="C47" s="253"/>
       <c r="D47" s="120">
         <f>D44/(1-(D45/D46))</f>
         <v>54435127.063729085</v>
@@ -18048,19 +18049,19 @@
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="226" t="s">
+      <c r="B48" s="233" t="s">
         <v>500</v>
       </c>
-      <c r="C48" s="226"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
-      <c r="F48" s="226"/>
+      <c r="C48" s="233"/>
+      <c r="D48" s="233"/>
+      <c r="E48" s="233"/>
+      <c r="F48" s="233"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="226" t="s">
+      <c r="B49" s="233" t="s">
         <v>488</v>
       </c>
-      <c r="C49" s="226"/>
+      <c r="C49" s="233"/>
       <c r="D49" s="19">
         <f>D47</f>
         <v>54435127.063729085</v>
@@ -18075,10 +18076,10 @@
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="245" t="s">
+      <c r="B50" s="254" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="246"/>
+      <c r="C50" s="255"/>
       <c r="D50" s="19">
         <f>D35</f>
         <v>94678732.104587138</v>
@@ -18093,10 +18094,10 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="226" t="s">
+      <c r="B51" s="233" t="s">
         <v>489</v>
       </c>
-      <c r="C51" s="226"/>
+      <c r="C51" s="233"/>
       <c r="D51" s="2">
         <v>243</v>
       </c>
@@ -18112,10 +18113,10 @@
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="244" t="s">
+      <c r="B52" s="253" t="s">
         <v>490</v>
       </c>
-      <c r="C52" s="244"/>
+      <c r="C52" s="253"/>
       <c r="D52" s="149">
         <f>D49/(D50/D51)</f>
         <v>139.71179780770734</v>
@@ -18435,6 +18436,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="J2:K2"/>
@@ -18445,26 +18466,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18572,36 +18573,36 @@
       <c r="H6" s="124"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="190" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="180" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="180" t="s">
         <v>470</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="180" t="s">
         <v>471</v>
       </c>
-      <c r="F8" s="168" t="s">
+      <c r="F8" s="180" t="s">
         <v>472</v>
       </c>
-      <c r="G8" s="168" t="s">
+      <c r="G8" s="180" t="s">
         <v>473</v>
       </c>
-      <c r="H8" s="168" t="s">
+      <c r="H8" s="180" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="187"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="129">
